--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14235" windowHeight="6405"/>
+    <workbookView windowWidth="18810" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -25,6 +25,9 @@
     <t>是否回复</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>凡克伍德旗舰店</t>
   </si>
   <si>
@@ -50,6 +53,21 @@
   </si>
   <si>
     <t>QQ:7239892</t>
+  </si>
+  <si>
+    <t>金鹭鲤旗舰店</t>
+  </si>
+  <si>
+    <t>运营晚上9点半上班</t>
+  </si>
+  <si>
+    <t>roome智如易旗舰店</t>
+  </si>
+  <si>
+    <t>wx:18605613145</t>
+  </si>
+  <si>
+    <t>潜力股，运营刚换新</t>
   </si>
 </sst>
 </file>
@@ -57,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +101,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -90,9 +129,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,114 +213,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,145 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +454,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,11 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,21 +522,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,7 +714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,20 +1036,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1034,53 +1059,78 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="roome智如易旗舰店" tooltip="https://roome.world.tmall.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18810" windowHeight="9180"/>
+    <workbookView windowWidth="15815" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -68,6 +68,36 @@
   </si>
   <si>
     <t>潜力股，运营刚换新</t>
+  </si>
+  <si>
+    <t>恒河鲨温州专卖店</t>
+  </si>
+  <si>
+    <t>QQ:1912200653</t>
+  </si>
+  <si>
+    <t>芙兰笛旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:18996820</t>
+  </si>
+  <si>
+    <t>已添加</t>
+  </si>
+  <si>
+    <t>妮西蝶旗舰店</t>
+  </si>
+  <si>
+    <t>QQ：3146602761</t>
+  </si>
+  <si>
+    <t>晚上11点在</t>
+  </si>
+  <si>
+    <t>gracegift旗舰店</t>
+  </si>
+  <si>
+    <t>运营白天上班</t>
   </si>
 </sst>
 </file>
@@ -107,6 +137,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,6 +145,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -123,14 +182,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +227,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,29 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -196,60 +280,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +481,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,11 +519,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,21 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -525,32 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,137 +601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +745,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,18 +1069,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="28.6296296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1064,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1125,6 +1158,50 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15815" windowHeight="8244"/>
+    <workbookView windowWidth="18810" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -98,6 +98,51 @@
   </si>
   <si>
     <t>运营白天上班</t>
+  </si>
+  <si>
+    <t>凡麦旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:2810415398</t>
+  </si>
+  <si>
+    <t>相信永恒2014</t>
+  </si>
+  <si>
+    <t>QQ：3263241974</t>
+  </si>
+  <si>
+    <t>别忘记自己曾经的理想</t>
+  </si>
+  <si>
+    <t>QQ：2495811542</t>
+  </si>
+  <si>
+    <t>小玉精品购物</t>
+  </si>
+  <si>
+    <t>QQ：3088950861</t>
+  </si>
+  <si>
+    <t>小鑫够物</t>
+  </si>
+  <si>
+    <t>QQ:137994302</t>
+  </si>
+  <si>
+    <t>纯松旗舰店（男装）</t>
+  </si>
+  <si>
+    <t>QQ：123459816</t>
+  </si>
+  <si>
+    <t>有考虑合作推广</t>
+  </si>
+  <si>
+    <t>窝居鞋业</t>
+  </si>
+  <si>
+    <t>QQ：3168948438</t>
   </si>
 </sst>
 </file>
@@ -105,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -137,91 +182,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,25 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,54 +335,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,19 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,103 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,41 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,16 +544,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -576,8 +586,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,18 +1114,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="28.6296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.6333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1097,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1196,12 +1241,92 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18810" windowHeight="9180"/>
+    <workbookView windowWidth="15815" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -143,6 +143,39 @@
   </si>
   <si>
     <t>QQ：3168948438</t>
+  </si>
+  <si>
+    <t>正道正数码专营店</t>
+  </si>
+  <si>
+    <t>qq:965142531</t>
+  </si>
+  <si>
+    <t>已回复</t>
+  </si>
+  <si>
+    <t>打算报名，要了报名链接</t>
+  </si>
+  <si>
+    <t>壹点创意数码专营店</t>
+  </si>
+  <si>
+    <t>QQ：89006412</t>
+  </si>
+  <si>
+    <t>盈速数码专营店</t>
+  </si>
+  <si>
+    <t>QQ：1318881579</t>
+  </si>
+  <si>
+    <t>智承企业车品店</t>
+  </si>
+  <si>
+    <t>香香公主324751386</t>
+  </si>
+  <si>
+    <t>已报名2款手机配件</t>
   </si>
 </sst>
 </file>
@@ -150,15 +183,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,6 +222,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -196,23 +263,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,22 +287,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,9 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,53 +357,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +585,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,6 +623,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,39 +670,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -611,21 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,154 +705,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,224 +1185,266 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.6333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="28.6296296296296" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="17.4" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="roome智如易旗舰店" tooltip="https://roome.world.tmall.com/"/>
+    <hyperlink ref="A20" r:id="rId2" display="壹点创意数码专营店" tooltip="https://ydcysm.tmall.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15815" windowHeight="8244"/>
+    <workbookView windowWidth="18870" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>已报名2款手机配件</t>
+  </si>
+  <si>
+    <t>亲润旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2974171908</t>
+  </si>
+  <si>
+    <t>婴姿坊兴睿专卖店</t>
+  </si>
+  <si>
+    <t>q:138705076</t>
+  </si>
+  <si>
+    <t>小甜甜母婴旗舰店</t>
+  </si>
+  <si>
+    <t>扣扣3002994610</t>
   </si>
 </sst>
 </file>
@@ -183,12 +201,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,12 +259,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -272,7 +293,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,38 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -348,30 +351,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +614,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,15 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -623,6 +652,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,39 +706,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -693,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,137 +734,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +893,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,18 +1226,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="28.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="28.6333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1213,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1257,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1342,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1389,7 +1430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1400,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
+    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1439,6 +1480,30 @@
       </c>
       <c r="D22" s="9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8205"/>
+    <workbookView windowWidth="15815" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>扣扣3002994610</t>
+  </si>
+  <si>
+    <t>十月妈咪旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:26672351</t>
+  </si>
+  <si>
+    <t>永信天下(华为荣耀分销商)</t>
   </si>
 </sst>
 </file>
@@ -201,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -271,6 +280,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,7 +294,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,47 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,8 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,47 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,6 +650,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,30 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -706,6 +706,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,9 +904,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +912,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1226,18 +1235,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="28.6333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="28.6296296296296" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1254,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="22" s="1" customFormat="1" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1482,28 +1491,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:2">
-      <c r="A25" s="10" t="s">
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15815" windowHeight="8244"/>
+    <workbookView windowWidth="18870" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -28,6 +28,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>到期时间</t>
+  </si>
+  <si>
     <t>凡克伍德旗舰店</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>已报名2款手机配件</t>
   </si>
   <si>
+    <t>19-05-06~2019-06-09</t>
+  </si>
+  <si>
     <t>亲润旗舰店</t>
   </si>
   <si>
@@ -203,6 +209,33 @@
   </si>
   <si>
     <t>永信天下(华为荣耀分销商)</t>
+  </si>
+  <si>
+    <t>5.7号报名其他团队一周，13号记得回访</t>
+  </si>
+  <si>
+    <t>鑫悦影音专营店</t>
+  </si>
+  <si>
+    <t>QQ:1620771165</t>
+  </si>
+  <si>
+    <t>jbl联乐专卖店</t>
+  </si>
+  <si>
+    <t>微信：gu03122011</t>
+  </si>
+  <si>
+    <t>已报名7款JBL耳机</t>
+  </si>
+  <si>
+    <t>19-05-08~19-05-22</t>
+  </si>
+  <si>
+    <t>beyerdynamic旗舰店</t>
+  </si>
+  <si>
+    <t>5月9号记得再次主动联系</t>
   </si>
 </sst>
 </file>
@@ -210,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +259,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,6 +319,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="8"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -287,12 +333,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -300,9 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,63 +453,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,187 +478,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,8 +675,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,65 +769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,138 +789,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -883,14 +935,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -898,23 +950,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1235,297 +1308,339 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="28.6296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="17.4" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E22" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="3" t="s">
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B24" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+    <row r="25" ht="16.5" spans="1:2">
+      <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="13" t="s">
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8205"/>
+    <workbookView windowWidth="17195" windowHeight="6875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>5月9号记得再次主动联系</t>
+  </si>
+  <si>
+    <t>创鸿化妆品专营</t>
+  </si>
+  <si>
+    <t>透蜜旗舰店</t>
+  </si>
+  <si>
+    <t>V:514127851</t>
   </si>
 </sst>
 </file>
@@ -243,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -333,7 +342,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,32 +388,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,39 +426,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,39 +463,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,20 +681,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,7 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,21 +747,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -755,17 +761,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,17 +936,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,9 +962,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,17 +977,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1308,339 +1302,355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="17.4" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A22" s="10" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:2">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="17" t="s">
+    <row r="27" s="2" customFormat="1" spans="1:5">
+      <c r="A27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="B27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="20" t="s">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A29" s="21" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17195" windowHeight="6875"/>
+    <workbookView windowWidth="18870" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -235,6 +235,9 @@
     <t>beyerdynamic旗舰店</t>
   </si>
   <si>
+    <t>QQ:119711645</t>
+  </si>
+  <si>
     <t>5月9号记得再次主动联系</t>
   </si>
   <si>
@@ -245,6 +248,45 @@
   </si>
   <si>
     <t>V:514127851</t>
+  </si>
+  <si>
+    <t>素萃旗舰店</t>
+  </si>
+  <si>
+    <t>QQ :3446783    微信：Ak-566</t>
+  </si>
+  <si>
+    <t>瓷妆旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:519323693</t>
+  </si>
+  <si>
+    <t>bincavidou旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:956702323</t>
+  </si>
+  <si>
+    <t>thefaceshop官方店</t>
+  </si>
+  <si>
+    <t>QQ:1186589500</t>
+  </si>
+  <si>
+    <t>魅丝蔻蓝蒂丝专卖店</t>
+  </si>
+  <si>
+    <t>QQ:2533880541</t>
+  </si>
+  <si>
+    <t>美伊佳美妆</t>
+  </si>
+  <si>
+    <t>报名一款眼盘</t>
+  </si>
+  <si>
+    <t>19-05-09~19-05-23</t>
   </si>
 </sst>
 </file>
@@ -252,12 +294,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +376,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF6C25EA"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -341,8 +408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +418,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +464,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +486,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -396,33 +501,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,15 +522,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,21 +537,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,7 +547,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,25 +613,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,13 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,43 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,37 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,37 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,16 +742,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +780,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -725,23 +818,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,24 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,137 +858,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +996,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -980,7 +1043,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,356 +1377,2586 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+    <row r="9" ht="14.25" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="14.25" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="14.25" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="14.25" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="14.25" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="14.25" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="14.25" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="4" t="s">
+    <row r="25" ht="16.5" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="14" t="s">
+    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
-      <c r="A29" s="16" t="s">
+    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="17" t="s">
+      <c r="D30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="17" t="s">
+    </row>
+    <row r="31" ht="14.25" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:2">
+      <c r="A34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
+      <c r="A35" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:2">
+      <c r="A36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:2">
+      <c r="A37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A38" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="D38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:1">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:1">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:1">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:1">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:1">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:1">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:1">
+      <c r="A45" s="22"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:1">
+      <c r="A46" s="22"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:1">
+      <c r="A47" s="22"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:1">
+      <c r="A48" s="22"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:1">
+      <c r="A49" s="22"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:1">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:1">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:1">
+      <c r="A52" s="22"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:1">
+      <c r="A53" s="22"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:1">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" ht="14.25" spans="1:1">
+      <c r="A55" s="22"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:1">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:1">
+      <c r="A57" s="22"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:1">
+      <c r="A58" s="22"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:1">
+      <c r="A59" s="22"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:1">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:1">
+      <c r="A61" s="22"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:1">
+      <c r="A62" s="22"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:1">
+      <c r="A63" s="22"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:1">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" ht="14.25" spans="1:1">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:1">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:1">
+      <c r="A67" s="22"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:1">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:1">
+      <c r="A69" s="22"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:1">
+      <c r="A70" s="22"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:1">
+      <c r="A71" s="22"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:1">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:1">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:1">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" ht="14.25" spans="1:1">
+      <c r="A75" s="22"/>
+    </row>
+    <row r="76" ht="14.25" spans="1:1">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:1">
+      <c r="A77" s="22"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:1">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:1">
+      <c r="A79" s="22"/>
+    </row>
+    <row r="80" ht="14.25" spans="1:1">
+      <c r="A80" s="22"/>
+    </row>
+    <row r="81" ht="14.25" spans="1:1">
+      <c r="A81" s="22"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:1">
+      <c r="A82" s="22"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:1">
+      <c r="A83" s="22"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:1">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" ht="14.25" spans="1:1">
+      <c r="A85" s="22"/>
+    </row>
+    <row r="86" ht="14.25" spans="1:1">
+      <c r="A86" s="22"/>
+    </row>
+    <row r="87" ht="14.25" spans="1:1">
+      <c r="A87" s="22"/>
+    </row>
+    <row r="88" ht="14.25" spans="1:1">
+      <c r="A88" s="22"/>
+    </row>
+    <row r="89" ht="14.25" spans="1:1">
+      <c r="A89" s="22"/>
+    </row>
+    <row r="90" ht="14.25" spans="1:1">
+      <c r="A90" s="22"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:1">
+      <c r="A91" s="22"/>
+    </row>
+    <row r="92" ht="14.25" spans="1:1">
+      <c r="A92" s="22"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:1">
+      <c r="A93" s="22"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:1">
+      <c r="A94" s="22"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:1">
+      <c r="A95" s="22"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:1">
+      <c r="A96" s="22"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:1">
+      <c r="A97" s="22"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:1">
+      <c r="A98" s="22"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:1">
+      <c r="A99" s="22"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:1">
+      <c r="A100" s="22"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:1">
+      <c r="A101" s="22"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:1">
+      <c r="A102" s="22"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:1">
+      <c r="A103" s="22"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:1">
+      <c r="A104" s="22"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:1">
+      <c r="A105" s="22"/>
+    </row>
+    <row r="106" ht="14.25" spans="1:1">
+      <c r="A106" s="22"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:1">
+      <c r="A107" s="22"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:1">
+      <c r="A108" s="22"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:1">
+      <c r="A109" s="22"/>
+    </row>
+    <row r="110" ht="14.25" spans="1:1">
+      <c r="A110" s="22"/>
+    </row>
+    <row r="111" ht="14.25" spans="1:1">
+      <c r="A111" s="22"/>
+    </row>
+    <row r="112" ht="14.25" spans="1:1">
+      <c r="A112" s="22"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:1">
+      <c r="A113" s="22"/>
+    </row>
+    <row r="114" ht="14.25" spans="1:1">
+      <c r="A114" s="22"/>
+    </row>
+    <row r="115" ht="14.25" spans="1:1">
+      <c r="A115" s="22"/>
+    </row>
+    <row r="116" ht="14.25" spans="1:1">
+      <c r="A116" s="22"/>
+    </row>
+    <row r="117" ht="14.25" spans="1:1">
+      <c r="A117" s="22"/>
+    </row>
+    <row r="118" ht="14.25" spans="1:1">
+      <c r="A118" s="22"/>
+    </row>
+    <row r="119" ht="14.25" spans="1:1">
+      <c r="A119" s="22"/>
+    </row>
+    <row r="120" ht="14.25" spans="1:1">
+      <c r="A120" s="22"/>
+    </row>
+    <row r="121" ht="14.25" spans="1:1">
+      <c r="A121" s="22"/>
+    </row>
+    <row r="122" ht="14.25" spans="1:1">
+      <c r="A122" s="22"/>
+    </row>
+    <row r="123" ht="14.25" spans="1:1">
+      <c r="A123" s="22"/>
+    </row>
+    <row r="124" ht="14.25" spans="1:1">
+      <c r="A124" s="22"/>
+    </row>
+    <row r="125" ht="14.25" spans="1:1">
+      <c r="A125" s="22"/>
+    </row>
+    <row r="126" ht="14.25" spans="1:1">
+      <c r="A126" s="22"/>
+    </row>
+    <row r="127" ht="14.25" spans="1:1">
+      <c r="A127" s="22"/>
+    </row>
+    <row r="128" ht="14.25" spans="1:1">
+      <c r="A128" s="22"/>
+    </row>
+    <row r="129" ht="14.25" spans="1:1">
+      <c r="A129" s="22"/>
+    </row>
+    <row r="130" ht="14.25" spans="1:1">
+      <c r="A130" s="22"/>
+    </row>
+    <row r="131" ht="14.25" spans="1:1">
+      <c r="A131" s="22"/>
+    </row>
+    <row r="132" ht="14.25" spans="1:1">
+      <c r="A132" s="22"/>
+    </row>
+    <row r="133" ht="14.25" spans="1:1">
+      <c r="A133" s="22"/>
+    </row>
+    <row r="134" ht="14.25" spans="1:1">
+      <c r="A134" s="22"/>
+    </row>
+    <row r="135" ht="14.25" spans="1:1">
+      <c r="A135" s="22"/>
+    </row>
+    <row r="136" ht="14.25" spans="1:1">
+      <c r="A136" s="22"/>
+    </row>
+    <row r="137" ht="14.25" spans="1:1">
+      <c r="A137" s="22"/>
+    </row>
+    <row r="138" ht="14.25" spans="1:1">
+      <c r="A138" s="22"/>
+    </row>
+    <row r="139" ht="14.25" spans="1:1">
+      <c r="A139" s="22"/>
+    </row>
+    <row r="140" ht="14.25" spans="1:1">
+      <c r="A140" s="22"/>
+    </row>
+    <row r="141" ht="14.25" spans="1:1">
+      <c r="A141" s="22"/>
+    </row>
+    <row r="142" ht="14.25" spans="1:1">
+      <c r="A142" s="22"/>
+    </row>
+    <row r="143" ht="14.25" spans="1:1">
+      <c r="A143" s="22"/>
+    </row>
+    <row r="144" ht="14.25" spans="1:1">
+      <c r="A144" s="22"/>
+    </row>
+    <row r="145" ht="14.25" spans="1:1">
+      <c r="A145" s="22"/>
+    </row>
+    <row r="146" ht="14.25" spans="1:1">
+      <c r="A146" s="22"/>
+    </row>
+    <row r="147" ht="14.25" spans="1:1">
+      <c r="A147" s="22"/>
+    </row>
+    <row r="148" ht="14.25" spans="1:1">
+      <c r="A148" s="22"/>
+    </row>
+    <row r="149" ht="14.25" spans="1:1">
+      <c r="A149" s="22"/>
+    </row>
+    <row r="150" ht="14.25" spans="1:1">
+      <c r="A150" s="22"/>
+    </row>
+    <row r="151" ht="14.25" spans="1:1">
+      <c r="A151" s="22"/>
+    </row>
+    <row r="152" ht="14.25" spans="1:1">
+      <c r="A152" s="22"/>
+    </row>
+    <row r="153" ht="14.25" spans="1:1">
+      <c r="A153" s="22"/>
+    </row>
+    <row r="154" ht="14.25" spans="1:1">
+      <c r="A154" s="22"/>
+    </row>
+    <row r="155" ht="14.25" spans="1:1">
+      <c r="A155" s="22"/>
+    </row>
+    <row r="156" ht="14.25" spans="1:1">
+      <c r="A156" s="22"/>
+    </row>
+    <row r="157" ht="14.25" spans="1:1">
+      <c r="A157" s="22"/>
+    </row>
+    <row r="158" ht="14.25" spans="1:1">
+      <c r="A158" s="22"/>
+    </row>
+    <row r="159" ht="14.25" spans="1:1">
+      <c r="A159" s="22"/>
+    </row>
+    <row r="160" ht="14.25" spans="1:1">
+      <c r="A160" s="22"/>
+    </row>
+    <row r="161" ht="14.25" spans="1:1">
+      <c r="A161" s="22"/>
+    </row>
+    <row r="162" ht="14.25" spans="1:1">
+      <c r="A162" s="22"/>
+    </row>
+    <row r="163" ht="14.25" spans="1:1">
+      <c r="A163" s="22"/>
+    </row>
+    <row r="164" ht="14.25" spans="1:1">
+      <c r="A164" s="22"/>
+    </row>
+    <row r="165" ht="14.25" spans="1:1">
+      <c r="A165" s="22"/>
+    </row>
+    <row r="166" ht="14.25" spans="1:1">
+      <c r="A166" s="22"/>
+    </row>
+    <row r="167" ht="14.25" spans="1:1">
+      <c r="A167" s="22"/>
+    </row>
+    <row r="168" ht="14.25" spans="1:1">
+      <c r="A168" s="22"/>
+    </row>
+    <row r="169" ht="14.25" spans="1:1">
+      <c r="A169" s="22"/>
+    </row>
+    <row r="170" ht="14.25" spans="1:1">
+      <c r="A170" s="22"/>
+    </row>
+    <row r="171" ht="14.25" spans="1:1">
+      <c r="A171" s="22"/>
+    </row>
+    <row r="172" ht="14.25" spans="1:1">
+      <c r="A172" s="22"/>
+    </row>
+    <row r="173" ht="14.25" spans="1:1">
+      <c r="A173" s="22"/>
+    </row>
+    <row r="174" ht="14.25" spans="1:1">
+      <c r="A174" s="22"/>
+    </row>
+    <row r="175" ht="14.25" spans="1:1">
+      <c r="A175" s="22"/>
+    </row>
+    <row r="176" ht="14.25" spans="1:1">
+      <c r="A176" s="22"/>
+    </row>
+    <row r="177" ht="14.25" spans="1:1">
+      <c r="A177" s="22"/>
+    </row>
+    <row r="178" ht="14.25" spans="1:1">
+      <c r="A178" s="22"/>
+    </row>
+    <row r="179" ht="14.25" spans="1:1">
+      <c r="A179" s="22"/>
+    </row>
+    <row r="180" ht="14.25" spans="1:1">
+      <c r="A180" s="22"/>
+    </row>
+    <row r="181" ht="14.25" spans="1:1">
+      <c r="A181" s="22"/>
+    </row>
+    <row r="182" ht="14.25" spans="1:1">
+      <c r="A182" s="22"/>
+    </row>
+    <row r="183" ht="14.25" spans="1:1">
+      <c r="A183" s="22"/>
+    </row>
+    <row r="184" ht="14.25" spans="1:1">
+      <c r="A184" s="22"/>
+    </row>
+    <row r="185" ht="14.25" spans="1:1">
+      <c r="A185" s="22"/>
+    </row>
+    <row r="186" ht="14.25" spans="1:1">
+      <c r="A186" s="22"/>
+    </row>
+    <row r="187" ht="14.25" spans="1:1">
+      <c r="A187" s="22"/>
+    </row>
+    <row r="188" ht="14.25" spans="1:1">
+      <c r="A188" s="22"/>
+    </row>
+    <row r="189" ht="14.25" spans="1:1">
+      <c r="A189" s="22"/>
+    </row>
+    <row r="190" ht="14.25" spans="1:1">
+      <c r="A190" s="22"/>
+    </row>
+    <row r="191" ht="14.25" spans="1:1">
+      <c r="A191" s="22"/>
+    </row>
+    <row r="192" ht="14.25" spans="1:1">
+      <c r="A192" s="22"/>
+    </row>
+    <row r="193" ht="14.25" spans="1:1">
+      <c r="A193" s="22"/>
+    </row>
+    <row r="194" ht="14.25" spans="1:1">
+      <c r="A194" s="22"/>
+    </row>
+    <row r="195" ht="14.25" spans="1:1">
+      <c r="A195" s="22"/>
+    </row>
+    <row r="196" ht="14.25" spans="1:1">
+      <c r="A196" s="22"/>
+    </row>
+    <row r="197" ht="14.25" spans="1:1">
+      <c r="A197" s="22"/>
+    </row>
+    <row r="198" ht="14.25" spans="1:1">
+      <c r="A198" s="22"/>
+    </row>
+    <row r="199" ht="14.25" spans="1:1">
+      <c r="A199" s="22"/>
+    </row>
+    <row r="200" ht="14.25" spans="1:1">
+      <c r="A200" s="22"/>
+    </row>
+    <row r="201" ht="14.25" spans="1:1">
+      <c r="A201" s="22"/>
+    </row>
+    <row r="202" ht="14.25" spans="1:1">
+      <c r="A202" s="22"/>
+    </row>
+    <row r="203" ht="14.25" spans="1:1">
+      <c r="A203" s="22"/>
+    </row>
+    <row r="204" ht="14.25" spans="1:1">
+      <c r="A204" s="22"/>
+    </row>
+    <row r="205" ht="14.25" spans="1:1">
+      <c r="A205" s="22"/>
+    </row>
+    <row r="206" ht="14.25" spans="1:1">
+      <c r="A206" s="22"/>
+    </row>
+    <row r="207" ht="14.25" spans="1:1">
+      <c r="A207" s="22"/>
+    </row>
+    <row r="208" ht="14.25" spans="1:1">
+      <c r="A208" s="22"/>
+    </row>
+    <row r="209" ht="14.25" spans="1:1">
+      <c r="A209" s="22"/>
+    </row>
+    <row r="210" ht="14.25" spans="1:1">
+      <c r="A210" s="22"/>
+    </row>
+    <row r="211" ht="14.25" spans="1:1">
+      <c r="A211" s="22"/>
+    </row>
+    <row r="212" ht="14.25" spans="1:1">
+      <c r="A212" s="22"/>
+    </row>
+    <row r="213" ht="14.25" spans="1:1">
+      <c r="A213" s="22"/>
+    </row>
+    <row r="214" ht="14.25" spans="1:1">
+      <c r="A214" s="22"/>
+    </row>
+    <row r="215" ht="14.25" spans="1:1">
+      <c r="A215" s="22"/>
+    </row>
+    <row r="216" ht="14.25" spans="1:1">
+      <c r="A216" s="22"/>
+    </row>
+    <row r="217" ht="14.25" spans="1:1">
+      <c r="A217" s="22"/>
+    </row>
+    <row r="218" ht="14.25" spans="1:1">
+      <c r="A218" s="22"/>
+    </row>
+    <row r="219" ht="14.25" spans="1:1">
+      <c r="A219" s="22"/>
+    </row>
+    <row r="220" ht="14.25" spans="1:1">
+      <c r="A220" s="22"/>
+    </row>
+    <row r="221" ht="14.25" spans="1:1">
+      <c r="A221" s="22"/>
+    </row>
+    <row r="222" ht="14.25" spans="1:1">
+      <c r="A222" s="22"/>
+    </row>
+    <row r="223" ht="14.25" spans="1:1">
+      <c r="A223" s="22"/>
+    </row>
+    <row r="224" ht="14.25" spans="1:1">
+      <c r="A224" s="22"/>
+    </row>
+    <row r="225" ht="14.25" spans="1:1">
+      <c r="A225" s="22"/>
+    </row>
+    <row r="226" ht="14.25" spans="1:1">
+      <c r="A226" s="22"/>
+    </row>
+    <row r="227" ht="14.25" spans="1:1">
+      <c r="A227" s="22"/>
+    </row>
+    <row r="228" ht="14.25" spans="1:1">
+      <c r="A228" s="22"/>
+    </row>
+    <row r="229" ht="14.25" spans="1:1">
+      <c r="A229" s="22"/>
+    </row>
+    <row r="230" ht="14.25" spans="1:1">
+      <c r="A230" s="22"/>
+    </row>
+    <row r="231" ht="14.25" spans="1:1">
+      <c r="A231" s="22"/>
+    </row>
+    <row r="232" ht="14.25" spans="1:1">
+      <c r="A232" s="22"/>
+    </row>
+    <row r="233" ht="14.25" spans="1:1">
+      <c r="A233" s="22"/>
+    </row>
+    <row r="234" ht="14.25" spans="1:1">
+      <c r="A234" s="22"/>
+    </row>
+    <row r="235" ht="14.25" spans="1:1">
+      <c r="A235" s="22"/>
+    </row>
+    <row r="236" ht="14.25" spans="1:1">
+      <c r="A236" s="22"/>
+    </row>
+    <row r="237" ht="14.25" spans="1:1">
+      <c r="A237" s="22"/>
+    </row>
+    <row r="238" ht="14.25" spans="1:1">
+      <c r="A238" s="22"/>
+    </row>
+    <row r="239" ht="14.25" spans="1:1">
+      <c r="A239" s="22"/>
+    </row>
+    <row r="240" ht="14.25" spans="1:1">
+      <c r="A240" s="22"/>
+    </row>
+    <row r="241" ht="14.25" spans="1:1">
+      <c r="A241" s="22"/>
+    </row>
+    <row r="242" ht="14.25" spans="1:1">
+      <c r="A242" s="22"/>
+    </row>
+    <row r="243" ht="14.25" spans="1:1">
+      <c r="A243" s="22"/>
+    </row>
+    <row r="244" ht="14.25" spans="1:1">
+      <c r="A244" s="22"/>
+    </row>
+    <row r="245" ht="14.25" spans="1:1">
+      <c r="A245" s="22"/>
+    </row>
+    <row r="246" ht="14.25" spans="1:1">
+      <c r="A246" s="22"/>
+    </row>
+    <row r="247" ht="14.25" spans="1:1">
+      <c r="A247" s="22"/>
+    </row>
+    <row r="248" ht="14.25" spans="1:1">
+      <c r="A248" s="22"/>
+    </row>
+    <row r="249" ht="14.25" spans="1:1">
+      <c r="A249" s="22"/>
+    </row>
+    <row r="250" ht="14.25" spans="1:1">
+      <c r="A250" s="22"/>
+    </row>
+    <row r="251" ht="14.25" spans="1:1">
+      <c r="A251" s="22"/>
+    </row>
+    <row r="252" ht="14.25" spans="1:1">
+      <c r="A252" s="22"/>
+    </row>
+    <row r="253" ht="14.25" spans="1:1">
+      <c r="A253" s="22"/>
+    </row>
+    <row r="254" ht="14.25" spans="1:1">
+      <c r="A254" s="22"/>
+    </row>
+    <row r="255" ht="14.25" spans="1:1">
+      <c r="A255" s="22"/>
+    </row>
+    <row r="256" ht="14.25" spans="1:1">
+      <c r="A256" s="22"/>
+    </row>
+    <row r="257" ht="14.25" spans="1:1">
+      <c r="A257" s="22"/>
+    </row>
+    <row r="258" ht="14.25" spans="1:1">
+      <c r="A258" s="22"/>
+    </row>
+    <row r="259" ht="14.25" spans="1:1">
+      <c r="A259" s="22"/>
+    </row>
+    <row r="260" ht="14.25" spans="1:1">
+      <c r="A260" s="22"/>
+    </row>
+    <row r="261" ht="14.25" spans="1:1">
+      <c r="A261" s="22"/>
+    </row>
+    <row r="262" ht="14.25" spans="1:1">
+      <c r="A262" s="22"/>
+    </row>
+    <row r="263" ht="14.25" spans="1:1">
+      <c r="A263" s="22"/>
+    </row>
+    <row r="264" ht="14.25" spans="1:1">
+      <c r="A264" s="22"/>
+    </row>
+    <row r="265" ht="14.25" spans="1:1">
+      <c r="A265" s="22"/>
+    </row>
+    <row r="266" ht="14.25" spans="1:1">
+      <c r="A266" s="22"/>
+    </row>
+    <row r="267" ht="14.25" spans="1:1">
+      <c r="A267" s="22"/>
+    </row>
+    <row r="268" ht="14.25" spans="1:1">
+      <c r="A268" s="22"/>
+    </row>
+    <row r="269" ht="14.25" spans="1:1">
+      <c r="A269" s="22"/>
+    </row>
+    <row r="270" ht="14.25" spans="1:1">
+      <c r="A270" s="22"/>
+    </row>
+    <row r="271" ht="14.25" spans="1:1">
+      <c r="A271" s="22"/>
+    </row>
+    <row r="272" ht="14.25" spans="1:1">
+      <c r="A272" s="22"/>
+    </row>
+    <row r="273" ht="14.25" spans="1:1">
+      <c r="A273" s="22"/>
+    </row>
+    <row r="274" ht="14.25" spans="1:1">
+      <c r="A274" s="22"/>
+    </row>
+    <row r="275" ht="14.25" spans="1:1">
+      <c r="A275" s="22"/>
+    </row>
+    <row r="276" ht="14.25" spans="1:1">
+      <c r="A276" s="22"/>
+    </row>
+    <row r="277" ht="14.25" spans="1:1">
+      <c r="A277" s="22"/>
+    </row>
+    <row r="278" ht="14.25" spans="1:1">
+      <c r="A278" s="22"/>
+    </row>
+    <row r="279" ht="14.25" spans="1:1">
+      <c r="A279" s="22"/>
+    </row>
+    <row r="280" ht="14.25" spans="1:1">
+      <c r="A280" s="22"/>
+    </row>
+    <row r="281" ht="14.25" spans="1:1">
+      <c r="A281" s="22"/>
+    </row>
+    <row r="282" ht="14.25" spans="1:1">
+      <c r="A282" s="22"/>
+    </row>
+    <row r="283" ht="14.25" spans="1:1">
+      <c r="A283" s="22"/>
+    </row>
+    <row r="284" ht="14.25" spans="1:1">
+      <c r="A284" s="22"/>
+    </row>
+    <row r="285" ht="14.25" spans="1:1">
+      <c r="A285" s="22"/>
+    </row>
+    <row r="286" ht="14.25" spans="1:1">
+      <c r="A286" s="22"/>
+    </row>
+    <row r="287" ht="14.25" spans="1:1">
+      <c r="A287" s="22"/>
+    </row>
+    <row r="288" ht="14.25" spans="1:1">
+      <c r="A288" s="22"/>
+    </row>
+    <row r="289" ht="14.25" spans="1:1">
+      <c r="A289" s="22"/>
+    </row>
+    <row r="290" ht="14.25" spans="1:1">
+      <c r="A290" s="22"/>
+    </row>
+    <row r="291" ht="14.25" spans="1:1">
+      <c r="A291" s="22"/>
+    </row>
+    <row r="292" ht="14.25" spans="1:1">
+      <c r="A292" s="22"/>
+    </row>
+    <row r="293" ht="14.25" spans="1:1">
+      <c r="A293" s="22"/>
+    </row>
+    <row r="294" ht="14.25" spans="1:1">
+      <c r="A294" s="22"/>
+    </row>
+    <row r="295" ht="14.25" spans="1:1">
+      <c r="A295" s="22"/>
+    </row>
+    <row r="296" ht="14.25" spans="1:1">
+      <c r="A296" s="22"/>
+    </row>
+    <row r="297" ht="14.25" spans="1:1">
+      <c r="A297" s="22"/>
+    </row>
+    <row r="298" ht="14.25" spans="1:1">
+      <c r="A298" s="22"/>
+    </row>
+    <row r="299" ht="14.25" spans="1:1">
+      <c r="A299" s="22"/>
+    </row>
+    <row r="300" ht="14.25" spans="1:1">
+      <c r="A300" s="22"/>
+    </row>
+    <row r="301" ht="14.25" spans="1:1">
+      <c r="A301" s="22"/>
+    </row>
+    <row r="302" ht="14.25" spans="1:1">
+      <c r="A302" s="22"/>
+    </row>
+    <row r="303" ht="14.25" spans="1:1">
+      <c r="A303" s="22"/>
+    </row>
+    <row r="304" ht="14.25" spans="1:1">
+      <c r="A304" s="22"/>
+    </row>
+    <row r="305" ht="14.25" spans="1:1">
+      <c r="A305" s="22"/>
+    </row>
+    <row r="306" ht="14.25" spans="1:1">
+      <c r="A306" s="22"/>
+    </row>
+    <row r="307" ht="14.25" spans="1:1">
+      <c r="A307" s="22"/>
+    </row>
+    <row r="308" ht="14.25" spans="1:1">
+      <c r="A308" s="22"/>
+    </row>
+    <row r="309" ht="14.25" spans="1:1">
+      <c r="A309" s="22"/>
+    </row>
+    <row r="310" ht="14.25" spans="1:1">
+      <c r="A310" s="22"/>
+    </row>
+    <row r="311" ht="14.25" spans="1:1">
+      <c r="A311" s="22"/>
+    </row>
+    <row r="312" ht="14.25" spans="1:1">
+      <c r="A312" s="22"/>
+    </row>
+    <row r="313" ht="14.25" spans="1:1">
+      <c r="A313" s="22"/>
+    </row>
+    <row r="314" ht="14.25" spans="1:1">
+      <c r="A314" s="22"/>
+    </row>
+    <row r="315" ht="14.25" spans="1:1">
+      <c r="A315" s="22"/>
+    </row>
+    <row r="316" ht="14.25" spans="1:1">
+      <c r="A316" s="22"/>
+    </row>
+    <row r="317" ht="14.25" spans="1:1">
+      <c r="A317" s="22"/>
+    </row>
+    <row r="318" ht="14.25" spans="1:1">
+      <c r="A318" s="22"/>
+    </row>
+    <row r="319" ht="14.25" spans="1:1">
+      <c r="A319" s="22"/>
+    </row>
+    <row r="320" ht="14.25" spans="1:1">
+      <c r="A320" s="22"/>
+    </row>
+    <row r="321" ht="14.25" spans="1:1">
+      <c r="A321" s="22"/>
+    </row>
+    <row r="322" ht="14.25" spans="1:1">
+      <c r="A322" s="22"/>
+    </row>
+    <row r="323" ht="14.25" spans="1:1">
+      <c r="A323" s="22"/>
+    </row>
+    <row r="324" ht="14.25" spans="1:1">
+      <c r="A324" s="22"/>
+    </row>
+    <row r="325" ht="14.25" spans="1:1">
+      <c r="A325" s="22"/>
+    </row>
+    <row r="326" ht="14.25" spans="1:1">
+      <c r="A326" s="22"/>
+    </row>
+    <row r="327" ht="14.25" spans="1:1">
+      <c r="A327" s="22"/>
+    </row>
+    <row r="328" ht="14.25" spans="1:1">
+      <c r="A328" s="22"/>
+    </row>
+    <row r="329" ht="14.25" spans="1:1">
+      <c r="A329" s="22"/>
+    </row>
+    <row r="330" ht="14.25" spans="1:1">
+      <c r="A330" s="22"/>
+    </row>
+    <row r="331" ht="14.25" spans="1:1">
+      <c r="A331" s="22"/>
+    </row>
+    <row r="332" ht="14.25" spans="1:1">
+      <c r="A332" s="22"/>
+    </row>
+    <row r="333" ht="14.25" spans="1:1">
+      <c r="A333" s="22"/>
+    </row>
+    <row r="334" ht="14.25" spans="1:1">
+      <c r="A334" s="22"/>
+    </row>
+    <row r="335" ht="14.25" spans="1:1">
+      <c r="A335" s="22"/>
+    </row>
+    <row r="336" ht="14.25" spans="1:1">
+      <c r="A336" s="22"/>
+    </row>
+    <row r="337" ht="14.25" spans="1:1">
+      <c r="A337" s="22"/>
+    </row>
+    <row r="338" ht="14.25" spans="1:1">
+      <c r="A338" s="22"/>
+    </row>
+    <row r="339" ht="14.25" spans="1:1">
+      <c r="A339" s="22"/>
+    </row>
+    <row r="340" ht="14.25" spans="1:1">
+      <c r="A340" s="22"/>
+    </row>
+    <row r="341" ht="14.25" spans="1:1">
+      <c r="A341" s="22"/>
+    </row>
+    <row r="342" ht="14.25" spans="1:1">
+      <c r="A342" s="22"/>
+    </row>
+    <row r="343" ht="14.25" spans="1:1">
+      <c r="A343" s="22"/>
+    </row>
+    <row r="344" ht="14.25" spans="1:1">
+      <c r="A344" s="22"/>
+    </row>
+    <row r="345" ht="14.25" spans="1:1">
+      <c r="A345" s="22"/>
+    </row>
+    <row r="346" ht="14.25" spans="1:1">
+      <c r="A346" s="22"/>
+    </row>
+    <row r="347" ht="14.25" spans="1:1">
+      <c r="A347" s="22"/>
+    </row>
+    <row r="348" ht="14.25" spans="1:1">
+      <c r="A348" s="22"/>
+    </row>
+    <row r="349" ht="14.25" spans="1:1">
+      <c r="A349" s="22"/>
+    </row>
+    <row r="350" ht="14.25" spans="1:1">
+      <c r="A350" s="22"/>
+    </row>
+    <row r="351" ht="14.25" spans="1:1">
+      <c r="A351" s="22"/>
+    </row>
+    <row r="352" ht="14.25" spans="1:1">
+      <c r="A352" s="22"/>
+    </row>
+    <row r="353" ht="14.25" spans="1:1">
+      <c r="A353" s="22"/>
+    </row>
+    <row r="354" ht="14.25" spans="1:1">
+      <c r="A354" s="22"/>
+    </row>
+    <row r="355" ht="14.25" spans="1:1">
+      <c r="A355" s="22"/>
+    </row>
+    <row r="356" ht="14.25" spans="1:1">
+      <c r="A356" s="22"/>
+    </row>
+    <row r="357" ht="14.25" spans="1:1">
+      <c r="A357" s="22"/>
+    </row>
+    <row r="358" ht="14.25" spans="1:1">
+      <c r="A358" s="22"/>
+    </row>
+    <row r="359" ht="14.25" spans="1:1">
+      <c r="A359" s="22"/>
+    </row>
+    <row r="360" ht="14.25" spans="1:1">
+      <c r="A360" s="22"/>
+    </row>
+    <row r="361" ht="14.25" spans="1:1">
+      <c r="A361" s="22"/>
+    </row>
+    <row r="362" ht="14.25" spans="1:1">
+      <c r="A362" s="22"/>
+    </row>
+    <row r="363" ht="14.25" spans="1:1">
+      <c r="A363" s="22"/>
+    </row>
+    <row r="364" ht="14.25" spans="1:1">
+      <c r="A364" s="22"/>
+    </row>
+    <row r="365" ht="14.25" spans="1:1">
+      <c r="A365" s="22"/>
+    </row>
+    <row r="366" ht="14.25" spans="1:1">
+      <c r="A366" s="22"/>
+    </row>
+    <row r="367" ht="14.25" spans="1:1">
+      <c r="A367" s="22"/>
+    </row>
+    <row r="368" ht="14.25" spans="1:1">
+      <c r="A368" s="22"/>
+    </row>
+    <row r="369" ht="14.25" spans="1:1">
+      <c r="A369" s="22"/>
+    </row>
+    <row r="370" ht="14.25" spans="1:1">
+      <c r="A370" s="22"/>
+    </row>
+    <row r="371" ht="14.25" spans="1:1">
+      <c r="A371" s="22"/>
+    </row>
+    <row r="372" ht="14.25" spans="1:1">
+      <c r="A372" s="22"/>
+    </row>
+    <row r="373" ht="14.25" spans="1:1">
+      <c r="A373" s="22"/>
+    </row>
+    <row r="374" ht="14.25" spans="1:1">
+      <c r="A374" s="22"/>
+    </row>
+    <row r="375" ht="14.25" spans="1:1">
+      <c r="A375" s="22"/>
+    </row>
+    <row r="376" ht="14.25" spans="1:1">
+      <c r="A376" s="22"/>
+    </row>
+    <row r="377" ht="14.25" spans="1:1">
+      <c r="A377" s="22"/>
+    </row>
+    <row r="378" ht="14.25" spans="1:1">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" ht="14.25" spans="1:1">
+      <c r="A379" s="22"/>
+    </row>
+    <row r="380" ht="14.25" spans="1:1">
+      <c r="A380" s="22"/>
+    </row>
+    <row r="381" ht="14.25" spans="1:1">
+      <c r="A381" s="22"/>
+    </row>
+    <row r="382" ht="14.25" spans="1:1">
+      <c r="A382" s="22"/>
+    </row>
+    <row r="383" ht="14.25" spans="1:1">
+      <c r="A383" s="22"/>
+    </row>
+    <row r="384" ht="14.25" spans="1:1">
+      <c r="A384" s="22"/>
+    </row>
+    <row r="385" ht="14.25" spans="1:1">
+      <c r="A385" s="22"/>
+    </row>
+    <row r="386" ht="14.25" spans="1:1">
+      <c r="A386" s="22"/>
+    </row>
+    <row r="387" ht="14.25" spans="1:1">
+      <c r="A387" s="22"/>
+    </row>
+    <row r="388" ht="14.25" spans="1:1">
+      <c r="A388" s="22"/>
+    </row>
+    <row r="389" ht="14.25" spans="1:1">
+      <c r="A389" s="22"/>
+    </row>
+    <row r="390" ht="14.25" spans="1:1">
+      <c r="A390" s="22"/>
+    </row>
+    <row r="391" ht="14.25" spans="1:1">
+      <c r="A391" s="22"/>
+    </row>
+    <row r="392" ht="14.25" spans="1:1">
+      <c r="A392" s="22"/>
+    </row>
+    <row r="393" ht="14.25" spans="1:1">
+      <c r="A393" s="22"/>
+    </row>
+    <row r="394" ht="14.25" spans="1:1">
+      <c r="A394" s="22"/>
+    </row>
+    <row r="395" ht="14.25" spans="1:1">
+      <c r="A395" s="22"/>
+    </row>
+    <row r="396" ht="14.25" spans="1:1">
+      <c r="A396" s="22"/>
+    </row>
+    <row r="397" ht="14.25" spans="1:1">
+      <c r="A397" s="22"/>
+    </row>
+    <row r="398" ht="14.25" spans="1:1">
+      <c r="A398" s="22"/>
+    </row>
+    <row r="399" ht="14.25" spans="1:1">
+      <c r="A399" s="22"/>
+    </row>
+    <row r="400" ht="14.25" spans="1:1">
+      <c r="A400" s="22"/>
+    </row>
+    <row r="401" ht="14.25" spans="1:1">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" ht="14.25" spans="1:1">
+      <c r="A402" s="22"/>
+    </row>
+    <row r="403" ht="14.25" spans="1:1">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" ht="14.25" spans="1:1">
+      <c r="A404" s="22"/>
+    </row>
+    <row r="405" ht="14.25" spans="1:1">
+      <c r="A405" s="22"/>
+    </row>
+    <row r="406" ht="14.25" spans="1:1">
+      <c r="A406" s="22"/>
+    </row>
+    <row r="407" ht="14.25" spans="1:1">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" ht="14.25" spans="1:1">
+      <c r="A408" s="22"/>
+    </row>
+    <row r="409" ht="14.25" spans="1:1">
+      <c r="A409" s="22"/>
+    </row>
+    <row r="410" ht="14.25" spans="1:1">
+      <c r="A410" s="22"/>
+    </row>
+    <row r="411" ht="14.25" spans="1:1">
+      <c r="A411" s="22"/>
+    </row>
+    <row r="412" ht="14.25" spans="1:1">
+      <c r="A412" s="22"/>
+    </row>
+    <row r="413" ht="14.25" spans="1:1">
+      <c r="A413" s="22"/>
+    </row>
+    <row r="414" ht="14.25" spans="1:1">
+      <c r="A414" s="22"/>
+    </row>
+    <row r="415" ht="14.25" spans="1:1">
+      <c r="A415" s="22"/>
+    </row>
+    <row r="416" ht="14.25" spans="1:1">
+      <c r="A416" s="22"/>
+    </row>
+    <row r="417" ht="14.25" spans="1:1">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" ht="14.25" spans="1:1">
+      <c r="A418" s="22"/>
+    </row>
+    <row r="419" ht="14.25" spans="1:1">
+      <c r="A419" s="22"/>
+    </row>
+    <row r="420" ht="14.25" spans="1:1">
+      <c r="A420" s="22"/>
+    </row>
+    <row r="421" ht="14.25" spans="1:1">
+      <c r="A421" s="22"/>
+    </row>
+    <row r="422" ht="14.25" spans="1:1">
+      <c r="A422" s="22"/>
+    </row>
+    <row r="423" ht="14.25" spans="1:1">
+      <c r="A423" s="22"/>
+    </row>
+    <row r="424" ht="14.25" spans="1:1">
+      <c r="A424" s="22"/>
+    </row>
+    <row r="425" ht="14.25" spans="1:1">
+      <c r="A425" s="22"/>
+    </row>
+    <row r="426" ht="14.25" spans="1:1">
+      <c r="A426" s="22"/>
+    </row>
+    <row r="427" ht="14.25" spans="1:1">
+      <c r="A427" s="22"/>
+    </row>
+    <row r="428" ht="14.25" spans="1:1">
+      <c r="A428" s="22"/>
+    </row>
+    <row r="429" ht="14.25" spans="1:1">
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" ht="14.25" spans="1:1">
+      <c r="A430" s="22"/>
+    </row>
+    <row r="431" ht="14.25" spans="1:1">
+      <c r="A431" s="22"/>
+    </row>
+    <row r="432" ht="14.25" spans="1:1">
+      <c r="A432" s="22"/>
+    </row>
+    <row r="433" ht="14.25" spans="1:1">
+      <c r="A433" s="22"/>
+    </row>
+    <row r="434" ht="14.25" spans="1:1">
+      <c r="A434" s="22"/>
+    </row>
+    <row r="435" ht="14.25" spans="1:1">
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" ht="14.25" spans="1:1">
+      <c r="A436" s="22"/>
+    </row>
+    <row r="437" ht="14.25" spans="1:1">
+      <c r="A437" s="22"/>
+    </row>
+    <row r="438" ht="14.25" spans="1:1">
+      <c r="A438" s="22"/>
+    </row>
+    <row r="439" ht="14.25" spans="1:1">
+      <c r="A439" s="22"/>
+    </row>
+    <row r="440" ht="14.25" spans="1:1">
+      <c r="A440" s="22"/>
+    </row>
+    <row r="441" ht="14.25" spans="1:1">
+      <c r="A441" s="22"/>
+    </row>
+    <row r="442" ht="14.25" spans="1:1">
+      <c r="A442" s="22"/>
+    </row>
+    <row r="443" ht="14.25" spans="1:1">
+      <c r="A443" s="22"/>
+    </row>
+    <row r="444" ht="14.25" spans="1:1">
+      <c r="A444" s="22"/>
+    </row>
+    <row r="445" ht="14.25" spans="1:1">
+      <c r="A445" s="22"/>
+    </row>
+    <row r="446" ht="14.25" spans="1:1">
+      <c r="A446" s="22"/>
+    </row>
+    <row r="447" ht="14.25" spans="1:1">
+      <c r="A447" s="22"/>
+    </row>
+    <row r="448" ht="14.25" spans="1:1">
+      <c r="A448" s="22"/>
+    </row>
+    <row r="449" ht="14.25" spans="1:1">
+      <c r="A449" s="22"/>
+    </row>
+    <row r="450" ht="14.25" spans="1:1">
+      <c r="A450" s="22"/>
+    </row>
+    <row r="451" ht="14.25" spans="1:1">
+      <c r="A451" s="22"/>
+    </row>
+    <row r="452" ht="14.25" spans="1:1">
+      <c r="A452" s="22"/>
+    </row>
+    <row r="453" ht="14.25" spans="1:1">
+      <c r="A453" s="22"/>
+    </row>
+    <row r="454" ht="14.25" spans="1:1">
+      <c r="A454" s="22"/>
+    </row>
+    <row r="455" ht="14.25" spans="1:1">
+      <c r="A455" s="22"/>
+    </row>
+    <row r="456" ht="14.25" spans="1:1">
+      <c r="A456" s="22"/>
+    </row>
+    <row r="457" ht="14.25" spans="1:1">
+      <c r="A457" s="22"/>
+    </row>
+    <row r="458" ht="14.25" spans="1:1">
+      <c r="A458" s="22"/>
+    </row>
+    <row r="459" ht="14.25" spans="1:1">
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" ht="14.25" spans="1:1">
+      <c r="A460" s="22"/>
+    </row>
+    <row r="461" ht="14.25" spans="1:1">
+      <c r="A461" s="22"/>
+    </row>
+    <row r="462" ht="14.25" spans="1:1">
+      <c r="A462" s="22"/>
+    </row>
+    <row r="463" ht="14.25" spans="1:1">
+      <c r="A463" s="22"/>
+    </row>
+    <row r="464" ht="14.25" spans="1:1">
+      <c r="A464" s="22"/>
+    </row>
+    <row r="465" ht="14.25" spans="1:1">
+      <c r="A465" s="22"/>
+    </row>
+    <row r="466" ht="14.25" spans="1:1">
+      <c r="A466" s="22"/>
+    </row>
+    <row r="467" ht="14.25" spans="1:1">
+      <c r="A467" s="22"/>
+    </row>
+    <row r="468" ht="14.25" spans="1:1">
+      <c r="A468" s="22"/>
+    </row>
+    <row r="469" ht="14.25" spans="1:1">
+      <c r="A469" s="22"/>
+    </row>
+    <row r="470" ht="14.25" spans="1:1">
+      <c r="A470" s="22"/>
+    </row>
+    <row r="471" ht="14.25" spans="1:1">
+      <c r="A471" s="22"/>
+    </row>
+    <row r="472" ht="14.25" spans="1:1">
+      <c r="A472" s="22"/>
+    </row>
+    <row r="473" ht="14.25" spans="1:1">
+      <c r="A473" s="22"/>
+    </row>
+    <row r="474" ht="14.25" spans="1:1">
+      <c r="A474" s="22"/>
+    </row>
+    <row r="475" ht="14.25" spans="1:1">
+      <c r="A475" s="22"/>
+    </row>
+    <row r="476" ht="14.25" spans="1:1">
+      <c r="A476" s="22"/>
+    </row>
+    <row r="477" ht="14.25" spans="1:1">
+      <c r="A477" s="22"/>
+    </row>
+    <row r="478" ht="14.25" spans="1:1">
+      <c r="A478" s="22"/>
+    </row>
+    <row r="479" ht="14.25" spans="1:1">
+      <c r="A479" s="22"/>
+    </row>
+    <row r="480" ht="14.25" spans="1:1">
+      <c r="A480" s="22"/>
+    </row>
+    <row r="481" ht="14.25" spans="1:1">
+      <c r="A481" s="22"/>
+    </row>
+    <row r="482" ht="14.25" spans="1:1">
+      <c r="A482" s="22"/>
+    </row>
+    <row r="483" ht="14.25" spans="1:1">
+      <c r="A483" s="22"/>
+    </row>
+    <row r="484" ht="14.25" spans="1:1">
+      <c r="A484" s="22"/>
+    </row>
+    <row r="485" ht="14.25" spans="1:1">
+      <c r="A485" s="22"/>
+    </row>
+    <row r="486" ht="14.25" spans="1:1">
+      <c r="A486" s="22"/>
+    </row>
+    <row r="487" ht="14.25" spans="1:1">
+      <c r="A487" s="22"/>
+    </row>
+    <row r="488" ht="14.25" spans="1:1">
+      <c r="A488" s="22"/>
+    </row>
+    <row r="489" ht="14.25" spans="1:1">
+      <c r="A489" s="22"/>
+    </row>
+    <row r="490" ht="14.25" spans="1:1">
+      <c r="A490" s="22"/>
+    </row>
+    <row r="491" ht="14.25" spans="1:1">
+      <c r="A491" s="22"/>
+    </row>
+    <row r="492" ht="14.25" spans="1:1">
+      <c r="A492" s="22"/>
+    </row>
+    <row r="493" ht="14.25" spans="1:1">
+      <c r="A493" s="22"/>
+    </row>
+    <row r="494" ht="14.25" spans="1:1">
+      <c r="A494" s="22"/>
+    </row>
+    <row r="495" ht="14.25" spans="1:1">
+      <c r="A495" s="22"/>
+    </row>
+    <row r="496" ht="14.25" spans="1:1">
+      <c r="A496" s="22"/>
+    </row>
+    <row r="497" ht="14.25" spans="1:1">
+      <c r="A497" s="22"/>
+    </row>
+    <row r="498" ht="14.25" spans="1:1">
+      <c r="A498" s="22"/>
+    </row>
+    <row r="499" ht="14.25" spans="1:1">
+      <c r="A499" s="22"/>
+    </row>
+    <row r="500" ht="14.25" spans="1:1">
+      <c r="A500" s="22"/>
+    </row>
+    <row r="501" ht="14.25" spans="1:1">
+      <c r="A501" s="22"/>
+    </row>
+    <row r="502" ht="14.25" spans="1:1">
+      <c r="A502" s="22"/>
+    </row>
+    <row r="503" ht="14.25" spans="1:1">
+      <c r="A503" s="22"/>
+    </row>
+    <row r="504" ht="14.25" spans="1:1">
+      <c r="A504" s="22"/>
+    </row>
+    <row r="505" ht="14.25" spans="1:1">
+      <c r="A505" s="22"/>
+    </row>
+    <row r="506" ht="14.25" spans="1:1">
+      <c r="A506" s="22"/>
+    </row>
+    <row r="507" ht="14.25" spans="1:1">
+      <c r="A507" s="22"/>
+    </row>
+    <row r="508" ht="14.25" spans="1:1">
+      <c r="A508" s="22"/>
+    </row>
+    <row r="509" ht="14.25" spans="1:1">
+      <c r="A509" s="22"/>
+    </row>
+    <row r="510" ht="14.25" spans="1:1">
+      <c r="A510" s="22"/>
+    </row>
+    <row r="511" ht="14.25" spans="1:1">
+      <c r="A511" s="22"/>
+    </row>
+    <row r="512" ht="14.25" spans="1:1">
+      <c r="A512" s="22"/>
+    </row>
+    <row r="513" ht="14.25" spans="1:1">
+      <c r="A513" s="22"/>
+    </row>
+    <row r="514" ht="14.25" spans="1:1">
+      <c r="A514" s="22"/>
+    </row>
+    <row r="515" ht="14.25" spans="1:1">
+      <c r="A515" s="22"/>
+    </row>
+    <row r="516" ht="14.25" spans="1:1">
+      <c r="A516" s="22"/>
+    </row>
+    <row r="517" ht="14.25" spans="1:1">
+      <c r="A517" s="22"/>
+    </row>
+    <row r="518" ht="14.25" spans="1:1">
+      <c r="A518" s="22"/>
+    </row>
+    <row r="519" ht="14.25" spans="1:1">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" ht="14.25" spans="1:1">
+      <c r="A520" s="22"/>
+    </row>
+    <row r="521" ht="14.25" spans="1:1">
+      <c r="A521" s="22"/>
+    </row>
+    <row r="522" ht="14.25" spans="1:1">
+      <c r="A522" s="22"/>
+    </row>
+    <row r="523" ht="14.25" spans="1:1">
+      <c r="A523" s="22"/>
+    </row>
+    <row r="524" ht="14.25" spans="1:1">
+      <c r="A524" s="22"/>
+    </row>
+    <row r="525" ht="14.25" spans="1:1">
+      <c r="A525" s="22"/>
+    </row>
+    <row r="526" ht="14.25" spans="1:1">
+      <c r="A526" s="22"/>
+    </row>
+    <row r="527" ht="14.25" spans="1:1">
+      <c r="A527" s="22"/>
+    </row>
+    <row r="528" ht="14.25" spans="1:1">
+      <c r="A528" s="22"/>
+    </row>
+    <row r="529" ht="14.25" spans="1:1">
+      <c r="A529" s="22"/>
+    </row>
+    <row r="530" ht="14.25" spans="1:1">
+      <c r="A530" s="22"/>
+    </row>
+    <row r="531" ht="14.25" spans="1:1">
+      <c r="A531" s="22"/>
+    </row>
+    <row r="532" ht="14.25" spans="1:1">
+      <c r="A532" s="22"/>
+    </row>
+    <row r="533" ht="14.25" spans="1:1">
+      <c r="A533" s="22"/>
+    </row>
+    <row r="534" ht="14.25" spans="1:1">
+      <c r="A534" s="22"/>
+    </row>
+    <row r="535" ht="14.25" spans="1:1">
+      <c r="A535" s="22"/>
+    </row>
+    <row r="536" ht="14.25" spans="1:1">
+      <c r="A536" s="22"/>
+    </row>
+    <row r="537" ht="14.25" spans="1:1">
+      <c r="A537" s="22"/>
+    </row>
+    <row r="538" ht="14.25" spans="1:1">
+      <c r="A538" s="22"/>
+    </row>
+    <row r="539" ht="14.25" spans="1:1">
+      <c r="A539" s="22"/>
+    </row>
+    <row r="540" ht="14.25" spans="1:1">
+      <c r="A540" s="22"/>
+    </row>
+    <row r="541" ht="14.25" spans="1:1">
+      <c r="A541" s="22"/>
+    </row>
+    <row r="542" ht="14.25" spans="1:1">
+      <c r="A542" s="22"/>
+    </row>
+    <row r="543" ht="14.25" spans="1:1">
+      <c r="A543" s="22"/>
+    </row>
+    <row r="544" ht="14.25" spans="1:1">
+      <c r="A544" s="22"/>
+    </row>
+    <row r="545" ht="14.25" spans="1:1">
+      <c r="A545" s="22"/>
+    </row>
+    <row r="546" ht="14.25" spans="1:1">
+      <c r="A546" s="22"/>
+    </row>
+    <row r="547" ht="14.25" spans="1:1">
+      <c r="A547" s="22"/>
+    </row>
+    <row r="548" ht="14.25" spans="1:1">
+      <c r="A548" s="22"/>
+    </row>
+    <row r="549" ht="14.25" spans="1:1">
+      <c r="A549" s="22"/>
+    </row>
+    <row r="550" ht="14.25" spans="1:1">
+      <c r="A550" s="22"/>
+    </row>
+    <row r="551" ht="14.25" spans="1:1">
+      <c r="A551" s="22"/>
+    </row>
+    <row r="552" ht="14.25" spans="1:1">
+      <c r="A552" s="22"/>
+    </row>
+    <row r="553" ht="14.25" spans="1:1">
+      <c r="A553" s="22"/>
+    </row>
+    <row r="554" ht="14.25" spans="1:1">
+      <c r="A554" s="22"/>
+    </row>
+    <row r="555" ht="14.25" spans="1:1">
+      <c r="A555" s="22"/>
+    </row>
+    <row r="556" ht="14.25" spans="1:1">
+      <c r="A556" s="22"/>
+    </row>
+    <row r="557" ht="14.25" spans="1:1">
+      <c r="A557" s="22"/>
+    </row>
+    <row r="558" ht="14.25" spans="1:1">
+      <c r="A558" s="22"/>
+    </row>
+    <row r="559" ht="14.25" spans="1:1">
+      <c r="A559" s="22"/>
+    </row>
+    <row r="560" ht="14.25" spans="1:1">
+      <c r="A560" s="22"/>
+    </row>
+    <row r="561" ht="14.25" spans="1:1">
+      <c r="A561" s="22"/>
+    </row>
+    <row r="562" ht="14.25" spans="1:1">
+      <c r="A562" s="22"/>
+    </row>
+    <row r="563" ht="14.25" spans="1:1">
+      <c r="A563" s="22"/>
+    </row>
+    <row r="564" ht="14.25" spans="1:1">
+      <c r="A564" s="22"/>
+    </row>
+    <row r="565" ht="14.25" spans="1:1">
+      <c r="A565" s="22"/>
+    </row>
+    <row r="566" ht="14.25" spans="1:1">
+      <c r="A566" s="22"/>
+    </row>
+    <row r="567" ht="14.25" spans="1:1">
+      <c r="A567" s="22"/>
+    </row>
+    <row r="568" ht="14.25" spans="1:1">
+      <c r="A568" s="22"/>
+    </row>
+    <row r="569" ht="14.25" spans="1:1">
+      <c r="A569" s="22"/>
+    </row>
+    <row r="570" ht="14.25" spans="1:1">
+      <c r="A570" s="22"/>
+    </row>
+    <row r="571" ht="14.25" spans="1:1">
+      <c r="A571" s="22"/>
+    </row>
+    <row r="572" ht="14.25" spans="1:1">
+      <c r="A572" s="22"/>
+    </row>
+    <row r="573" ht="14.25" spans="1:1">
+      <c r="A573" s="22"/>
+    </row>
+    <row r="574" ht="14.25" spans="1:1">
+      <c r="A574" s="22"/>
+    </row>
+    <row r="575" ht="14.25" spans="1:1">
+      <c r="A575" s="22"/>
+    </row>
+    <row r="576" ht="14.25" spans="1:1">
+      <c r="A576" s="22"/>
+    </row>
+    <row r="577" ht="14.25" spans="1:1">
+      <c r="A577" s="22"/>
+    </row>
+    <row r="578" ht="14.25" spans="1:1">
+      <c r="A578" s="22"/>
+    </row>
+    <row r="579" ht="14.25" spans="1:1">
+      <c r="A579" s="22"/>
+    </row>
+    <row r="580" ht="14.25" spans="1:1">
+      <c r="A580" s="22"/>
+    </row>
+    <row r="581" ht="14.25" spans="1:1">
+      <c r="A581" s="22"/>
+    </row>
+    <row r="582" ht="14.25" spans="1:1">
+      <c r="A582" s="22"/>
+    </row>
+    <row r="583" ht="14.25" spans="1:1">
+      <c r="A583" s="22"/>
+    </row>
+    <row r="584" ht="14.25" spans="1:1">
+      <c r="A584" s="22"/>
+    </row>
+    <row r="585" ht="14.25" spans="1:1">
+      <c r="A585" s="22"/>
+    </row>
+    <row r="586" ht="14.25" spans="1:1">
+      <c r="A586" s="22"/>
+    </row>
+    <row r="587" ht="14.25" spans="1:1">
+      <c r="A587" s="22"/>
+    </row>
+    <row r="588" ht="14.25" spans="1:1">
+      <c r="A588" s="22"/>
+    </row>
+    <row r="589" ht="14.25" spans="1:1">
+      <c r="A589" s="22"/>
+    </row>
+    <row r="590" ht="14.25" spans="1:1">
+      <c r="A590" s="22"/>
+    </row>
+    <row r="591" ht="14.25" spans="1:1">
+      <c r="A591" s="22"/>
+    </row>
+    <row r="592" ht="14.25" spans="1:1">
+      <c r="A592" s="22"/>
+    </row>
+    <row r="593" ht="14.25" spans="1:1">
+      <c r="A593" s="22"/>
+    </row>
+    <row r="594" ht="14.25" spans="1:1">
+      <c r="A594" s="22"/>
+    </row>
+    <row r="595" ht="14.25" spans="1:1">
+      <c r="A595" s="22"/>
+    </row>
+    <row r="596" ht="14.25" spans="1:1">
+      <c r="A596" s="22"/>
+    </row>
+    <row r="597" ht="14.25" spans="1:1">
+      <c r="A597" s="22"/>
+    </row>
+    <row r="598" ht="14.25" spans="1:1">
+      <c r="A598" s="22"/>
+    </row>
+    <row r="599" ht="14.25" spans="1:1">
+      <c r="A599" s="22"/>
+    </row>
+    <row r="600" ht="14.25" spans="1:1">
+      <c r="A600" s="22"/>
+    </row>
+    <row r="601" ht="14.25" spans="1:1">
+      <c r="A601" s="22"/>
+    </row>
+    <row r="602" ht="14.25" spans="1:1">
+      <c r="A602" s="22"/>
+    </row>
+    <row r="603" ht="14.25" spans="1:1">
+      <c r="A603" s="22"/>
+    </row>
+    <row r="604" ht="14.25" spans="1:1">
+      <c r="A604" s="22"/>
+    </row>
+    <row r="605" ht="14.25" spans="1:1">
+      <c r="A605" s="22"/>
+    </row>
+    <row r="606" ht="14.25" spans="1:1">
+      <c r="A606" s="22"/>
+    </row>
+    <row r="607" ht="14.25" spans="1:1">
+      <c r="A607" s="22"/>
+    </row>
+    <row r="608" ht="14.25" spans="1:1">
+      <c r="A608" s="22"/>
+    </row>
+    <row r="609" ht="14.25" spans="1:1">
+      <c r="A609" s="22"/>
+    </row>
+    <row r="610" ht="14.25" spans="1:1">
+      <c r="A610" s="22"/>
+    </row>
+    <row r="611" ht="14.25" spans="1:1">
+      <c r="A611" s="22"/>
+    </row>
+    <row r="612" ht="14.25" spans="1:1">
+      <c r="A612" s="22"/>
+    </row>
+    <row r="613" ht="14.25" spans="1:1">
+      <c r="A613" s="22"/>
+    </row>
+    <row r="614" ht="14.25" spans="1:1">
+      <c r="A614" s="22"/>
+    </row>
+    <row r="615" ht="14.25" spans="1:1">
+      <c r="A615" s="22"/>
+    </row>
+    <row r="616" ht="14.25" spans="1:1">
+      <c r="A616" s="22"/>
+    </row>
+    <row r="617" ht="14.25" spans="1:1">
+      <c r="A617" s="22"/>
+    </row>
+    <row r="618" ht="14.25" spans="1:1">
+      <c r="A618" s="22"/>
+    </row>
+    <row r="619" ht="14.25" spans="1:1">
+      <c r="A619" s="22"/>
+    </row>
+    <row r="620" ht="14.25" spans="1:1">
+      <c r="A620" s="22"/>
+    </row>
+    <row r="621" ht="14.25" spans="1:1">
+      <c r="A621" s="22"/>
+    </row>
+    <row r="622" ht="14.25" spans="1:1">
+      <c r="A622" s="22"/>
+    </row>
+    <row r="623" ht="14.25" spans="1:1">
+      <c r="A623" s="22"/>
+    </row>
+    <row r="624" ht="14.25" spans="1:1">
+      <c r="A624" s="22"/>
+    </row>
+    <row r="625" ht="14.25" spans="1:1">
+      <c r="A625" s="22"/>
+    </row>
+    <row r="626" ht="14.25" spans="1:1">
+      <c r="A626" s="22"/>
+    </row>
+    <row r="627" ht="14.25" spans="1:1">
+      <c r="A627" s="22"/>
+    </row>
+    <row r="628" ht="14.25" spans="1:1">
+      <c r="A628" s="22"/>
+    </row>
+    <row r="629" ht="14.25" spans="1:1">
+      <c r="A629" s="22"/>
+    </row>
+    <row r="630" ht="14.25" spans="1:1">
+      <c r="A630" s="22"/>
+    </row>
+    <row r="631" ht="14.25" spans="1:1">
+      <c r="A631" s="22"/>
+    </row>
+    <row r="632" ht="14.25" spans="1:1">
+      <c r="A632" s="22"/>
+    </row>
+    <row r="633" ht="14.25" spans="1:1">
+      <c r="A633" s="22"/>
+    </row>
+    <row r="634" ht="14.25" spans="1:1">
+      <c r="A634" s="22"/>
+    </row>
+    <row r="635" ht="14.25" spans="1:1">
+      <c r="A635" s="22"/>
+    </row>
+    <row r="636" ht="14.25" spans="1:1">
+      <c r="A636" s="22"/>
+    </row>
+    <row r="637" ht="14.25" spans="1:1">
+      <c r="A637" s="22"/>
+    </row>
+    <row r="638" ht="14.25" spans="1:1">
+      <c r="A638" s="22"/>
+    </row>
+    <row r="639" ht="14.25" spans="1:1">
+      <c r="A639" s="22"/>
+    </row>
+    <row r="640" ht="14.25" spans="1:1">
+      <c r="A640" s="22"/>
+    </row>
+    <row r="641" ht="14.25" spans="1:1">
+      <c r="A641" s="22"/>
+    </row>
+    <row r="642" ht="14.25" spans="1:1">
+      <c r="A642" s="22"/>
+    </row>
+    <row r="643" ht="14.25" spans="1:1">
+      <c r="A643" s="22"/>
+    </row>
+    <row r="644" ht="14.25" spans="1:1">
+      <c r="A644" s="22"/>
+    </row>
+    <row r="645" ht="14.25" spans="1:1">
+      <c r="A645" s="22"/>
+    </row>
+    <row r="646" ht="14.25" spans="1:1">
+      <c r="A646" s="22"/>
+    </row>
+    <row r="647" ht="14.25" spans="1:1">
+      <c r="A647" s="22"/>
+    </row>
+    <row r="648" ht="14.25" spans="1:1">
+      <c r="A648" s="22"/>
+    </row>
+    <row r="649" ht="14.25" spans="1:1">
+      <c r="A649" s="22"/>
+    </row>
+    <row r="650" ht="14.25" spans="1:1">
+      <c r="A650" s="22"/>
+    </row>
+    <row r="651" ht="14.25" spans="1:1">
+      <c r="A651" s="22"/>
+    </row>
+    <row r="652" ht="14.25" spans="1:1">
+      <c r="A652" s="22"/>
+    </row>
+    <row r="653" ht="14.25" spans="1:1">
+      <c r="A653" s="22"/>
+    </row>
+    <row r="654" ht="14.25" spans="1:1">
+      <c r="A654" s="22"/>
+    </row>
+    <row r="655" ht="14.25" spans="1:1">
+      <c r="A655" s="22"/>
+    </row>
+    <row r="656" ht="14.25" spans="1:1">
+      <c r="A656" s="22"/>
+    </row>
+    <row r="657" ht="14.25" spans="1:1">
+      <c r="A657" s="22"/>
+    </row>
+    <row r="658" ht="14.25" spans="1:1">
+      <c r="A658" s="22"/>
+    </row>
+    <row r="659" ht="14.25" spans="1:1">
+      <c r="A659" s="22"/>
+    </row>
+    <row r="660" ht="14.25" spans="1:1">
+      <c r="A660" s="22"/>
+    </row>
+    <row r="661" ht="14.25" spans="1:1">
+      <c r="A661" s="22"/>
+    </row>
+    <row r="662" ht="14.25" spans="1:1">
+      <c r="A662" s="22"/>
+    </row>
+    <row r="663" ht="14.25" spans="1:1">
+      <c r="A663" s="22"/>
+    </row>
+    <row r="664" ht="14.25" spans="1:1">
+      <c r="A664" s="22"/>
+    </row>
+    <row r="665" ht="14.25" spans="1:1">
+      <c r="A665" s="22"/>
+    </row>
+    <row r="666" ht="14.25" spans="1:1">
+      <c r="A666" s="22"/>
+    </row>
+    <row r="667" ht="14.25" spans="1:1">
+      <c r="A667" s="22"/>
+    </row>
+    <row r="668" ht="14.25" spans="1:1">
+      <c r="A668" s="22"/>
+    </row>
+    <row r="669" ht="14.25" spans="1:1">
+      <c r="A669" s="22"/>
+    </row>
+    <row r="670" ht="14.25" spans="1:1">
+      <c r="A670" s="22"/>
+    </row>
+    <row r="671" ht="14.25" spans="1:1">
+      <c r="A671" s="22"/>
+    </row>
+    <row r="672" ht="14.25" spans="1:1">
+      <c r="A672" s="22"/>
+    </row>
+    <row r="673" ht="14.25" spans="1:1">
+      <c r="A673" s="22"/>
+    </row>
+    <row r="674" ht="14.25" spans="1:1">
+      <c r="A674" s="22"/>
+    </row>
+    <row r="675" ht="14.25" spans="1:1">
+      <c r="A675" s="22"/>
+    </row>
+    <row r="676" ht="14.25" spans="1:1">
+      <c r="A676" s="22"/>
+    </row>
+    <row r="677" ht="14.25" spans="1:1">
+      <c r="A677" s="22"/>
+    </row>
+    <row r="678" ht="14.25" spans="1:1">
+      <c r="A678" s="22"/>
+    </row>
+    <row r="679" ht="14.25" spans="1:1">
+      <c r="A679" s="22"/>
+    </row>
+    <row r="680" ht="14.25" spans="1:1">
+      <c r="A680" s="22"/>
+    </row>
+    <row r="681" ht="14.25" spans="1:1">
+      <c r="A681" s="22"/>
+    </row>
+    <row r="682" ht="14.25" spans="1:1">
+      <c r="A682" s="22"/>
+    </row>
+    <row r="683" ht="14.25" spans="1:1">
+      <c r="A683" s="22"/>
+    </row>
+    <row r="684" ht="14.25" spans="1:1">
+      <c r="A684" s="22"/>
+    </row>
+    <row r="685" ht="14.25" spans="1:1">
+      <c r="A685" s="22"/>
+    </row>
+    <row r="686" ht="14.25" spans="1:1">
+      <c r="A686" s="22"/>
+    </row>
+    <row r="687" ht="14.25" spans="1:1">
+      <c r="A687" s="22"/>
+    </row>
+    <row r="688" ht="14.25" spans="1:1">
+      <c r="A688" s="22"/>
+    </row>
+    <row r="689" ht="14.25" spans="1:1">
+      <c r="A689" s="22"/>
+    </row>
+    <row r="690" ht="14.25" spans="1:1">
+      <c r="A690" s="22"/>
+    </row>
+    <row r="691" ht="14.25" spans="1:1">
+      <c r="A691" s="22"/>
+    </row>
+    <row r="692" ht="14.25" spans="1:1">
+      <c r="A692" s="22"/>
+    </row>
+    <row r="693" ht="14.25" spans="1:1">
+      <c r="A693" s="22"/>
+    </row>
+    <row r="694" ht="14.25" spans="1:1">
+      <c r="A694" s="22"/>
+    </row>
+    <row r="695" ht="14.25" spans="1:1">
+      <c r="A695" s="22"/>
+    </row>
+    <row r="696" ht="14.25" spans="1:1">
+      <c r="A696" s="22"/>
+    </row>
+    <row r="697" ht="14.25" spans="1:1">
+      <c r="A697" s="22"/>
+    </row>
+    <row r="698" ht="14.25" spans="1:1">
+      <c r="A698" s="22"/>
+    </row>
+    <row r="699" ht="14.25" spans="1:1">
+      <c r="A699" s="22"/>
+    </row>
+    <row r="700" ht="14.25" spans="1:1">
+      <c r="A700" s="22"/>
+    </row>
+    <row r="701" ht="14.25" spans="1:1">
+      <c r="A701" s="22"/>
+    </row>
+    <row r="702" ht="14.25" spans="1:1">
+      <c r="A702" s="22"/>
+    </row>
+    <row r="703" ht="14.25" spans="1:1">
+      <c r="A703" s="22"/>
+    </row>
+    <row r="704" ht="14.25" spans="1:1">
+      <c r="A704" s="22"/>
+    </row>
+    <row r="705" ht="14.25" spans="1:1">
+      <c r="A705" s="22"/>
+    </row>
+    <row r="706" ht="14.25" spans="1:1">
+      <c r="A706" s="22"/>
+    </row>
+    <row r="707" ht="14.25" spans="1:1">
+      <c r="A707" s="22"/>
+    </row>
+    <row r="708" ht="14.25" spans="1:1">
+      <c r="A708" s="22"/>
+    </row>
+    <row r="709" ht="14.25" spans="1:1">
+      <c r="A709" s="22"/>
+    </row>
+    <row r="710" ht="14.25" spans="1:1">
+      <c r="A710" s="22"/>
+    </row>
+    <row r="711" ht="14.25" spans="1:1">
+      <c r="A711" s="22"/>
+    </row>
+    <row r="712" ht="14.25" spans="1:1">
+      <c r="A712" s="22"/>
+    </row>
+    <row r="713" ht="14.25" spans="1:1">
+      <c r="A713" s="22"/>
+    </row>
+    <row r="714" ht="14.25" spans="1:1">
+      <c r="A714" s="22"/>
+    </row>
+    <row r="715" ht="14.25" spans="1:1">
+      <c r="A715" s="22"/>
+    </row>
+    <row r="716" ht="14.25" spans="1:1">
+      <c r="A716" s="22"/>
+    </row>
+    <row r="717" ht="14.25" spans="1:1">
+      <c r="A717" s="22"/>
+    </row>
+    <row r="718" ht="14.25" spans="1:1">
+      <c r="A718" s="22"/>
+    </row>
+    <row r="719" ht="14.25" spans="1:1">
+      <c r="A719" s="22"/>
+    </row>
+    <row r="720" ht="14.25" spans="1:1">
+      <c r="A720" s="22"/>
+    </row>
+    <row r="721" ht="14.25" spans="1:1">
+      <c r="A721" s="22"/>
+    </row>
+    <row r="722" ht="14.25" spans="1:1">
+      <c r="A722" s="22"/>
+    </row>
+    <row r="723" ht="14.25" spans="1:1">
+      <c r="A723" s="22"/>
+    </row>
+    <row r="724" ht="14.25" spans="1:1">
+      <c r="A724" s="22"/>
+    </row>
+    <row r="725" ht="14.25" spans="1:1">
+      <c r="A725" s="22"/>
+    </row>
+    <row r="726" ht="14.25" spans="1:1">
+      <c r="A726" s="22"/>
+    </row>
+    <row r="727" ht="14.25" spans="1:1">
+      <c r="A727" s="22"/>
+    </row>
+    <row r="728" ht="14.25" spans="1:1">
+      <c r="A728" s="22"/>
+    </row>
+    <row r="729" ht="14.25" spans="1:1">
+      <c r="A729" s="22"/>
+    </row>
+    <row r="730" ht="14.25" spans="1:1">
+      <c r="A730" s="22"/>
+    </row>
+    <row r="731" ht="14.25" spans="1:1">
+      <c r="A731" s="22"/>
+    </row>
+    <row r="732" ht="14.25" spans="1:1">
+      <c r="A732" s="22"/>
+    </row>
+    <row r="733" ht="14.25" spans="1:1">
+      <c r="A733" s="22"/>
+    </row>
+    <row r="734" ht="14.25" spans="1:1">
+      <c r="A734" s="22"/>
+    </row>
+    <row r="735" ht="14.25" spans="1:1">
+      <c r="A735" s="22"/>
+    </row>
+    <row r="736" ht="14.25" spans="1:1">
+      <c r="A736" s="22"/>
+    </row>
+    <row r="737" ht="14.25" spans="1:1">
+      <c r="A737" s="22"/>
+    </row>
+    <row r="738" ht="14.25" spans="1:1">
+      <c r="A738" s="22"/>
+    </row>
+    <row r="739" ht="14.25" spans="1:1">
+      <c r="A739" s="22"/>
+    </row>
+    <row r="740" ht="14.25" spans="1:1">
+      <c r="A740" s="22"/>
+    </row>
+    <row r="741" ht="14.25" spans="1:1">
+      <c r="A741" s="22"/>
+    </row>
+    <row r="742" ht="14.25" spans="1:1">
+      <c r="A742" s="22"/>
+    </row>
+    <row r="743" ht="14.25" spans="1:1">
+      <c r="A743" s="22"/>
+    </row>
+    <row r="744" ht="14.25" spans="1:1">
+      <c r="A744" s="22"/>
+    </row>
+    <row r="745" ht="14.25" spans="1:1">
+      <c r="A745" s="22"/>
+    </row>
+    <row r="746" ht="14.25" spans="1:1">
+      <c r="A746" s="22"/>
+    </row>
+    <row r="747" ht="14.25" spans="1:1">
+      <c r="A747" s="22"/>
+    </row>
+    <row r="748" ht="14.25" spans="1:1">
+      <c r="A748" s="22"/>
+    </row>
+    <row r="749" ht="14.25" spans="1:1">
+      <c r="A749" s="22"/>
+    </row>
+    <row r="750" ht="14.25" spans="1:1">
+      <c r="A750" s="22"/>
+    </row>
+    <row r="751" ht="14.25" spans="1:1">
+      <c r="A751" s="22"/>
+    </row>
+    <row r="752" ht="14.25" spans="1:1">
+      <c r="A752" s="22"/>
+    </row>
+    <row r="753" ht="14.25" spans="1:1">
+      <c r="A753" s="22"/>
+    </row>
+    <row r="754" ht="14.25" spans="1:1">
+      <c r="A754" s="22"/>
+    </row>
+    <row r="755" ht="14.25" spans="1:1">
+      <c r="A755" s="22"/>
+    </row>
+    <row r="756" ht="14.25" spans="1:1">
+      <c r="A756" s="22"/>
+    </row>
+    <row r="757" ht="14.25" spans="1:1">
+      <c r="A757" s="22"/>
+    </row>
+    <row r="758" ht="14.25" spans="1:1">
+      <c r="A758" s="22"/>
+    </row>
+    <row r="759" ht="14.25" spans="1:1">
+      <c r="A759" s="22"/>
+    </row>
+    <row r="760" ht="14.25" spans="1:1">
+      <c r="A760" s="22"/>
+    </row>
+    <row r="761" ht="14.25" spans="1:1">
+      <c r="A761" s="22"/>
+    </row>
+    <row r="762" ht="14.25" spans="1:1">
+      <c r="A762" s="22"/>
+    </row>
+    <row r="763" ht="14.25" spans="1:1">
+      <c r="A763" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -287,6 +287,81 @@
   </si>
   <si>
     <t>19-05-09~19-05-23</t>
+  </si>
+  <si>
+    <t>bovey珀薇旗舰店</t>
+  </si>
+  <si>
+    <t>qq:1394830006</t>
+  </si>
+  <si>
+    <t>欧诗漫旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:2355514991</t>
+  </si>
+  <si>
+    <t>气韵化妆品旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:3119908711</t>
+  </si>
+  <si>
+    <t>采之汲旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:1151407214</t>
+  </si>
+  <si>
+    <t>珀莱雅官方旗舰店</t>
+  </si>
+  <si>
+    <t>qq:362304074</t>
+  </si>
+  <si>
+    <t>珍珠美人旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:992818994</t>
+  </si>
+  <si>
+    <t>京润珍珠旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:2693425633</t>
+  </si>
+  <si>
+    <t>自然之名官方企业店</t>
+  </si>
+  <si>
+    <t>QQ：524858562</t>
+  </si>
+  <si>
+    <t>韩束卡卡专卖店</t>
+  </si>
+  <si>
+    <t>QQ：627159633</t>
+  </si>
+  <si>
+    <t>艾雪兰旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:1225037722</t>
+  </si>
+  <si>
+    <t>艳净品牌工厂店</t>
+  </si>
+  <si>
+    <t>QQ：393422703</t>
+  </si>
+  <si>
+    <t>未来我准备为你而来</t>
+  </si>
+  <si>
+    <t>vx:xiaozhu89888</t>
+  </si>
+  <si>
+    <t>5-16其他团队活动到期，再次联系</t>
   </si>
 </sst>
 </file>
@@ -395,68 +470,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,8 +491,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +551,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -514,11 +559,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,10 +606,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -547,13 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +640,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +694,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,37 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +772,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,67 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,6 +817,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -752,6 +866,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,65 +913,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,137 +933,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,9 +1071,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,16 +1118,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,41 +1448,41 @@
   <sheetPr/>
   <dimension ref="A1:E763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="$A38:$XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1421,10 +1490,10 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -1432,10 +1501,10 @@
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -1443,10 +1512,10 @@
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1454,29 +1523,29 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1484,10 +1553,10 @@
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
@@ -1495,32 +1564,32 @@
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
@@ -1528,10 +1597,10 @@
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
@@ -1539,10 +1608,10 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
@@ -1550,10 +1619,10 @@
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -1561,10 +1630,10 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
@@ -1572,24 +1641,24 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
@@ -1597,2366 +1666,2429 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="B27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A38" s="20" t="s">
+    <row r="38" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A38" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="D38" s="11" t="s">
+      <c r="B38" s="10"/>
+      <c r="D38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:1">
-      <c r="A39" s="22"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:1">
-      <c r="A40" s="22"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:1">
-      <c r="A41" s="22"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:1">
-      <c r="A42" s="22"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:1">
-      <c r="A43" s="22"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:1">
-      <c r="A44" s="22"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:1">
-      <c r="A45" s="22"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:1">
-      <c r="A46" s="22"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:1">
-      <c r="A47" s="22"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="22"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:1">
-      <c r="A49" s="22"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:1">
-      <c r="A50" s="22"/>
+    <row r="39" ht="14.25" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:2">
+      <c r="A46" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:2">
+      <c r="A49" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:4">
+      <c r="A50" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="51" ht="14.25" spans="1:1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="19"/>
     </row>
     <row r="52" ht="14.25" spans="1:1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" ht="14.25" spans="1:1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="19"/>
     </row>
     <row r="54" ht="14.25" spans="1:1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="19"/>
     </row>
     <row r="55" ht="14.25" spans="1:1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
     </row>
     <row r="56" ht="14.25" spans="1:1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="19"/>
     </row>
     <row r="57" ht="14.25" spans="1:1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="19"/>
     </row>
     <row r="58" ht="14.25" spans="1:1">
-      <c r="A58" s="22"/>
+      <c r="A58" s="19"/>
     </row>
     <row r="59" ht="14.25" spans="1:1">
-      <c r="A59" s="22"/>
+      <c r="A59" s="19"/>
     </row>
     <row r="60" ht="14.25" spans="1:1">
-      <c r="A60" s="22"/>
+      <c r="A60" s="19"/>
     </row>
     <row r="61" ht="14.25" spans="1:1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="19"/>
     </row>
     <row r="62" ht="14.25" spans="1:1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="19"/>
     </row>
     <row r="63" ht="14.25" spans="1:1">
-      <c r="A63" s="22"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" ht="14.25" spans="1:1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="19"/>
     </row>
     <row r="65" ht="14.25" spans="1:1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" ht="14.25" spans="1:1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" ht="14.25" spans="1:1">
-      <c r="A67" s="22"/>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" ht="14.25" spans="1:1">
-      <c r="A68" s="22"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" ht="14.25" spans="1:1">
-      <c r="A69" s="22"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" ht="14.25" spans="1:1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" ht="14.25" spans="1:1">
-      <c r="A71" s="22"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" ht="14.25" spans="1:1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" ht="14.25" spans="1:1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="19"/>
     </row>
     <row r="74" ht="14.25" spans="1:1">
-      <c r="A74" s="22"/>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" ht="14.25" spans="1:1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="19"/>
     </row>
     <row r="76" ht="14.25" spans="1:1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="19"/>
     </row>
     <row r="77" ht="14.25" spans="1:1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="19"/>
     </row>
     <row r="78" ht="14.25" spans="1:1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="19"/>
     </row>
     <row r="79" ht="14.25" spans="1:1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" ht="14.25" spans="1:1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" ht="14.25" spans="1:1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" ht="14.25" spans="1:1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" ht="14.25" spans="1:1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" ht="14.25" spans="1:1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" ht="14.25" spans="1:1">
-      <c r="A85" s="22"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" ht="14.25" spans="1:1">
-      <c r="A86" s="22"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" ht="14.25" spans="1:1">
-      <c r="A87" s="22"/>
+      <c r="A87" s="19"/>
     </row>
     <row r="88" ht="14.25" spans="1:1">
-      <c r="A88" s="22"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" ht="14.25" spans="1:1">
-      <c r="A89" s="22"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" ht="14.25" spans="1:1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" ht="14.25" spans="1:1">
-      <c r="A91" s="22"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" ht="14.25" spans="1:1">
-      <c r="A92" s="22"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" ht="14.25" spans="1:1">
-      <c r="A93" s="22"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" ht="14.25" spans="1:1">
-      <c r="A94" s="22"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" ht="14.25" spans="1:1">
-      <c r="A95" s="22"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" ht="14.25" spans="1:1">
-      <c r="A96" s="22"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" ht="14.25" spans="1:1">
-      <c r="A97" s="22"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" ht="14.25" spans="1:1">
-      <c r="A98" s="22"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" ht="14.25" spans="1:1">
-      <c r="A99" s="22"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" ht="14.25" spans="1:1">
-      <c r="A100" s="22"/>
+      <c r="A100" s="19"/>
     </row>
     <row r="101" ht="14.25" spans="1:1">
-      <c r="A101" s="22"/>
+      <c r="A101" s="19"/>
     </row>
     <row r="102" ht="14.25" spans="1:1">
-      <c r="A102" s="22"/>
+      <c r="A102" s="19"/>
     </row>
     <row r="103" ht="14.25" spans="1:1">
-      <c r="A103" s="22"/>
+      <c r="A103" s="19"/>
     </row>
     <row r="104" ht="14.25" spans="1:1">
-      <c r="A104" s="22"/>
+      <c r="A104" s="19"/>
     </row>
     <row r="105" ht="14.25" spans="1:1">
-      <c r="A105" s="22"/>
+      <c r="A105" s="19"/>
     </row>
     <row r="106" ht="14.25" spans="1:1">
-      <c r="A106" s="22"/>
+      <c r="A106" s="19"/>
     </row>
     <row r="107" ht="14.25" spans="1:1">
-      <c r="A107" s="22"/>
+      <c r="A107" s="19"/>
     </row>
     <row r="108" ht="14.25" spans="1:1">
-      <c r="A108" s="22"/>
+      <c r="A108" s="19"/>
     </row>
     <row r="109" ht="14.25" spans="1:1">
-      <c r="A109" s="22"/>
+      <c r="A109" s="19"/>
     </row>
     <row r="110" ht="14.25" spans="1:1">
-      <c r="A110" s="22"/>
+      <c r="A110" s="19"/>
     </row>
     <row r="111" ht="14.25" spans="1:1">
-      <c r="A111" s="22"/>
+      <c r="A111" s="19"/>
     </row>
     <row r="112" ht="14.25" spans="1:1">
-      <c r="A112" s="22"/>
+      <c r="A112" s="19"/>
     </row>
     <row r="113" ht="14.25" spans="1:1">
-      <c r="A113" s="22"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" ht="14.25" spans="1:1">
-      <c r="A114" s="22"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" ht="14.25" spans="1:1">
-      <c r="A115" s="22"/>
+      <c r="A115" s="19"/>
     </row>
     <row r="116" ht="14.25" spans="1:1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="19"/>
     </row>
     <row r="117" ht="14.25" spans="1:1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="19"/>
     </row>
     <row r="118" ht="14.25" spans="1:1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="19"/>
     </row>
     <row r="119" ht="14.25" spans="1:1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="19"/>
     </row>
     <row r="120" ht="14.25" spans="1:1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="19"/>
     </row>
     <row r="121" ht="14.25" spans="1:1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="19"/>
     </row>
     <row r="122" ht="14.25" spans="1:1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="19"/>
     </row>
     <row r="123" ht="14.25" spans="1:1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="19"/>
     </row>
     <row r="124" ht="14.25" spans="1:1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="19"/>
     </row>
     <row r="125" ht="14.25" spans="1:1">
-      <c r="A125" s="22"/>
+      <c r="A125" s="19"/>
     </row>
     <row r="126" ht="14.25" spans="1:1">
-      <c r="A126" s="22"/>
+      <c r="A126" s="19"/>
     </row>
     <row r="127" ht="14.25" spans="1:1">
-      <c r="A127" s="22"/>
+      <c r="A127" s="19"/>
     </row>
     <row r="128" ht="14.25" spans="1:1">
-      <c r="A128" s="22"/>
+      <c r="A128" s="19"/>
     </row>
     <row r="129" ht="14.25" spans="1:1">
-      <c r="A129" s="22"/>
+      <c r="A129" s="19"/>
     </row>
     <row r="130" ht="14.25" spans="1:1">
-      <c r="A130" s="22"/>
+      <c r="A130" s="19"/>
     </row>
     <row r="131" ht="14.25" spans="1:1">
-      <c r="A131" s="22"/>
+      <c r="A131" s="19"/>
     </row>
     <row r="132" ht="14.25" spans="1:1">
-      <c r="A132" s="22"/>
+      <c r="A132" s="19"/>
     </row>
     <row r="133" ht="14.25" spans="1:1">
-      <c r="A133" s="22"/>
+      <c r="A133" s="19"/>
     </row>
     <row r="134" ht="14.25" spans="1:1">
-      <c r="A134" s="22"/>
+      <c r="A134" s="19"/>
     </row>
     <row r="135" ht="14.25" spans="1:1">
-      <c r="A135" s="22"/>
+      <c r="A135" s="19"/>
     </row>
     <row r="136" ht="14.25" spans="1:1">
-      <c r="A136" s="22"/>
+      <c r="A136" s="19"/>
     </row>
     <row r="137" ht="14.25" spans="1:1">
-      <c r="A137" s="22"/>
+      <c r="A137" s="19"/>
     </row>
     <row r="138" ht="14.25" spans="1:1">
-      <c r="A138" s="22"/>
+      <c r="A138" s="19"/>
     </row>
     <row r="139" ht="14.25" spans="1:1">
-      <c r="A139" s="22"/>
+      <c r="A139" s="19"/>
     </row>
     <row r="140" ht="14.25" spans="1:1">
-      <c r="A140" s="22"/>
+      <c r="A140" s="19"/>
     </row>
     <row r="141" ht="14.25" spans="1:1">
-      <c r="A141" s="22"/>
+      <c r="A141" s="19"/>
     </row>
     <row r="142" ht="14.25" spans="1:1">
-      <c r="A142" s="22"/>
+      <c r="A142" s="19"/>
     </row>
     <row r="143" ht="14.25" spans="1:1">
-      <c r="A143" s="22"/>
+      <c r="A143" s="19"/>
     </row>
     <row r="144" ht="14.25" spans="1:1">
-      <c r="A144" s="22"/>
+      <c r="A144" s="19"/>
     </row>
     <row r="145" ht="14.25" spans="1:1">
-      <c r="A145" s="22"/>
+      <c r="A145" s="19"/>
     </row>
     <row r="146" ht="14.25" spans="1:1">
-      <c r="A146" s="22"/>
+      <c r="A146" s="19"/>
     </row>
     <row r="147" ht="14.25" spans="1:1">
-      <c r="A147" s="22"/>
+      <c r="A147" s="19"/>
     </row>
     <row r="148" ht="14.25" spans="1:1">
-      <c r="A148" s="22"/>
+      <c r="A148" s="19"/>
     </row>
     <row r="149" ht="14.25" spans="1:1">
-      <c r="A149" s="22"/>
+      <c r="A149" s="19"/>
     </row>
     <row r="150" ht="14.25" spans="1:1">
-      <c r="A150" s="22"/>
+      <c r="A150" s="19"/>
     </row>
     <row r="151" ht="14.25" spans="1:1">
-      <c r="A151" s="22"/>
+      <c r="A151" s="19"/>
     </row>
     <row r="152" ht="14.25" spans="1:1">
-      <c r="A152" s="22"/>
+      <c r="A152" s="19"/>
     </row>
     <row r="153" ht="14.25" spans="1:1">
-      <c r="A153" s="22"/>
+      <c r="A153" s="19"/>
     </row>
     <row r="154" ht="14.25" spans="1:1">
-      <c r="A154" s="22"/>
+      <c r="A154" s="19"/>
     </row>
     <row r="155" ht="14.25" spans="1:1">
-      <c r="A155" s="22"/>
+      <c r="A155" s="19"/>
     </row>
     <row r="156" ht="14.25" spans="1:1">
-      <c r="A156" s="22"/>
+      <c r="A156" s="19"/>
     </row>
     <row r="157" ht="14.25" spans="1:1">
-      <c r="A157" s="22"/>
+      <c r="A157" s="19"/>
     </row>
     <row r="158" ht="14.25" spans="1:1">
-      <c r="A158" s="22"/>
+      <c r="A158" s="19"/>
     </row>
     <row r="159" ht="14.25" spans="1:1">
-      <c r="A159" s="22"/>
+      <c r="A159" s="19"/>
     </row>
     <row r="160" ht="14.25" spans="1:1">
-      <c r="A160" s="22"/>
+      <c r="A160" s="19"/>
     </row>
     <row r="161" ht="14.25" spans="1:1">
-      <c r="A161" s="22"/>
+      <c r="A161" s="19"/>
     </row>
     <row r="162" ht="14.25" spans="1:1">
-      <c r="A162" s="22"/>
+      <c r="A162" s="19"/>
     </row>
     <row r="163" ht="14.25" spans="1:1">
-      <c r="A163" s="22"/>
+      <c r="A163" s="19"/>
     </row>
     <row r="164" ht="14.25" spans="1:1">
-      <c r="A164" s="22"/>
+      <c r="A164" s="19"/>
     </row>
     <row r="165" ht="14.25" spans="1:1">
-      <c r="A165" s="22"/>
+      <c r="A165" s="19"/>
     </row>
     <row r="166" ht="14.25" spans="1:1">
-      <c r="A166" s="22"/>
+      <c r="A166" s="19"/>
     </row>
     <row r="167" ht="14.25" spans="1:1">
-      <c r="A167" s="22"/>
+      <c r="A167" s="19"/>
     </row>
     <row r="168" ht="14.25" spans="1:1">
-      <c r="A168" s="22"/>
+      <c r="A168" s="19"/>
     </row>
     <row r="169" ht="14.25" spans="1:1">
-      <c r="A169" s="22"/>
+      <c r="A169" s="19"/>
     </row>
     <row r="170" ht="14.25" spans="1:1">
-      <c r="A170" s="22"/>
+      <c r="A170" s="19"/>
     </row>
     <row r="171" ht="14.25" spans="1:1">
-      <c r="A171" s="22"/>
+      <c r="A171" s="19"/>
     </row>
     <row r="172" ht="14.25" spans="1:1">
-      <c r="A172" s="22"/>
+      <c r="A172" s="19"/>
     </row>
     <row r="173" ht="14.25" spans="1:1">
-      <c r="A173" s="22"/>
+      <c r="A173" s="19"/>
     </row>
     <row r="174" ht="14.25" spans="1:1">
-      <c r="A174" s="22"/>
+      <c r="A174" s="19"/>
     </row>
     <row r="175" ht="14.25" spans="1:1">
-      <c r="A175" s="22"/>
+      <c r="A175" s="19"/>
     </row>
     <row r="176" ht="14.25" spans="1:1">
-      <c r="A176" s="22"/>
+      <c r="A176" s="19"/>
     </row>
     <row r="177" ht="14.25" spans="1:1">
-      <c r="A177" s="22"/>
+      <c r="A177" s="19"/>
     </row>
     <row r="178" ht="14.25" spans="1:1">
-      <c r="A178" s="22"/>
+      <c r="A178" s="19"/>
     </row>
     <row r="179" ht="14.25" spans="1:1">
-      <c r="A179" s="22"/>
+      <c r="A179" s="19"/>
     </row>
     <row r="180" ht="14.25" spans="1:1">
-      <c r="A180" s="22"/>
+      <c r="A180" s="19"/>
     </row>
     <row r="181" ht="14.25" spans="1:1">
-      <c r="A181" s="22"/>
+      <c r="A181" s="19"/>
     </row>
     <row r="182" ht="14.25" spans="1:1">
-      <c r="A182" s="22"/>
+      <c r="A182" s="19"/>
     </row>
     <row r="183" ht="14.25" spans="1:1">
-      <c r="A183" s="22"/>
+      <c r="A183" s="19"/>
     </row>
     <row r="184" ht="14.25" spans="1:1">
-      <c r="A184" s="22"/>
+      <c r="A184" s="19"/>
     </row>
     <row r="185" ht="14.25" spans="1:1">
-      <c r="A185" s="22"/>
+      <c r="A185" s="19"/>
     </row>
     <row r="186" ht="14.25" spans="1:1">
-      <c r="A186" s="22"/>
+      <c r="A186" s="19"/>
     </row>
     <row r="187" ht="14.25" spans="1:1">
-      <c r="A187" s="22"/>
+      <c r="A187" s="19"/>
     </row>
     <row r="188" ht="14.25" spans="1:1">
-      <c r="A188" s="22"/>
+      <c r="A188" s="19"/>
     </row>
     <row r="189" ht="14.25" spans="1:1">
-      <c r="A189" s="22"/>
+      <c r="A189" s="19"/>
     </row>
     <row r="190" ht="14.25" spans="1:1">
-      <c r="A190" s="22"/>
+      <c r="A190" s="19"/>
     </row>
     <row r="191" ht="14.25" spans="1:1">
-      <c r="A191" s="22"/>
+      <c r="A191" s="19"/>
     </row>
     <row r="192" ht="14.25" spans="1:1">
-      <c r="A192" s="22"/>
+      <c r="A192" s="19"/>
     </row>
     <row r="193" ht="14.25" spans="1:1">
-      <c r="A193" s="22"/>
+      <c r="A193" s="19"/>
     </row>
     <row r="194" ht="14.25" spans="1:1">
-      <c r="A194" s="22"/>
+      <c r="A194" s="19"/>
     </row>
     <row r="195" ht="14.25" spans="1:1">
-      <c r="A195" s="22"/>
+      <c r="A195" s="19"/>
     </row>
     <row r="196" ht="14.25" spans="1:1">
-      <c r="A196" s="22"/>
+      <c r="A196" s="19"/>
     </row>
     <row r="197" ht="14.25" spans="1:1">
-      <c r="A197" s="22"/>
+      <c r="A197" s="19"/>
     </row>
     <row r="198" ht="14.25" spans="1:1">
-      <c r="A198" s="22"/>
+      <c r="A198" s="19"/>
     </row>
     <row r="199" ht="14.25" spans="1:1">
-      <c r="A199" s="22"/>
+      <c r="A199" s="19"/>
     </row>
     <row r="200" ht="14.25" spans="1:1">
-      <c r="A200" s="22"/>
+      <c r="A200" s="19"/>
     </row>
     <row r="201" ht="14.25" spans="1:1">
-      <c r="A201" s="22"/>
+      <c r="A201" s="19"/>
     </row>
     <row r="202" ht="14.25" spans="1:1">
-      <c r="A202" s="22"/>
+      <c r="A202" s="19"/>
     </row>
     <row r="203" ht="14.25" spans="1:1">
-      <c r="A203" s="22"/>
+      <c r="A203" s="19"/>
     </row>
     <row r="204" ht="14.25" spans="1:1">
-      <c r="A204" s="22"/>
+      <c r="A204" s="19"/>
     </row>
     <row r="205" ht="14.25" spans="1:1">
-      <c r="A205" s="22"/>
+      <c r="A205" s="19"/>
     </row>
     <row r="206" ht="14.25" spans="1:1">
-      <c r="A206" s="22"/>
+      <c r="A206" s="19"/>
     </row>
     <row r="207" ht="14.25" spans="1:1">
-      <c r="A207" s="22"/>
+      <c r="A207" s="19"/>
     </row>
     <row r="208" ht="14.25" spans="1:1">
-      <c r="A208" s="22"/>
+      <c r="A208" s="19"/>
     </row>
     <row r="209" ht="14.25" spans="1:1">
-      <c r="A209" s="22"/>
+      <c r="A209" s="19"/>
     </row>
     <row r="210" ht="14.25" spans="1:1">
-      <c r="A210" s="22"/>
+      <c r="A210" s="19"/>
     </row>
     <row r="211" ht="14.25" spans="1:1">
-      <c r="A211" s="22"/>
+      <c r="A211" s="19"/>
     </row>
     <row r="212" ht="14.25" spans="1:1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="19"/>
     </row>
     <row r="213" ht="14.25" spans="1:1">
-      <c r="A213" s="22"/>
+      <c r="A213" s="19"/>
     </row>
     <row r="214" ht="14.25" spans="1:1">
-      <c r="A214" s="22"/>
+      <c r="A214" s="19"/>
     </row>
     <row r="215" ht="14.25" spans="1:1">
-      <c r="A215" s="22"/>
+      <c r="A215" s="19"/>
     </row>
     <row r="216" ht="14.25" spans="1:1">
-      <c r="A216" s="22"/>
+      <c r="A216" s="19"/>
     </row>
     <row r="217" ht="14.25" spans="1:1">
-      <c r="A217" s="22"/>
+      <c r="A217" s="19"/>
     </row>
     <row r="218" ht="14.25" spans="1:1">
-      <c r="A218" s="22"/>
+      <c r="A218" s="19"/>
     </row>
     <row r="219" ht="14.25" spans="1:1">
-      <c r="A219" s="22"/>
+      <c r="A219" s="19"/>
     </row>
     <row r="220" ht="14.25" spans="1:1">
-      <c r="A220" s="22"/>
+      <c r="A220" s="19"/>
     </row>
     <row r="221" ht="14.25" spans="1:1">
-      <c r="A221" s="22"/>
+      <c r="A221" s="19"/>
     </row>
     <row r="222" ht="14.25" spans="1:1">
-      <c r="A222" s="22"/>
+      <c r="A222" s="19"/>
     </row>
     <row r="223" ht="14.25" spans="1:1">
-      <c r="A223" s="22"/>
+      <c r="A223" s="19"/>
     </row>
     <row r="224" ht="14.25" spans="1:1">
-      <c r="A224" s="22"/>
+      <c r="A224" s="19"/>
     </row>
     <row r="225" ht="14.25" spans="1:1">
-      <c r="A225" s="22"/>
+      <c r="A225" s="19"/>
     </row>
     <row r="226" ht="14.25" spans="1:1">
-      <c r="A226" s="22"/>
+      <c r="A226" s="19"/>
     </row>
     <row r="227" ht="14.25" spans="1:1">
-      <c r="A227" s="22"/>
+      <c r="A227" s="19"/>
     </row>
     <row r="228" ht="14.25" spans="1:1">
-      <c r="A228" s="22"/>
+      <c r="A228" s="19"/>
     </row>
     <row r="229" ht="14.25" spans="1:1">
-      <c r="A229" s="22"/>
+      <c r="A229" s="19"/>
     </row>
     <row r="230" ht="14.25" spans="1:1">
-      <c r="A230" s="22"/>
+      <c r="A230" s="19"/>
     </row>
     <row r="231" ht="14.25" spans="1:1">
-      <c r="A231" s="22"/>
+      <c r="A231" s="19"/>
     </row>
     <row r="232" ht="14.25" spans="1:1">
-      <c r="A232" s="22"/>
+      <c r="A232" s="19"/>
     </row>
     <row r="233" ht="14.25" spans="1:1">
-      <c r="A233" s="22"/>
+      <c r="A233" s="19"/>
     </row>
     <row r="234" ht="14.25" spans="1:1">
-      <c r="A234" s="22"/>
+      <c r="A234" s="19"/>
     </row>
     <row r="235" ht="14.25" spans="1:1">
-      <c r="A235" s="22"/>
+      <c r="A235" s="19"/>
     </row>
     <row r="236" ht="14.25" spans="1:1">
-      <c r="A236" s="22"/>
+      <c r="A236" s="19"/>
     </row>
     <row r="237" ht="14.25" spans="1:1">
-      <c r="A237" s="22"/>
+      <c r="A237" s="19"/>
     </row>
     <row r="238" ht="14.25" spans="1:1">
-      <c r="A238" s="22"/>
+      <c r="A238" s="19"/>
     </row>
     <row r="239" ht="14.25" spans="1:1">
-      <c r="A239" s="22"/>
+      <c r="A239" s="19"/>
     </row>
     <row r="240" ht="14.25" spans="1:1">
-      <c r="A240" s="22"/>
+      <c r="A240" s="19"/>
     </row>
     <row r="241" ht="14.25" spans="1:1">
-      <c r="A241" s="22"/>
+      <c r="A241" s="19"/>
     </row>
     <row r="242" ht="14.25" spans="1:1">
-      <c r="A242" s="22"/>
+      <c r="A242" s="19"/>
     </row>
     <row r="243" ht="14.25" spans="1:1">
-      <c r="A243" s="22"/>
+      <c r="A243" s="19"/>
     </row>
     <row r="244" ht="14.25" spans="1:1">
-      <c r="A244" s="22"/>
+      <c r="A244" s="19"/>
     </row>
     <row r="245" ht="14.25" spans="1:1">
-      <c r="A245" s="22"/>
+      <c r="A245" s="19"/>
     </row>
     <row r="246" ht="14.25" spans="1:1">
-      <c r="A246" s="22"/>
+      <c r="A246" s="19"/>
     </row>
     <row r="247" ht="14.25" spans="1:1">
-      <c r="A247" s="22"/>
+      <c r="A247" s="19"/>
     </row>
     <row r="248" ht="14.25" spans="1:1">
-      <c r="A248" s="22"/>
+      <c r="A248" s="19"/>
     </row>
     <row r="249" ht="14.25" spans="1:1">
-      <c r="A249" s="22"/>
+      <c r="A249" s="19"/>
     </row>
     <row r="250" ht="14.25" spans="1:1">
-      <c r="A250" s="22"/>
+      <c r="A250" s="19"/>
     </row>
     <row r="251" ht="14.25" spans="1:1">
-      <c r="A251" s="22"/>
+      <c r="A251" s="19"/>
     </row>
     <row r="252" ht="14.25" spans="1:1">
-      <c r="A252" s="22"/>
+      <c r="A252" s="19"/>
     </row>
     <row r="253" ht="14.25" spans="1:1">
-      <c r="A253" s="22"/>
+      <c r="A253" s="19"/>
     </row>
     <row r="254" ht="14.25" spans="1:1">
-      <c r="A254" s="22"/>
+      <c r="A254" s="19"/>
     </row>
     <row r="255" ht="14.25" spans="1:1">
-      <c r="A255" s="22"/>
+      <c r="A255" s="19"/>
     </row>
     <row r="256" ht="14.25" spans="1:1">
-      <c r="A256" s="22"/>
+      <c r="A256" s="19"/>
     </row>
     <row r="257" ht="14.25" spans="1:1">
-      <c r="A257" s="22"/>
+      <c r="A257" s="19"/>
     </row>
     <row r="258" ht="14.25" spans="1:1">
-      <c r="A258" s="22"/>
+      <c r="A258" s="19"/>
     </row>
     <row r="259" ht="14.25" spans="1:1">
-      <c r="A259" s="22"/>
+      <c r="A259" s="19"/>
     </row>
     <row r="260" ht="14.25" spans="1:1">
-      <c r="A260" s="22"/>
+      <c r="A260" s="19"/>
     </row>
     <row r="261" ht="14.25" spans="1:1">
-      <c r="A261" s="22"/>
+      <c r="A261" s="19"/>
     </row>
     <row r="262" ht="14.25" spans="1:1">
-      <c r="A262" s="22"/>
+      <c r="A262" s="19"/>
     </row>
     <row r="263" ht="14.25" spans="1:1">
-      <c r="A263" s="22"/>
+      <c r="A263" s="19"/>
     </row>
     <row r="264" ht="14.25" spans="1:1">
-      <c r="A264" s="22"/>
+      <c r="A264" s="19"/>
     </row>
     <row r="265" ht="14.25" spans="1:1">
-      <c r="A265" s="22"/>
+      <c r="A265" s="19"/>
     </row>
     <row r="266" ht="14.25" spans="1:1">
-      <c r="A266" s="22"/>
+      <c r="A266" s="19"/>
     </row>
     <row r="267" ht="14.25" spans="1:1">
-      <c r="A267" s="22"/>
+      <c r="A267" s="19"/>
     </row>
     <row r="268" ht="14.25" spans="1:1">
-      <c r="A268" s="22"/>
+      <c r="A268" s="19"/>
     </row>
     <row r="269" ht="14.25" spans="1:1">
-      <c r="A269" s="22"/>
+      <c r="A269" s="19"/>
     </row>
     <row r="270" ht="14.25" spans="1:1">
-      <c r="A270" s="22"/>
+      <c r="A270" s="19"/>
     </row>
     <row r="271" ht="14.25" spans="1:1">
-      <c r="A271" s="22"/>
+      <c r="A271" s="19"/>
     </row>
     <row r="272" ht="14.25" spans="1:1">
-      <c r="A272" s="22"/>
+      <c r="A272" s="19"/>
     </row>
     <row r="273" ht="14.25" spans="1:1">
-      <c r="A273" s="22"/>
+      <c r="A273" s="19"/>
     </row>
     <row r="274" ht="14.25" spans="1:1">
-      <c r="A274" s="22"/>
+      <c r="A274" s="19"/>
     </row>
     <row r="275" ht="14.25" spans="1:1">
-      <c r="A275" s="22"/>
+      <c r="A275" s="19"/>
     </row>
     <row r="276" ht="14.25" spans="1:1">
-      <c r="A276" s="22"/>
+      <c r="A276" s="19"/>
     </row>
     <row r="277" ht="14.25" spans="1:1">
-      <c r="A277" s="22"/>
+      <c r="A277" s="19"/>
     </row>
     <row r="278" ht="14.25" spans="1:1">
-      <c r="A278" s="22"/>
+      <c r="A278" s="19"/>
     </row>
     <row r="279" ht="14.25" spans="1:1">
-      <c r="A279" s="22"/>
+      <c r="A279" s="19"/>
     </row>
     <row r="280" ht="14.25" spans="1:1">
-      <c r="A280" s="22"/>
+      <c r="A280" s="19"/>
     </row>
     <row r="281" ht="14.25" spans="1:1">
-      <c r="A281" s="22"/>
+      <c r="A281" s="19"/>
     </row>
     <row r="282" ht="14.25" spans="1:1">
-      <c r="A282" s="22"/>
+      <c r="A282" s="19"/>
     </row>
     <row r="283" ht="14.25" spans="1:1">
-      <c r="A283" s="22"/>
+      <c r="A283" s="19"/>
     </row>
     <row r="284" ht="14.25" spans="1:1">
-      <c r="A284" s="22"/>
+      <c r="A284" s="19"/>
     </row>
     <row r="285" ht="14.25" spans="1:1">
-      <c r="A285" s="22"/>
+      <c r="A285" s="19"/>
     </row>
     <row r="286" ht="14.25" spans="1:1">
-      <c r="A286" s="22"/>
+      <c r="A286" s="19"/>
     </row>
     <row r="287" ht="14.25" spans="1:1">
-      <c r="A287" s="22"/>
+      <c r="A287" s="19"/>
     </row>
     <row r="288" ht="14.25" spans="1:1">
-      <c r="A288" s="22"/>
+      <c r="A288" s="19"/>
     </row>
     <row r="289" ht="14.25" spans="1:1">
-      <c r="A289" s="22"/>
+      <c r="A289" s="19"/>
     </row>
     <row r="290" ht="14.25" spans="1:1">
-      <c r="A290" s="22"/>
+      <c r="A290" s="19"/>
     </row>
     <row r="291" ht="14.25" spans="1:1">
-      <c r="A291" s="22"/>
+      <c r="A291" s="19"/>
     </row>
     <row r="292" ht="14.25" spans="1:1">
-      <c r="A292" s="22"/>
+      <c r="A292" s="19"/>
     </row>
     <row r="293" ht="14.25" spans="1:1">
-      <c r="A293" s="22"/>
+      <c r="A293" s="19"/>
     </row>
     <row r="294" ht="14.25" spans="1:1">
-      <c r="A294" s="22"/>
+      <c r="A294" s="19"/>
     </row>
     <row r="295" ht="14.25" spans="1:1">
-      <c r="A295" s="22"/>
+      <c r="A295" s="19"/>
     </row>
     <row r="296" ht="14.25" spans="1:1">
-      <c r="A296" s="22"/>
+      <c r="A296" s="19"/>
     </row>
     <row r="297" ht="14.25" spans="1:1">
-      <c r="A297" s="22"/>
+      <c r="A297" s="19"/>
     </row>
     <row r="298" ht="14.25" spans="1:1">
-      <c r="A298" s="22"/>
+      <c r="A298" s="19"/>
     </row>
     <row r="299" ht="14.25" spans="1:1">
-      <c r="A299" s="22"/>
+      <c r="A299" s="19"/>
     </row>
     <row r="300" ht="14.25" spans="1:1">
-      <c r="A300" s="22"/>
+      <c r="A300" s="19"/>
     </row>
     <row r="301" ht="14.25" spans="1:1">
-      <c r="A301" s="22"/>
+      <c r="A301" s="19"/>
     </row>
     <row r="302" ht="14.25" spans="1:1">
-      <c r="A302" s="22"/>
+      <c r="A302" s="19"/>
     </row>
     <row r="303" ht="14.25" spans="1:1">
-      <c r="A303" s="22"/>
+      <c r="A303" s="19"/>
     </row>
     <row r="304" ht="14.25" spans="1:1">
-      <c r="A304" s="22"/>
+      <c r="A304" s="19"/>
     </row>
     <row r="305" ht="14.25" spans="1:1">
-      <c r="A305" s="22"/>
+      <c r="A305" s="19"/>
     </row>
     <row r="306" ht="14.25" spans="1:1">
-      <c r="A306" s="22"/>
+      <c r="A306" s="19"/>
     </row>
     <row r="307" ht="14.25" spans="1:1">
-      <c r="A307" s="22"/>
+      <c r="A307" s="19"/>
     </row>
     <row r="308" ht="14.25" spans="1:1">
-      <c r="A308" s="22"/>
+      <c r="A308" s="19"/>
     </row>
     <row r="309" ht="14.25" spans="1:1">
-      <c r="A309" s="22"/>
+      <c r="A309" s="19"/>
     </row>
     <row r="310" ht="14.25" spans="1:1">
-      <c r="A310" s="22"/>
+      <c r="A310" s="19"/>
     </row>
     <row r="311" ht="14.25" spans="1:1">
-      <c r="A311" s="22"/>
+      <c r="A311" s="19"/>
     </row>
     <row r="312" ht="14.25" spans="1:1">
-      <c r="A312" s="22"/>
+      <c r="A312" s="19"/>
     </row>
     <row r="313" ht="14.25" spans="1:1">
-      <c r="A313" s="22"/>
+      <c r="A313" s="19"/>
     </row>
     <row r="314" ht="14.25" spans="1:1">
-      <c r="A314" s="22"/>
+      <c r="A314" s="19"/>
     </row>
     <row r="315" ht="14.25" spans="1:1">
-      <c r="A315" s="22"/>
+      <c r="A315" s="19"/>
     </row>
     <row r="316" ht="14.25" spans="1:1">
-      <c r="A316" s="22"/>
+      <c r="A316" s="19"/>
     </row>
     <row r="317" ht="14.25" spans="1:1">
-      <c r="A317" s="22"/>
+      <c r="A317" s="19"/>
     </row>
     <row r="318" ht="14.25" spans="1:1">
-      <c r="A318" s="22"/>
+      <c r="A318" s="19"/>
     </row>
     <row r="319" ht="14.25" spans="1:1">
-      <c r="A319" s="22"/>
+      <c r="A319" s="19"/>
     </row>
     <row r="320" ht="14.25" spans="1:1">
-      <c r="A320" s="22"/>
+      <c r="A320" s="19"/>
     </row>
     <row r="321" ht="14.25" spans="1:1">
-      <c r="A321" s="22"/>
+      <c r="A321" s="19"/>
     </row>
     <row r="322" ht="14.25" spans="1:1">
-      <c r="A322" s="22"/>
+      <c r="A322" s="19"/>
     </row>
     <row r="323" ht="14.25" spans="1:1">
-      <c r="A323" s="22"/>
+      <c r="A323" s="19"/>
     </row>
     <row r="324" ht="14.25" spans="1:1">
-      <c r="A324" s="22"/>
+      <c r="A324" s="19"/>
     </row>
     <row r="325" ht="14.25" spans="1:1">
-      <c r="A325" s="22"/>
+      <c r="A325" s="19"/>
     </row>
     <row r="326" ht="14.25" spans="1:1">
-      <c r="A326" s="22"/>
+      <c r="A326" s="19"/>
     </row>
     <row r="327" ht="14.25" spans="1:1">
-      <c r="A327" s="22"/>
+      <c r="A327" s="19"/>
     </row>
     <row r="328" ht="14.25" spans="1:1">
-      <c r="A328" s="22"/>
+      <c r="A328" s="19"/>
     </row>
     <row r="329" ht="14.25" spans="1:1">
-      <c r="A329" s="22"/>
+      <c r="A329" s="19"/>
     </row>
     <row r="330" ht="14.25" spans="1:1">
-      <c r="A330" s="22"/>
+      <c r="A330" s="19"/>
     </row>
     <row r="331" ht="14.25" spans="1:1">
-      <c r="A331" s="22"/>
+      <c r="A331" s="19"/>
     </row>
     <row r="332" ht="14.25" spans="1:1">
-      <c r="A332" s="22"/>
+      <c r="A332" s="19"/>
     </row>
     <row r="333" ht="14.25" spans="1:1">
-      <c r="A333" s="22"/>
+      <c r="A333" s="19"/>
     </row>
     <row r="334" ht="14.25" spans="1:1">
-      <c r="A334" s="22"/>
+      <c r="A334" s="19"/>
     </row>
     <row r="335" ht="14.25" spans="1:1">
-      <c r="A335" s="22"/>
+      <c r="A335" s="19"/>
     </row>
     <row r="336" ht="14.25" spans="1:1">
-      <c r="A336" s="22"/>
+      <c r="A336" s="19"/>
     </row>
     <row r="337" ht="14.25" spans="1:1">
-      <c r="A337" s="22"/>
+      <c r="A337" s="19"/>
     </row>
     <row r="338" ht="14.25" spans="1:1">
-      <c r="A338" s="22"/>
+      <c r="A338" s="19"/>
     </row>
     <row r="339" ht="14.25" spans="1:1">
-      <c r="A339" s="22"/>
+      <c r="A339" s="19"/>
     </row>
     <row r="340" ht="14.25" spans="1:1">
-      <c r="A340" s="22"/>
+      <c r="A340" s="19"/>
     </row>
     <row r="341" ht="14.25" spans="1:1">
-      <c r="A341" s="22"/>
+      <c r="A341" s="19"/>
     </row>
     <row r="342" ht="14.25" spans="1:1">
-      <c r="A342" s="22"/>
+      <c r="A342" s="19"/>
     </row>
     <row r="343" ht="14.25" spans="1:1">
-      <c r="A343" s="22"/>
+      <c r="A343" s="19"/>
     </row>
     <row r="344" ht="14.25" spans="1:1">
-      <c r="A344" s="22"/>
+      <c r="A344" s="19"/>
     </row>
     <row r="345" ht="14.25" spans="1:1">
-      <c r="A345" s="22"/>
+      <c r="A345" s="19"/>
     </row>
     <row r="346" ht="14.25" spans="1:1">
-      <c r="A346" s="22"/>
+      <c r="A346" s="19"/>
     </row>
     <row r="347" ht="14.25" spans="1:1">
-      <c r="A347" s="22"/>
+      <c r="A347" s="19"/>
     </row>
     <row r="348" ht="14.25" spans="1:1">
-      <c r="A348" s="22"/>
+      <c r="A348" s="19"/>
     </row>
     <row r="349" ht="14.25" spans="1:1">
-      <c r="A349" s="22"/>
+      <c r="A349" s="19"/>
     </row>
     <row r="350" ht="14.25" spans="1:1">
-      <c r="A350" s="22"/>
+      <c r="A350" s="19"/>
     </row>
     <row r="351" ht="14.25" spans="1:1">
-      <c r="A351" s="22"/>
+      <c r="A351" s="19"/>
     </row>
     <row r="352" ht="14.25" spans="1:1">
-      <c r="A352" s="22"/>
+      <c r="A352" s="19"/>
     </row>
     <row r="353" ht="14.25" spans="1:1">
-      <c r="A353" s="22"/>
+      <c r="A353" s="19"/>
     </row>
     <row r="354" ht="14.25" spans="1:1">
-      <c r="A354" s="22"/>
+      <c r="A354" s="19"/>
     </row>
     <row r="355" ht="14.25" spans="1:1">
-      <c r="A355" s="22"/>
+      <c r="A355" s="19"/>
     </row>
     <row r="356" ht="14.25" spans="1:1">
-      <c r="A356" s="22"/>
+      <c r="A356" s="19"/>
     </row>
     <row r="357" ht="14.25" spans="1:1">
-      <c r="A357" s="22"/>
+      <c r="A357" s="19"/>
     </row>
     <row r="358" ht="14.25" spans="1:1">
-      <c r="A358" s="22"/>
+      <c r="A358" s="19"/>
     </row>
     <row r="359" ht="14.25" spans="1:1">
-      <c r="A359" s="22"/>
+      <c r="A359" s="19"/>
     </row>
     <row r="360" ht="14.25" spans="1:1">
-      <c r="A360" s="22"/>
+      <c r="A360" s="19"/>
     </row>
     <row r="361" ht="14.25" spans="1:1">
-      <c r="A361" s="22"/>
+      <c r="A361" s="19"/>
     </row>
     <row r="362" ht="14.25" spans="1:1">
-      <c r="A362" s="22"/>
+      <c r="A362" s="19"/>
     </row>
     <row r="363" ht="14.25" spans="1:1">
-      <c r="A363" s="22"/>
+      <c r="A363" s="19"/>
     </row>
     <row r="364" ht="14.25" spans="1:1">
-      <c r="A364" s="22"/>
+      <c r="A364" s="19"/>
     </row>
     <row r="365" ht="14.25" spans="1:1">
-      <c r="A365" s="22"/>
+      <c r="A365" s="19"/>
     </row>
     <row r="366" ht="14.25" spans="1:1">
-      <c r="A366" s="22"/>
+      <c r="A366" s="19"/>
     </row>
     <row r="367" ht="14.25" spans="1:1">
-      <c r="A367" s="22"/>
+      <c r="A367" s="19"/>
     </row>
     <row r="368" ht="14.25" spans="1:1">
-      <c r="A368" s="22"/>
+      <c r="A368" s="19"/>
     </row>
     <row r="369" ht="14.25" spans="1:1">
-      <c r="A369" s="22"/>
+      <c r="A369" s="19"/>
     </row>
     <row r="370" ht="14.25" spans="1:1">
-      <c r="A370" s="22"/>
+      <c r="A370" s="19"/>
     </row>
     <row r="371" ht="14.25" spans="1:1">
-      <c r="A371" s="22"/>
+      <c r="A371" s="19"/>
     </row>
     <row r="372" ht="14.25" spans="1:1">
-      <c r="A372" s="22"/>
+      <c r="A372" s="19"/>
     </row>
     <row r="373" ht="14.25" spans="1:1">
-      <c r="A373" s="22"/>
+      <c r="A373" s="19"/>
     </row>
     <row r="374" ht="14.25" spans="1:1">
-      <c r="A374" s="22"/>
+      <c r="A374" s="19"/>
     </row>
     <row r="375" ht="14.25" spans="1:1">
-      <c r="A375" s="22"/>
+      <c r="A375" s="19"/>
     </row>
     <row r="376" ht="14.25" spans="1:1">
-      <c r="A376" s="22"/>
+      <c r="A376" s="19"/>
     </row>
     <row r="377" ht="14.25" spans="1:1">
-      <c r="A377" s="22"/>
+      <c r="A377" s="19"/>
     </row>
     <row r="378" ht="14.25" spans="1:1">
-      <c r="A378" s="22"/>
+      <c r="A378" s="19"/>
     </row>
     <row r="379" ht="14.25" spans="1:1">
-      <c r="A379" s="22"/>
+      <c r="A379" s="19"/>
     </row>
     <row r="380" ht="14.25" spans="1:1">
-      <c r="A380" s="22"/>
+      <c r="A380" s="19"/>
     </row>
     <row r="381" ht="14.25" spans="1:1">
-      <c r="A381" s="22"/>
+      <c r="A381" s="19"/>
     </row>
     <row r="382" ht="14.25" spans="1:1">
-      <c r="A382" s="22"/>
+      <c r="A382" s="19"/>
     </row>
     <row r="383" ht="14.25" spans="1:1">
-      <c r="A383" s="22"/>
+      <c r="A383" s="19"/>
     </row>
     <row r="384" ht="14.25" spans="1:1">
-      <c r="A384" s="22"/>
+      <c r="A384" s="19"/>
     </row>
     <row r="385" ht="14.25" spans="1:1">
-      <c r="A385" s="22"/>
+      <c r="A385" s="19"/>
     </row>
     <row r="386" ht="14.25" spans="1:1">
-      <c r="A386" s="22"/>
+      <c r="A386" s="19"/>
     </row>
     <row r="387" ht="14.25" spans="1:1">
-      <c r="A387" s="22"/>
+      <c r="A387" s="19"/>
     </row>
     <row r="388" ht="14.25" spans="1:1">
-      <c r="A388" s="22"/>
+      <c r="A388" s="19"/>
     </row>
     <row r="389" ht="14.25" spans="1:1">
-      <c r="A389" s="22"/>
+      <c r="A389" s="19"/>
     </row>
     <row r="390" ht="14.25" spans="1:1">
-      <c r="A390" s="22"/>
+      <c r="A390" s="19"/>
     </row>
     <row r="391" ht="14.25" spans="1:1">
-      <c r="A391" s="22"/>
+      <c r="A391" s="19"/>
     </row>
     <row r="392" ht="14.25" spans="1:1">
-      <c r="A392" s="22"/>
+      <c r="A392" s="19"/>
     </row>
     <row r="393" ht="14.25" spans="1:1">
-      <c r="A393" s="22"/>
+      <c r="A393" s="19"/>
     </row>
     <row r="394" ht="14.25" spans="1:1">
-      <c r="A394" s="22"/>
+      <c r="A394" s="19"/>
     </row>
     <row r="395" ht="14.25" spans="1:1">
-      <c r="A395" s="22"/>
+      <c r="A395" s="19"/>
     </row>
     <row r="396" ht="14.25" spans="1:1">
-      <c r="A396" s="22"/>
+      <c r="A396" s="19"/>
     </row>
     <row r="397" ht="14.25" spans="1:1">
-      <c r="A397" s="22"/>
+      <c r="A397" s="19"/>
     </row>
     <row r="398" ht="14.25" spans="1:1">
-      <c r="A398" s="22"/>
+      <c r="A398" s="19"/>
     </row>
     <row r="399" ht="14.25" spans="1:1">
-      <c r="A399" s="22"/>
+      <c r="A399" s="19"/>
     </row>
     <row r="400" ht="14.25" spans="1:1">
-      <c r="A400" s="22"/>
+      <c r="A400" s="19"/>
     </row>
     <row r="401" ht="14.25" spans="1:1">
-      <c r="A401" s="22"/>
+      <c r="A401" s="19"/>
     </row>
     <row r="402" ht="14.25" spans="1:1">
-      <c r="A402" s="22"/>
+      <c r="A402" s="19"/>
     </row>
     <row r="403" ht="14.25" spans="1:1">
-      <c r="A403" s="22"/>
+      <c r="A403" s="19"/>
     </row>
     <row r="404" ht="14.25" spans="1:1">
-      <c r="A404" s="22"/>
+      <c r="A404" s="19"/>
     </row>
     <row r="405" ht="14.25" spans="1:1">
-      <c r="A405" s="22"/>
+      <c r="A405" s="19"/>
     </row>
     <row r="406" ht="14.25" spans="1:1">
-      <c r="A406" s="22"/>
+      <c r="A406" s="19"/>
     </row>
     <row r="407" ht="14.25" spans="1:1">
-      <c r="A407" s="22"/>
+      <c r="A407" s="19"/>
     </row>
     <row r="408" ht="14.25" spans="1:1">
-      <c r="A408" s="22"/>
+      <c r="A408" s="19"/>
     </row>
     <row r="409" ht="14.25" spans="1:1">
-      <c r="A409" s="22"/>
+      <c r="A409" s="19"/>
     </row>
     <row r="410" ht="14.25" spans="1:1">
-      <c r="A410" s="22"/>
+      <c r="A410" s="19"/>
     </row>
     <row r="411" ht="14.25" spans="1:1">
-      <c r="A411" s="22"/>
+      <c r="A411" s="19"/>
     </row>
     <row r="412" ht="14.25" spans="1:1">
-      <c r="A412" s="22"/>
+      <c r="A412" s="19"/>
     </row>
     <row r="413" ht="14.25" spans="1:1">
-      <c r="A413" s="22"/>
+      <c r="A413" s="19"/>
     </row>
     <row r="414" ht="14.25" spans="1:1">
-      <c r="A414" s="22"/>
+      <c r="A414" s="19"/>
     </row>
     <row r="415" ht="14.25" spans="1:1">
-      <c r="A415" s="22"/>
+      <c r="A415" s="19"/>
     </row>
     <row r="416" ht="14.25" spans="1:1">
-      <c r="A416" s="22"/>
+      <c r="A416" s="19"/>
     </row>
     <row r="417" ht="14.25" spans="1:1">
-      <c r="A417" s="22"/>
+      <c r="A417" s="19"/>
     </row>
     <row r="418" ht="14.25" spans="1:1">
-      <c r="A418" s="22"/>
+      <c r="A418" s="19"/>
     </row>
     <row r="419" ht="14.25" spans="1:1">
-      <c r="A419" s="22"/>
+      <c r="A419" s="19"/>
     </row>
     <row r="420" ht="14.25" spans="1:1">
-      <c r="A420" s="22"/>
+      <c r="A420" s="19"/>
     </row>
     <row r="421" ht="14.25" spans="1:1">
-      <c r="A421" s="22"/>
+      <c r="A421" s="19"/>
     </row>
     <row r="422" ht="14.25" spans="1:1">
-      <c r="A422" s="22"/>
+      <c r="A422" s="19"/>
     </row>
     <row r="423" ht="14.25" spans="1:1">
-      <c r="A423" s="22"/>
+      <c r="A423" s="19"/>
     </row>
     <row r="424" ht="14.25" spans="1:1">
-      <c r="A424" s="22"/>
+      <c r="A424" s="19"/>
     </row>
     <row r="425" ht="14.25" spans="1:1">
-      <c r="A425" s="22"/>
+      <c r="A425" s="19"/>
     </row>
     <row r="426" ht="14.25" spans="1:1">
-      <c r="A426" s="22"/>
+      <c r="A426" s="19"/>
     </row>
     <row r="427" ht="14.25" spans="1:1">
-      <c r="A427" s="22"/>
+      <c r="A427" s="19"/>
     </row>
     <row r="428" ht="14.25" spans="1:1">
-      <c r="A428" s="22"/>
+      <c r="A428" s="19"/>
     </row>
     <row r="429" ht="14.25" spans="1:1">
-      <c r="A429" s="22"/>
+      <c r="A429" s="19"/>
     </row>
     <row r="430" ht="14.25" spans="1:1">
-      <c r="A430" s="22"/>
+      <c r="A430" s="19"/>
     </row>
     <row r="431" ht="14.25" spans="1:1">
-      <c r="A431" s="22"/>
+      <c r="A431" s="19"/>
     </row>
     <row r="432" ht="14.25" spans="1:1">
-      <c r="A432" s="22"/>
+      <c r="A432" s="19"/>
     </row>
     <row r="433" ht="14.25" spans="1:1">
-      <c r="A433" s="22"/>
+      <c r="A433" s="19"/>
     </row>
     <row r="434" ht="14.25" spans="1:1">
-      <c r="A434" s="22"/>
+      <c r="A434" s="19"/>
     </row>
     <row r="435" ht="14.25" spans="1:1">
-      <c r="A435" s="22"/>
+      <c r="A435" s="19"/>
     </row>
     <row r="436" ht="14.25" spans="1:1">
-      <c r="A436" s="22"/>
+      <c r="A436" s="19"/>
     </row>
     <row r="437" ht="14.25" spans="1:1">
-      <c r="A437" s="22"/>
+      <c r="A437" s="19"/>
     </row>
     <row r="438" ht="14.25" spans="1:1">
-      <c r="A438" s="22"/>
+      <c r="A438" s="19"/>
     </row>
     <row r="439" ht="14.25" spans="1:1">
-      <c r="A439" s="22"/>
+      <c r="A439" s="19"/>
     </row>
     <row r="440" ht="14.25" spans="1:1">
-      <c r="A440" s="22"/>
+      <c r="A440" s="19"/>
     </row>
     <row r="441" ht="14.25" spans="1:1">
-      <c r="A441" s="22"/>
+      <c r="A441" s="19"/>
     </row>
     <row r="442" ht="14.25" spans="1:1">
-      <c r="A442" s="22"/>
+      <c r="A442" s="19"/>
     </row>
     <row r="443" ht="14.25" spans="1:1">
-      <c r="A443" s="22"/>
+      <c r="A443" s="19"/>
     </row>
     <row r="444" ht="14.25" spans="1:1">
-      <c r="A444" s="22"/>
+      <c r="A444" s="19"/>
     </row>
     <row r="445" ht="14.25" spans="1:1">
-      <c r="A445" s="22"/>
+      <c r="A445" s="19"/>
     </row>
     <row r="446" ht="14.25" spans="1:1">
-      <c r="A446" s="22"/>
+      <c r="A446" s="19"/>
     </row>
     <row r="447" ht="14.25" spans="1:1">
-      <c r="A447" s="22"/>
+      <c r="A447" s="19"/>
     </row>
     <row r="448" ht="14.25" spans="1:1">
-      <c r="A448" s="22"/>
+      <c r="A448" s="19"/>
     </row>
     <row r="449" ht="14.25" spans="1:1">
-      <c r="A449" s="22"/>
+      <c r="A449" s="19"/>
     </row>
     <row r="450" ht="14.25" spans="1:1">
-      <c r="A450" s="22"/>
+      <c r="A450" s="19"/>
     </row>
     <row r="451" ht="14.25" spans="1:1">
-      <c r="A451" s="22"/>
+      <c r="A451" s="19"/>
     </row>
     <row r="452" ht="14.25" spans="1:1">
-      <c r="A452" s="22"/>
+      <c r="A452" s="19"/>
     </row>
     <row r="453" ht="14.25" spans="1:1">
-      <c r="A453" s="22"/>
+      <c r="A453" s="19"/>
     </row>
     <row r="454" ht="14.25" spans="1:1">
-      <c r="A454" s="22"/>
+      <c r="A454" s="19"/>
     </row>
     <row r="455" ht="14.25" spans="1:1">
-      <c r="A455" s="22"/>
+      <c r="A455" s="19"/>
     </row>
     <row r="456" ht="14.25" spans="1:1">
-      <c r="A456" s="22"/>
+      <c r="A456" s="19"/>
     </row>
     <row r="457" ht="14.25" spans="1:1">
-      <c r="A457" s="22"/>
+      <c r="A457" s="19"/>
     </row>
     <row r="458" ht="14.25" spans="1:1">
-      <c r="A458" s="22"/>
+      <c r="A458" s="19"/>
     </row>
     <row r="459" ht="14.25" spans="1:1">
-      <c r="A459" s="22"/>
+      <c r="A459" s="19"/>
     </row>
     <row r="460" ht="14.25" spans="1:1">
-      <c r="A460" s="22"/>
+      <c r="A460" s="19"/>
     </row>
     <row r="461" ht="14.25" spans="1:1">
-      <c r="A461" s="22"/>
+      <c r="A461" s="19"/>
     </row>
     <row r="462" ht="14.25" spans="1:1">
-      <c r="A462" s="22"/>
+      <c r="A462" s="19"/>
     </row>
     <row r="463" ht="14.25" spans="1:1">
-      <c r="A463" s="22"/>
+      <c r="A463" s="19"/>
     </row>
     <row r="464" ht="14.25" spans="1:1">
-      <c r="A464" s="22"/>
+      <c r="A464" s="19"/>
     </row>
     <row r="465" ht="14.25" spans="1:1">
-      <c r="A465" s="22"/>
+      <c r="A465" s="19"/>
     </row>
     <row r="466" ht="14.25" spans="1:1">
-      <c r="A466" s="22"/>
+      <c r="A466" s="19"/>
     </row>
     <row r="467" ht="14.25" spans="1:1">
-      <c r="A467" s="22"/>
+      <c r="A467" s="19"/>
     </row>
     <row r="468" ht="14.25" spans="1:1">
-      <c r="A468" s="22"/>
+      <c r="A468" s="19"/>
     </row>
     <row r="469" ht="14.25" spans="1:1">
-      <c r="A469" s="22"/>
+      <c r="A469" s="19"/>
     </row>
     <row r="470" ht="14.25" spans="1:1">
-      <c r="A470" s="22"/>
+      <c r="A470" s="19"/>
     </row>
     <row r="471" ht="14.25" spans="1:1">
-      <c r="A471" s="22"/>
+      <c r="A471" s="19"/>
     </row>
     <row r="472" ht="14.25" spans="1:1">
-      <c r="A472" s="22"/>
+      <c r="A472" s="19"/>
     </row>
     <row r="473" ht="14.25" spans="1:1">
-      <c r="A473" s="22"/>
+      <c r="A473" s="19"/>
     </row>
     <row r="474" ht="14.25" spans="1:1">
-      <c r="A474" s="22"/>
+      <c r="A474" s="19"/>
     </row>
     <row r="475" ht="14.25" spans="1:1">
-      <c r="A475" s="22"/>
+      <c r="A475" s="19"/>
     </row>
     <row r="476" ht="14.25" spans="1:1">
-      <c r="A476" s="22"/>
+      <c r="A476" s="19"/>
     </row>
     <row r="477" ht="14.25" spans="1:1">
-      <c r="A477" s="22"/>
+      <c r="A477" s="19"/>
     </row>
     <row r="478" ht="14.25" spans="1:1">
-      <c r="A478" s="22"/>
+      <c r="A478" s="19"/>
     </row>
     <row r="479" ht="14.25" spans="1:1">
-      <c r="A479" s="22"/>
+      <c r="A479" s="19"/>
     </row>
     <row r="480" ht="14.25" spans="1:1">
-      <c r="A480" s="22"/>
+      <c r="A480" s="19"/>
     </row>
     <row r="481" ht="14.25" spans="1:1">
-      <c r="A481" s="22"/>
+      <c r="A481" s="19"/>
     </row>
     <row r="482" ht="14.25" spans="1:1">
-      <c r="A482" s="22"/>
+      <c r="A482" s="19"/>
     </row>
     <row r="483" ht="14.25" spans="1:1">
-      <c r="A483" s="22"/>
+      <c r="A483" s="19"/>
     </row>
     <row r="484" ht="14.25" spans="1:1">
-      <c r="A484" s="22"/>
+      <c r="A484" s="19"/>
     </row>
     <row r="485" ht="14.25" spans="1:1">
-      <c r="A485" s="22"/>
+      <c r="A485" s="19"/>
     </row>
     <row r="486" ht="14.25" spans="1:1">
-      <c r="A486" s="22"/>
+      <c r="A486" s="19"/>
     </row>
     <row r="487" ht="14.25" spans="1:1">
-      <c r="A487" s="22"/>
+      <c r="A487" s="19"/>
     </row>
     <row r="488" ht="14.25" spans="1:1">
-      <c r="A488" s="22"/>
+      <c r="A488" s="19"/>
     </row>
     <row r="489" ht="14.25" spans="1:1">
-      <c r="A489" s="22"/>
+      <c r="A489" s="19"/>
     </row>
     <row r="490" ht="14.25" spans="1:1">
-      <c r="A490" s="22"/>
+      <c r="A490" s="19"/>
     </row>
     <row r="491" ht="14.25" spans="1:1">
-      <c r="A491" s="22"/>
+      <c r="A491" s="19"/>
     </row>
     <row r="492" ht="14.25" spans="1:1">
-      <c r="A492" s="22"/>
+      <c r="A492" s="19"/>
     </row>
     <row r="493" ht="14.25" spans="1:1">
-      <c r="A493" s="22"/>
+      <c r="A493" s="19"/>
     </row>
     <row r="494" ht="14.25" spans="1:1">
-      <c r="A494" s="22"/>
+      <c r="A494" s="19"/>
     </row>
     <row r="495" ht="14.25" spans="1:1">
-      <c r="A495" s="22"/>
+      <c r="A495" s="19"/>
     </row>
     <row r="496" ht="14.25" spans="1:1">
-      <c r="A496" s="22"/>
+      <c r="A496" s="19"/>
     </row>
     <row r="497" ht="14.25" spans="1:1">
-      <c r="A497" s="22"/>
+      <c r="A497" s="19"/>
     </row>
     <row r="498" ht="14.25" spans="1:1">
-      <c r="A498" s="22"/>
+      <c r="A498" s="19"/>
     </row>
     <row r="499" ht="14.25" spans="1:1">
-      <c r="A499" s="22"/>
+      <c r="A499" s="19"/>
     </row>
     <row r="500" ht="14.25" spans="1:1">
-      <c r="A500" s="22"/>
+      <c r="A500" s="19"/>
     </row>
     <row r="501" ht="14.25" spans="1:1">
-      <c r="A501" s="22"/>
+      <c r="A501" s="19"/>
     </row>
     <row r="502" ht="14.25" spans="1:1">
-      <c r="A502" s="22"/>
+      <c r="A502" s="19"/>
     </row>
     <row r="503" ht="14.25" spans="1:1">
-      <c r="A503" s="22"/>
+      <c r="A503" s="19"/>
     </row>
     <row r="504" ht="14.25" spans="1:1">
-      <c r="A504" s="22"/>
+      <c r="A504" s="19"/>
     </row>
     <row r="505" ht="14.25" spans="1:1">
-      <c r="A505" s="22"/>
+      <c r="A505" s="19"/>
     </row>
     <row r="506" ht="14.25" spans="1:1">
-      <c r="A506" s="22"/>
+      <c r="A506" s="19"/>
     </row>
     <row r="507" ht="14.25" spans="1:1">
-      <c r="A507" s="22"/>
+      <c r="A507" s="19"/>
     </row>
     <row r="508" ht="14.25" spans="1:1">
-      <c r="A508" s="22"/>
+      <c r="A508" s="19"/>
     </row>
     <row r="509" ht="14.25" spans="1:1">
-      <c r="A509" s="22"/>
+      <c r="A509" s="19"/>
     </row>
     <row r="510" ht="14.25" spans="1:1">
-      <c r="A510" s="22"/>
+      <c r="A510" s="19"/>
     </row>
     <row r="511" ht="14.25" spans="1:1">
-      <c r="A511" s="22"/>
+      <c r="A511" s="19"/>
     </row>
     <row r="512" ht="14.25" spans="1:1">
-      <c r="A512" s="22"/>
+      <c r="A512" s="19"/>
     </row>
     <row r="513" ht="14.25" spans="1:1">
-      <c r="A513" s="22"/>
+      <c r="A513" s="19"/>
     </row>
     <row r="514" ht="14.25" spans="1:1">
-      <c r="A514" s="22"/>
+      <c r="A514" s="19"/>
     </row>
     <row r="515" ht="14.25" spans="1:1">
-      <c r="A515" s="22"/>
+      <c r="A515" s="19"/>
     </row>
     <row r="516" ht="14.25" spans="1:1">
-      <c r="A516" s="22"/>
+      <c r="A516" s="19"/>
     </row>
     <row r="517" ht="14.25" spans="1:1">
-      <c r="A517" s="22"/>
+      <c r="A517" s="19"/>
     </row>
     <row r="518" ht="14.25" spans="1:1">
-      <c r="A518" s="22"/>
+      <c r="A518" s="19"/>
     </row>
     <row r="519" ht="14.25" spans="1:1">
-      <c r="A519" s="22"/>
+      <c r="A519" s="19"/>
     </row>
     <row r="520" ht="14.25" spans="1:1">
-      <c r="A520" s="22"/>
+      <c r="A520" s="19"/>
     </row>
     <row r="521" ht="14.25" spans="1:1">
-      <c r="A521" s="22"/>
+      <c r="A521" s="19"/>
     </row>
     <row r="522" ht="14.25" spans="1:1">
-      <c r="A522" s="22"/>
+      <c r="A522" s="19"/>
     </row>
     <row r="523" ht="14.25" spans="1:1">
-      <c r="A523" s="22"/>
+      <c r="A523" s="19"/>
     </row>
     <row r="524" ht="14.25" spans="1:1">
-      <c r="A524" s="22"/>
+      <c r="A524" s="19"/>
     </row>
     <row r="525" ht="14.25" spans="1:1">
-      <c r="A525" s="22"/>
+      <c r="A525" s="19"/>
     </row>
     <row r="526" ht="14.25" spans="1:1">
-      <c r="A526" s="22"/>
+      <c r="A526" s="19"/>
     </row>
     <row r="527" ht="14.25" spans="1:1">
-      <c r="A527" s="22"/>
+      <c r="A527" s="19"/>
     </row>
     <row r="528" ht="14.25" spans="1:1">
-      <c r="A528" s="22"/>
+      <c r="A528" s="19"/>
     </row>
     <row r="529" ht="14.25" spans="1:1">
-      <c r="A529" s="22"/>
+      <c r="A529" s="19"/>
     </row>
     <row r="530" ht="14.25" spans="1:1">
-      <c r="A530" s="22"/>
+      <c r="A530" s="19"/>
     </row>
     <row r="531" ht="14.25" spans="1:1">
-      <c r="A531" s="22"/>
+      <c r="A531" s="19"/>
     </row>
     <row r="532" ht="14.25" spans="1:1">
-      <c r="A532" s="22"/>
+      <c r="A532" s="19"/>
     </row>
     <row r="533" ht="14.25" spans="1:1">
-      <c r="A533" s="22"/>
+      <c r="A533" s="19"/>
     </row>
     <row r="534" ht="14.25" spans="1:1">
-      <c r="A534" s="22"/>
+      <c r="A534" s="19"/>
     </row>
     <row r="535" ht="14.25" spans="1:1">
-      <c r="A535" s="22"/>
+      <c r="A535" s="19"/>
     </row>
     <row r="536" ht="14.25" spans="1:1">
-      <c r="A536" s="22"/>
+      <c r="A536" s="19"/>
     </row>
     <row r="537" ht="14.25" spans="1:1">
-      <c r="A537" s="22"/>
+      <c r="A537" s="19"/>
     </row>
     <row r="538" ht="14.25" spans="1:1">
-      <c r="A538" s="22"/>
+      <c r="A538" s="19"/>
     </row>
     <row r="539" ht="14.25" spans="1:1">
-      <c r="A539" s="22"/>
+      <c r="A539" s="19"/>
     </row>
     <row r="540" ht="14.25" spans="1:1">
-      <c r="A540" s="22"/>
+      <c r="A540" s="19"/>
     </row>
     <row r="541" ht="14.25" spans="1:1">
-      <c r="A541" s="22"/>
+      <c r="A541" s="19"/>
     </row>
     <row r="542" ht="14.25" spans="1:1">
-      <c r="A542" s="22"/>
+      <c r="A542" s="19"/>
     </row>
     <row r="543" ht="14.25" spans="1:1">
-      <c r="A543" s="22"/>
+      <c r="A543" s="19"/>
     </row>
     <row r="544" ht="14.25" spans="1:1">
-      <c r="A544" s="22"/>
+      <c r="A544" s="19"/>
     </row>
     <row r="545" ht="14.25" spans="1:1">
-      <c r="A545" s="22"/>
+      <c r="A545" s="19"/>
     </row>
     <row r="546" ht="14.25" spans="1:1">
-      <c r="A546" s="22"/>
+      <c r="A546" s="19"/>
     </row>
     <row r="547" ht="14.25" spans="1:1">
-      <c r="A547" s="22"/>
+      <c r="A547" s="19"/>
     </row>
     <row r="548" ht="14.25" spans="1:1">
-      <c r="A548" s="22"/>
+      <c r="A548" s="19"/>
     </row>
     <row r="549" ht="14.25" spans="1:1">
-      <c r="A549" s="22"/>
+      <c r="A549" s="19"/>
     </row>
     <row r="550" ht="14.25" spans="1:1">
-      <c r="A550" s="22"/>
+      <c r="A550" s="19"/>
     </row>
     <row r="551" ht="14.25" spans="1:1">
-      <c r="A551" s="22"/>
+      <c r="A551" s="19"/>
     </row>
     <row r="552" ht="14.25" spans="1:1">
-      <c r="A552" s="22"/>
+      <c r="A552" s="19"/>
     </row>
     <row r="553" ht="14.25" spans="1:1">
-      <c r="A553" s="22"/>
+      <c r="A553" s="19"/>
     </row>
     <row r="554" ht="14.25" spans="1:1">
-      <c r="A554" s="22"/>
+      <c r="A554" s="19"/>
     </row>
     <row r="555" ht="14.25" spans="1:1">
-      <c r="A555" s="22"/>
+      <c r="A555" s="19"/>
     </row>
     <row r="556" ht="14.25" spans="1:1">
-      <c r="A556" s="22"/>
+      <c r="A556" s="19"/>
     </row>
     <row r="557" ht="14.25" spans="1:1">
-      <c r="A557" s="22"/>
+      <c r="A557" s="19"/>
     </row>
     <row r="558" ht="14.25" spans="1:1">
-      <c r="A558" s="22"/>
+      <c r="A558" s="19"/>
     </row>
     <row r="559" ht="14.25" spans="1:1">
-      <c r="A559" s="22"/>
+      <c r="A559" s="19"/>
     </row>
     <row r="560" ht="14.25" spans="1:1">
-      <c r="A560" s="22"/>
+      <c r="A560" s="19"/>
     </row>
     <row r="561" ht="14.25" spans="1:1">
-      <c r="A561" s="22"/>
+      <c r="A561" s="19"/>
     </row>
     <row r="562" ht="14.25" spans="1:1">
-      <c r="A562" s="22"/>
+      <c r="A562" s="19"/>
     </row>
     <row r="563" ht="14.25" spans="1:1">
-      <c r="A563" s="22"/>
+      <c r="A563" s="19"/>
     </row>
     <row r="564" ht="14.25" spans="1:1">
-      <c r="A564" s="22"/>
+      <c r="A564" s="19"/>
     </row>
     <row r="565" ht="14.25" spans="1:1">
-      <c r="A565" s="22"/>
+      <c r="A565" s="19"/>
     </row>
     <row r="566" ht="14.25" spans="1:1">
-      <c r="A566" s="22"/>
+      <c r="A566" s="19"/>
     </row>
     <row r="567" ht="14.25" spans="1:1">
-      <c r="A567" s="22"/>
+      <c r="A567" s="19"/>
     </row>
     <row r="568" ht="14.25" spans="1:1">
-      <c r="A568" s="22"/>
+      <c r="A568" s="19"/>
     </row>
     <row r="569" ht="14.25" spans="1:1">
-      <c r="A569" s="22"/>
+      <c r="A569" s="19"/>
     </row>
     <row r="570" ht="14.25" spans="1:1">
-      <c r="A570" s="22"/>
+      <c r="A570" s="19"/>
     </row>
     <row r="571" ht="14.25" spans="1:1">
-      <c r="A571" s="22"/>
+      <c r="A571" s="19"/>
     </row>
     <row r="572" ht="14.25" spans="1:1">
-      <c r="A572" s="22"/>
+      <c r="A572" s="19"/>
     </row>
     <row r="573" ht="14.25" spans="1:1">
-      <c r="A573" s="22"/>
+      <c r="A573" s="19"/>
     </row>
     <row r="574" ht="14.25" spans="1:1">
-      <c r="A574" s="22"/>
+      <c r="A574" s="19"/>
     </row>
     <row r="575" ht="14.25" spans="1:1">
-      <c r="A575" s="22"/>
+      <c r="A575" s="19"/>
     </row>
     <row r="576" ht="14.25" spans="1:1">
-      <c r="A576" s="22"/>
+      <c r="A576" s="19"/>
     </row>
     <row r="577" ht="14.25" spans="1:1">
-      <c r="A577" s="22"/>
+      <c r="A577" s="19"/>
     </row>
     <row r="578" ht="14.25" spans="1:1">
-      <c r="A578" s="22"/>
+      <c r="A578" s="19"/>
     </row>
     <row r="579" ht="14.25" spans="1:1">
-      <c r="A579" s="22"/>
+      <c r="A579" s="19"/>
     </row>
     <row r="580" ht="14.25" spans="1:1">
-      <c r="A580" s="22"/>
+      <c r="A580" s="19"/>
     </row>
     <row r="581" ht="14.25" spans="1:1">
-      <c r="A581" s="22"/>
+      <c r="A581" s="19"/>
     </row>
     <row r="582" ht="14.25" spans="1:1">
-      <c r="A582" s="22"/>
+      <c r="A582" s="19"/>
     </row>
     <row r="583" ht="14.25" spans="1:1">
-      <c r="A583" s="22"/>
+      <c r="A583" s="19"/>
     </row>
     <row r="584" ht="14.25" spans="1:1">
-      <c r="A584" s="22"/>
+      <c r="A584" s="19"/>
     </row>
     <row r="585" ht="14.25" spans="1:1">
-      <c r="A585" s="22"/>
+      <c r="A585" s="19"/>
     </row>
     <row r="586" ht="14.25" spans="1:1">
-      <c r="A586" s="22"/>
+      <c r="A586" s="19"/>
     </row>
     <row r="587" ht="14.25" spans="1:1">
-      <c r="A587" s="22"/>
+      <c r="A587" s="19"/>
     </row>
     <row r="588" ht="14.25" spans="1:1">
-      <c r="A588" s="22"/>
+      <c r="A588" s="19"/>
     </row>
     <row r="589" ht="14.25" spans="1:1">
-      <c r="A589" s="22"/>
+      <c r="A589" s="19"/>
     </row>
     <row r="590" ht="14.25" spans="1:1">
-      <c r="A590" s="22"/>
+      <c r="A590" s="19"/>
     </row>
     <row r="591" ht="14.25" spans="1:1">
-      <c r="A591" s="22"/>
+      <c r="A591" s="19"/>
     </row>
     <row r="592" ht="14.25" spans="1:1">
-      <c r="A592" s="22"/>
+      <c r="A592" s="19"/>
     </row>
     <row r="593" ht="14.25" spans="1:1">
-      <c r="A593" s="22"/>
+      <c r="A593" s="19"/>
     </row>
     <row r="594" ht="14.25" spans="1:1">
-      <c r="A594" s="22"/>
+      <c r="A594" s="19"/>
     </row>
     <row r="595" ht="14.25" spans="1:1">
-      <c r="A595" s="22"/>
+      <c r="A595" s="19"/>
     </row>
     <row r="596" ht="14.25" spans="1:1">
-      <c r="A596" s="22"/>
+      <c r="A596" s="19"/>
     </row>
     <row r="597" ht="14.25" spans="1:1">
-      <c r="A597" s="22"/>
+      <c r="A597" s="19"/>
     </row>
     <row r="598" ht="14.25" spans="1:1">
-      <c r="A598" s="22"/>
+      <c r="A598" s="19"/>
     </row>
     <row r="599" ht="14.25" spans="1:1">
-      <c r="A599" s="22"/>
+      <c r="A599" s="19"/>
     </row>
     <row r="600" ht="14.25" spans="1:1">
-      <c r="A600" s="22"/>
+      <c r="A600" s="19"/>
     </row>
     <row r="601" ht="14.25" spans="1:1">
-      <c r="A601" s="22"/>
+      <c r="A601" s="19"/>
     </row>
     <row r="602" ht="14.25" spans="1:1">
-      <c r="A602" s="22"/>
+      <c r="A602" s="19"/>
     </row>
     <row r="603" ht="14.25" spans="1:1">
-      <c r="A603" s="22"/>
+      <c r="A603" s="19"/>
     </row>
     <row r="604" ht="14.25" spans="1:1">
-      <c r="A604" s="22"/>
+      <c r="A604" s="19"/>
     </row>
     <row r="605" ht="14.25" spans="1:1">
-      <c r="A605" s="22"/>
+      <c r="A605" s="19"/>
     </row>
     <row r="606" ht="14.25" spans="1:1">
-      <c r="A606" s="22"/>
+      <c r="A606" s="19"/>
     </row>
     <row r="607" ht="14.25" spans="1:1">
-      <c r="A607" s="22"/>
+      <c r="A607" s="19"/>
     </row>
     <row r="608" ht="14.25" spans="1:1">
-      <c r="A608" s="22"/>
+      <c r="A608" s="19"/>
     </row>
     <row r="609" ht="14.25" spans="1:1">
-      <c r="A609" s="22"/>
+      <c r="A609" s="19"/>
     </row>
     <row r="610" ht="14.25" spans="1:1">
-      <c r="A610" s="22"/>
+      <c r="A610" s="19"/>
     </row>
     <row r="611" ht="14.25" spans="1:1">
-      <c r="A611" s="22"/>
+      <c r="A611" s="19"/>
     </row>
     <row r="612" ht="14.25" spans="1:1">
-      <c r="A612" s="22"/>
+      <c r="A612" s="19"/>
     </row>
     <row r="613" ht="14.25" spans="1:1">
-      <c r="A613" s="22"/>
+      <c r="A613" s="19"/>
     </row>
     <row r="614" ht="14.25" spans="1:1">
-      <c r="A614" s="22"/>
+      <c r="A614" s="19"/>
     </row>
     <row r="615" ht="14.25" spans="1:1">
-      <c r="A615" s="22"/>
+      <c r="A615" s="19"/>
     </row>
     <row r="616" ht="14.25" spans="1:1">
-      <c r="A616" s="22"/>
+      <c r="A616" s="19"/>
     </row>
     <row r="617" ht="14.25" spans="1:1">
-      <c r="A617" s="22"/>
+      <c r="A617" s="19"/>
     </row>
     <row r="618" ht="14.25" spans="1:1">
-      <c r="A618" s="22"/>
+      <c r="A618" s="19"/>
     </row>
     <row r="619" ht="14.25" spans="1:1">
-      <c r="A619" s="22"/>
+      <c r="A619" s="19"/>
     </row>
     <row r="620" ht="14.25" spans="1:1">
-      <c r="A620" s="22"/>
+      <c r="A620" s="19"/>
     </row>
     <row r="621" ht="14.25" spans="1:1">
-      <c r="A621" s="22"/>
+      <c r="A621" s="19"/>
     </row>
     <row r="622" ht="14.25" spans="1:1">
-      <c r="A622" s="22"/>
+      <c r="A622" s="19"/>
     </row>
     <row r="623" ht="14.25" spans="1:1">
-      <c r="A623" s="22"/>
+      <c r="A623" s="19"/>
     </row>
     <row r="624" ht="14.25" spans="1:1">
-      <c r="A624" s="22"/>
+      <c r="A624" s="19"/>
     </row>
     <row r="625" ht="14.25" spans="1:1">
-      <c r="A625" s="22"/>
+      <c r="A625" s="19"/>
     </row>
     <row r="626" ht="14.25" spans="1:1">
-      <c r="A626" s="22"/>
+      <c r="A626" s="19"/>
     </row>
     <row r="627" ht="14.25" spans="1:1">
-      <c r="A627" s="22"/>
+      <c r="A627" s="19"/>
     </row>
     <row r="628" ht="14.25" spans="1:1">
-      <c r="A628" s="22"/>
+      <c r="A628" s="19"/>
     </row>
     <row r="629" ht="14.25" spans="1:1">
-      <c r="A629" s="22"/>
+      <c r="A629" s="19"/>
     </row>
     <row r="630" ht="14.25" spans="1:1">
-      <c r="A630" s="22"/>
+      <c r="A630" s="19"/>
     </row>
     <row r="631" ht="14.25" spans="1:1">
-      <c r="A631" s="22"/>
+      <c r="A631" s="19"/>
     </row>
     <row r="632" ht="14.25" spans="1:1">
-      <c r="A632" s="22"/>
+      <c r="A632" s="19"/>
     </row>
     <row r="633" ht="14.25" spans="1:1">
-      <c r="A633" s="22"/>
+      <c r="A633" s="19"/>
     </row>
     <row r="634" ht="14.25" spans="1:1">
-      <c r="A634" s="22"/>
+      <c r="A634" s="19"/>
     </row>
     <row r="635" ht="14.25" spans="1:1">
-      <c r="A635" s="22"/>
+      <c r="A635" s="19"/>
     </row>
     <row r="636" ht="14.25" spans="1:1">
-      <c r="A636" s="22"/>
+      <c r="A636" s="19"/>
     </row>
     <row r="637" ht="14.25" spans="1:1">
-      <c r="A637" s="22"/>
+      <c r="A637" s="19"/>
     </row>
     <row r="638" ht="14.25" spans="1:1">
-      <c r="A638" s="22"/>
+      <c r="A638" s="19"/>
     </row>
     <row r="639" ht="14.25" spans="1:1">
-      <c r="A639" s="22"/>
+      <c r="A639" s="19"/>
     </row>
     <row r="640" ht="14.25" spans="1:1">
-      <c r="A640" s="22"/>
+      <c r="A640" s="19"/>
     </row>
     <row r="641" ht="14.25" spans="1:1">
-      <c r="A641" s="22"/>
+      <c r="A641" s="19"/>
     </row>
     <row r="642" ht="14.25" spans="1:1">
-      <c r="A642" s="22"/>
+      <c r="A642" s="19"/>
     </row>
     <row r="643" ht="14.25" spans="1:1">
-      <c r="A643" s="22"/>
+      <c r="A643" s="19"/>
     </row>
     <row r="644" ht="14.25" spans="1:1">
-      <c r="A644" s="22"/>
+      <c r="A644" s="19"/>
     </row>
     <row r="645" ht="14.25" spans="1:1">
-      <c r="A645" s="22"/>
+      <c r="A645" s="19"/>
     </row>
     <row r="646" ht="14.25" spans="1:1">
-      <c r="A646" s="22"/>
+      <c r="A646" s="19"/>
     </row>
     <row r="647" ht="14.25" spans="1:1">
-      <c r="A647" s="22"/>
+      <c r="A647" s="19"/>
     </row>
     <row r="648" ht="14.25" spans="1:1">
-      <c r="A648" s="22"/>
+      <c r="A648" s="19"/>
     </row>
     <row r="649" ht="14.25" spans="1:1">
-      <c r="A649" s="22"/>
+      <c r="A649" s="19"/>
     </row>
     <row r="650" ht="14.25" spans="1:1">
-      <c r="A650" s="22"/>
+      <c r="A650" s="19"/>
     </row>
     <row r="651" ht="14.25" spans="1:1">
-      <c r="A651" s="22"/>
+      <c r="A651" s="19"/>
     </row>
     <row r="652" ht="14.25" spans="1:1">
-      <c r="A652" s="22"/>
+      <c r="A652" s="19"/>
     </row>
     <row r="653" ht="14.25" spans="1:1">
-      <c r="A653" s="22"/>
+      <c r="A653" s="19"/>
     </row>
     <row r="654" ht="14.25" spans="1:1">
-      <c r="A654" s="22"/>
+      <c r="A654" s="19"/>
     </row>
     <row r="655" ht="14.25" spans="1:1">
-      <c r="A655" s="22"/>
+      <c r="A655" s="19"/>
     </row>
     <row r="656" ht="14.25" spans="1:1">
-      <c r="A656" s="22"/>
+      <c r="A656" s="19"/>
     </row>
     <row r="657" ht="14.25" spans="1:1">
-      <c r="A657" s="22"/>
+      <c r="A657" s="19"/>
     </row>
     <row r="658" ht="14.25" spans="1:1">
-      <c r="A658" s="22"/>
+      <c r="A658" s="19"/>
     </row>
     <row r="659" ht="14.25" spans="1:1">
-      <c r="A659" s="22"/>
+      <c r="A659" s="19"/>
     </row>
     <row r="660" ht="14.25" spans="1:1">
-      <c r="A660" s="22"/>
+      <c r="A660" s="19"/>
     </row>
     <row r="661" ht="14.25" spans="1:1">
-      <c r="A661" s="22"/>
+      <c r="A661" s="19"/>
     </row>
     <row r="662" ht="14.25" spans="1:1">
-      <c r="A662" s="22"/>
+      <c r="A662" s="19"/>
     </row>
     <row r="663" ht="14.25" spans="1:1">
-      <c r="A663" s="22"/>
+      <c r="A663" s="19"/>
     </row>
     <row r="664" ht="14.25" spans="1:1">
-      <c r="A664" s="22"/>
+      <c r="A664" s="19"/>
     </row>
     <row r="665" ht="14.25" spans="1:1">
-      <c r="A665" s="22"/>
+      <c r="A665" s="19"/>
     </row>
     <row r="666" ht="14.25" spans="1:1">
-      <c r="A666" s="22"/>
+      <c r="A666" s="19"/>
     </row>
     <row r="667" ht="14.25" spans="1:1">
-      <c r="A667" s="22"/>
+      <c r="A667" s="19"/>
     </row>
     <row r="668" ht="14.25" spans="1:1">
-      <c r="A668" s="22"/>
+      <c r="A668" s="19"/>
     </row>
     <row r="669" ht="14.25" spans="1:1">
-      <c r="A669" s="22"/>
+      <c r="A669" s="19"/>
     </row>
     <row r="670" ht="14.25" spans="1:1">
-      <c r="A670" s="22"/>
+      <c r="A670" s="19"/>
     </row>
     <row r="671" ht="14.25" spans="1:1">
-      <c r="A671" s="22"/>
+      <c r="A671" s="19"/>
     </row>
     <row r="672" ht="14.25" spans="1:1">
-      <c r="A672" s="22"/>
+      <c r="A672" s="19"/>
     </row>
     <row r="673" ht="14.25" spans="1:1">
-      <c r="A673" s="22"/>
+      <c r="A673" s="19"/>
     </row>
     <row r="674" ht="14.25" spans="1:1">
-      <c r="A674" s="22"/>
+      <c r="A674" s="19"/>
     </row>
     <row r="675" ht="14.25" spans="1:1">
-      <c r="A675" s="22"/>
+      <c r="A675" s="19"/>
     </row>
     <row r="676" ht="14.25" spans="1:1">
-      <c r="A676" s="22"/>
+      <c r="A676" s="19"/>
     </row>
     <row r="677" ht="14.25" spans="1:1">
-      <c r="A677" s="22"/>
+      <c r="A677" s="19"/>
     </row>
     <row r="678" ht="14.25" spans="1:1">
-      <c r="A678" s="22"/>
+      <c r="A678" s="19"/>
     </row>
     <row r="679" ht="14.25" spans="1:1">
-      <c r="A679" s="22"/>
+      <c r="A679" s="19"/>
     </row>
     <row r="680" ht="14.25" spans="1:1">
-      <c r="A680" s="22"/>
+      <c r="A680" s="19"/>
     </row>
     <row r="681" ht="14.25" spans="1:1">
-      <c r="A681" s="22"/>
+      <c r="A681" s="19"/>
     </row>
     <row r="682" ht="14.25" spans="1:1">
-      <c r="A682" s="22"/>
+      <c r="A682" s="19"/>
     </row>
     <row r="683" ht="14.25" spans="1:1">
-      <c r="A683" s="22"/>
+      <c r="A683" s="19"/>
     </row>
     <row r="684" ht="14.25" spans="1:1">
-      <c r="A684" s="22"/>
+      <c r="A684" s="19"/>
     </row>
     <row r="685" ht="14.25" spans="1:1">
-      <c r="A685" s="22"/>
+      <c r="A685" s="19"/>
     </row>
     <row r="686" ht="14.25" spans="1:1">
-      <c r="A686" s="22"/>
+      <c r="A686" s="19"/>
     </row>
     <row r="687" ht="14.25" spans="1:1">
-      <c r="A687" s="22"/>
+      <c r="A687" s="19"/>
     </row>
     <row r="688" ht="14.25" spans="1:1">
-      <c r="A688" s="22"/>
+      <c r="A688" s="19"/>
     </row>
     <row r="689" ht="14.25" spans="1:1">
-      <c r="A689" s="22"/>
+      <c r="A689" s="19"/>
     </row>
     <row r="690" ht="14.25" spans="1:1">
-      <c r="A690" s="22"/>
+      <c r="A690" s="19"/>
     </row>
     <row r="691" ht="14.25" spans="1:1">
-      <c r="A691" s="22"/>
+      <c r="A691" s="19"/>
     </row>
     <row r="692" ht="14.25" spans="1:1">
-      <c r="A692" s="22"/>
+      <c r="A692" s="19"/>
     </row>
     <row r="693" ht="14.25" spans="1:1">
-      <c r="A693" s="22"/>
+      <c r="A693" s="19"/>
     </row>
     <row r="694" ht="14.25" spans="1:1">
-      <c r="A694" s="22"/>
+      <c r="A694" s="19"/>
     </row>
     <row r="695" ht="14.25" spans="1:1">
-      <c r="A695" s="22"/>
+      <c r="A695" s="19"/>
     </row>
     <row r="696" ht="14.25" spans="1:1">
-      <c r="A696" s="22"/>
+      <c r="A696" s="19"/>
     </row>
     <row r="697" ht="14.25" spans="1:1">
-      <c r="A697" s="22"/>
+      <c r="A697" s="19"/>
     </row>
     <row r="698" ht="14.25" spans="1:1">
-      <c r="A698" s="22"/>
+      <c r="A698" s="19"/>
     </row>
     <row r="699" ht="14.25" spans="1:1">
-      <c r="A699" s="22"/>
+      <c r="A699" s="19"/>
     </row>
     <row r="700" ht="14.25" spans="1:1">
-      <c r="A700" s="22"/>
+      <c r="A700" s="19"/>
     </row>
     <row r="701" ht="14.25" spans="1:1">
-      <c r="A701" s="22"/>
+      <c r="A701" s="19"/>
     </row>
     <row r="702" ht="14.25" spans="1:1">
-      <c r="A702" s="22"/>
+      <c r="A702" s="19"/>
     </row>
     <row r="703" ht="14.25" spans="1:1">
-      <c r="A703" s="22"/>
+      <c r="A703" s="19"/>
     </row>
     <row r="704" ht="14.25" spans="1:1">
-      <c r="A704" s="22"/>
+      <c r="A704" s="19"/>
     </row>
     <row r="705" ht="14.25" spans="1:1">
-      <c r="A705" s="22"/>
+      <c r="A705" s="19"/>
     </row>
     <row r="706" ht="14.25" spans="1:1">
-      <c r="A706" s="22"/>
+      <c r="A706" s="19"/>
     </row>
     <row r="707" ht="14.25" spans="1:1">
-      <c r="A707" s="22"/>
+      <c r="A707" s="19"/>
     </row>
     <row r="708" ht="14.25" spans="1:1">
-      <c r="A708" s="22"/>
+      <c r="A708" s="19"/>
     </row>
     <row r="709" ht="14.25" spans="1:1">
-      <c r="A709" s="22"/>
+      <c r="A709" s="19"/>
     </row>
     <row r="710" ht="14.25" spans="1:1">
-      <c r="A710" s="22"/>
+      <c r="A710" s="19"/>
     </row>
     <row r="711" ht="14.25" spans="1:1">
-      <c r="A711" s="22"/>
+      <c r="A711" s="19"/>
     </row>
     <row r="712" ht="14.25" spans="1:1">
-      <c r="A712" s="22"/>
+      <c r="A712" s="19"/>
     </row>
     <row r="713" ht="14.25" spans="1:1">
-      <c r="A713" s="22"/>
+      <c r="A713" s="19"/>
     </row>
     <row r="714" ht="14.25" spans="1:1">
-      <c r="A714" s="22"/>
+      <c r="A714" s="19"/>
     </row>
     <row r="715" ht="14.25" spans="1:1">
-      <c r="A715" s="22"/>
+      <c r="A715" s="19"/>
     </row>
     <row r="716" ht="14.25" spans="1:1">
-      <c r="A716" s="22"/>
+      <c r="A716" s="19"/>
     </row>
     <row r="717" ht="14.25" spans="1:1">
-      <c r="A717" s="22"/>
+      <c r="A717" s="19"/>
     </row>
     <row r="718" ht="14.25" spans="1:1">
-      <c r="A718" s="22"/>
+      <c r="A718" s="19"/>
     </row>
     <row r="719" ht="14.25" spans="1:1">
-      <c r="A719" s="22"/>
+      <c r="A719" s="19"/>
     </row>
     <row r="720" ht="14.25" spans="1:1">
-      <c r="A720" s="22"/>
+      <c r="A720" s="19"/>
     </row>
     <row r="721" ht="14.25" spans="1:1">
-      <c r="A721" s="22"/>
+      <c r="A721" s="19"/>
     </row>
     <row r="722" ht="14.25" spans="1:1">
-      <c r="A722" s="22"/>
+      <c r="A722" s="19"/>
     </row>
     <row r="723" ht="14.25" spans="1:1">
-      <c r="A723" s="22"/>
+      <c r="A723" s="19"/>
     </row>
     <row r="724" ht="14.25" spans="1:1">
-      <c r="A724" s="22"/>
+      <c r="A724" s="19"/>
     </row>
     <row r="725" ht="14.25" spans="1:1">
-      <c r="A725" s="22"/>
+      <c r="A725" s="19"/>
     </row>
     <row r="726" ht="14.25" spans="1:1">
-      <c r="A726" s="22"/>
+      <c r="A726" s="19"/>
     </row>
     <row r="727" ht="14.25" spans="1:1">
-      <c r="A727" s="22"/>
+      <c r="A727" s="19"/>
     </row>
     <row r="728" ht="14.25" spans="1:1">
-      <c r="A728" s="22"/>
+      <c r="A728" s="19"/>
     </row>
     <row r="729" ht="14.25" spans="1:1">
-      <c r="A729" s="22"/>
+      <c r="A729" s="19"/>
     </row>
     <row r="730" ht="14.25" spans="1:1">
-      <c r="A730" s="22"/>
+      <c r="A730" s="19"/>
     </row>
     <row r="731" ht="14.25" spans="1:1">
-      <c r="A731" s="22"/>
+      <c r="A731" s="19"/>
     </row>
     <row r="732" ht="14.25" spans="1:1">
-      <c r="A732" s="22"/>
+      <c r="A732" s="19"/>
     </row>
     <row r="733" ht="14.25" spans="1:1">
-      <c r="A733" s="22"/>
+      <c r="A733" s="19"/>
     </row>
     <row r="734" ht="14.25" spans="1:1">
-      <c r="A734" s="22"/>
+      <c r="A734" s="19"/>
     </row>
     <row r="735" ht="14.25" spans="1:1">
-      <c r="A735" s="22"/>
+      <c r="A735" s="19"/>
     </row>
     <row r="736" ht="14.25" spans="1:1">
-      <c r="A736" s="22"/>
+      <c r="A736" s="19"/>
     </row>
     <row r="737" ht="14.25" spans="1:1">
-      <c r="A737" s="22"/>
+      <c r="A737" s="19"/>
     </row>
     <row r="738" ht="14.25" spans="1:1">
-      <c r="A738" s="22"/>
+      <c r="A738" s="19"/>
     </row>
     <row r="739" ht="14.25" spans="1:1">
-      <c r="A739" s="22"/>
+      <c r="A739" s="19"/>
     </row>
     <row r="740" ht="14.25" spans="1:1">
-      <c r="A740" s="22"/>
+      <c r="A740" s="19"/>
     </row>
     <row r="741" ht="14.25" spans="1:1">
-      <c r="A741" s="22"/>
+      <c r="A741" s="19"/>
     </row>
     <row r="742" ht="14.25" spans="1:1">
-      <c r="A742" s="22"/>
+      <c r="A742" s="19"/>
     </row>
     <row r="743" ht="14.25" spans="1:1">
-      <c r="A743" s="22"/>
+      <c r="A743" s="19"/>
     </row>
     <row r="744" ht="14.25" spans="1:1">
-      <c r="A744" s="22"/>
+      <c r="A744" s="19"/>
     </row>
     <row r="745" ht="14.25" spans="1:1">
-      <c r="A745" s="22"/>
+      <c r="A745" s="19"/>
     </row>
     <row r="746" ht="14.25" spans="1:1">
-      <c r="A746" s="22"/>
+      <c r="A746" s="19"/>
     </row>
     <row r="747" ht="14.25" spans="1:1">
-      <c r="A747" s="22"/>
+      <c r="A747" s="19"/>
     </row>
     <row r="748" ht="14.25" spans="1:1">
-      <c r="A748" s="22"/>
+      <c r="A748" s="19"/>
     </row>
     <row r="749" ht="14.25" spans="1:1">
-      <c r="A749" s="22"/>
+      <c r="A749" s="19"/>
     </row>
     <row r="750" ht="14.25" spans="1:1">
-      <c r="A750" s="22"/>
+      <c r="A750" s="19"/>
     </row>
     <row r="751" ht="14.25" spans="1:1">
-      <c r="A751" s="22"/>
+      <c r="A751" s="19"/>
     </row>
     <row r="752" ht="14.25" spans="1:1">
-      <c r="A752" s="22"/>
+      <c r="A752" s="19"/>
     </row>
     <row r="753" ht="14.25" spans="1:1">
-      <c r="A753" s="22"/>
+      <c r="A753" s="19"/>
     </row>
     <row r="754" ht="14.25" spans="1:1">
-      <c r="A754" s="22"/>
+      <c r="A754" s="19"/>
     </row>
     <row r="755" ht="14.25" spans="1:1">
-      <c r="A755" s="22"/>
+      <c r="A755" s="19"/>
     </row>
     <row r="756" ht="14.25" spans="1:1">
-      <c r="A756" s="22"/>
+      <c r="A756" s="19"/>
     </row>
     <row r="757" ht="14.25" spans="1:1">
-      <c r="A757" s="22"/>
+      <c r="A757" s="19"/>
     </row>
     <row r="758" ht="14.25" spans="1:1">
-      <c r="A758" s="22"/>
+      <c r="A758" s="19"/>
     </row>
     <row r="759" ht="14.25" spans="1:1">
-      <c r="A759" s="22"/>
+      <c r="A759" s="19"/>
     </row>
     <row r="760" ht="14.25" spans="1:1">
-      <c r="A760" s="22"/>
+      <c r="A760" s="19"/>
     </row>
     <row r="761" ht="14.25" spans="1:1">
-      <c r="A761" s="22"/>
+      <c r="A761" s="19"/>
     </row>
     <row r="762" ht="14.25" spans="1:1">
-      <c r="A762" s="22"/>
+      <c r="A762" s="19"/>
     </row>
     <row r="763" ht="14.25" spans="1:1">
-      <c r="A763" s="22"/>
+      <c r="A763" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -114,12 +114,6 @@
     <t>晚上11点在</t>
   </si>
   <si>
-    <t>gracegift旗舰店</t>
-  </si>
-  <si>
-    <t>运营白天上班</t>
-  </si>
-  <si>
     <t>凡麦旗舰店</t>
   </si>
   <si>
@@ -436,6 +430,36 @@
   </si>
   <si>
     <t>QQ:26013450</t>
+  </si>
+  <si>
+    <t>子俊男装</t>
+  </si>
+  <si>
+    <t>QQ:1076094184</t>
+  </si>
+  <si>
+    <t>比菲力旗舰店</t>
+  </si>
+  <si>
+    <t>QQ：2272012507</t>
+  </si>
+  <si>
+    <t>唐狮官方旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:1809698828</t>
+  </si>
+  <si>
+    <t>衣品天成旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:3319631774</t>
+  </si>
+  <si>
+    <t>事悦服饰专营店</t>
+  </si>
+  <si>
+    <t>QQ:583928477</t>
   </si>
 </sst>
 </file>
@@ -443,10 +467,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -550,91 +574,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,11 +597,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,6 +651,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -702,43 +726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,19 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,25 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,31 +786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +822,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,54 +917,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -993,6 +969,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,137 +1037,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,9 +1226,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E763"/>
+  <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1657,12 +1678,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
@@ -1709,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1719,22 +1743,22 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:3">
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1742,134 +1766,131 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+    <row r="20" ht="14.25" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
-      <c r="A21" s="4" t="s">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="10" t="s">
+    </row>
+    <row r="22" ht="14.25" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="24" ht="16.5" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
-      <c r="A26" s="4" t="s">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A27" s="14" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
+      <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A29" s="16" t="s">
+      <c r="D28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="B29" s="17" t="s">
         <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
+      <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:2">
@@ -1912,23 +1933,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
-      <c r="A37" s="4" t="s">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A37" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="10"/>
+      <c r="D37" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A38" s="18" t="s">
+      <c r="E37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="D38" s="10" t="s">
+    </row>
+    <row r="38" ht="14.25" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1981,7 +2002,7 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1989,7 +2010,7 @@
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2005,33 +2026,33 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:2">
-      <c r="A49" s="19" t="s">
+    <row r="49" ht="14.25" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" ht="14.25" spans="1:4">
+      <c r="D49" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" spans="1:4">
+    <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>116</v>
       </c>
@@ -2039,23 +2060,23 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:4">
-      <c r="A52" s="4" t="s">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A52" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="B52" s="10"/>
+      <c r="D52" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A53" s="16" t="s">
+      <c r="E52" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="D53" s="10" t="s">
+    </row>
+    <row r="53" ht="14.25" spans="1:2">
+      <c r="A53" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2076,7 +2097,7 @@
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2100,24 +2121,44 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:1">
-      <c r="A60" s="19"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:1">
-      <c r="A61" s="19"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:1">
-      <c r="A62" s="19"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:1">
-      <c r="A63" s="19"/>
+    <row r="60" ht="14.25" spans="1:2">
+      <c r="A60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:2">
+      <c r="A61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="64" ht="14.25" spans="1:1">
       <c r="A64" s="19"/>
@@ -4215,14 +4256,11 @@
     </row>
     <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="19"/>
-    </row>
-    <row r="763" ht="14.25" spans="1:1">
-      <c r="A763" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="roome智如易旗舰店" tooltip="https://roome.world.tmall.com/"/>
-    <hyperlink ref="A20" r:id="rId2" display="壹点创意数码专营店" tooltip="https://ydcysm.tmall.com/"/>
+    <hyperlink ref="A19" r:id="rId2" display="壹点创意数码专营店" tooltip="https://ydcysm.tmall.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8205"/>
+    <workbookView windowWidth="16991" windowHeight="7884"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="179">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -168,7 +168,10 @@
     <t>已回复</t>
   </si>
   <si>
-    <t>打算报名，要了报名链接</t>
+    <t>已报名1款手机壳</t>
+  </si>
+  <si>
+    <t>19-05-12~2019-05-19</t>
   </si>
   <si>
     <t>壹点创意数码专营店</t>
@@ -460,6 +463,111 @@
   </si>
   <si>
     <t>QQ:583928477</t>
+  </si>
+  <si>
+    <t>圣希梵旗舰店</t>
+  </si>
+  <si>
+    <t>QQ:84106114;vx:SFboss01</t>
+  </si>
+  <si>
+    <t>韩流热浪旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1224559949;VX:18606051600</t>
+  </si>
+  <si>
+    <t>西盟罗盾旗舰店</t>
+  </si>
+  <si>
+    <t>Q:3014453273</t>
+  </si>
+  <si>
+    <t>对接一天能跑2000单的淘客</t>
+  </si>
+  <si>
+    <t>红豆官方旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1626429661</t>
+  </si>
+  <si>
+    <t>柒牌官方旗舰店</t>
+  </si>
+  <si>
+    <t>Q:407905012</t>
+  </si>
+  <si>
+    <t>anticulon旗舰店</t>
+  </si>
+  <si>
+    <t>Q:359876257</t>
+  </si>
+  <si>
+    <t>bobdylan男装旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2899481831</t>
+  </si>
+  <si>
+    <t>宾承旗舰店</t>
+  </si>
+  <si>
+    <t>Q:3622035812</t>
+  </si>
+  <si>
+    <t>富贵鸟男装旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2750756120</t>
+  </si>
+  <si>
+    <t>斯博帝莱旗舰店</t>
+  </si>
+  <si>
+    <t>q:534334283</t>
+  </si>
+  <si>
+    <t>allin旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1361676504</t>
+  </si>
+  <si>
+    <t>a21官方旗舰店</t>
+  </si>
+  <si>
+    <t>Q:719650977</t>
+  </si>
+  <si>
+    <t>诺哲旗舰店</t>
+  </si>
+  <si>
+    <t>Q:391780886</t>
+  </si>
+  <si>
+    <t>蒲公英花开时</t>
+  </si>
+  <si>
+    <t>Q:1215064754</t>
+  </si>
+  <si>
+    <t>斯巴奴旗舰店</t>
+  </si>
+  <si>
+    <t>Q:364179518</t>
+  </si>
+  <si>
+    <t>熙临服饰专营店</t>
+  </si>
+  <si>
+    <t>Q:253769928;V18268466351</t>
+  </si>
+  <si>
+    <t>云海男女服饰</t>
+  </si>
+  <si>
+    <t>Q:1870163435</t>
   </si>
 </sst>
 </file>
@@ -469,8 +577,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -513,6 +621,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF333333"/>
@@ -523,12 +637,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="microsoft yahei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -550,7 +658,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF6C25EA"/>
+      <color theme="0" tint="-0.5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -567,6 +675,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -575,15 +691,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -591,7 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +713,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,14 +753,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -652,14 +768,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,7 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,22 +813,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,18 +834,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -750,7 +846,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,61 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,85 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,17 +1052,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -975,15 +1072,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +1105,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,133 +1145,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,15 +1300,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1215,9 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,14 +1658,14 @@
   <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
   </cols>
@@ -1579,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1700,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1722,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1758,2503 +1866,2594 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
+      <c r="A19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:2">
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:2">
+      <c r="B23" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:2">
+      <c r="B24" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="D26" s="15" t="s">
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:2">
+      <c r="B26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="10" t="s">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:4">
+      <c r="E28" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:2">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="D37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="B37" s="8"/>
+      <c r="D37" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:2">
+      <c r="E37" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A52" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="D52" s="10" t="s">
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:5">
+      <c r="A52" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="8"/>
+      <c r="D52" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" ht="14.25" spans="1:2">
+      <c r="E52" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" spans="1:1">
-      <c r="A64" s="19"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:1">
-      <c r="A65" s="19"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:1">
-      <c r="A66" s="19"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:1">
-      <c r="A67" s="19"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:1">
-      <c r="A68" s="19"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:1">
-      <c r="A69" s="19"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:1">
-      <c r="A70" s="19"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:1">
-      <c r="A71" s="19"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:1">
-      <c r="A72" s="19"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:1">
-      <c r="A73" s="19"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:1">
-      <c r="A74" s="19"/>
-    </row>
-    <row r="75" ht="14.25" spans="1:1">
-      <c r="A75" s="19"/>
-    </row>
-    <row r="76" ht="14.25" spans="1:1">
-      <c r="A76" s="19"/>
-    </row>
-    <row r="77" ht="14.25" spans="1:1">
-      <c r="A77" s="19"/>
-    </row>
-    <row r="78" ht="14.25" spans="1:1">
-      <c r="A78" s="19"/>
-    </row>
-    <row r="79" ht="14.25" spans="1:1">
-      <c r="A79" s="19"/>
-    </row>
-    <row r="80" ht="14.25" spans="1:1">
-      <c r="A80" s="19"/>
-    </row>
-    <row r="81" ht="14.25" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="19"/>
     </row>
-    <row r="82" ht="14.25" spans="1:1">
+    <row r="82" spans="1:1">
       <c r="A82" s="19"/>
     </row>
-    <row r="83" ht="14.25" spans="1:1">
+    <row r="83" spans="1:1">
       <c r="A83" s="19"/>
     </row>
-    <row r="84" ht="14.25" spans="1:1">
+    <row r="84" spans="1:1">
       <c r="A84" s="19"/>
     </row>
-    <row r="85" ht="14.25" spans="1:1">
+    <row r="85" spans="1:1">
       <c r="A85" s="19"/>
     </row>
-    <row r="86" ht="14.25" spans="1:1">
+    <row r="86" spans="1:1">
       <c r="A86" s="19"/>
     </row>
-    <row r="87" ht="14.25" spans="1:1">
+    <row r="87" spans="1:1">
       <c r="A87" s="19"/>
     </row>
-    <row r="88" ht="14.25" spans="1:1">
+    <row r="88" spans="1:1">
       <c r="A88" s="19"/>
     </row>
-    <row r="89" ht="14.25" spans="1:1">
+    <row r="89" spans="1:1">
       <c r="A89" s="19"/>
     </row>
-    <row r="90" ht="14.25" spans="1:1">
+    <row r="90" spans="1:1">
       <c r="A90" s="19"/>
     </row>
-    <row r="91" ht="14.25" spans="1:1">
+    <row r="91" spans="1:1">
       <c r="A91" s="19"/>
     </row>
-    <row r="92" ht="14.25" spans="1:1">
+    <row r="92" spans="1:1">
       <c r="A92" s="19"/>
     </row>
-    <row r="93" ht="14.25" spans="1:1">
+    <row r="93" spans="1:1">
       <c r="A93" s="19"/>
     </row>
-    <row r="94" ht="14.25" spans="1:1">
+    <row r="94" spans="1:1">
       <c r="A94" s="19"/>
     </row>
-    <row r="95" ht="14.25" spans="1:1">
+    <row r="95" spans="1:1">
       <c r="A95" s="19"/>
     </row>
-    <row r="96" ht="14.25" spans="1:1">
+    <row r="96" spans="1:1">
       <c r="A96" s="19"/>
     </row>
-    <row r="97" ht="14.25" spans="1:1">
+    <row r="97" spans="1:1">
       <c r="A97" s="19"/>
     </row>
-    <row r="98" ht="14.25" spans="1:1">
+    <row r="98" spans="1:1">
       <c r="A98" s="19"/>
     </row>
-    <row r="99" ht="14.25" spans="1:1">
+    <row r="99" spans="1:1">
       <c r="A99" s="19"/>
     </row>
-    <row r="100" ht="14.25" spans="1:1">
+    <row r="100" spans="1:1">
       <c r="A100" s="19"/>
     </row>
-    <row r="101" ht="14.25" spans="1:1">
+    <row r="101" spans="1:1">
       <c r="A101" s="19"/>
     </row>
-    <row r="102" ht="14.25" spans="1:1">
+    <row r="102" spans="1:1">
       <c r="A102" s="19"/>
     </row>
-    <row r="103" ht="14.25" spans="1:1">
+    <row r="103" spans="1:1">
       <c r="A103" s="19"/>
     </row>
-    <row r="104" ht="14.25" spans="1:1">
+    <row r="104" spans="1:1">
       <c r="A104" s="19"/>
     </row>
-    <row r="105" ht="14.25" spans="1:1">
+    <row r="105" spans="1:1">
       <c r="A105" s="19"/>
     </row>
-    <row r="106" ht="14.25" spans="1:1">
+    <row r="106" spans="1:1">
       <c r="A106" s="19"/>
     </row>
-    <row r="107" ht="14.25" spans="1:1">
+    <row r="107" spans="1:1">
       <c r="A107" s="19"/>
     </row>
-    <row r="108" ht="14.25" spans="1:1">
+    <row r="108" spans="1:1">
       <c r="A108" s="19"/>
     </row>
-    <row r="109" ht="14.25" spans="1:1">
+    <row r="109" spans="1:1">
       <c r="A109" s="19"/>
     </row>
-    <row r="110" ht="14.25" spans="1:1">
+    <row r="110" spans="1:1">
       <c r="A110" s="19"/>
     </row>
-    <row r="111" ht="14.25" spans="1:1">
+    <row r="111" spans="1:1">
       <c r="A111" s="19"/>
     </row>
-    <row r="112" ht="14.25" spans="1:1">
+    <row r="112" spans="1:1">
       <c r="A112" s="19"/>
     </row>
-    <row r="113" ht="14.25" spans="1:1">
+    <row r="113" spans="1:1">
       <c r="A113" s="19"/>
     </row>
-    <row r="114" ht="14.25" spans="1:1">
+    <row r="114" spans="1:1">
       <c r="A114" s="19"/>
     </row>
-    <row r="115" ht="14.25" spans="1:1">
+    <row r="115" spans="1:1">
       <c r="A115" s="19"/>
     </row>
-    <row r="116" ht="14.25" spans="1:1">
+    <row r="116" spans="1:1">
       <c r="A116" s="19"/>
     </row>
-    <row r="117" ht="14.25" spans="1:1">
+    <row r="117" spans="1:1">
       <c r="A117" s="19"/>
     </row>
-    <row r="118" ht="14.25" spans="1:1">
+    <row r="118" spans="1:1">
       <c r="A118" s="19"/>
     </row>
-    <row r="119" ht="14.25" spans="1:1">
+    <row r="119" spans="1:1">
       <c r="A119" s="19"/>
     </row>
-    <row r="120" ht="14.25" spans="1:1">
+    <row r="120" spans="1:1">
       <c r="A120" s="19"/>
     </row>
-    <row r="121" ht="14.25" spans="1:1">
+    <row r="121" spans="1:1">
       <c r="A121" s="19"/>
     </row>
-    <row r="122" ht="14.25" spans="1:1">
+    <row r="122" spans="1:1">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" ht="14.25" spans="1:1">
+    <row r="123" spans="1:1">
       <c r="A123" s="19"/>
     </row>
-    <row r="124" ht="14.25" spans="1:1">
+    <row r="124" spans="1:1">
       <c r="A124" s="19"/>
     </row>
-    <row r="125" ht="14.25" spans="1:1">
+    <row r="125" spans="1:1">
       <c r="A125" s="19"/>
     </row>
-    <row r="126" ht="14.25" spans="1:1">
+    <row r="126" spans="1:1">
       <c r="A126" s="19"/>
     </row>
-    <row r="127" ht="14.25" spans="1:1">
+    <row r="127" spans="1:1">
       <c r="A127" s="19"/>
     </row>
-    <row r="128" ht="14.25" spans="1:1">
+    <row r="128" spans="1:1">
       <c r="A128" s="19"/>
     </row>
-    <row r="129" ht="14.25" spans="1:1">
+    <row r="129" spans="1:1">
       <c r="A129" s="19"/>
     </row>
-    <row r="130" ht="14.25" spans="1:1">
+    <row r="130" spans="1:1">
       <c r="A130" s="19"/>
     </row>
-    <row r="131" ht="14.25" spans="1:1">
+    <row r="131" spans="1:1">
       <c r="A131" s="19"/>
     </row>
-    <row r="132" ht="14.25" spans="1:1">
+    <row r="132" spans="1:1">
       <c r="A132" s="19"/>
     </row>
-    <row r="133" ht="14.25" spans="1:1">
+    <row r="133" spans="1:1">
       <c r="A133" s="19"/>
     </row>
-    <row r="134" ht="14.25" spans="1:1">
+    <row r="134" spans="1:1">
       <c r="A134" s="19"/>
     </row>
-    <row r="135" ht="14.25" spans="1:1">
+    <row r="135" spans="1:1">
       <c r="A135" s="19"/>
     </row>
-    <row r="136" ht="14.25" spans="1:1">
+    <row r="136" spans="1:1">
       <c r="A136" s="19"/>
     </row>
-    <row r="137" ht="14.25" spans="1:1">
+    <row r="137" spans="1:1">
       <c r="A137" s="19"/>
     </row>
-    <row r="138" ht="14.25" spans="1:1">
+    <row r="138" spans="1:1">
       <c r="A138" s="19"/>
     </row>
-    <row r="139" ht="14.25" spans="1:1">
+    <row r="139" spans="1:1">
       <c r="A139" s="19"/>
     </row>
-    <row r="140" ht="14.25" spans="1:1">
+    <row r="140" spans="1:1">
       <c r="A140" s="19"/>
     </row>
-    <row r="141" ht="14.25" spans="1:1">
+    <row r="141" spans="1:1">
       <c r="A141" s="19"/>
     </row>
-    <row r="142" ht="14.25" spans="1:1">
+    <row r="142" spans="1:1">
       <c r="A142" s="19"/>
     </row>
-    <row r="143" ht="14.25" spans="1:1">
+    <row r="143" spans="1:1">
       <c r="A143" s="19"/>
     </row>
-    <row r="144" ht="14.25" spans="1:1">
+    <row r="144" spans="1:1">
       <c r="A144" s="19"/>
     </row>
-    <row r="145" ht="14.25" spans="1:1">
+    <row r="145" spans="1:1">
       <c r="A145" s="19"/>
     </row>
-    <row r="146" ht="14.25" spans="1:1">
+    <row r="146" spans="1:1">
       <c r="A146" s="19"/>
     </row>
-    <row r="147" ht="14.25" spans="1:1">
+    <row r="147" spans="1:1">
       <c r="A147" s="19"/>
     </row>
-    <row r="148" ht="14.25" spans="1:1">
+    <row r="148" spans="1:1">
       <c r="A148" s="19"/>
     </row>
-    <row r="149" ht="14.25" spans="1:1">
+    <row r="149" spans="1:1">
       <c r="A149" s="19"/>
     </row>
-    <row r="150" ht="14.25" spans="1:1">
+    <row r="150" spans="1:1">
       <c r="A150" s="19"/>
     </row>
-    <row r="151" ht="14.25" spans="1:1">
+    <row r="151" spans="1:1">
       <c r="A151" s="19"/>
     </row>
-    <row r="152" ht="14.25" spans="1:1">
+    <row r="152" spans="1:1">
       <c r="A152" s="19"/>
     </row>
-    <row r="153" ht="14.25" spans="1:1">
+    <row r="153" spans="1:1">
       <c r="A153" s="19"/>
     </row>
-    <row r="154" ht="14.25" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="19"/>
     </row>
-    <row r="155" ht="14.25" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="19"/>
     </row>
-    <row r="156" ht="14.25" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="19"/>
     </row>
-    <row r="157" ht="14.25" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="19"/>
     </row>
-    <row r="158" ht="14.25" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="19"/>
     </row>
-    <row r="159" ht="14.25" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="19"/>
     </row>
-    <row r="160" ht="14.25" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="19"/>
     </row>
-    <row r="161" ht="14.25" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="19"/>
     </row>
-    <row r="162" ht="14.25" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="19"/>
     </row>
-    <row r="163" ht="14.25" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="19"/>
     </row>
-    <row r="164" ht="14.25" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="19"/>
     </row>
-    <row r="165" ht="14.25" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="19"/>
     </row>
-    <row r="166" ht="14.25" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="19"/>
     </row>
-    <row r="167" ht="14.25" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="19"/>
     </row>
-    <row r="168" ht="14.25" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="19"/>
     </row>
-    <row r="169" ht="14.25" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="19"/>
     </row>
-    <row r="170" ht="14.25" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="19"/>
     </row>
-    <row r="171" ht="14.25" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="19"/>
     </row>
-    <row r="172" ht="14.25" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="19"/>
     </row>
-    <row r="173" ht="14.25" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="19"/>
     </row>
-    <row r="174" ht="14.25" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="19"/>
     </row>
-    <row r="175" ht="14.25" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="19"/>
     </row>
-    <row r="176" ht="14.25" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="19"/>
     </row>
-    <row r="177" ht="14.25" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="19"/>
     </row>
-    <row r="178" ht="14.25" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="19"/>
     </row>
-    <row r="179" ht="14.25" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="19"/>
     </row>
-    <row r="180" ht="14.25" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="19"/>
     </row>
-    <row r="181" ht="14.25" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="19"/>
     </row>
-    <row r="182" ht="14.25" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="19"/>
     </row>
-    <row r="183" ht="14.25" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="19"/>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="19"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="19"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="19"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="19"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="19"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="19"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="19"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="19"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="19"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="19"/>
     </row>
-    <row r="194" ht="14.25" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="19"/>
     </row>
-    <row r="195" ht="14.25" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="19"/>
     </row>
-    <row r="196" ht="14.25" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="19"/>
     </row>
-    <row r="197" ht="14.25" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="19"/>
     </row>
-    <row r="198" ht="14.25" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="19"/>
     </row>
-    <row r="199" ht="14.25" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="19"/>
     </row>
-    <row r="200" ht="14.25" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="19"/>
     </row>
-    <row r="201" ht="14.25" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="19"/>
     </row>
-    <row r="202" ht="14.25" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="19"/>
     </row>
-    <row r="203" ht="14.25" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="19"/>
     </row>
-    <row r="204" ht="14.25" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="19"/>
     </row>
-    <row r="205" ht="14.25" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="19"/>
     </row>
-    <row r="206" ht="14.25" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="19"/>
     </row>
-    <row r="207" ht="14.25" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="19"/>
     </row>
-    <row r="208" ht="14.25" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="19"/>
     </row>
-    <row r="209" ht="14.25" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="19"/>
     </row>
-    <row r="210" ht="14.25" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="19"/>
     </row>
-    <row r="211" ht="14.25" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="19"/>
     </row>
-    <row r="212" ht="14.25" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="19"/>
     </row>
-    <row r="213" ht="14.25" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="19"/>
     </row>
-    <row r="214" ht="14.25" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="19"/>
     </row>
-    <row r="215" ht="14.25" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="19"/>
     </row>
-    <row r="216" ht="14.25" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="19"/>
     </row>
-    <row r="217" ht="14.25" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="19"/>
     </row>
-    <row r="218" ht="14.25" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="19"/>
     </row>
-    <row r="219" ht="14.25" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="19"/>
     </row>
-    <row r="220" ht="14.25" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="19"/>
     </row>
-    <row r="221" ht="14.25" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="19"/>
     </row>
-    <row r="222" ht="14.25" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="19"/>
     </row>
-    <row r="223" ht="14.25" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="19"/>
     </row>
-    <row r="224" ht="14.25" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="19"/>
     </row>
-    <row r="225" ht="14.25" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="19"/>
     </row>
-    <row r="226" ht="14.25" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="19"/>
     </row>
-    <row r="227" ht="14.25" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="19"/>
     </row>
-    <row r="228" ht="14.25" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="19"/>
     </row>
-    <row r="229" ht="14.25" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="19"/>
     </row>
-    <row r="230" ht="14.25" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="19"/>
     </row>
-    <row r="231" ht="14.25" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="19"/>
     </row>
-    <row r="232" ht="14.25" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="19"/>
     </row>
-    <row r="233" ht="14.25" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="19"/>
     </row>
-    <row r="234" ht="14.25" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="19"/>
     </row>
-    <row r="235" ht="14.25" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="19"/>
     </row>
-    <row r="236" ht="14.25" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="19"/>
     </row>
-    <row r="237" ht="14.25" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="19"/>
     </row>
-    <row r="238" ht="14.25" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="19"/>
     </row>
-    <row r="239" ht="14.25" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="19"/>
     </row>
-    <row r="240" ht="14.25" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="19"/>
     </row>
-    <row r="241" ht="14.25" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="19"/>
     </row>
-    <row r="242" ht="14.25" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="19"/>
     </row>
-    <row r="243" ht="14.25" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="19"/>
     </row>
-    <row r="244" ht="14.25" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="19"/>
     </row>
-    <row r="245" ht="14.25" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="19"/>
     </row>
-    <row r="246" ht="14.25" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="19"/>
     </row>
-    <row r="247" ht="14.25" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="19"/>
     </row>
-    <row r="248" ht="14.25" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="19"/>
     </row>
-    <row r="249" ht="14.25" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="19"/>
     </row>
-    <row r="250" ht="14.25" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="19"/>
     </row>
-    <row r="251" ht="14.25" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="19"/>
     </row>
-    <row r="252" ht="14.25" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="19"/>
     </row>
-    <row r="253" ht="14.25" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" ht="14.25" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="19"/>
     </row>
-    <row r="255" ht="14.25" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="19"/>
     </row>
-    <row r="256" ht="14.25" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="19"/>
     </row>
-    <row r="257" ht="14.25" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="19"/>
     </row>
-    <row r="258" ht="14.25" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="19"/>
     </row>
-    <row r="259" ht="14.25" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="19"/>
     </row>
-    <row r="260" ht="14.25" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="19"/>
     </row>
-    <row r="261" ht="14.25" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="19"/>
     </row>
-    <row r="262" ht="14.25" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="19"/>
     </row>
-    <row r="263" ht="14.25" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="19"/>
     </row>
-    <row r="264" ht="14.25" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="19"/>
     </row>
-    <row r="265" ht="14.25" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="19"/>
     </row>
-    <row r="266" ht="14.25" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="19"/>
     </row>
-    <row r="267" ht="14.25" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="19"/>
     </row>
-    <row r="268" ht="14.25" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="19"/>
     </row>
-    <row r="269" ht="14.25" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="19"/>
     </row>
-    <row r="270" ht="14.25" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="19"/>
     </row>
-    <row r="271" ht="14.25" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="19"/>
     </row>
-    <row r="272" ht="14.25" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="19"/>
     </row>
-    <row r="273" ht="14.25" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="19"/>
     </row>
-    <row r="274" ht="14.25" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="19"/>
     </row>
-    <row r="275" ht="14.25" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="19"/>
     </row>
-    <row r="276" ht="14.25" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="19"/>
     </row>
-    <row r="277" ht="14.25" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="19"/>
     </row>
-    <row r="278" ht="14.25" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="19"/>
     </row>
-    <row r="279" ht="14.25" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="19"/>
     </row>
-    <row r="280" ht="14.25" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="19"/>
     </row>
-    <row r="281" ht="14.25" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="19"/>
     </row>
-    <row r="282" ht="14.25" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="19"/>
     </row>
-    <row r="283" ht="14.25" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="19"/>
     </row>
-    <row r="284" ht="14.25" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="19"/>
     </row>
-    <row r="285" ht="14.25" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="19"/>
     </row>
-    <row r="286" ht="14.25" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="19"/>
     </row>
-    <row r="287" ht="14.25" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="19"/>
     </row>
-    <row r="288" ht="14.25" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="19"/>
     </row>
-    <row r="289" ht="14.25" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="19"/>
     </row>
-    <row r="290" ht="14.25" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="19"/>
     </row>
-    <row r="291" ht="14.25" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="19"/>
     </row>
-    <row r="292" ht="14.25" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="19"/>
     </row>
-    <row r="293" ht="14.25" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="19"/>
     </row>
-    <row r="294" ht="14.25" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="19"/>
     </row>
-    <row r="295" ht="14.25" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="19"/>
     </row>
-    <row r="296" ht="14.25" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="19"/>
     </row>
-    <row r="297" ht="14.25" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="19"/>
     </row>
-    <row r="298" ht="14.25" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="19"/>
     </row>
-    <row r="299" ht="14.25" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="19"/>
     </row>
-    <row r="300" ht="14.25" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="19"/>
     </row>
-    <row r="301" ht="14.25" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="19"/>
     </row>
-    <row r="302" ht="14.25" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="19"/>
     </row>
-    <row r="303" ht="14.25" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="19"/>
     </row>
-    <row r="304" ht="14.25" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="19"/>
     </row>
-    <row r="305" ht="14.25" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="19"/>
     </row>
-    <row r="306" ht="14.25" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="19"/>
     </row>
-    <row r="307" ht="14.25" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="19"/>
     </row>
-    <row r="308" ht="14.25" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="19"/>
     </row>
-    <row r="309" ht="14.25" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="19"/>
     </row>
-    <row r="310" ht="14.25" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="19"/>
     </row>
-    <row r="311" ht="14.25" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="19"/>
     </row>
-    <row r="312" ht="14.25" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="19"/>
     </row>
-    <row r="313" ht="14.25" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="19"/>
     </row>
-    <row r="314" ht="14.25" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="19"/>
     </row>
-    <row r="315" ht="14.25" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="19"/>
     </row>
-    <row r="316" ht="14.25" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="19"/>
     </row>
-    <row r="317" ht="14.25" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="19"/>
     </row>
-    <row r="318" ht="14.25" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="19"/>
     </row>
-    <row r="319" ht="14.25" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="19"/>
     </row>
-    <row r="320" ht="14.25" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="19"/>
     </row>
-    <row r="321" ht="14.25" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="19"/>
     </row>
-    <row r="322" ht="14.25" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="19"/>
     </row>
-    <row r="323" ht="14.25" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="19"/>
     </row>
-    <row r="324" ht="14.25" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="19"/>
     </row>
-    <row r="325" ht="14.25" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="19"/>
     </row>
-    <row r="326" ht="14.25" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="19"/>
     </row>
-    <row r="327" ht="14.25" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="19"/>
     </row>
-    <row r="328" ht="14.25" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="19"/>
     </row>
-    <row r="329" ht="14.25" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="19"/>
     </row>
-    <row r="330" ht="14.25" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="19"/>
     </row>
-    <row r="331" ht="14.25" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="19"/>
     </row>
-    <row r="332" ht="14.25" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="19"/>
     </row>
-    <row r="333" ht="14.25" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="19"/>
     </row>
-    <row r="334" ht="14.25" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="19"/>
     </row>
-    <row r="335" ht="14.25" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="19"/>
     </row>
-    <row r="336" ht="14.25" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="19"/>
     </row>
-    <row r="337" ht="14.25" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="19"/>
     </row>
-    <row r="338" ht="14.25" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="19"/>
     </row>
-    <row r="339" ht="14.25" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="19"/>
     </row>
-    <row r="340" ht="14.25" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="19"/>
     </row>
-    <row r="341" ht="14.25" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="19"/>
     </row>
-    <row r="342" ht="14.25" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="19"/>
     </row>
-    <row r="343" ht="14.25" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="19"/>
     </row>
-    <row r="344" ht="14.25" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="19"/>
     </row>
-    <row r="345" ht="14.25" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="19"/>
     </row>
-    <row r="346" ht="14.25" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="19"/>
     </row>
-    <row r="347" ht="14.25" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="19"/>
     </row>
-    <row r="348" ht="14.25" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="19"/>
     </row>
-    <row r="349" ht="14.25" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="19"/>
     </row>
-    <row r="350" ht="14.25" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="19"/>
     </row>
-    <row r="351" ht="14.25" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="19"/>
     </row>
-    <row r="352" ht="14.25" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="19"/>
     </row>
-    <row r="353" ht="14.25" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="19"/>
     </row>
-    <row r="354" ht="14.25" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="19"/>
     </row>
-    <row r="355" ht="14.25" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="19"/>
     </row>
-    <row r="356" ht="14.25" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="19"/>
     </row>
-    <row r="357" ht="14.25" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="19"/>
     </row>
-    <row r="358" ht="14.25" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="19"/>
     </row>
-    <row r="359" ht="14.25" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="19"/>
     </row>
-    <row r="360" ht="14.25" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="19"/>
     </row>
-    <row r="361" ht="14.25" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="19"/>
     </row>
-    <row r="362" ht="14.25" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="19"/>
     </row>
-    <row r="363" ht="14.25" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="19"/>
     </row>
-    <row r="364" ht="14.25" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="19"/>
     </row>
-    <row r="365" ht="14.25" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="19"/>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="19"/>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="19"/>
     </row>
-    <row r="368" ht="14.25" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="19"/>
     </row>
-    <row r="369" ht="14.25" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="19"/>
     </row>
-    <row r="370" ht="14.25" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="19"/>
     </row>
-    <row r="371" ht="14.25" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="19"/>
     </row>
-    <row r="372" ht="14.25" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="19"/>
     </row>
-    <row r="373" ht="14.25" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="19"/>
     </row>
-    <row r="374" ht="14.25" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="19"/>
     </row>
-    <row r="375" ht="14.25" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="19"/>
     </row>
-    <row r="376" ht="14.25" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="19"/>
     </row>
-    <row r="377" ht="14.25" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="19"/>
     </row>
-    <row r="378" ht="14.25" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="19"/>
     </row>
-    <row r="379" ht="14.25" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="19"/>
     </row>
-    <row r="380" ht="14.25" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="19"/>
     </row>
-    <row r="381" ht="14.25" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="19"/>
     </row>
-    <row r="382" ht="14.25" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="19"/>
     </row>
-    <row r="383" ht="14.25" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="19"/>
     </row>
-    <row r="384" ht="14.25" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="19"/>
     </row>
-    <row r="385" ht="14.25" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="19"/>
     </row>
-    <row r="386" ht="14.25" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="19"/>
     </row>
-    <row r="387" ht="14.25" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="19"/>
     </row>
-    <row r="388" ht="14.25" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="19"/>
     </row>
-    <row r="389" ht="14.25" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="19"/>
     </row>
-    <row r="390" ht="14.25" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="19"/>
     </row>
-    <row r="391" ht="14.25" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="19"/>
     </row>
-    <row r="392" ht="14.25" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="19"/>
     </row>
-    <row r="393" ht="14.25" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="19"/>
     </row>
-    <row r="394" ht="14.25" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="19"/>
     </row>
-    <row r="395" ht="14.25" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="19"/>
     </row>
-    <row r="396" ht="14.25" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="19"/>
     </row>
-    <row r="397" ht="14.25" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="19"/>
     </row>
-    <row r="398" ht="14.25" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="19"/>
     </row>
-    <row r="399" ht="14.25" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="19"/>
     </row>
-    <row r="400" ht="14.25" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="19"/>
     </row>
-    <row r="401" ht="14.25" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="19"/>
     </row>
-    <row r="402" ht="14.25" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="19"/>
     </row>
-    <row r="403" ht="14.25" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="19"/>
     </row>
-    <row r="404" ht="14.25" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="19"/>
     </row>
-    <row r="405" ht="14.25" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="19"/>
     </row>
-    <row r="406" ht="14.25" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="19"/>
     </row>
-    <row r="407" ht="14.25" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="19"/>
     </row>
-    <row r="408" ht="14.25" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="19"/>
     </row>
-    <row r="409" ht="14.25" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="19"/>
     </row>
-    <row r="410" ht="14.25" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="19"/>
     </row>
-    <row r="411" ht="14.25" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="19"/>
     </row>
-    <row r="412" ht="14.25" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="19"/>
     </row>
-    <row r="413" ht="14.25" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="19"/>
     </row>
-    <row r="414" ht="14.25" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="19"/>
     </row>
-    <row r="415" ht="14.25" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="19"/>
     </row>
-    <row r="416" ht="14.25" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="19"/>
     </row>
-    <row r="417" ht="14.25" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="19"/>
     </row>
-    <row r="418" ht="14.25" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="19"/>
     </row>
-    <row r="419" ht="14.25" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="19"/>
     </row>
-    <row r="420" ht="14.25" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="19"/>
     </row>
-    <row r="421" ht="14.25" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="19"/>
     </row>
-    <row r="422" ht="14.25" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="19"/>
     </row>
-    <row r="423" ht="14.25" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="19"/>
     </row>
-    <row r="424" ht="14.25" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="19"/>
     </row>
-    <row r="425" ht="14.25" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="19"/>
     </row>
-    <row r="426" ht="14.25" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="19"/>
     </row>
-    <row r="427" ht="14.25" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="19"/>
     </row>
-    <row r="428" ht="14.25" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="19"/>
     </row>
-    <row r="429" ht="14.25" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="19"/>
     </row>
-    <row r="430" ht="14.25" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="19"/>
     </row>
-    <row r="431" ht="14.25" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="19"/>
     </row>
-    <row r="432" ht="14.25" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="19"/>
     </row>
-    <row r="433" ht="14.25" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="19"/>
     </row>
-    <row r="434" ht="14.25" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="19"/>
     </row>
-    <row r="435" ht="14.25" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="19"/>
     </row>
-    <row r="436" ht="14.25" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="19"/>
     </row>
-    <row r="437" ht="14.25" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="19"/>
     </row>
-    <row r="438" ht="14.25" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="19"/>
     </row>
-    <row r="439" ht="14.25" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="19"/>
     </row>
-    <row r="440" ht="14.25" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="19"/>
     </row>
-    <row r="441" ht="14.25" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="19"/>
     </row>
-    <row r="442" ht="14.25" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="19"/>
     </row>
-    <row r="443" ht="14.25" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="19"/>
     </row>
-    <row r="444" ht="14.25" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="19"/>
     </row>
-    <row r="445" ht="14.25" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="19"/>
     </row>
-    <row r="446" ht="14.25" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="19"/>
     </row>
-    <row r="447" ht="14.25" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="19"/>
     </row>
-    <row r="448" ht="14.25" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="19"/>
     </row>
-    <row r="449" ht="14.25" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="19"/>
     </row>
-    <row r="450" ht="14.25" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="19"/>
     </row>
-    <row r="451" ht="14.25" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="19"/>
     </row>
-    <row r="452" ht="14.25" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="19"/>
     </row>
-    <row r="453" ht="14.25" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="19"/>
     </row>
-    <row r="454" ht="14.25" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="19"/>
     </row>
-    <row r="455" ht="14.25" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="19"/>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="19"/>
     </row>
-    <row r="457" ht="14.25" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="19"/>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="19"/>
     </row>
-    <row r="459" ht="14.25" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="19"/>
     </row>
-    <row r="460" ht="14.25" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="19"/>
     </row>
-    <row r="461" ht="14.25" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="19"/>
     </row>
-    <row r="462" ht="14.25" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="19"/>
     </row>
-    <row r="463" ht="14.25" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="19"/>
     </row>
-    <row r="464" ht="14.25" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="19"/>
     </row>
-    <row r="465" ht="14.25" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="19"/>
     </row>
-    <row r="466" ht="14.25" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="19"/>
     </row>
-    <row r="467" ht="14.25" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="19"/>
     </row>
-    <row r="468" ht="14.25" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="19"/>
     </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="19"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="19"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="19"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="19"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="19"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="19"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="19"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="19"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="19"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="19"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="19"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="19"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="19"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="19"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="19"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="19"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="19"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="19"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="19"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="19"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="19"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="19"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="19"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="19"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="19"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="19"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="19"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="19"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="19"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="19"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="19"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="19"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="19"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="19"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="19"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="19"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="19"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="19"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="19"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="19"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="19"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="19"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="19"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="19"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="19"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="19"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="19"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="19"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="19"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="19"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="19"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="19"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="19"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="19"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="19"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="19"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="19"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="19"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="19"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="19"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="19"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="19"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="19"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="19"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="19"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="19"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="19"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="19"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="19"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="19"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="19"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="19"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="19"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="19"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="19"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="19"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="19"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="19"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="19"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="19"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="19"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="19"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="19"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="19"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="19"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="19"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="19"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="19"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="19"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="19"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="19"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="19"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="19"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="19"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="19"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="19"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="19"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="19"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="19"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="19"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="19"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="19"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="19"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="19"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="19"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="19"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="19"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="19"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="19"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="19"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="19"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="19"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="19"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="19"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="19"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="19"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="19"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="19"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="19"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="19"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="19"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="19"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="19"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="19"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="19"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="19"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="19"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="19"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="19"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="19"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="19"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="19"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="19"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="19"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="19"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="19"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="19"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="19"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="19"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="19"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="19"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="19"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="19"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="19"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="19"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="19"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="19"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="19"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="19"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="19"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="19"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="19"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="19"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="19"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="19"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="19"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="19"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="19"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="19"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="19"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="19"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="19"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="19"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="19"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="19"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="19"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="19"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="19"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="19"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="19"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="19"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="19"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="19"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="19"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="19"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="19"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="19"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="19"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="19"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="19"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="19"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="19"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="19"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="19"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="19"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="19"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="19"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="19"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="19"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="19"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="19"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="19"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="19"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="19"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="19"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="19"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="19"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="19"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="19"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="19"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="19"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="19"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="19"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="19"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="19"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="19"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="19"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="19"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="19"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="19"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="19"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="19"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="19"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="19"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="19"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="19"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="19"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="19"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="19"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="19"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="19"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="19"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="19"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="19"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="19"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="19"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="19"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="19"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="19"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="19"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="19"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="19"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="19"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="19"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="19"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="19"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="19"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="19"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="19"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="19"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="19"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="19"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="19"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="19"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="19"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="19"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="19"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="19"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="19"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="19"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="19"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="19"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="19"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="19"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="19"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="19"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="19"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="19"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="19"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="19"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="19"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="19"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="19"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="19"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="19"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="19"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="19"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="19"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="19"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="19"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="19"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="19"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="19"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="19"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="19"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="19"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="19"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="19"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="19"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="19"/>
     </row>
-    <row r="749" ht="14.25" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="19"/>
     </row>
-    <row r="750" ht="14.25" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="19"/>
     </row>
-    <row r="751" ht="14.25" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="19"/>
     </row>
-    <row r="752" ht="14.25" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="19"/>
     </row>
-    <row r="753" ht="14.25" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="19"/>
     </row>
-    <row r="754" ht="14.25" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="19"/>
     </row>
-    <row r="755" ht="14.25" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="19"/>
     </row>
-    <row r="756" ht="14.25" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="19"/>
     </row>
-    <row r="757" ht="14.25" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="19"/>
     </row>
-    <row r="758" ht="14.25" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="19"/>
     </row>
-    <row r="759" ht="14.25" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="19"/>
     </row>
-    <row r="760" ht="14.25" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="19"/>
     </row>
-    <row r="761" ht="14.25" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="19"/>
     </row>
-    <row r="762" ht="14.25" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="19"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16991" windowHeight="7884"/>
+    <workbookView windowWidth="21690" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -568,6 +568,30 @@
   </si>
   <si>
     <t>Q:1870163435</t>
+  </si>
+  <si>
+    <t>海尔润轩专卖店</t>
+  </si>
+  <si>
+    <t>Q:3047087078</t>
+  </si>
+  <si>
+    <t>招财猫电器专营店</t>
+  </si>
+  <si>
+    <t>Q:515835513</t>
+  </si>
+  <si>
+    <t>伸手乐电器旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1969706030</t>
+  </si>
+  <si>
+    <t>小天鹅绿灯侠专卖店 </t>
+  </si>
+  <si>
+    <t>Q:80553040</t>
   </si>
 </sst>
 </file>
@@ -675,26 +699,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -705,15 +713,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,7 +723,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,39 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,7 +760,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -805,15 +829,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +858,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +924,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,145 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1008,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,26 +1052,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,8 +1096,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,17 +1132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,17 +1149,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,137 +1169,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1358,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1657,15 +1684,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="3" customWidth="1"/>
   </cols>
@@ -1687,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1786,7 +1813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1808,7 +1835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1819,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1841,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1866,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1891,7 +1918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -1899,7 +1926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1921,7 +1948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
@@ -1929,7 +1956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1937,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1945,7 +1972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="15" t="s">
         <v>63</v>
       </c>
@@ -1955,7 +1982,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1963,7 +1990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>67</v>
       </c>
@@ -1977,7 +2004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
@@ -1988,7 +2015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +2023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -2004,7 +2031,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>77</v>
       </c>
@@ -2012,7 +2039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>79</v>
       </c>
@@ -2020,7 +2047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -2028,7 +2055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -2036,7 +2063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -2044,7 +2071,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="18" t="s">
         <v>87</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>90</v>
       </c>
@@ -2064,7 +2091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>92</v>
       </c>
@@ -2072,7 +2099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
@@ -2080,7 +2107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>98</v>
       </c>
@@ -2096,7 +2123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -2104,7 +2131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
@@ -2112,7 +2139,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="19" t="s">
         <v>104</v>
       </c>
@@ -2120,7 +2147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>106</v>
       </c>
@@ -2128,7 +2155,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -2136,7 +2163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="19" t="s">
         <v>110</v>
       </c>
@@ -2144,7 +2171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="14.25" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>112</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>117</v>
       </c>
@@ -2171,7 +2198,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A52" s="7" t="s">
         <v>119</v>
       </c>
@@ -2183,7 +2210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="19" t="s">
         <v>122</v>
       </c>
@@ -2191,7 +2218,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="19" t="s">
         <v>124</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="19" t="s">
         <v>126</v>
       </c>
@@ -2207,7 +2234,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
@@ -2215,7 +2242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>130</v>
       </c>
@@ -2223,7 +2250,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>132</v>
       </c>
@@ -2231,7 +2258,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="19" t="s">
         <v>134</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>136</v>
       </c>
@@ -2247,7 +2274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>140</v>
       </c>
@@ -2263,7 +2290,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>142</v>
       </c>
@@ -2271,7 +2298,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>144</v>
       </c>
@@ -2279,7 +2306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>146</v>
       </c>
@@ -2287,7 +2314,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>148</v>
       </c>
@@ -2298,7 +2325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>151</v>
       </c>
@@ -2306,7 +2333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="19" t="s">
         <v>153</v>
       </c>
@@ -2314,7 +2341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -2322,7 +2349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="19" t="s">
         <v>157</v>
       </c>
@@ -2330,7 +2357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>159</v>
       </c>
@@ -2338,7 +2365,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>161</v>
       </c>
@@ -2346,7 +2373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>163</v>
       </c>
@@ -2354,7 +2381,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>165</v>
       </c>
@@ -2362,7 +2389,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>167</v>
       </c>
@@ -2370,7 +2397,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>169</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="19" t="s">
         <v>171</v>
       </c>
@@ -2386,7 +2413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>173</v>
       </c>
@@ -2394,7 +2421,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>175</v>
       </c>
@@ -2402,7 +2429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="19" t="s">
         <v>177</v>
       </c>
@@ -2410,2050 +2437,2070 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="19"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="19"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="19"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="19"/>
-    </row>
-    <row r="85" spans="1:1">
+    <row r="81" ht="14.25" spans="1:2">
+      <c r="A81" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:2">
+      <c r="A82" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:2">
+      <c r="A83" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:2">
+      <c r="A84" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" spans="1:1">
       <c r="A85" s="19"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" ht="14.25" spans="1:1">
       <c r="A86" s="19"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" ht="14.25" spans="1:1">
       <c r="A87" s="19"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" ht="14.25" spans="1:1">
       <c r="A88" s="19"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" ht="14.25" spans="1:1">
       <c r="A89" s="19"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" ht="14.25" spans="1:1">
       <c r="A90" s="19"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" ht="14.25" spans="1:1">
       <c r="A91" s="19"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" ht="14.25" spans="1:1">
       <c r="A92" s="19"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" ht="14.25" spans="1:1">
       <c r="A93" s="19"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" ht="14.25" spans="1:1">
       <c r="A94" s="19"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" ht="14.25" spans="1:1">
       <c r="A95" s="19"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" ht="14.25" spans="1:1">
       <c r="A96" s="19"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" ht="14.25" spans="1:1">
       <c r="A97" s="19"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" ht="14.25" spans="1:1">
       <c r="A98" s="19"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" ht="14.25" spans="1:1">
       <c r="A99" s="19"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" ht="14.25" spans="1:1">
       <c r="A100" s="19"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" ht="14.25" spans="1:1">
       <c r="A101" s="19"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" ht="14.25" spans="1:1">
       <c r="A102" s="19"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" ht="14.25" spans="1:1">
       <c r="A103" s="19"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" ht="14.25" spans="1:1">
       <c r="A104" s="19"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" ht="14.25" spans="1:1">
       <c r="A105" s="19"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" ht="14.25" spans="1:1">
       <c r="A106" s="19"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" ht="14.25" spans="1:1">
       <c r="A107" s="19"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" ht="14.25" spans="1:1">
       <c r="A108" s="19"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" ht="14.25" spans="1:1">
       <c r="A109" s="19"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" ht="14.25" spans="1:1">
       <c r="A110" s="19"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" ht="14.25" spans="1:1">
       <c r="A111" s="19"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" ht="14.25" spans="1:1">
       <c r="A112" s="19"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" ht="14.25" spans="1:1">
       <c r="A113" s="19"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" ht="14.25" spans="1:1">
       <c r="A114" s="19"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" ht="14.25" spans="1:1">
       <c r="A115" s="19"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" ht="14.25" spans="1:1">
       <c r="A116" s="19"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" ht="14.25" spans="1:1">
       <c r="A117" s="19"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" ht="14.25" spans="1:1">
       <c r="A118" s="19"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" ht="14.25" spans="1:1">
       <c r="A119" s="19"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" ht="14.25" spans="1:1">
       <c r="A120" s="19"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" ht="14.25" spans="1:1">
       <c r="A121" s="19"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" ht="14.25" spans="1:1">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" ht="14.25" spans="1:1">
       <c r="A123" s="19"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="14.25" spans="1:1">
       <c r="A124" s="19"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="14.25" spans="1:1">
       <c r="A125" s="19"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="14.25" spans="1:1">
       <c r="A126" s="19"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="14.25" spans="1:1">
       <c r="A127" s="19"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="14.25" spans="1:1">
       <c r="A128" s="19"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="14.25" spans="1:1">
       <c r="A129" s="19"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="14.25" spans="1:1">
       <c r="A130" s="19"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="14.25" spans="1:1">
       <c r="A131" s="19"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="14.25" spans="1:1">
       <c r="A132" s="19"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.25" spans="1:1">
       <c r="A133" s="19"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="14.25" spans="1:1">
       <c r="A134" s="19"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="14.25" spans="1:1">
       <c r="A135" s="19"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="14.25" spans="1:1">
       <c r="A136" s="19"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="14.25" spans="1:1">
       <c r="A137" s="19"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="14.25" spans="1:1">
       <c r="A138" s="19"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="14.25" spans="1:1">
       <c r="A139" s="19"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="14.25" spans="1:1">
       <c r="A140" s="19"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="14.25" spans="1:1">
       <c r="A141" s="19"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="14.25" spans="1:1">
       <c r="A142" s="19"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="14.25" spans="1:1">
       <c r="A143" s="19"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="14.25" spans="1:1">
       <c r="A144" s="19"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="14.25" spans="1:1">
       <c r="A145" s="19"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="14.25" spans="1:1">
       <c r="A146" s="19"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="14.25" spans="1:1">
       <c r="A147" s="19"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="14.25" spans="1:1">
       <c r="A148" s="19"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="14.25" spans="1:1">
       <c r="A149" s="19"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="14.25" spans="1:1">
       <c r="A150" s="19"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="14.25" spans="1:1">
       <c r="A151" s="19"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="14.25" spans="1:1">
       <c r="A152" s="19"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="14.25" spans="1:1">
       <c r="A153" s="19"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="14.25" spans="1:1">
       <c r="A154" s="19"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="14.25" spans="1:1">
       <c r="A155" s="19"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="14.25" spans="1:1">
       <c r="A156" s="19"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="14.25" spans="1:1">
       <c r="A157" s="19"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="14.25" spans="1:1">
       <c r="A158" s="19"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="14.25" spans="1:1">
       <c r="A159" s="19"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="14.25" spans="1:1">
       <c r="A160" s="19"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="14.25" spans="1:1">
       <c r="A161" s="19"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="14.25" spans="1:1">
       <c r="A162" s="19"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="14.25" spans="1:1">
       <c r="A163" s="19"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="14.25" spans="1:1">
       <c r="A164" s="19"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="14.25" spans="1:1">
       <c r="A165" s="19"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="14.25" spans="1:1">
       <c r="A166" s="19"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="14.25" spans="1:1">
       <c r="A167" s="19"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="14.25" spans="1:1">
       <c r="A168" s="19"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="14.25" spans="1:1">
       <c r="A169" s="19"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="14.25" spans="1:1">
       <c r="A170" s="19"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="14.25" spans="1:1">
       <c r="A171" s="19"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="14.25" spans="1:1">
       <c r="A172" s="19"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="14.25" spans="1:1">
       <c r="A173" s="19"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="14.25" spans="1:1">
       <c r="A174" s="19"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="14.25" spans="1:1">
       <c r="A175" s="19"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="14.25" spans="1:1">
       <c r="A176" s="19"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="14.25" spans="1:1">
       <c r="A177" s="19"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="14.25" spans="1:1">
       <c r="A178" s="19"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="14.25" spans="1:1">
       <c r="A179" s="19"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="14.25" spans="1:1">
       <c r="A180" s="19"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="14.25" spans="1:1">
       <c r="A181" s="19"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" ht="14.25" spans="1:1">
       <c r="A182" s="19"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="14.25" spans="1:1">
       <c r="A183" s="19"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="14.25" spans="1:1">
       <c r="A184" s="19"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="14.25" spans="1:1">
       <c r="A185" s="19"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="14.25" spans="1:1">
       <c r="A186" s="19"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="14.25" spans="1:1">
       <c r="A187" s="19"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="14.25" spans="1:1">
       <c r="A188" s="19"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="14.25" spans="1:1">
       <c r="A189" s="19"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="14.25" spans="1:1">
       <c r="A190" s="19"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="14.25" spans="1:1">
       <c r="A191" s="19"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="14.25" spans="1:1">
       <c r="A192" s="19"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="14.25" spans="1:1">
       <c r="A193" s="19"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="14.25" spans="1:1">
       <c r="A194" s="19"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="14.25" spans="1:1">
       <c r="A195" s="19"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="14.25" spans="1:1">
       <c r="A196" s="19"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="14.25" spans="1:1">
       <c r="A197" s="19"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="14.25" spans="1:1">
       <c r="A198" s="19"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="14.25" spans="1:1">
       <c r="A199" s="19"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="14.25" spans="1:1">
       <c r="A200" s="19"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="14.25" spans="1:1">
       <c r="A201" s="19"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="14.25" spans="1:1">
       <c r="A202" s="19"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="14.25" spans="1:1">
       <c r="A203" s="19"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="14.25" spans="1:1">
       <c r="A204" s="19"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="14.25" spans="1:1">
       <c r="A205" s="19"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" ht="14.25" spans="1:1">
       <c r="A206" s="19"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" ht="14.25" spans="1:1">
       <c r="A207" s="19"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" ht="14.25" spans="1:1">
       <c r="A208" s="19"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" ht="14.25" spans="1:1">
       <c r="A209" s="19"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" ht="14.25" spans="1:1">
       <c r="A210" s="19"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" ht="14.25" spans="1:1">
       <c r="A211" s="19"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" ht="14.25" spans="1:1">
       <c r="A212" s="19"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" ht="14.25" spans="1:1">
       <c r="A213" s="19"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" ht="14.25" spans="1:1">
       <c r="A214" s="19"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" ht="14.25" spans="1:1">
       <c r="A215" s="19"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" ht="14.25" spans="1:1">
       <c r="A216" s="19"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" ht="14.25" spans="1:1">
       <c r="A217" s="19"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" ht="14.25" spans="1:1">
       <c r="A218" s="19"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" ht="14.25" spans="1:1">
       <c r="A219" s="19"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" ht="14.25" spans="1:1">
       <c r="A220" s="19"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" ht="14.25" spans="1:1">
       <c r="A221" s="19"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" ht="14.25" spans="1:1">
       <c r="A222" s="19"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" ht="14.25" spans="1:1">
       <c r="A223" s="19"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="14.25" spans="1:1">
       <c r="A224" s="19"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" ht="14.25" spans="1:1">
       <c r="A225" s="19"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" ht="14.25" spans="1:1">
       <c r="A226" s="19"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" ht="14.25" spans="1:1">
       <c r="A227" s="19"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" ht="14.25" spans="1:1">
       <c r="A228" s="19"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" ht="14.25" spans="1:1">
       <c r="A229" s="19"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" ht="14.25" spans="1:1">
       <c r="A230" s="19"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" ht="14.25" spans="1:1">
       <c r="A231" s="19"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" ht="14.25" spans="1:1">
       <c r="A232" s="19"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" ht="14.25" spans="1:1">
       <c r="A233" s="19"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" ht="14.25" spans="1:1">
       <c r="A234" s="19"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" ht="14.25" spans="1:1">
       <c r="A235" s="19"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" ht="14.25" spans="1:1">
       <c r="A236" s="19"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" ht="14.25" spans="1:1">
       <c r="A237" s="19"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" ht="14.25" spans="1:1">
       <c r="A238" s="19"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" ht="14.25" spans="1:1">
       <c r="A239" s="19"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" ht="14.25" spans="1:1">
       <c r="A240" s="19"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" ht="14.25" spans="1:1">
       <c r="A241" s="19"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" ht="14.25" spans="1:1">
       <c r="A242" s="19"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" ht="14.25" spans="1:1">
       <c r="A243" s="19"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" ht="14.25" spans="1:1">
       <c r="A244" s="19"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" ht="14.25" spans="1:1">
       <c r="A245" s="19"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" ht="14.25" spans="1:1">
       <c r="A246" s="19"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" ht="14.25" spans="1:1">
       <c r="A247" s="19"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" ht="14.25" spans="1:1">
       <c r="A248" s="19"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" ht="14.25" spans="1:1">
       <c r="A249" s="19"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" ht="14.25" spans="1:1">
       <c r="A250" s="19"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" ht="14.25" spans="1:1">
       <c r="A251" s="19"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" ht="14.25" spans="1:1">
       <c r="A252" s="19"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" ht="14.25" spans="1:1">
       <c r="A253" s="19"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" ht="14.25" spans="1:1">
       <c r="A254" s="19"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" ht="14.25" spans="1:1">
       <c r="A255" s="19"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" ht="14.25" spans="1:1">
       <c r="A256" s="19"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" ht="14.25" spans="1:1">
       <c r="A257" s="19"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" ht="14.25" spans="1:1">
       <c r="A258" s="19"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" ht="14.25" spans="1:1">
       <c r="A259" s="19"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" ht="14.25" spans="1:1">
       <c r="A260" s="19"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" ht="14.25" spans="1:1">
       <c r="A261" s="19"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" ht="14.25" spans="1:1">
       <c r="A262" s="19"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" ht="14.25" spans="1:1">
       <c r="A263" s="19"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" ht="14.25" spans="1:1">
       <c r="A264" s="19"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="14.25" spans="1:1">
       <c r="A265" s="19"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" ht="14.25" spans="1:1">
       <c r="A266" s="19"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" ht="14.25" spans="1:1">
       <c r="A267" s="19"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" ht="14.25" spans="1:1">
       <c r="A268" s="19"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" ht="14.25" spans="1:1">
       <c r="A269" s="19"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" ht="14.25" spans="1:1">
       <c r="A270" s="19"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" ht="14.25" spans="1:1">
       <c r="A271" s="19"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" ht="14.25" spans="1:1">
       <c r="A272" s="19"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" ht="14.25" spans="1:1">
       <c r="A273" s="19"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" ht="14.25" spans="1:1">
       <c r="A274" s="19"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" ht="14.25" spans="1:1">
       <c r="A275" s="19"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" ht="14.25" spans="1:1">
       <c r="A276" s="19"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" ht="14.25" spans="1:1">
       <c r="A277" s="19"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" ht="14.25" spans="1:1">
       <c r="A278" s="19"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" ht="14.25" spans="1:1">
       <c r="A279" s="19"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" ht="14.25" spans="1:1">
       <c r="A280" s="19"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" ht="14.25" spans="1:1">
       <c r="A281" s="19"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" ht="14.25" spans="1:1">
       <c r="A282" s="19"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" ht="14.25" spans="1:1">
       <c r="A283" s="19"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" ht="14.25" spans="1:1">
       <c r="A284" s="19"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="14.25" spans="1:1">
       <c r="A285" s="19"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="14.25" spans="1:1">
       <c r="A286" s="19"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" ht="14.25" spans="1:1">
       <c r="A287" s="19"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" ht="14.25" spans="1:1">
       <c r="A288" s="19"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" ht="14.25" spans="1:1">
       <c r="A289" s="19"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" ht="14.25" spans="1:1">
       <c r="A290" s="19"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" ht="14.25" spans="1:1">
       <c r="A291" s="19"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" ht="14.25" spans="1:1">
       <c r="A292" s="19"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" ht="14.25" spans="1:1">
       <c r="A293" s="19"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" ht="14.25" spans="1:1">
       <c r="A294" s="19"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" ht="14.25" spans="1:1">
       <c r="A295" s="19"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" ht="14.25" spans="1:1">
       <c r="A296" s="19"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" ht="14.25" spans="1:1">
       <c r="A297" s="19"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" ht="14.25" spans="1:1">
       <c r="A298" s="19"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" ht="14.25" spans="1:1">
       <c r="A299" s="19"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" ht="14.25" spans="1:1">
       <c r="A300" s="19"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" ht="14.25" spans="1:1">
       <c r="A301" s="19"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" ht="14.25" spans="1:1">
       <c r="A302" s="19"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" ht="14.25" spans="1:1">
       <c r="A303" s="19"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" ht="14.25" spans="1:1">
       <c r="A304" s="19"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" ht="14.25" spans="1:1">
       <c r="A305" s="19"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" ht="14.25" spans="1:1">
       <c r="A306" s="19"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" ht="14.25" spans="1:1">
       <c r="A307" s="19"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" ht="14.25" spans="1:1">
       <c r="A308" s="19"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" ht="14.25" spans="1:1">
       <c r="A309" s="19"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" ht="14.25" spans="1:1">
       <c r="A310" s="19"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" ht="14.25" spans="1:1">
       <c r="A311" s="19"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" ht="14.25" spans="1:1">
       <c r="A312" s="19"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" ht="14.25" spans="1:1">
       <c r="A313" s="19"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" ht="14.25" spans="1:1">
       <c r="A314" s="19"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" ht="14.25" spans="1:1">
       <c r="A315" s="19"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" ht="14.25" spans="1:1">
       <c r="A316" s="19"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" ht="14.25" spans="1:1">
       <c r="A317" s="19"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" ht="14.25" spans="1:1">
       <c r="A318" s="19"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" ht="14.25" spans="1:1">
       <c r="A319" s="19"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" ht="14.25" spans="1:1">
       <c r="A320" s="19"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" ht="14.25" spans="1:1">
       <c r="A321" s="19"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" ht="14.25" spans="1:1">
       <c r="A322" s="19"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" ht="14.25" spans="1:1">
       <c r="A323" s="19"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" ht="14.25" spans="1:1">
       <c r="A324" s="19"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" ht="14.25" spans="1:1">
       <c r="A325" s="19"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" ht="14.25" spans="1:1">
       <c r="A326" s="19"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" ht="14.25" spans="1:1">
       <c r="A327" s="19"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" ht="14.25" spans="1:1">
       <c r="A328" s="19"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" ht="14.25" spans="1:1">
       <c r="A329" s="19"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" ht="14.25" spans="1:1">
       <c r="A330" s="19"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" ht="14.25" spans="1:1">
       <c r="A331" s="19"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" ht="14.25" spans="1:1">
       <c r="A332" s="19"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" ht="14.25" spans="1:1">
       <c r="A333" s="19"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" ht="14.25" spans="1:1">
       <c r="A334" s="19"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" ht="14.25" spans="1:1">
       <c r="A335" s="19"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" ht="14.25" spans="1:1">
       <c r="A336" s="19"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" ht="14.25" spans="1:1">
       <c r="A337" s="19"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" ht="14.25" spans="1:1">
       <c r="A338" s="19"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" ht="14.25" spans="1:1">
       <c r="A339" s="19"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" ht="14.25" spans="1:1">
       <c r="A340" s="19"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" ht="14.25" spans="1:1">
       <c r="A341" s="19"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" ht="14.25" spans="1:1">
       <c r="A342" s="19"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" ht="14.25" spans="1:1">
       <c r="A343" s="19"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" ht="14.25" spans="1:1">
       <c r="A344" s="19"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" ht="14.25" spans="1:1">
       <c r="A345" s="19"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" ht="14.25" spans="1:1">
       <c r="A346" s="19"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" ht="14.25" spans="1:1">
       <c r="A347" s="19"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" ht="14.25" spans="1:1">
       <c r="A348" s="19"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" ht="14.25" spans="1:1">
       <c r="A349" s="19"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" ht="14.25" spans="1:1">
       <c r="A350" s="19"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" ht="14.25" spans="1:1">
       <c r="A351" s="19"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" ht="14.25" spans="1:1">
       <c r="A352" s="19"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" ht="14.25" spans="1:1">
       <c r="A353" s="19"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" ht="14.25" spans="1:1">
       <c r="A354" s="19"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" ht="14.25" spans="1:1">
       <c r="A355" s="19"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" ht="14.25" spans="1:1">
       <c r="A356" s="19"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" ht="14.25" spans="1:1">
       <c r="A357" s="19"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" ht="14.25" spans="1:1">
       <c r="A358" s="19"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" ht="14.25" spans="1:1">
       <c r="A359" s="19"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" ht="14.25" spans="1:1">
       <c r="A360" s="19"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" ht="14.25" spans="1:1">
       <c r="A361" s="19"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" ht="14.25" spans="1:1">
       <c r="A362" s="19"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" ht="14.25" spans="1:1">
       <c r="A363" s="19"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" ht="14.25" spans="1:1">
       <c r="A364" s="19"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" ht="14.25" spans="1:1">
       <c r="A365" s="19"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.25" spans="1:1">
       <c r="A366" s="19"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.25" spans="1:1">
       <c r="A367" s="19"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" ht="14.25" spans="1:1">
       <c r="A368" s="19"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" ht="14.25" spans="1:1">
       <c r="A369" s="19"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" ht="14.25" spans="1:1">
       <c r="A370" s="19"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" ht="14.25" spans="1:1">
       <c r="A371" s="19"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" ht="14.25" spans="1:1">
       <c r="A372" s="19"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" ht="14.25" spans="1:1">
       <c r="A373" s="19"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" ht="14.25" spans="1:1">
       <c r="A374" s="19"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" ht="14.25" spans="1:1">
       <c r="A375" s="19"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" ht="14.25" spans="1:1">
       <c r="A376" s="19"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" ht="14.25" spans="1:1">
       <c r="A377" s="19"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" ht="14.25" spans="1:1">
       <c r="A378" s="19"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" ht="14.25" spans="1:1">
       <c r="A379" s="19"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" ht="14.25" spans="1:1">
       <c r="A380" s="19"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" ht="14.25" spans="1:1">
       <c r="A381" s="19"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" ht="14.25" spans="1:1">
       <c r="A382" s="19"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" ht="14.25" spans="1:1">
       <c r="A383" s="19"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" ht="14.25" spans="1:1">
       <c r="A384" s="19"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" ht="14.25" spans="1:1">
       <c r="A385" s="19"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" ht="14.25" spans="1:1">
       <c r="A386" s="19"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" ht="14.25" spans="1:1">
       <c r="A387" s="19"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" ht="14.25" spans="1:1">
       <c r="A388" s="19"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" ht="14.25" spans="1:1">
       <c r="A389" s="19"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" ht="14.25" spans="1:1">
       <c r="A390" s="19"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" ht="14.25" spans="1:1">
       <c r="A391" s="19"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" ht="14.25" spans="1:1">
       <c r="A392" s="19"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" ht="14.25" spans="1:1">
       <c r="A393" s="19"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" ht="14.25" spans="1:1">
       <c r="A394" s="19"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" ht="14.25" spans="1:1">
       <c r="A395" s="19"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" ht="14.25" spans="1:1">
       <c r="A396" s="19"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" ht="14.25" spans="1:1">
       <c r="A397" s="19"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" ht="14.25" spans="1:1">
       <c r="A398" s="19"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" ht="14.25" spans="1:1">
       <c r="A399" s="19"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" ht="14.25" spans="1:1">
       <c r="A400" s="19"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" ht="14.25" spans="1:1">
       <c r="A401" s="19"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" ht="14.25" spans="1:1">
       <c r="A402" s="19"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" ht="14.25" spans="1:1">
       <c r="A403" s="19"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" ht="14.25" spans="1:1">
       <c r="A404" s="19"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" ht="14.25" spans="1:1">
       <c r="A405" s="19"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" ht="14.25" spans="1:1">
       <c r="A406" s="19"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" ht="14.25" spans="1:1">
       <c r="A407" s="19"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" ht="14.25" spans="1:1">
       <c r="A408" s="19"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" ht="14.25" spans="1:1">
       <c r="A409" s="19"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" ht="14.25" spans="1:1">
       <c r="A410" s="19"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" ht="14.25" spans="1:1">
       <c r="A411" s="19"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" ht="14.25" spans="1:1">
       <c r="A412" s="19"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" ht="14.25" spans="1:1">
       <c r="A413" s="19"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" ht="14.25" spans="1:1">
       <c r="A414" s="19"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" ht="14.25" spans="1:1">
       <c r="A415" s="19"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" ht="14.25" spans="1:1">
       <c r="A416" s="19"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" ht="14.25" spans="1:1">
       <c r="A417" s="19"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" ht="14.25" spans="1:1">
       <c r="A418" s="19"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" ht="14.25" spans="1:1">
       <c r="A419" s="19"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" ht="14.25" spans="1:1">
       <c r="A420" s="19"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" ht="14.25" spans="1:1">
       <c r="A421" s="19"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" ht="14.25" spans="1:1">
       <c r="A422" s="19"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" ht="14.25" spans="1:1">
       <c r="A423" s="19"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" ht="14.25" spans="1:1">
       <c r="A424" s="19"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" ht="14.25" spans="1:1">
       <c r="A425" s="19"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" ht="14.25" spans="1:1">
       <c r="A426" s="19"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" ht="14.25" spans="1:1">
       <c r="A427" s="19"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" ht="14.25" spans="1:1">
       <c r="A428" s="19"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" ht="14.25" spans="1:1">
       <c r="A429" s="19"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" ht="14.25" spans="1:1">
       <c r="A430" s="19"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" ht="14.25" spans="1:1">
       <c r="A431" s="19"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" ht="14.25" spans="1:1">
       <c r="A432" s="19"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" ht="14.25" spans="1:1">
       <c r="A433" s="19"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" ht="14.25" spans="1:1">
       <c r="A434" s="19"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" ht="14.25" spans="1:1">
       <c r="A435" s="19"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" ht="14.25" spans="1:1">
       <c r="A436" s="19"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" ht="14.25" spans="1:1">
       <c r="A437" s="19"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" ht="14.25" spans="1:1">
       <c r="A438" s="19"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" ht="14.25" spans="1:1">
       <c r="A439" s="19"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" ht="14.25" spans="1:1">
       <c r="A440" s="19"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" ht="14.25" spans="1:1">
       <c r="A441" s="19"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" ht="14.25" spans="1:1">
       <c r="A442" s="19"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" ht="14.25" spans="1:1">
       <c r="A443" s="19"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" ht="14.25" spans="1:1">
       <c r="A444" s="19"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" ht="14.25" spans="1:1">
       <c r="A445" s="19"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" ht="14.25" spans="1:1">
       <c r="A446" s="19"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" ht="14.25" spans="1:1">
       <c r="A447" s="19"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" ht="14.25" spans="1:1">
       <c r="A448" s="19"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" ht="14.25" spans="1:1">
       <c r="A449" s="19"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" ht="14.25" spans="1:1">
       <c r="A450" s="19"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" ht="14.25" spans="1:1">
       <c r="A451" s="19"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" ht="14.25" spans="1:1">
       <c r="A452" s="19"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" ht="14.25" spans="1:1">
       <c r="A453" s="19"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" ht="14.25" spans="1:1">
       <c r="A454" s="19"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" ht="14.25" spans="1:1">
       <c r="A455" s="19"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" ht="14.25" spans="1:1">
       <c r="A456" s="19"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" ht="14.25" spans="1:1">
       <c r="A457" s="19"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" ht="14.25" spans="1:1">
       <c r="A458" s="19"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" ht="14.25" spans="1:1">
       <c r="A459" s="19"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" ht="14.25" spans="1:1">
       <c r="A460" s="19"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" ht="14.25" spans="1:1">
       <c r="A461" s="19"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" ht="14.25" spans="1:1">
       <c r="A462" s="19"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" ht="14.25" spans="1:1">
       <c r="A463" s="19"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" ht="14.25" spans="1:1">
       <c r="A464" s="19"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" ht="14.25" spans="1:1">
       <c r="A465" s="19"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" ht="14.25" spans="1:1">
       <c r="A466" s="19"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" ht="14.25" spans="1:1">
       <c r="A467" s="19"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" ht="14.25" spans="1:1">
       <c r="A468" s="19"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" ht="14.25" spans="1:1">
       <c r="A469" s="19"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" ht="14.25" spans="1:1">
       <c r="A470" s="19"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" ht="14.25" spans="1:1">
       <c r="A471" s="19"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" ht="14.25" spans="1:1">
       <c r="A472" s="19"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.25" spans="1:1">
       <c r="A473" s="19"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.25" spans="1:1">
       <c r="A474" s="19"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.25" spans="1:1">
       <c r="A475" s="19"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="19"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="19"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.25" spans="1:1">
       <c r="A478" s="19"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.25" spans="1:1">
       <c r="A479" s="19"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.25" spans="1:1">
       <c r="A480" s="19"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.25" spans="1:1">
       <c r="A481" s="19"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.25" spans="1:1">
       <c r="A482" s="19"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.25" spans="1:1">
       <c r="A483" s="19"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.25" spans="1:1">
       <c r="A484" s="19"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.25" spans="1:1">
       <c r="A485" s="19"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.25" spans="1:1">
       <c r="A486" s="19"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.25" spans="1:1">
       <c r="A487" s="19"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.25" spans="1:1">
       <c r="A488" s="19"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.25" spans="1:1">
       <c r="A489" s="19"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.25" spans="1:1">
       <c r="A490" s="19"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.25" spans="1:1">
       <c r="A491" s="19"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.25" spans="1:1">
       <c r="A492" s="19"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.25" spans="1:1">
       <c r="A493" s="19"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.25" spans="1:1">
       <c r="A494" s="19"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.25" spans="1:1">
       <c r="A495" s="19"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.25" spans="1:1">
       <c r="A496" s="19"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.25" spans="1:1">
       <c r="A497" s="19"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.25" spans="1:1">
       <c r="A498" s="19"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.25" spans="1:1">
       <c r="A499" s="19"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.25" spans="1:1">
       <c r="A500" s="19"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.25" spans="1:1">
       <c r="A501" s="19"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.25" spans="1:1">
       <c r="A502" s="19"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.25" spans="1:1">
       <c r="A503" s="19"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.25" spans="1:1">
       <c r="A504" s="19"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.25" spans="1:1">
       <c r="A505" s="19"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.25" spans="1:1">
       <c r="A506" s="19"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.25" spans="1:1">
       <c r="A507" s="19"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.25" spans="1:1">
       <c r="A508" s="19"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.25" spans="1:1">
       <c r="A509" s="19"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.25" spans="1:1">
       <c r="A510" s="19"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.25" spans="1:1">
       <c r="A511" s="19"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.25" spans="1:1">
       <c r="A512" s="19"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.25" spans="1:1">
       <c r="A513" s="19"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.25" spans="1:1">
       <c r="A514" s="19"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.25" spans="1:1">
       <c r="A515" s="19"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.25" spans="1:1">
       <c r="A516" s="19"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.25" spans="1:1">
       <c r="A517" s="19"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.25" spans="1:1">
       <c r="A518" s="19"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.25" spans="1:1">
       <c r="A519" s="19"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.25" spans="1:1">
       <c r="A520" s="19"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.25" spans="1:1">
       <c r="A521" s="19"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.25" spans="1:1">
       <c r="A522" s="19"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.25" spans="1:1">
       <c r="A523" s="19"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.25" spans="1:1">
       <c r="A524" s="19"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.25" spans="1:1">
       <c r="A525" s="19"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.25" spans="1:1">
       <c r="A526" s="19"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.25" spans="1:1">
       <c r="A527" s="19"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.25" spans="1:1">
       <c r="A528" s="19"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.25" spans="1:1">
       <c r="A529" s="19"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.25" spans="1:1">
       <c r="A530" s="19"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.25" spans="1:1">
       <c r="A531" s="19"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.25" spans="1:1">
       <c r="A532" s="19"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.25" spans="1:1">
       <c r="A533" s="19"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.25" spans="1:1">
       <c r="A534" s="19"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.25" spans="1:1">
       <c r="A535" s="19"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.25" spans="1:1">
       <c r="A536" s="19"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.25" spans="1:1">
       <c r="A537" s="19"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.25" spans="1:1">
       <c r="A538" s="19"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.25" spans="1:1">
       <c r="A539" s="19"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.25" spans="1:1">
       <c r="A540" s="19"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.25" spans="1:1">
       <c r="A541" s="19"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.25" spans="1:1">
       <c r="A542" s="19"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.25" spans="1:1">
       <c r="A543" s="19"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.25" spans="1:1">
       <c r="A544" s="19"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.25" spans="1:1">
       <c r="A545" s="19"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.25" spans="1:1">
       <c r="A546" s="19"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.25" spans="1:1">
       <c r="A547" s="19"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.25" spans="1:1">
       <c r="A548" s="19"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.25" spans="1:1">
       <c r="A549" s="19"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.25" spans="1:1">
       <c r="A550" s="19"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.25" spans="1:1">
       <c r="A551" s="19"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.25" spans="1:1">
       <c r="A552" s="19"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.25" spans="1:1">
       <c r="A553" s="19"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.25" spans="1:1">
       <c r="A554" s="19"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.25" spans="1:1">
       <c r="A555" s="19"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.25" spans="1:1">
       <c r="A556" s="19"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.25" spans="1:1">
       <c r="A557" s="19"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.25" spans="1:1">
       <c r="A558" s="19"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.25" spans="1:1">
       <c r="A559" s="19"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.25" spans="1:1">
       <c r="A560" s="19"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.25" spans="1:1">
       <c r="A561" s="19"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.25" spans="1:1">
       <c r="A562" s="19"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.25" spans="1:1">
       <c r="A563" s="19"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.25" spans="1:1">
       <c r="A564" s="19"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.25" spans="1:1">
       <c r="A565" s="19"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.25" spans="1:1">
       <c r="A566" s="19"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.25" spans="1:1">
       <c r="A567" s="19"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.25" spans="1:1">
       <c r="A568" s="19"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.25" spans="1:1">
       <c r="A569" s="19"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.25" spans="1:1">
       <c r="A570" s="19"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.25" spans="1:1">
       <c r="A571" s="19"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.25" spans="1:1">
       <c r="A572" s="19"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.25" spans="1:1">
       <c r="A573" s="19"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.25" spans="1:1">
       <c r="A574" s="19"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.25" spans="1:1">
       <c r="A575" s="19"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.25" spans="1:1">
       <c r="A576" s="19"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.25" spans="1:1">
       <c r="A577" s="19"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.25" spans="1:1">
       <c r="A578" s="19"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.25" spans="1:1">
       <c r="A579" s="19"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.25" spans="1:1">
       <c r="A580" s="19"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.25" spans="1:1">
       <c r="A581" s="19"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.25" spans="1:1">
       <c r="A582" s="19"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.25" spans="1:1">
       <c r="A583" s="19"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.25" spans="1:1">
       <c r="A584" s="19"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.25" spans="1:1">
       <c r="A585" s="19"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.25" spans="1:1">
       <c r="A586" s="19"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.25" spans="1:1">
       <c r="A587" s="19"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.25" spans="1:1">
       <c r="A588" s="19"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.25" spans="1:1">
       <c r="A589" s="19"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.25" spans="1:1">
       <c r="A590" s="19"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.25" spans="1:1">
       <c r="A591" s="19"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.25" spans="1:1">
       <c r="A592" s="19"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.25" spans="1:1">
       <c r="A593" s="19"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.25" spans="1:1">
       <c r="A594" s="19"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.25" spans="1:1">
       <c r="A595" s="19"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.25" spans="1:1">
       <c r="A596" s="19"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.25" spans="1:1">
       <c r="A597" s="19"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.25" spans="1:1">
       <c r="A598" s="19"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.25" spans="1:1">
       <c r="A599" s="19"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.25" spans="1:1">
       <c r="A600" s="19"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.25" spans="1:1">
       <c r="A601" s="19"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.25" spans="1:1">
       <c r="A602" s="19"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.25" spans="1:1">
       <c r="A603" s="19"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.25" spans="1:1">
       <c r="A604" s="19"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.25" spans="1:1">
       <c r="A605" s="19"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.25" spans="1:1">
       <c r="A606" s="19"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.25" spans="1:1">
       <c r="A607" s="19"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.25" spans="1:1">
       <c r="A608" s="19"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.25" spans="1:1">
       <c r="A609" s="19"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.25" spans="1:1">
       <c r="A610" s="19"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.25" spans="1:1">
       <c r="A611" s="19"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.25" spans="1:1">
       <c r="A612" s="19"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.25" spans="1:1">
       <c r="A613" s="19"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.25" spans="1:1">
       <c r="A614" s="19"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.25" spans="1:1">
       <c r="A615" s="19"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.25" spans="1:1">
       <c r="A616" s="19"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.25" spans="1:1">
       <c r="A617" s="19"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.25" spans="1:1">
       <c r="A618" s="19"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.25" spans="1:1">
       <c r="A619" s="19"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.25" spans="1:1">
       <c r="A620" s="19"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.25" spans="1:1">
       <c r="A621" s="19"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.25" spans="1:1">
       <c r="A622" s="19"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.25" spans="1:1">
       <c r="A623" s="19"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.25" spans="1:1">
       <c r="A624" s="19"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.25" spans="1:1">
       <c r="A625" s="19"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.25" spans="1:1">
       <c r="A626" s="19"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.25" spans="1:1">
       <c r="A627" s="19"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.25" spans="1:1">
       <c r="A628" s="19"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.25" spans="1:1">
       <c r="A629" s="19"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.25" spans="1:1">
       <c r="A630" s="19"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.25" spans="1:1">
       <c r="A631" s="19"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.25" spans="1:1">
       <c r="A632" s="19"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.25" spans="1:1">
       <c r="A633" s="19"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.25" spans="1:1">
       <c r="A634" s="19"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.25" spans="1:1">
       <c r="A635" s="19"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.25" spans="1:1">
       <c r="A636" s="19"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.25" spans="1:1">
       <c r="A637" s="19"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.25" spans="1:1">
       <c r="A638" s="19"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.25" spans="1:1">
       <c r="A639" s="19"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.25" spans="1:1">
       <c r="A640" s="19"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.25" spans="1:1">
       <c r="A641" s="19"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.25" spans="1:1">
       <c r="A642" s="19"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.25" spans="1:1">
       <c r="A643" s="19"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.25" spans="1:1">
       <c r="A644" s="19"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.25" spans="1:1">
       <c r="A645" s="19"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.25" spans="1:1">
       <c r="A646" s="19"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.25" spans="1:1">
       <c r="A647" s="19"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.25" spans="1:1">
       <c r="A648" s="19"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.25" spans="1:1">
       <c r="A649" s="19"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.25" spans="1:1">
       <c r="A650" s="19"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.25" spans="1:1">
       <c r="A651" s="19"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.25" spans="1:1">
       <c r="A652" s="19"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.25" spans="1:1">
       <c r="A653" s="19"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.25" spans="1:1">
       <c r="A654" s="19"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.25" spans="1:1">
       <c r="A655" s="19"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.25" spans="1:1">
       <c r="A656" s="19"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.25" spans="1:1">
       <c r="A657" s="19"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.25" spans="1:1">
       <c r="A658" s="19"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.25" spans="1:1">
       <c r="A659" s="19"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.25" spans="1:1">
       <c r="A660" s="19"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.25" spans="1:1">
       <c r="A661" s="19"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.25" spans="1:1">
       <c r="A662" s="19"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.25" spans="1:1">
       <c r="A663" s="19"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.25" spans="1:1">
       <c r="A664" s="19"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.25" spans="1:1">
       <c r="A665" s="19"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.25" spans="1:1">
       <c r="A666" s="19"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.25" spans="1:1">
       <c r="A667" s="19"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.25" spans="1:1">
       <c r="A668" s="19"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.25" spans="1:1">
       <c r="A669" s="19"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.25" spans="1:1">
       <c r="A670" s="19"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.25" spans="1:1">
       <c r="A671" s="19"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.25" spans="1:1">
       <c r="A672" s="19"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.25" spans="1:1">
       <c r="A673" s="19"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.25" spans="1:1">
       <c r="A674" s="19"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.25" spans="1:1">
       <c r="A675" s="19"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.25" spans="1:1">
       <c r="A676" s="19"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.25" spans="1:1">
       <c r="A677" s="19"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.25" spans="1:1">
       <c r="A678" s="19"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.25" spans="1:1">
       <c r="A679" s="19"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.25" spans="1:1">
       <c r="A680" s="19"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.25" spans="1:1">
       <c r="A681" s="19"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.25" spans="1:1">
       <c r="A682" s="19"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.25" spans="1:1">
       <c r="A683" s="19"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.25" spans="1:1">
       <c r="A684" s="19"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.25" spans="1:1">
       <c r="A685" s="19"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.25" spans="1:1">
       <c r="A686" s="19"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.25" spans="1:1">
       <c r="A687" s="19"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.25" spans="1:1">
       <c r="A688" s="19"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.25" spans="1:1">
       <c r="A689" s="19"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.25" spans="1:1">
       <c r="A690" s="19"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.25" spans="1:1">
       <c r="A691" s="19"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.25" spans="1:1">
       <c r="A692" s="19"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.25" spans="1:1">
       <c r="A693" s="19"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.25" spans="1:1">
       <c r="A694" s="19"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.25" spans="1:1">
       <c r="A695" s="19"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.25" spans="1:1">
       <c r="A696" s="19"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.25" spans="1:1">
       <c r="A697" s="19"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.25" spans="1:1">
       <c r="A698" s="19"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.25" spans="1:1">
       <c r="A699" s="19"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.25" spans="1:1">
       <c r="A700" s="19"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.25" spans="1:1">
       <c r="A701" s="19"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.25" spans="1:1">
       <c r="A702" s="19"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.25" spans="1:1">
       <c r="A703" s="19"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.25" spans="1:1">
       <c r="A704" s="19"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.25" spans="1:1">
       <c r="A705" s="19"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.25" spans="1:1">
       <c r="A706" s="19"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.25" spans="1:1">
       <c r="A707" s="19"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.25" spans="1:1">
       <c r="A708" s="19"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.25" spans="1:1">
       <c r="A709" s="19"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.25" spans="1:1">
       <c r="A710" s="19"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.25" spans="1:1">
       <c r="A711" s="19"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.25" spans="1:1">
       <c r="A712" s="19"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.25" spans="1:1">
       <c r="A713" s="19"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.25" spans="1:1">
       <c r="A714" s="19"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.25" spans="1:1">
       <c r="A715" s="19"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.25" spans="1:1">
       <c r="A716" s="19"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.25" spans="1:1">
       <c r="A717" s="19"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.25" spans="1:1">
       <c r="A718" s="19"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.25" spans="1:1">
       <c r="A719" s="19"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.25" spans="1:1">
       <c r="A720" s="19"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.25" spans="1:1">
       <c r="A721" s="19"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.25" spans="1:1">
       <c r="A722" s="19"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.25" spans="1:1">
       <c r="A723" s="19"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.25" spans="1:1">
       <c r="A724" s="19"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.25" spans="1:1">
       <c r="A725" s="19"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.25" spans="1:1">
       <c r="A726" s="19"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.25" spans="1:1">
       <c r="A727" s="19"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.25" spans="1:1">
       <c r="A728" s="19"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.25" spans="1:1">
       <c r="A729" s="19"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.25" spans="1:1">
       <c r="A730" s="19"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.25" spans="1:1">
       <c r="A731" s="19"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.25" spans="1:1">
       <c r="A732" s="19"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.25" spans="1:1">
       <c r="A733" s="19"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.25" spans="1:1">
       <c r="A734" s="19"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.25" spans="1:1">
       <c r="A735" s="19"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.25" spans="1:1">
       <c r="A736" s="19"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.25" spans="1:1">
       <c r="A737" s="19"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.25" spans="1:1">
       <c r="A738" s="19"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.25" spans="1:1">
       <c r="A739" s="19"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.25" spans="1:1">
       <c r="A740" s="19"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.25" spans="1:1">
       <c r="A741" s="19"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.25" spans="1:1">
       <c r="A742" s="19"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.25" spans="1:1">
       <c r="A743" s="19"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.25" spans="1:1">
       <c r="A744" s="19"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.25" spans="1:1">
       <c r="A745" s="19"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.25" spans="1:1">
       <c r="A746" s="19"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.25" spans="1:1">
       <c r="A747" s="19"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.25" spans="1:1">
       <c r="A748" s="19"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.25" spans="1:1">
       <c r="A749" s="19"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.25" spans="1:1">
       <c r="A750" s="19"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.25" spans="1:1">
       <c r="A751" s="19"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.25" spans="1:1">
       <c r="A752" s="19"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.25" spans="1:1">
       <c r="A753" s="19"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.25" spans="1:1">
       <c r="A754" s="19"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.25" spans="1:1">
       <c r="A755" s="19"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.25" spans="1:1">
       <c r="A756" s="19"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.25" spans="1:1">
       <c r="A757" s="19"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.25" spans="1:1">
       <c r="A758" s="19"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.25" spans="1:1">
       <c r="A759" s="19"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.25" spans="1:1">
       <c r="A760" s="19"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.25" spans="1:1">
       <c r="A761" s="19"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="19"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="21690" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="205">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -483,9 +483,6 @@
     <t>Q:3014453273</t>
   </si>
   <si>
-    <t>对接一天能跑2000单的淘客</t>
-  </si>
-  <si>
     <t>红豆官方旗舰店</t>
   </si>
   <si>
@@ -601,6 +598,54 @@
   </si>
   <si>
     <t>19-05-14~19-06-16</t>
+  </si>
+  <si>
+    <t>生活日记旗舰店</t>
+  </si>
+  <si>
+    <t>Q:394961522</t>
+  </si>
+  <si>
+    <t>旺兔电器生活馆</t>
+  </si>
+  <si>
+    <t>Q:383360680</t>
+  </si>
+  <si>
+    <t>允又贤电器专营店</t>
+  </si>
+  <si>
+    <t>5-22记得回访</t>
+  </si>
+  <si>
+    <t>美的博佑专卖店</t>
+  </si>
+  <si>
+    <t>Q:2013581275</t>
+  </si>
+  <si>
+    <t>哈立电器专营店</t>
+  </si>
+  <si>
+    <t>Q:350778257</t>
+  </si>
+  <si>
+    <t>康雅顺旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2498053561</t>
+  </si>
+  <si>
+    <t>天际久仁专卖店</t>
+  </si>
+  <si>
+    <t>Q:45270303</t>
+  </si>
+  <si>
+    <t>苏泊尔鑫三荣专卖店</t>
+  </si>
+  <si>
+    <t>Q:1311527670</t>
   </si>
 </sst>
 </file>
@@ -608,12 +653,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +676,13 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -708,25 +760,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,7 +797,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,9 +825,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,13 +841,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,17 +862,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,36 +910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -867,19 +925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +955,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,7 +985,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,73 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,48 +1106,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1128,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,15 +1167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1120,17 +1182,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,15 +1216,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1166,10 +1224,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,137 +1236,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,62 +1376,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1696,15 +1763,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
   </cols>
@@ -1726,7 +1793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1811,7 +1878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1825,7 +1892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1847,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +1925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +1947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1905,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1930,7 +1997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1938,7 +2005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +2019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -1960,7 +2027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -1968,7 +2035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -1976,7 +2043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -1984,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -1994,7 +2061,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +2069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2016,7 +2083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2027,7 +2094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -2035,7 +2102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2043,7 +2110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2051,7 +2118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -2059,7 +2126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -2075,7 +2142,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -2083,7 +2150,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>87</v>
       </c>
@@ -2095,7 +2162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
@@ -2103,7 +2170,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -2111,7 +2178,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
@@ -2119,7 +2186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
@@ -2127,7 +2194,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>98</v>
       </c>
@@ -2135,7 +2202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
@@ -2143,7 +2210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>102</v>
       </c>
@@ -2151,7 +2218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="20" t="s">
         <v>104</v>
       </c>
@@ -2159,7 +2226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
@@ -2167,7 +2234,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
@@ -2175,7 +2242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="20" t="s">
         <v>110</v>
       </c>
@@ -2183,16 +2250,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+    <row r="49" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A49" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="22" t="s">
         <v>114</v>
       </c>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="5" t="s">
@@ -2202,7 +2270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>117</v>
       </c>
@@ -2210,7 +2278,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
@@ -2222,7 +2290,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="20" t="s">
         <v>122</v>
       </c>
@@ -2230,7 +2298,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="20" t="s">
         <v>124</v>
       </c>
@@ -2238,7 +2306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="20" t="s">
         <v>126</v>
       </c>
@@ -2246,7 +2314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>128</v>
       </c>
@@ -2254,7 +2322,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>130</v>
       </c>
@@ -2262,7 +2330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -2270,7 +2338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="20" t="s">
         <v>134</v>
       </c>
@@ -2278,7 +2346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
@@ -2286,7 +2354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>138</v>
       </c>
@@ -2294,7 +2362,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>140</v>
       </c>
@@ -2302,7 +2370,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>142</v>
       </c>
@@ -2310,7 +2378,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
@@ -2318,7 +2386,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>146</v>
       </c>
@@ -2326,2202 +2394,2240 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:2">
+      <c r="A67" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="4" t="s">
+    </row>
+    <row r="68" ht="14.25" spans="1:2">
+      <c r="A68" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="20" t="s">
+      <c r="B68" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="69" ht="14.25" spans="1:2">
+      <c r="A69" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="4" t="s">
+    </row>
+    <row r="70" ht="14.25" spans="1:2">
+      <c r="A70" s="20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="20" t="s">
+      <c r="B70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="71" ht="14.25" spans="1:2">
+      <c r="A71" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="4" t="s">
+    </row>
+    <row r="72" ht="14.25" spans="1:2">
+      <c r="A72" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="4" t="s">
+    </row>
+    <row r="73" ht="14.25" spans="1:2">
+      <c r="A73" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="4" t="s">
+    </row>
+    <row r="74" ht="14.25" spans="1:2">
+      <c r="A74" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="4" t="s">
+    </row>
+    <row r="75" ht="14.25" spans="1:2">
+      <c r="A75" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="4" t="s">
+    </row>
+    <row r="76" ht="14.25" spans="1:2">
+      <c r="A76" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="4" t="s">
+    </row>
+    <row r="77" ht="14.25" spans="1:2">
+      <c r="A77" s="20" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="20" t="s">
+      <c r="B77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="4" t="s">
+    </row>
+    <row r="78" ht="14.25" spans="1:2">
+      <c r="A78" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="4" t="s">
+    </row>
+    <row r="79" ht="14.25" spans="1:2">
+      <c r="A79" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="4" t="s">
+    </row>
+    <row r="80" ht="14.25" spans="1:2">
+      <c r="A80" s="20" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="20" t="s">
+      <c r="B80" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B80" s="4" t="s">
+    </row>
+    <row r="81" ht="14.25" spans="1:2">
+      <c r="A81" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="4" t="s">
+    </row>
+    <row r="82" ht="14.25" spans="1:2">
+      <c r="A82" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="4" t="s">
+    </row>
+    <row r="83" ht="14.25" spans="1:2">
+      <c r="A83" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B83" s="4" t="s">
+    </row>
+    <row r="84" ht="14.25" spans="1:2">
+      <c r="A84" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="4" t="s">
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A85" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:5">
-      <c r="A85" s="8" t="s">
+      <c r="B85" s="9"/>
+      <c r="D85" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="9" t="s">
+    </row>
+    <row r="86" ht="14.25" spans="1:2">
+      <c r="A86" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="20"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="20"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="20"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="20"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="20"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="20"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="20"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="20"/>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B86" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:2">
+      <c r="A87" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:4">
+      <c r="A88" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:2">
+      <c r="A89" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:2">
+      <c r="A90" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:2">
+      <c r="A91" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:2">
+      <c r="A92" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:2">
+      <c r="A93" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:1">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" ht="14.25" spans="1:1">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" ht="14.25" spans="1:1">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" ht="14.25" spans="1:1">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" ht="14.25" spans="1:1">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" ht="14.25" spans="1:1">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" ht="14.25" spans="1:1">
       <c r="A100" s="20"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" ht="14.25" spans="1:1">
       <c r="A101" s="20"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" ht="14.25" spans="1:1">
       <c r="A102" s="20"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" ht="14.25" spans="1:1">
       <c r="A103" s="20"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" ht="14.25" spans="1:1">
       <c r="A104" s="20"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" ht="14.25" spans="1:1">
       <c r="A105" s="20"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" ht="14.25" spans="1:1">
       <c r="A106" s="20"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" ht="14.25" spans="1:1">
       <c r="A107" s="20"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" ht="14.25" spans="1:1">
       <c r="A108" s="20"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" ht="14.25" spans="1:1">
       <c r="A109" s="20"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" ht="14.25" spans="1:1">
       <c r="A110" s="20"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" ht="14.25" spans="1:1">
       <c r="A111" s="20"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" ht="14.25" spans="1:1">
       <c r="A112" s="20"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" ht="14.25" spans="1:1">
       <c r="A113" s="20"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" ht="14.25" spans="1:1">
       <c r="A114" s="20"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" ht="14.25" spans="1:1">
       <c r="A115" s="20"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" ht="14.25" spans="1:1">
       <c r="A116" s="20"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" ht="14.25" spans="1:1">
       <c r="A117" s="20"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" ht="14.25" spans="1:1">
       <c r="A118" s="20"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" ht="14.25" spans="1:1">
       <c r="A119" s="20"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" ht="14.25" spans="1:1">
       <c r="A120" s="20"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" ht="14.25" spans="1:1">
       <c r="A121" s="20"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" ht="14.25" spans="1:1">
       <c r="A122" s="20"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" ht="14.25" spans="1:1">
       <c r="A123" s="20"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="14.25" spans="1:1">
       <c r="A124" s="20"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="14.25" spans="1:1">
       <c r="A125" s="20"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="14.25" spans="1:1">
       <c r="A126" s="20"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="14.25" spans="1:1">
       <c r="A127" s="20"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="14.25" spans="1:1">
       <c r="A128" s="20"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="14.25" spans="1:1">
       <c r="A129" s="20"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="14.25" spans="1:1">
       <c r="A130" s="20"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="14.25" spans="1:1">
       <c r="A131" s="20"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="14.25" spans="1:1">
       <c r="A132" s="20"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.25" spans="1:1">
       <c r="A133" s="20"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="14.25" spans="1:1">
       <c r="A134" s="20"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="14.25" spans="1:1">
       <c r="A135" s="20"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="14.25" spans="1:1">
       <c r="A136" s="20"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="14.25" spans="1:1">
       <c r="A137" s="20"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="14.25" spans="1:1">
       <c r="A138" s="20"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="14.25" spans="1:1">
       <c r="A139" s="20"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="14.25" spans="1:1">
       <c r="A140" s="20"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="14.25" spans="1:1">
       <c r="A141" s="20"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="14.25" spans="1:1">
       <c r="A142" s="20"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="14.25" spans="1:1">
       <c r="A143" s="20"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="14.25" spans="1:1">
       <c r="A144" s="20"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="14.25" spans="1:1">
       <c r="A145" s="20"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="14.25" spans="1:1">
       <c r="A146" s="20"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="14.25" spans="1:1">
       <c r="A147" s="20"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="14.25" spans="1:1">
       <c r="A148" s="20"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="14.25" spans="1:1">
       <c r="A149" s="20"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="14.25" spans="1:1">
       <c r="A150" s="20"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="14.25" spans="1:1">
       <c r="A151" s="20"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="14.25" spans="1:1">
       <c r="A152" s="20"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="14.25" spans="1:1">
       <c r="A153" s="20"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="14.25" spans="1:1">
       <c r="A154" s="20"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="14.25" spans="1:1">
       <c r="A155" s="20"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="14.25" spans="1:1">
       <c r="A156" s="20"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="14.25" spans="1:1">
       <c r="A157" s="20"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="14.25" spans="1:1">
       <c r="A158" s="20"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="14.25" spans="1:1">
       <c r="A159" s="20"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="14.25" spans="1:1">
       <c r="A160" s="20"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="14.25" spans="1:1">
       <c r="A161" s="20"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="14.25" spans="1:1">
       <c r="A162" s="20"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="14.25" spans="1:1">
       <c r="A163" s="20"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="14.25" spans="1:1">
       <c r="A164" s="20"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="14.25" spans="1:1">
       <c r="A165" s="20"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="14.25" spans="1:1">
       <c r="A166" s="20"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="14.25" spans="1:1">
       <c r="A167" s="20"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="14.25" spans="1:1">
       <c r="A168" s="20"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="14.25" spans="1:1">
       <c r="A169" s="20"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="14.25" spans="1:1">
       <c r="A170" s="20"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="14.25" spans="1:1">
       <c r="A171" s="20"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="14.25" spans="1:1">
       <c r="A172" s="20"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="14.25" spans="1:1">
       <c r="A173" s="20"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="14.25" spans="1:1">
       <c r="A174" s="20"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="14.25" spans="1:1">
       <c r="A175" s="20"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="14.25" spans="1:1">
       <c r="A176" s="20"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="14.25" spans="1:1">
       <c r="A177" s="20"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="14.25" spans="1:1">
       <c r="A178" s="20"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="14.25" spans="1:1">
       <c r="A179" s="20"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="14.25" spans="1:1">
       <c r="A180" s="20"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="14.25" spans="1:1">
       <c r="A181" s="20"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" ht="14.25" spans="1:1">
       <c r="A182" s="20"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="14.25" spans="1:1">
       <c r="A183" s="20"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="14.25" spans="1:1">
       <c r="A184" s="20"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="14.25" spans="1:1">
       <c r="A185" s="20"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="14.25" spans="1:1">
       <c r="A186" s="20"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="14.25" spans="1:1">
       <c r="A187" s="20"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="14.25" spans="1:1">
       <c r="A188" s="20"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="14.25" spans="1:1">
       <c r="A189" s="20"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="14.25" spans="1:1">
       <c r="A190" s="20"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="14.25" spans="1:1">
       <c r="A191" s="20"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="14.25" spans="1:1">
       <c r="A192" s="20"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="14.25" spans="1:1">
       <c r="A193" s="20"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="14.25" spans="1:1">
       <c r="A194" s="20"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="14.25" spans="1:1">
       <c r="A195" s="20"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="14.25" spans="1:1">
       <c r="A196" s="20"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="14.25" spans="1:1">
       <c r="A197" s="20"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="14.25" spans="1:1">
       <c r="A198" s="20"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="14.25" spans="1:1">
       <c r="A199" s="20"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="14.25" spans="1:1">
       <c r="A200" s="20"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="14.25" spans="1:1">
       <c r="A201" s="20"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="14.25" spans="1:1">
       <c r="A202" s="20"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="14.25" spans="1:1">
       <c r="A203" s="20"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="14.25" spans="1:1">
       <c r="A204" s="20"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="14.25" spans="1:1">
       <c r="A205" s="20"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" ht="14.25" spans="1:1">
       <c r="A206" s="20"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" ht="14.25" spans="1:1">
       <c r="A207" s="20"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" ht="14.25" spans="1:1">
       <c r="A208" s="20"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" ht="14.25" spans="1:1">
       <c r="A209" s="20"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" ht="14.25" spans="1:1">
       <c r="A210" s="20"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" ht="14.25" spans="1:1">
       <c r="A211" s="20"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" ht="14.25" spans="1:1">
       <c r="A212" s="20"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" ht="14.25" spans="1:1">
       <c r="A213" s="20"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" ht="14.25" spans="1:1">
       <c r="A214" s="20"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" ht="14.25" spans="1:1">
       <c r="A215" s="20"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" ht="14.25" spans="1:1">
       <c r="A216" s="20"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" ht="14.25" spans="1:1">
       <c r="A217" s="20"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" ht="14.25" spans="1:1">
       <c r="A218" s="20"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" ht="14.25" spans="1:1">
       <c r="A219" s="20"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" ht="14.25" spans="1:1">
       <c r="A220" s="20"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" ht="14.25" spans="1:1">
       <c r="A221" s="20"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" ht="14.25" spans="1:1">
       <c r="A222" s="20"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" ht="14.25" spans="1:1">
       <c r="A223" s="20"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="14.25" spans="1:1">
       <c r="A224" s="20"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" ht="14.25" spans="1:1">
       <c r="A225" s="20"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" ht="14.25" spans="1:1">
       <c r="A226" s="20"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" ht="14.25" spans="1:1">
       <c r="A227" s="20"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" ht="14.25" spans="1:1">
       <c r="A228" s="20"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" ht="14.25" spans="1:1">
       <c r="A229" s="20"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" ht="14.25" spans="1:1">
       <c r="A230" s="20"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" ht="14.25" spans="1:1">
       <c r="A231" s="20"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" ht="14.25" spans="1:1">
       <c r="A232" s="20"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" ht="14.25" spans="1:1">
       <c r="A233" s="20"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" ht="14.25" spans="1:1">
       <c r="A234" s="20"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" ht="14.25" spans="1:1">
       <c r="A235" s="20"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" ht="14.25" spans="1:1">
       <c r="A236" s="20"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" ht="14.25" spans="1:1">
       <c r="A237" s="20"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" ht="14.25" spans="1:1">
       <c r="A238" s="20"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" ht="14.25" spans="1:1">
       <c r="A239" s="20"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" ht="14.25" spans="1:1">
       <c r="A240" s="20"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" ht="14.25" spans="1:1">
       <c r="A241" s="20"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" ht="14.25" spans="1:1">
       <c r="A242" s="20"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" ht="14.25" spans="1:1">
       <c r="A243" s="20"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" ht="14.25" spans="1:1">
       <c r="A244" s="20"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" ht="14.25" spans="1:1">
       <c r="A245" s="20"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" ht="14.25" spans="1:1">
       <c r="A246" s="20"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" ht="14.25" spans="1:1">
       <c r="A247" s="20"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" ht="14.25" spans="1:1">
       <c r="A248" s="20"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" ht="14.25" spans="1:1">
       <c r="A249" s="20"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" ht="14.25" spans="1:1">
       <c r="A250" s="20"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" ht="14.25" spans="1:1">
       <c r="A251" s="20"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" ht="14.25" spans="1:1">
       <c r="A252" s="20"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" ht="14.25" spans="1:1">
       <c r="A253" s="20"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" ht="14.25" spans="1:1">
       <c r="A254" s="20"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" ht="14.25" spans="1:1">
       <c r="A255" s="20"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" ht="14.25" spans="1:1">
       <c r="A256" s="20"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" ht="14.25" spans="1:1">
       <c r="A257" s="20"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" ht="14.25" spans="1:1">
       <c r="A258" s="20"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" ht="14.25" spans="1:1">
       <c r="A259" s="20"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" ht="14.25" spans="1:1">
       <c r="A260" s="20"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" ht="14.25" spans="1:1">
       <c r="A261" s="20"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" ht="14.25" spans="1:1">
       <c r="A262" s="20"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" ht="14.25" spans="1:1">
       <c r="A263" s="20"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" ht="14.25" spans="1:1">
       <c r="A264" s="20"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="14.25" spans="1:1">
       <c r="A265" s="20"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" ht="14.25" spans="1:1">
       <c r="A266" s="20"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" ht="14.25" spans="1:1">
       <c r="A267" s="20"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" ht="14.25" spans="1:1">
       <c r="A268" s="20"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" ht="14.25" spans="1:1">
       <c r="A269" s="20"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" ht="14.25" spans="1:1">
       <c r="A270" s="20"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" ht="14.25" spans="1:1">
       <c r="A271" s="20"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" ht="14.25" spans="1:1">
       <c r="A272" s="20"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" ht="14.25" spans="1:1">
       <c r="A273" s="20"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" ht="14.25" spans="1:1">
       <c r="A274" s="20"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" ht="14.25" spans="1:1">
       <c r="A275" s="20"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" ht="14.25" spans="1:1">
       <c r="A276" s="20"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" ht="14.25" spans="1:1">
       <c r="A277" s="20"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" ht="14.25" spans="1:1">
       <c r="A278" s="20"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" ht="14.25" spans="1:1">
       <c r="A279" s="20"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" ht="14.25" spans="1:1">
       <c r="A280" s="20"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" ht="14.25" spans="1:1">
       <c r="A281" s="20"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" ht="14.25" spans="1:1">
       <c r="A282" s="20"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" ht="14.25" spans="1:1">
       <c r="A283" s="20"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" ht="14.25" spans="1:1">
       <c r="A284" s="20"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="14.25" spans="1:1">
       <c r="A285" s="20"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="14.25" spans="1:1">
       <c r="A286" s="20"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" ht="14.25" spans="1:1">
       <c r="A287" s="20"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" ht="14.25" spans="1:1">
       <c r="A288" s="20"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" ht="14.25" spans="1:1">
       <c r="A289" s="20"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" ht="14.25" spans="1:1">
       <c r="A290" s="20"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" ht="14.25" spans="1:1">
       <c r="A291" s="20"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" ht="14.25" spans="1:1">
       <c r="A292" s="20"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" ht="14.25" spans="1:1">
       <c r="A293" s="20"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" ht="14.25" spans="1:1">
       <c r="A294" s="20"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" ht="14.25" spans="1:1">
       <c r="A295" s="20"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" ht="14.25" spans="1:1">
       <c r="A296" s="20"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" ht="14.25" spans="1:1">
       <c r="A297" s="20"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" ht="14.25" spans="1:1">
       <c r="A298" s="20"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" ht="14.25" spans="1:1">
       <c r="A299" s="20"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" ht="14.25" spans="1:1">
       <c r="A300" s="20"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" ht="14.25" spans="1:1">
       <c r="A301" s="20"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" ht="14.25" spans="1:1">
       <c r="A302" s="20"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" ht="14.25" spans="1:1">
       <c r="A303" s="20"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" ht="14.25" spans="1:1">
       <c r="A304" s="20"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" ht="14.25" spans="1:1">
       <c r="A305" s="20"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" ht="14.25" spans="1:1">
       <c r="A306" s="20"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" ht="14.25" spans="1:1">
       <c r="A307" s="20"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" ht="14.25" spans="1:1">
       <c r="A308" s="20"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" ht="14.25" spans="1:1">
       <c r="A309" s="20"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" ht="14.25" spans="1:1">
       <c r="A310" s="20"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" ht="14.25" spans="1:1">
       <c r="A311" s="20"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" ht="14.25" spans="1:1">
       <c r="A312" s="20"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" ht="14.25" spans="1:1">
       <c r="A313" s="20"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" ht="14.25" spans="1:1">
       <c r="A314" s="20"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" ht="14.25" spans="1:1">
       <c r="A315" s="20"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" ht="14.25" spans="1:1">
       <c r="A316" s="20"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" ht="14.25" spans="1:1">
       <c r="A317" s="20"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" ht="14.25" spans="1:1">
       <c r="A318" s="20"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" ht="14.25" spans="1:1">
       <c r="A319" s="20"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" ht="14.25" spans="1:1">
       <c r="A320" s="20"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" ht="14.25" spans="1:1">
       <c r="A321" s="20"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" ht="14.25" spans="1:1">
       <c r="A322" s="20"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" ht="14.25" spans="1:1">
       <c r="A323" s="20"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" ht="14.25" spans="1:1">
       <c r="A324" s="20"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" ht="14.25" spans="1:1">
       <c r="A325" s="20"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" ht="14.25" spans="1:1">
       <c r="A326" s="20"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" ht="14.25" spans="1:1">
       <c r="A327" s="20"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" ht="14.25" spans="1:1">
       <c r="A328" s="20"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" ht="14.25" spans="1:1">
       <c r="A329" s="20"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" ht="14.25" spans="1:1">
       <c r="A330" s="20"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" ht="14.25" spans="1:1">
       <c r="A331" s="20"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" ht="14.25" spans="1:1">
       <c r="A332" s="20"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" ht="14.25" spans="1:1">
       <c r="A333" s="20"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" ht="14.25" spans="1:1">
       <c r="A334" s="20"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" ht="14.25" spans="1:1">
       <c r="A335" s="20"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" ht="14.25" spans="1:1">
       <c r="A336" s="20"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" ht="14.25" spans="1:1">
       <c r="A337" s="20"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" ht="14.25" spans="1:1">
       <c r="A338" s="20"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" ht="14.25" spans="1:1">
       <c r="A339" s="20"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" ht="14.25" spans="1:1">
       <c r="A340" s="20"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" ht="14.25" spans="1:1">
       <c r="A341" s="20"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" ht="14.25" spans="1:1">
       <c r="A342" s="20"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" ht="14.25" spans="1:1">
       <c r="A343" s="20"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" ht="14.25" spans="1:1">
       <c r="A344" s="20"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" ht="14.25" spans="1:1">
       <c r="A345" s="20"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" ht="14.25" spans="1:1">
       <c r="A346" s="20"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" ht="14.25" spans="1:1">
       <c r="A347" s="20"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" ht="14.25" spans="1:1">
       <c r="A348" s="20"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" ht="14.25" spans="1:1">
       <c r="A349" s="20"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" ht="14.25" spans="1:1">
       <c r="A350" s="20"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" ht="14.25" spans="1:1">
       <c r="A351" s="20"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" ht="14.25" spans="1:1">
       <c r="A352" s="20"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" ht="14.25" spans="1:1">
       <c r="A353" s="20"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" ht="14.25" spans="1:1">
       <c r="A354" s="20"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" ht="14.25" spans="1:1">
       <c r="A355" s="20"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" ht="14.25" spans="1:1">
       <c r="A356" s="20"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" ht="14.25" spans="1:1">
       <c r="A357" s="20"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" ht="14.25" spans="1:1">
       <c r="A358" s="20"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" ht="14.25" spans="1:1">
       <c r="A359" s="20"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" ht="14.25" spans="1:1">
       <c r="A360" s="20"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" ht="14.25" spans="1:1">
       <c r="A361" s="20"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" ht="14.25" spans="1:1">
       <c r="A362" s="20"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" ht="14.25" spans="1:1">
       <c r="A363" s="20"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" ht="14.25" spans="1:1">
       <c r="A364" s="20"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" ht="14.25" spans="1:1">
       <c r="A365" s="20"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.25" spans="1:1">
       <c r="A366" s="20"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.25" spans="1:1">
       <c r="A367" s="20"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" ht="14.25" spans="1:1">
       <c r="A368" s="20"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" ht="14.25" spans="1:1">
       <c r="A369" s="20"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" ht="14.25" spans="1:1">
       <c r="A370" s="20"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" ht="14.25" spans="1:1">
       <c r="A371" s="20"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" ht="14.25" spans="1:1">
       <c r="A372" s="20"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" ht="14.25" spans="1:1">
       <c r="A373" s="20"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" ht="14.25" spans="1:1">
       <c r="A374" s="20"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" ht="14.25" spans="1:1">
       <c r="A375" s="20"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" ht="14.25" spans="1:1">
       <c r="A376" s="20"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" ht="14.25" spans="1:1">
       <c r="A377" s="20"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" ht="14.25" spans="1:1">
       <c r="A378" s="20"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" ht="14.25" spans="1:1">
       <c r="A379" s="20"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" ht="14.25" spans="1:1">
       <c r="A380" s="20"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" ht="14.25" spans="1:1">
       <c r="A381" s="20"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" ht="14.25" spans="1:1">
       <c r="A382" s="20"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" ht="14.25" spans="1:1">
       <c r="A383" s="20"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" ht="14.25" spans="1:1">
       <c r="A384" s="20"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" ht="14.25" spans="1:1">
       <c r="A385" s="20"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" ht="14.25" spans="1:1">
       <c r="A386" s="20"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" ht="14.25" spans="1:1">
       <c r="A387" s="20"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" ht="14.25" spans="1:1">
       <c r="A388" s="20"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" ht="14.25" spans="1:1">
       <c r="A389" s="20"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" ht="14.25" spans="1:1">
       <c r="A390" s="20"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" ht="14.25" spans="1:1">
       <c r="A391" s="20"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" ht="14.25" spans="1:1">
       <c r="A392" s="20"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" ht="14.25" spans="1:1">
       <c r="A393" s="20"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" ht="14.25" spans="1:1">
       <c r="A394" s="20"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" ht="14.25" spans="1:1">
       <c r="A395" s="20"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" ht="14.25" spans="1:1">
       <c r="A396" s="20"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" ht="14.25" spans="1:1">
       <c r="A397" s="20"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" ht="14.25" spans="1:1">
       <c r="A398" s="20"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" ht="14.25" spans="1:1">
       <c r="A399" s="20"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" ht="14.25" spans="1:1">
       <c r="A400" s="20"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" ht="14.25" spans="1:1">
       <c r="A401" s="20"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" ht="14.25" spans="1:1">
       <c r="A402" s="20"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" ht="14.25" spans="1:1">
       <c r="A403" s="20"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" ht="14.25" spans="1:1">
       <c r="A404" s="20"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" ht="14.25" spans="1:1">
       <c r="A405" s="20"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" ht="14.25" spans="1:1">
       <c r="A406" s="20"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" ht="14.25" spans="1:1">
       <c r="A407" s="20"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" ht="14.25" spans="1:1">
       <c r="A408" s="20"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" ht="14.25" spans="1:1">
       <c r="A409" s="20"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" ht="14.25" spans="1:1">
       <c r="A410" s="20"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" ht="14.25" spans="1:1">
       <c r="A411" s="20"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" ht="14.25" spans="1:1">
       <c r="A412" s="20"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" ht="14.25" spans="1:1">
       <c r="A413" s="20"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" ht="14.25" spans="1:1">
       <c r="A414" s="20"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" ht="14.25" spans="1:1">
       <c r="A415" s="20"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" ht="14.25" spans="1:1">
       <c r="A416" s="20"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" ht="14.25" spans="1:1">
       <c r="A417" s="20"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" ht="14.25" spans="1:1">
       <c r="A418" s="20"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" ht="14.25" spans="1:1">
       <c r="A419" s="20"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" ht="14.25" spans="1:1">
       <c r="A420" s="20"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" ht="14.25" spans="1:1">
       <c r="A421" s="20"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" ht="14.25" spans="1:1">
       <c r="A422" s="20"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" ht="14.25" spans="1:1">
       <c r="A423" s="20"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" ht="14.25" spans="1:1">
       <c r="A424" s="20"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" ht="14.25" spans="1:1">
       <c r="A425" s="20"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" ht="14.25" spans="1:1">
       <c r="A426" s="20"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" ht="14.25" spans="1:1">
       <c r="A427" s="20"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" ht="14.25" spans="1:1">
       <c r="A428" s="20"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" ht="14.25" spans="1:1">
       <c r="A429" s="20"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" ht="14.25" spans="1:1">
       <c r="A430" s="20"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" ht="14.25" spans="1:1">
       <c r="A431" s="20"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" ht="14.25" spans="1:1">
       <c r="A432" s="20"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" ht="14.25" spans="1:1">
       <c r="A433" s="20"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" ht="14.25" spans="1:1">
       <c r="A434" s="20"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" ht="14.25" spans="1:1">
       <c r="A435" s="20"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" ht="14.25" spans="1:1">
       <c r="A436" s="20"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" ht="14.25" spans="1:1">
       <c r="A437" s="20"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" ht="14.25" spans="1:1">
       <c r="A438" s="20"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" ht="14.25" spans="1:1">
       <c r="A439" s="20"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" ht="14.25" spans="1:1">
       <c r="A440" s="20"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" ht="14.25" spans="1:1">
       <c r="A441" s="20"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" ht="14.25" spans="1:1">
       <c r="A442" s="20"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" ht="14.25" spans="1:1">
       <c r="A443" s="20"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" ht="14.25" spans="1:1">
       <c r="A444" s="20"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" ht="14.25" spans="1:1">
       <c r="A445" s="20"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" ht="14.25" spans="1:1">
       <c r="A446" s="20"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" ht="14.25" spans="1:1">
       <c r="A447" s="20"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" ht="14.25" spans="1:1">
       <c r="A448" s="20"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" ht="14.25" spans="1:1">
       <c r="A449" s="20"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" ht="14.25" spans="1:1">
       <c r="A450" s="20"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" ht="14.25" spans="1:1">
       <c r="A451" s="20"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" ht="14.25" spans="1:1">
       <c r="A452" s="20"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" ht="14.25" spans="1:1">
       <c r="A453" s="20"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" ht="14.25" spans="1:1">
       <c r="A454" s="20"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" ht="14.25" spans="1:1">
       <c r="A455" s="20"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" ht="14.25" spans="1:1">
       <c r="A456" s="20"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" ht="14.25" spans="1:1">
       <c r="A457" s="20"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" ht="14.25" spans="1:1">
       <c r="A458" s="20"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" ht="14.25" spans="1:1">
       <c r="A459" s="20"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" ht="14.25" spans="1:1">
       <c r="A460" s="20"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" ht="14.25" spans="1:1">
       <c r="A461" s="20"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" ht="14.25" spans="1:1">
       <c r="A462" s="20"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" ht="14.25" spans="1:1">
       <c r="A463" s="20"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" ht="14.25" spans="1:1">
       <c r="A464" s="20"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" ht="14.25" spans="1:1">
       <c r="A465" s="20"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" ht="14.25" spans="1:1">
       <c r="A466" s="20"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" ht="14.25" spans="1:1">
       <c r="A467" s="20"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" ht="14.25" spans="1:1">
       <c r="A468" s="20"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" ht="14.25" spans="1:1">
       <c r="A469" s="20"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" ht="14.25" spans="1:1">
       <c r="A470" s="20"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" ht="14.25" spans="1:1">
       <c r="A471" s="20"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" ht="14.25" spans="1:1">
       <c r="A472" s="20"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.25" spans="1:1">
       <c r="A473" s="20"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.25" spans="1:1">
       <c r="A474" s="20"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.25" spans="1:1">
       <c r="A475" s="20"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="20"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="20"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.25" spans="1:1">
       <c r="A478" s="20"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.25" spans="1:1">
       <c r="A479" s="20"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.25" spans="1:1">
       <c r="A480" s="20"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.25" spans="1:1">
       <c r="A481" s="20"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.25" spans="1:1">
       <c r="A482" s="20"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.25" spans="1:1">
       <c r="A483" s="20"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.25" spans="1:1">
       <c r="A484" s="20"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.25" spans="1:1">
       <c r="A485" s="20"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.25" spans="1:1">
       <c r="A486" s="20"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.25" spans="1:1">
       <c r="A487" s="20"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.25" spans="1:1">
       <c r="A488" s="20"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.25" spans="1:1">
       <c r="A489" s="20"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.25" spans="1:1">
       <c r="A490" s="20"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.25" spans="1:1">
       <c r="A491" s="20"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.25" spans="1:1">
       <c r="A492" s="20"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.25" spans="1:1">
       <c r="A493" s="20"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.25" spans="1:1">
       <c r="A494" s="20"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.25" spans="1:1">
       <c r="A495" s="20"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.25" spans="1:1">
       <c r="A496" s="20"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.25" spans="1:1">
       <c r="A497" s="20"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.25" spans="1:1">
       <c r="A498" s="20"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.25" spans="1:1">
       <c r="A499" s="20"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.25" spans="1:1">
       <c r="A500" s="20"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.25" spans="1:1">
       <c r="A501" s="20"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.25" spans="1:1">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.25" spans="1:1">
       <c r="A503" s="20"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.25" spans="1:1">
       <c r="A504" s="20"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.25" spans="1:1">
       <c r="A505" s="20"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.25" spans="1:1">
       <c r="A506" s="20"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.25" spans="1:1">
       <c r="A507" s="20"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.25" spans="1:1">
       <c r="A508" s="20"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.25" spans="1:1">
       <c r="A509" s="20"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.25" spans="1:1">
       <c r="A510" s="20"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.25" spans="1:1">
       <c r="A511" s="20"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.25" spans="1:1">
       <c r="A512" s="20"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.25" spans="1:1">
       <c r="A513" s="20"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.25" spans="1:1">
       <c r="A514" s="20"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.25" spans="1:1">
       <c r="A515" s="20"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.25" spans="1:1">
       <c r="A516" s="20"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.25" spans="1:1">
       <c r="A517" s="20"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.25" spans="1:1">
       <c r="A518" s="20"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.25" spans="1:1">
       <c r="A519" s="20"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.25" spans="1:1">
       <c r="A520" s="20"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.25" spans="1:1">
       <c r="A521" s="20"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.25" spans="1:1">
       <c r="A522" s="20"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.25" spans="1:1">
       <c r="A523" s="20"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.25" spans="1:1">
       <c r="A524" s="20"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.25" spans="1:1">
       <c r="A525" s="20"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.25" spans="1:1">
       <c r="A526" s="20"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.25" spans="1:1">
       <c r="A527" s="20"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.25" spans="1:1">
       <c r="A528" s="20"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.25" spans="1:1">
       <c r="A529" s="20"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.25" spans="1:1">
       <c r="A530" s="20"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.25" spans="1:1">
       <c r="A531" s="20"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.25" spans="1:1">
       <c r="A532" s="20"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.25" spans="1:1">
       <c r="A533" s="20"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.25" spans="1:1">
       <c r="A534" s="20"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.25" spans="1:1">
       <c r="A535" s="20"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.25" spans="1:1">
       <c r="A536" s="20"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.25" spans="1:1">
       <c r="A537" s="20"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.25" spans="1:1">
       <c r="A538" s="20"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.25" spans="1:1">
       <c r="A539" s="20"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.25" spans="1:1">
       <c r="A540" s="20"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.25" spans="1:1">
       <c r="A541" s="20"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.25" spans="1:1">
       <c r="A542" s="20"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.25" spans="1:1">
       <c r="A543" s="20"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.25" spans="1:1">
       <c r="A544" s="20"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.25" spans="1:1">
       <c r="A545" s="20"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.25" spans="1:1">
       <c r="A546" s="20"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.25" spans="1:1">
       <c r="A547" s="20"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.25" spans="1:1">
       <c r="A548" s="20"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.25" spans="1:1">
       <c r="A549" s="20"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.25" spans="1:1">
       <c r="A550" s="20"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.25" spans="1:1">
       <c r="A551" s="20"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.25" spans="1:1">
       <c r="A552" s="20"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.25" spans="1:1">
       <c r="A553" s="20"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.25" spans="1:1">
       <c r="A554" s="20"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.25" spans="1:1">
       <c r="A555" s="20"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.25" spans="1:1">
       <c r="A556" s="20"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.25" spans="1:1">
       <c r="A557" s="20"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.25" spans="1:1">
       <c r="A558" s="20"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.25" spans="1:1">
       <c r="A559" s="20"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.25" spans="1:1">
       <c r="A560" s="20"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.25" spans="1:1">
       <c r="A561" s="20"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.25" spans="1:1">
       <c r="A562" s="20"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.25" spans="1:1">
       <c r="A563" s="20"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.25" spans="1:1">
       <c r="A564" s="20"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.25" spans="1:1">
       <c r="A565" s="20"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.25" spans="1:1">
       <c r="A566" s="20"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.25" spans="1:1">
       <c r="A567" s="20"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.25" spans="1:1">
       <c r="A568" s="20"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.25" spans="1:1">
       <c r="A569" s="20"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.25" spans="1:1">
       <c r="A570" s="20"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.25" spans="1:1">
       <c r="A571" s="20"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.25" spans="1:1">
       <c r="A572" s="20"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.25" spans="1:1">
       <c r="A573" s="20"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.25" spans="1:1">
       <c r="A574" s="20"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.25" spans="1:1">
       <c r="A575" s="20"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.25" spans="1:1">
       <c r="A576" s="20"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.25" spans="1:1">
       <c r="A577" s="20"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.25" spans="1:1">
       <c r="A578" s="20"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.25" spans="1:1">
       <c r="A579" s="20"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.25" spans="1:1">
       <c r="A580" s="20"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.25" spans="1:1">
       <c r="A581" s="20"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.25" spans="1:1">
       <c r="A582" s="20"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.25" spans="1:1">
       <c r="A583" s="20"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.25" spans="1:1">
       <c r="A584" s="20"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.25" spans="1:1">
       <c r="A585" s="20"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.25" spans="1:1">
       <c r="A586" s="20"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.25" spans="1:1">
       <c r="A587" s="20"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.25" spans="1:1">
       <c r="A588" s="20"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.25" spans="1:1">
       <c r="A589" s="20"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.25" spans="1:1">
       <c r="A590" s="20"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.25" spans="1:1">
       <c r="A591" s="20"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.25" spans="1:1">
       <c r="A592" s="20"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.25" spans="1:1">
       <c r="A593" s="20"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.25" spans="1:1">
       <c r="A594" s="20"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.25" spans="1:1">
       <c r="A595" s="20"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.25" spans="1:1">
       <c r="A596" s="20"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.25" spans="1:1">
       <c r="A597" s="20"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.25" spans="1:1">
       <c r="A598" s="20"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.25" spans="1:1">
       <c r="A599" s="20"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.25" spans="1:1">
       <c r="A600" s="20"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.25" spans="1:1">
       <c r="A601" s="20"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.25" spans="1:1">
       <c r="A602" s="20"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.25" spans="1:1">
       <c r="A603" s="20"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.25" spans="1:1">
       <c r="A604" s="20"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.25" spans="1:1">
       <c r="A605" s="20"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.25" spans="1:1">
       <c r="A606" s="20"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.25" spans="1:1">
       <c r="A607" s="20"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.25" spans="1:1">
       <c r="A608" s="20"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.25" spans="1:1">
       <c r="A609" s="20"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.25" spans="1:1">
       <c r="A610" s="20"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.25" spans="1:1">
       <c r="A611" s="20"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.25" spans="1:1">
       <c r="A612" s="20"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.25" spans="1:1">
       <c r="A613" s="20"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.25" spans="1:1">
       <c r="A614" s="20"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.25" spans="1:1">
       <c r="A615" s="20"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.25" spans="1:1">
       <c r="A616" s="20"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.25" spans="1:1">
       <c r="A617" s="20"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.25" spans="1:1">
       <c r="A618" s="20"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.25" spans="1:1">
       <c r="A619" s="20"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.25" spans="1:1">
       <c r="A620" s="20"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.25" spans="1:1">
       <c r="A621" s="20"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.25" spans="1:1">
       <c r="A622" s="20"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.25" spans="1:1">
       <c r="A623" s="20"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.25" spans="1:1">
       <c r="A624" s="20"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.25" spans="1:1">
       <c r="A625" s="20"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.25" spans="1:1">
       <c r="A626" s="20"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.25" spans="1:1">
       <c r="A627" s="20"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.25" spans="1:1">
       <c r="A628" s="20"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.25" spans="1:1">
       <c r="A629" s="20"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.25" spans="1:1">
       <c r="A630" s="20"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.25" spans="1:1">
       <c r="A631" s="20"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.25" spans="1:1">
       <c r="A632" s="20"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.25" spans="1:1">
       <c r="A633" s="20"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.25" spans="1:1">
       <c r="A634" s="20"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.25" spans="1:1">
       <c r="A635" s="20"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.25" spans="1:1">
       <c r="A636" s="20"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.25" spans="1:1">
       <c r="A637" s="20"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.25" spans="1:1">
       <c r="A638" s="20"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.25" spans="1:1">
       <c r="A639" s="20"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.25" spans="1:1">
       <c r="A640" s="20"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.25" spans="1:1">
       <c r="A641" s="20"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.25" spans="1:1">
       <c r="A642" s="20"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.25" spans="1:1">
       <c r="A643" s="20"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.25" spans="1:1">
       <c r="A644" s="20"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.25" spans="1:1">
       <c r="A645" s="20"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.25" spans="1:1">
       <c r="A646" s="20"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.25" spans="1:1">
       <c r="A647" s="20"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.25" spans="1:1">
       <c r="A648" s="20"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.25" spans="1:1">
       <c r="A649" s="20"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.25" spans="1:1">
       <c r="A650" s="20"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.25" spans="1:1">
       <c r="A651" s="20"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.25" spans="1:1">
       <c r="A652" s="20"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.25" spans="1:1">
       <c r="A653" s="20"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.25" spans="1:1">
       <c r="A654" s="20"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.25" spans="1:1">
       <c r="A655" s="20"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.25" spans="1:1">
       <c r="A656" s="20"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.25" spans="1:1">
       <c r="A657" s="20"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.25" spans="1:1">
       <c r="A658" s="20"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.25" spans="1:1">
       <c r="A659" s="20"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.25" spans="1:1">
       <c r="A660" s="20"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.25" spans="1:1">
       <c r="A661" s="20"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.25" spans="1:1">
       <c r="A662" s="20"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.25" spans="1:1">
       <c r="A663" s="20"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.25" spans="1:1">
       <c r="A664" s="20"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.25" spans="1:1">
       <c r="A665" s="20"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.25" spans="1:1">
       <c r="A666" s="20"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.25" spans="1:1">
       <c r="A667" s="20"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.25" spans="1:1">
       <c r="A668" s="20"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.25" spans="1:1">
       <c r="A669" s="20"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.25" spans="1:1">
       <c r="A670" s="20"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.25" spans="1:1">
       <c r="A671" s="20"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.25" spans="1:1">
       <c r="A672" s="20"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.25" spans="1:1">
       <c r="A673" s="20"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.25" spans="1:1">
       <c r="A674" s="20"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.25" spans="1:1">
       <c r="A675" s="20"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.25" spans="1:1">
       <c r="A676" s="20"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.25" spans="1:1">
       <c r="A677" s="20"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.25" spans="1:1">
       <c r="A678" s="20"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.25" spans="1:1">
       <c r="A679" s="20"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.25" spans="1:1">
       <c r="A680" s="20"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.25" spans="1:1">
       <c r="A681" s="20"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.25" spans="1:1">
       <c r="A682" s="20"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.25" spans="1:1">
       <c r="A683" s="20"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.25" spans="1:1">
       <c r="A684" s="20"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.25" spans="1:1">
       <c r="A685" s="20"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.25" spans="1:1">
       <c r="A686" s="20"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.25" spans="1:1">
       <c r="A687" s="20"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.25" spans="1:1">
       <c r="A688" s="20"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.25" spans="1:1">
       <c r="A689" s="20"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.25" spans="1:1">
       <c r="A690" s="20"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.25" spans="1:1">
       <c r="A691" s="20"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.25" spans="1:1">
       <c r="A692" s="20"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.25" spans="1:1">
       <c r="A693" s="20"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.25" spans="1:1">
       <c r="A694" s="20"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.25" spans="1:1">
       <c r="A695" s="20"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.25" spans="1:1">
       <c r="A696" s="20"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.25" spans="1:1">
       <c r="A697" s="20"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.25" spans="1:1">
       <c r="A698" s="20"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.25" spans="1:1">
       <c r="A699" s="20"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.25" spans="1:1">
       <c r="A700" s="20"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.25" spans="1:1">
       <c r="A701" s="20"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.25" spans="1:1">
       <c r="A702" s="20"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.25" spans="1:1">
       <c r="A703" s="20"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.25" spans="1:1">
       <c r="A704" s="20"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.25" spans="1:1">
       <c r="A705" s="20"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.25" spans="1:1">
       <c r="A706" s="20"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.25" spans="1:1">
       <c r="A707" s="20"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.25" spans="1:1">
       <c r="A708" s="20"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.25" spans="1:1">
       <c r="A709" s="20"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.25" spans="1:1">
       <c r="A710" s="20"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.25" spans="1:1">
       <c r="A711" s="20"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.25" spans="1:1">
       <c r="A712" s="20"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.25" spans="1:1">
       <c r="A713" s="20"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.25" spans="1:1">
       <c r="A714" s="20"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.25" spans="1:1">
       <c r="A715" s="20"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.25" spans="1:1">
       <c r="A716" s="20"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.25" spans="1:1">
       <c r="A717" s="20"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.25" spans="1:1">
       <c r="A718" s="20"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.25" spans="1:1">
       <c r="A719" s="20"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.25" spans="1:1">
       <c r="A720" s="20"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.25" spans="1:1">
       <c r="A721" s="20"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.25" spans="1:1">
       <c r="A722" s="20"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.25" spans="1:1">
       <c r="A723" s="20"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.25" spans="1:1">
       <c r="A724" s="20"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.25" spans="1:1">
       <c r="A725" s="20"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.25" spans="1:1">
       <c r="A726" s="20"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.25" spans="1:1">
       <c r="A727" s="20"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.25" spans="1:1">
       <c r="A728" s="20"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.25" spans="1:1">
       <c r="A729" s="20"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.25" spans="1:1">
       <c r="A730" s="20"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.25" spans="1:1">
       <c r="A731" s="20"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.25" spans="1:1">
       <c r="A732" s="20"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.25" spans="1:1">
       <c r="A733" s="20"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.25" spans="1:1">
       <c r="A734" s="20"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.25" spans="1:1">
       <c r="A735" s="20"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.25" spans="1:1">
       <c r="A736" s="20"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.25" spans="1:1">
       <c r="A737" s="20"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.25" spans="1:1">
       <c r="A738" s="20"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.25" spans="1:1">
       <c r="A739" s="20"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.25" spans="1:1">
       <c r="A740" s="20"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.25" spans="1:1">
       <c r="A741" s="20"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.25" spans="1:1">
       <c r="A742" s="20"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.25" spans="1:1">
       <c r="A743" s="20"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.25" spans="1:1">
       <c r="A744" s="20"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.25" spans="1:1">
       <c r="A745" s="20"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.25" spans="1:1">
       <c r="A746" s="20"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.25" spans="1:1">
       <c r="A747" s="20"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.25" spans="1:1">
       <c r="A748" s="20"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.25" spans="1:1">
       <c r="A749" s="20"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.25" spans="1:1">
       <c r="A750" s="20"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.25" spans="1:1">
       <c r="A751" s="20"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.25" spans="1:1">
       <c r="A752" s="20"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.25" spans="1:1">
       <c r="A753" s="20"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.25" spans="1:1">
       <c r="A754" s="20"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.25" spans="1:1">
       <c r="A755" s="20"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.25" spans="1:1">
       <c r="A756" s="20"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.25" spans="1:1">
       <c r="A757" s="20"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.25" spans="1:1">
       <c r="A758" s="20"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.25" spans="1:1">
       <c r="A759" s="20"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.25" spans="1:1">
       <c r="A760" s="20"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.25" spans="1:1">
       <c r="A761" s="20"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="20"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21690" windowHeight="10590"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="237">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -646,6 +646,102 @@
   </si>
   <si>
     <t>Q:1311527670</t>
+  </si>
+  <si>
+    <t>凡人布衣521</t>
+  </si>
+  <si>
+    <t>Q:2713244780</t>
+  </si>
+  <si>
+    <t>佐皇旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1014869810</t>
+  </si>
+  <si>
+    <t>djsaf旗舰店</t>
+  </si>
+  <si>
+    <t>Q:12041169</t>
+  </si>
+  <si>
+    <t>anta安凯专卖店</t>
+  </si>
+  <si>
+    <t>Q:719250869</t>
+  </si>
+  <si>
+    <t>gomoku旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1582128616</t>
+  </si>
+  <si>
+    <t>诗纳龙旗舰店</t>
+  </si>
+  <si>
+    <t>Q:406046511</t>
+  </si>
+  <si>
+    <t>木林森男装旗舰店</t>
+  </si>
+  <si>
+    <t>Q:873812788</t>
+  </si>
+  <si>
+    <t>季言旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1400046186</t>
+  </si>
+  <si>
+    <t>皇谷旗舰店</t>
+  </si>
+  <si>
+    <t>Q:454672338</t>
+  </si>
+  <si>
+    <t>rajibinvip基宾旗舰店</t>
+  </si>
+  <si>
+    <t>Q:317111093</t>
+  </si>
+  <si>
+    <t>帝国枫叶旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1904075701</t>
+  </si>
+  <si>
+    <t>休闲服饰网店</t>
+  </si>
+  <si>
+    <t>Q:653159942</t>
+  </si>
+  <si>
+    <t>力动体育用品专营店</t>
+  </si>
+  <si>
+    <t>Q:503187906</t>
+  </si>
+  <si>
+    <t>xaggt旗舰店</t>
+  </si>
+  <si>
+    <t>5月16号再联系</t>
+  </si>
+  <si>
+    <t>&lt;亿万少年&gt;美式复古-欧美街</t>
+  </si>
+  <si>
+    <t>Q:524852846</t>
+  </si>
+  <si>
+    <t>dzh旗舰店</t>
+  </si>
+  <si>
+    <t>Q:277280513</t>
   </si>
 </sst>
 </file>
@@ -767,104 +863,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +885,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -894,9 +928,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,6 +1021,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -937,25 +1057,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,13 +1105,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,49 +1141,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,49 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1195,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1116,15 +1212,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1152,6 +1239,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1163,6 +1259,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,20 +1291,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,149 +1320,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,9 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1763,15 +1856,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
   </cols>
@@ -1793,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1826,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1856,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1878,7 +1971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1903,7 +1996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +2007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1936,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1961,7 +2054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +2065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1997,7 +2090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -2005,7 +2098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -2027,7 +2120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -2043,7 +2136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -2061,7 +2154,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +2162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2083,7 +2176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2094,7 +2187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -2102,7 +2195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2110,7 +2203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2118,7 +2211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -2126,7 +2219,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -2142,7 +2235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -2150,7 +2243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>87</v>
       </c>
@@ -2162,7 +2255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
@@ -2170,7 +2263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -2178,7 +2271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
@@ -2186,7 +2279,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
@@ -2194,7 +2287,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>98</v>
       </c>
@@ -2202,7 +2295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
@@ -2210,7 +2303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>102</v>
       </c>
@@ -2218,7 +2311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="20" t="s">
         <v>104</v>
       </c>
@@ -2226,7 +2319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
@@ -2234,7 +2327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
@@ -2242,7 +2335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="20" t="s">
         <v>110</v>
       </c>
@@ -2250,7 +2343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" ht="14.25" spans="1:5">
+    <row r="49" s="3" customFormat="1" spans="1:5">
       <c r="A49" s="21" t="s">
         <v>112</v>
       </c>
@@ -2260,7 +2353,7 @@
       <c r="D49" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="5" t="s">
@@ -2270,7 +2363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>117</v>
       </c>
@@ -2278,7 +2371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="52" s="1" customFormat="1" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
@@ -2290,7 +2383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="20" t="s">
         <v>122</v>
       </c>
@@ -2298,7 +2391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="20" t="s">
         <v>124</v>
       </c>
@@ -2306,7 +2399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
         <v>126</v>
       </c>
@@ -2314,7 +2407,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>128</v>
       </c>
@@ -2322,7 +2415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>130</v>
       </c>
@@ -2330,7 +2423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -2338,7 +2431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="20" t="s">
         <v>134</v>
       </c>
@@ -2346,7 +2439,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
@@ -2354,7 +2447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>138</v>
       </c>
@@ -2362,7 +2455,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>140</v>
       </c>
@@ -2370,7 +2463,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>142</v>
       </c>
@@ -2378,7 +2471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
@@ -2386,7 +2479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>146</v>
       </c>
@@ -2394,7 +2487,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>148</v>
       </c>
@@ -2403,7 +2496,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>150</v>
       </c>
@@ -2411,7 +2504,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="20" t="s">
         <v>152</v>
       </c>
@@ -2419,7 +2512,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>154</v>
       </c>
@@ -2427,7 +2520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="20" t="s">
         <v>156</v>
       </c>
@@ -2435,7 +2528,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>158</v>
       </c>
@@ -2443,7 +2536,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>160</v>
       </c>
@@ -2451,7 +2544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>162</v>
       </c>
@@ -2459,7 +2552,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>164</v>
       </c>
@@ -2467,7 +2560,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>166</v>
       </c>
@@ -2475,7 +2568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>168</v>
       </c>
@@ -2483,7 +2576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="20" t="s">
         <v>170</v>
       </c>
@@ -2491,7 +2584,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>172</v>
       </c>
@@ -2499,7 +2592,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>174</v>
       </c>
@@ -2507,7 +2600,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="20" t="s">
         <v>176</v>
       </c>
@@ -2515,7 +2608,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>178</v>
       </c>
@@ -2523,7 +2616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>180</v>
       </c>
@@ -2531,7 +2624,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>182</v>
       </c>
@@ -2539,7 +2632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>184</v>
       </c>
@@ -2547,7 +2640,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="85" s="1" customFormat="1" spans="1:5">
       <c r="A85" s="8" t="s">
         <v>186</v>
       </c>
@@ -2559,15 +2652,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:2">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="20" t="s">
         <v>191</v>
       </c>
@@ -2575,23 +2668,23 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="5" t="s">
         <v>193</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
-      <c r="A89" s="24" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="20" t="s">
         <v>197</v>
       </c>
@@ -2599,2035 +2692,2115 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
-      <c r="A92" s="24" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
-      <c r="A93" s="24" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:1">
-      <c r="A94" s="20"/>
-    </row>
-    <row r="95" ht="14.25" spans="1:1">
-      <c r="A95" s="20"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:1">
-      <c r="A96" s="20"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:1">
-      <c r="A97" s="20"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:1">
-      <c r="A98" s="20"/>
-    </row>
-    <row r="99" ht="14.25" spans="1:1">
-      <c r="A99" s="20"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:1">
-      <c r="A100" s="20"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:1">
-      <c r="A101" s="20"/>
-    </row>
-    <row r="102" ht="14.25" spans="1:1">
-      <c r="A102" s="20"/>
-    </row>
-    <row r="103" ht="14.25" spans="1:1">
-      <c r="A103" s="20"/>
-    </row>
-    <row r="104" ht="14.25" spans="1:1">
-      <c r="A104" s="20"/>
-    </row>
-    <row r="105" ht="14.25" spans="1:1">
-      <c r="A105" s="20"/>
-    </row>
-    <row r="106" ht="14.25" spans="1:1">
-      <c r="A106" s="20"/>
-    </row>
-    <row r="107" ht="14.25" spans="1:1">
-      <c r="A107" s="20"/>
-    </row>
-    <row r="108" ht="14.25" spans="1:1">
-      <c r="A108" s="20"/>
-    </row>
-    <row r="109" ht="14.25" spans="1:1">
-      <c r="A109" s="20"/>
-    </row>
-    <row r="110" ht="14.25" spans="1:1">
+    <row r="94" spans="1:2">
+      <c r="A94" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" s="20"/>
     </row>
-    <row r="111" ht="14.25" spans="1:1">
+    <row r="111" spans="1:1">
       <c r="A111" s="20"/>
     </row>
-    <row r="112" ht="14.25" spans="1:1">
+    <row r="112" spans="1:1">
       <c r="A112" s="20"/>
     </row>
-    <row r="113" ht="14.25" spans="1:1">
+    <row r="113" spans="1:1">
       <c r="A113" s="20"/>
     </row>
-    <row r="114" ht="14.25" spans="1:1">
+    <row r="114" spans="1:1">
       <c r="A114" s="20"/>
     </row>
-    <row r="115" ht="14.25" spans="1:1">
+    <row r="115" spans="1:1">
       <c r="A115" s="20"/>
     </row>
-    <row r="116" ht="14.25" spans="1:1">
+    <row r="116" spans="1:1">
       <c r="A116" s="20"/>
     </row>
-    <row r="117" ht="14.25" spans="1:1">
+    <row r="117" spans="1:1">
       <c r="A117" s="20"/>
     </row>
-    <row r="118" ht="14.25" spans="1:1">
+    <row r="118" spans="1:1">
       <c r="A118" s="20"/>
     </row>
-    <row r="119" ht="14.25" spans="1:1">
+    <row r="119" spans="1:1">
       <c r="A119" s="20"/>
     </row>
-    <row r="120" ht="14.25" spans="1:1">
+    <row r="120" spans="1:1">
       <c r="A120" s="20"/>
     </row>
-    <row r="121" ht="14.25" spans="1:1">
+    <row r="121" spans="1:1">
       <c r="A121" s="20"/>
     </row>
-    <row r="122" ht="14.25" spans="1:1">
+    <row r="122" spans="1:1">
       <c r="A122" s="20"/>
     </row>
-    <row r="123" ht="14.25" spans="1:1">
+    <row r="123" spans="1:1">
       <c r="A123" s="20"/>
     </row>
-    <row r="124" ht="14.25" spans="1:1">
+    <row r="124" spans="1:1">
       <c r="A124" s="20"/>
     </row>
-    <row r="125" ht="14.25" spans="1:1">
+    <row r="125" spans="1:1">
       <c r="A125" s="20"/>
     </row>
-    <row r="126" ht="14.25" spans="1:1">
+    <row r="126" spans="1:1">
       <c r="A126" s="20"/>
     </row>
-    <row r="127" ht="14.25" spans="1:1">
+    <row r="127" spans="1:1">
       <c r="A127" s="20"/>
     </row>
-    <row r="128" ht="14.25" spans="1:1">
+    <row r="128" spans="1:1">
       <c r="A128" s="20"/>
     </row>
-    <row r="129" ht="14.25" spans="1:1">
+    <row r="129" spans="1:1">
       <c r="A129" s="20"/>
     </row>
-    <row r="130" ht="14.25" spans="1:1">
+    <row r="130" spans="1:1">
       <c r="A130" s="20"/>
     </row>
-    <row r="131" ht="14.25" spans="1:1">
+    <row r="131" spans="1:1">
       <c r="A131" s="20"/>
     </row>
-    <row r="132" ht="14.25" spans="1:1">
+    <row r="132" spans="1:1">
       <c r="A132" s="20"/>
     </row>
-    <row r="133" ht="14.25" spans="1:1">
+    <row r="133" spans="1:1">
       <c r="A133" s="20"/>
     </row>
-    <row r="134" ht="14.25" spans="1:1">
+    <row r="134" spans="1:1">
       <c r="A134" s="20"/>
     </row>
-    <row r="135" ht="14.25" spans="1:1">
+    <row r="135" spans="1:1">
       <c r="A135" s="20"/>
     </row>
-    <row r="136" ht="14.25" spans="1:1">
+    <row r="136" spans="1:1">
       <c r="A136" s="20"/>
     </row>
-    <row r="137" ht="14.25" spans="1:1">
+    <row r="137" spans="1:1">
       <c r="A137" s="20"/>
     </row>
-    <row r="138" ht="14.25" spans="1:1">
+    <row r="138" spans="1:1">
       <c r="A138" s="20"/>
     </row>
-    <row r="139" ht="14.25" spans="1:1">
+    <row r="139" spans="1:1">
       <c r="A139" s="20"/>
     </row>
-    <row r="140" ht="14.25" spans="1:1">
+    <row r="140" spans="1:1">
       <c r="A140" s="20"/>
     </row>
-    <row r="141" ht="14.25" spans="1:1">
+    <row r="141" spans="1:1">
       <c r="A141" s="20"/>
     </row>
-    <row r="142" ht="14.25" spans="1:1">
+    <row r="142" spans="1:1">
       <c r="A142" s="20"/>
     </row>
-    <row r="143" ht="14.25" spans="1:1">
+    <row r="143" spans="1:1">
       <c r="A143" s="20"/>
     </row>
-    <row r="144" ht="14.25" spans="1:1">
+    <row r="144" spans="1:1">
       <c r="A144" s="20"/>
     </row>
-    <row r="145" ht="14.25" spans="1:1">
+    <row r="145" spans="1:1">
       <c r="A145" s="20"/>
     </row>
-    <row r="146" ht="14.25" spans="1:1">
+    <row r="146" spans="1:1">
       <c r="A146" s="20"/>
     </row>
-    <row r="147" ht="14.25" spans="1:1">
+    <row r="147" spans="1:1">
       <c r="A147" s="20"/>
     </row>
-    <row r="148" ht="14.25" spans="1:1">
+    <row r="148" spans="1:1">
       <c r="A148" s="20"/>
     </row>
-    <row r="149" ht="14.25" spans="1:1">
+    <row r="149" spans="1:1">
       <c r="A149" s="20"/>
     </row>
-    <row r="150" ht="14.25" spans="1:1">
+    <row r="150" spans="1:1">
       <c r="A150" s="20"/>
     </row>
-    <row r="151" ht="14.25" spans="1:1">
+    <row r="151" spans="1:1">
       <c r="A151" s="20"/>
     </row>
-    <row r="152" ht="14.25" spans="1:1">
+    <row r="152" spans="1:1">
       <c r="A152" s="20"/>
     </row>
-    <row r="153" ht="14.25" spans="1:1">
+    <row r="153" spans="1:1">
       <c r="A153" s="20"/>
     </row>
-    <row r="154" ht="14.25" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="20"/>
     </row>
-    <row r="155" ht="14.25" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="20"/>
     </row>
-    <row r="156" ht="14.25" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="20"/>
     </row>
-    <row r="157" ht="14.25" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="20"/>
     </row>
-    <row r="158" ht="14.25" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="20"/>
     </row>
-    <row r="159" ht="14.25" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="20"/>
     </row>
-    <row r="160" ht="14.25" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="20"/>
     </row>
-    <row r="161" ht="14.25" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="20"/>
     </row>
-    <row r="162" ht="14.25" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="20"/>
     </row>
-    <row r="163" ht="14.25" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="20"/>
     </row>
-    <row r="164" ht="14.25" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="20"/>
     </row>
-    <row r="165" ht="14.25" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="20"/>
     </row>
-    <row r="166" ht="14.25" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="20"/>
     </row>
-    <row r="167" ht="14.25" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="20"/>
     </row>
-    <row r="168" ht="14.25" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="20"/>
     </row>
-    <row r="169" ht="14.25" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="20"/>
     </row>
-    <row r="170" ht="14.25" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="20"/>
     </row>
-    <row r="171" ht="14.25" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="20"/>
     </row>
-    <row r="172" ht="14.25" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="20"/>
     </row>
-    <row r="173" ht="14.25" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="20"/>
     </row>
-    <row r="174" ht="14.25" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="20"/>
     </row>
-    <row r="175" ht="14.25" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="20"/>
     </row>
-    <row r="176" ht="14.25" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="20"/>
     </row>
-    <row r="177" ht="14.25" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="20"/>
     </row>
-    <row r="178" ht="14.25" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="20"/>
     </row>
-    <row r="179" ht="14.25" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="20"/>
     </row>
-    <row r="180" ht="14.25" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="20"/>
     </row>
-    <row r="181" ht="14.25" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="20"/>
     </row>
-    <row r="182" ht="14.25" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="20"/>
     </row>
-    <row r="183" ht="14.25" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="20"/>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="20"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="20"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="20"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="20"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="20"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="20"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="20"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="20"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="20"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="20"/>
     </row>
-    <row r="194" ht="14.25" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="20"/>
     </row>
-    <row r="195" ht="14.25" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="20"/>
     </row>
-    <row r="196" ht="14.25" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="20"/>
     </row>
-    <row r="197" ht="14.25" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="20"/>
     </row>
-    <row r="198" ht="14.25" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="20"/>
     </row>
-    <row r="199" ht="14.25" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="20"/>
     </row>
-    <row r="200" ht="14.25" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="20"/>
     </row>
-    <row r="201" ht="14.25" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="20"/>
     </row>
-    <row r="202" ht="14.25" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="20"/>
     </row>
-    <row r="203" ht="14.25" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="20"/>
     </row>
-    <row r="204" ht="14.25" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="20"/>
     </row>
-    <row r="205" ht="14.25" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="20"/>
     </row>
-    <row r="206" ht="14.25" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="20"/>
     </row>
-    <row r="207" ht="14.25" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="20"/>
     </row>
-    <row r="208" ht="14.25" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="20"/>
     </row>
-    <row r="209" ht="14.25" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="20"/>
     </row>
-    <row r="210" ht="14.25" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="20"/>
     </row>
-    <row r="211" ht="14.25" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="20"/>
     </row>
-    <row r="212" ht="14.25" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="20"/>
     </row>
-    <row r="213" ht="14.25" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="20"/>
     </row>
-    <row r="214" ht="14.25" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="20"/>
     </row>
-    <row r="215" ht="14.25" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="20"/>
     </row>
-    <row r="216" ht="14.25" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="20"/>
     </row>
-    <row r="217" ht="14.25" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="20"/>
     </row>
-    <row r="218" ht="14.25" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="20"/>
     </row>
-    <row r="219" ht="14.25" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="20"/>
     </row>
-    <row r="220" ht="14.25" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="20"/>
     </row>
-    <row r="221" ht="14.25" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="20"/>
     </row>
-    <row r="222" ht="14.25" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="20"/>
     </row>
-    <row r="223" ht="14.25" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="20"/>
     </row>
-    <row r="224" ht="14.25" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="20"/>
     </row>
-    <row r="225" ht="14.25" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="20"/>
     </row>
-    <row r="226" ht="14.25" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="20"/>
     </row>
-    <row r="227" ht="14.25" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="20"/>
     </row>
-    <row r="228" ht="14.25" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="20"/>
     </row>
-    <row r="229" ht="14.25" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="20"/>
     </row>
-    <row r="230" ht="14.25" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="20"/>
     </row>
-    <row r="231" ht="14.25" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="20"/>
     </row>
-    <row r="232" ht="14.25" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="20"/>
     </row>
-    <row r="233" ht="14.25" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="20"/>
     </row>
-    <row r="234" ht="14.25" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="20"/>
     </row>
-    <row r="235" ht="14.25" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="20"/>
     </row>
-    <row r="236" ht="14.25" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="20"/>
     </row>
-    <row r="237" ht="14.25" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="20"/>
     </row>
-    <row r="238" ht="14.25" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="20"/>
     </row>
-    <row r="239" ht="14.25" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="20"/>
     </row>
-    <row r="240" ht="14.25" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="20"/>
     </row>
-    <row r="241" ht="14.25" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="20"/>
     </row>
-    <row r="242" ht="14.25" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="20"/>
     </row>
-    <row r="243" ht="14.25" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="20"/>
     </row>
-    <row r="244" ht="14.25" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="20"/>
     </row>
-    <row r="245" ht="14.25" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="20"/>
     </row>
-    <row r="246" ht="14.25" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="20"/>
     </row>
-    <row r="247" ht="14.25" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="20"/>
     </row>
-    <row r="248" ht="14.25" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="20"/>
     </row>
-    <row r="249" ht="14.25" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="20"/>
     </row>
-    <row r="250" ht="14.25" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="20"/>
     </row>
-    <row r="251" ht="14.25" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="20"/>
     </row>
-    <row r="252" ht="14.25" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="20"/>
     </row>
-    <row r="253" ht="14.25" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="20"/>
     </row>
-    <row r="254" ht="14.25" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="20"/>
     </row>
-    <row r="255" ht="14.25" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="20"/>
     </row>
-    <row r="256" ht="14.25" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="20"/>
     </row>
-    <row r="257" ht="14.25" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="20"/>
     </row>
-    <row r="258" ht="14.25" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="20"/>
     </row>
-    <row r="259" ht="14.25" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="20"/>
     </row>
-    <row r="260" ht="14.25" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="20"/>
     </row>
-    <row r="261" ht="14.25" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="20"/>
     </row>
-    <row r="262" ht="14.25" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="20"/>
     </row>
-    <row r="263" ht="14.25" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="20"/>
     </row>
-    <row r="264" ht="14.25" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="20"/>
     </row>
-    <row r="265" ht="14.25" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="20"/>
     </row>
-    <row r="266" ht="14.25" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="20"/>
     </row>
-    <row r="267" ht="14.25" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="20"/>
     </row>
-    <row r="268" ht="14.25" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="20"/>
     </row>
-    <row r="269" ht="14.25" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="20"/>
     </row>
-    <row r="270" ht="14.25" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="20"/>
     </row>
-    <row r="271" ht="14.25" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="20"/>
     </row>
-    <row r="272" ht="14.25" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="20"/>
     </row>
-    <row r="273" ht="14.25" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="20"/>
     </row>
-    <row r="274" ht="14.25" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="20"/>
     </row>
-    <row r="275" ht="14.25" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="20"/>
     </row>
-    <row r="276" ht="14.25" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="20"/>
     </row>
-    <row r="277" ht="14.25" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="20"/>
     </row>
-    <row r="278" ht="14.25" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="20"/>
     </row>
-    <row r="279" ht="14.25" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="20"/>
     </row>
-    <row r="280" ht="14.25" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="20"/>
     </row>
-    <row r="281" ht="14.25" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="20"/>
     </row>
-    <row r="282" ht="14.25" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="20"/>
     </row>
-    <row r="283" ht="14.25" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="20"/>
     </row>
-    <row r="284" ht="14.25" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="20"/>
     </row>
-    <row r="285" ht="14.25" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="20"/>
     </row>
-    <row r="286" ht="14.25" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="20"/>
     </row>
-    <row r="287" ht="14.25" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="20"/>
     </row>
-    <row r="288" ht="14.25" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="20"/>
     </row>
-    <row r="289" ht="14.25" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="20"/>
     </row>
-    <row r="290" ht="14.25" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="20"/>
     </row>
-    <row r="291" ht="14.25" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="20"/>
     </row>
-    <row r="292" ht="14.25" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="20"/>
     </row>
-    <row r="293" ht="14.25" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="20"/>
     </row>
-    <row r="294" ht="14.25" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="20"/>
     </row>
-    <row r="295" ht="14.25" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="20"/>
     </row>
-    <row r="296" ht="14.25" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="20"/>
     </row>
-    <row r="297" ht="14.25" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="20"/>
     </row>
-    <row r="298" ht="14.25" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="20"/>
     </row>
-    <row r="299" ht="14.25" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="20"/>
     </row>
-    <row r="300" ht="14.25" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="20"/>
     </row>
-    <row r="301" ht="14.25" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="20"/>
     </row>
-    <row r="302" ht="14.25" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="20"/>
     </row>
-    <row r="303" ht="14.25" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="20"/>
     </row>
-    <row r="304" ht="14.25" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="20"/>
     </row>
-    <row r="305" ht="14.25" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="20"/>
     </row>
-    <row r="306" ht="14.25" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="20"/>
     </row>
-    <row r="307" ht="14.25" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="20"/>
     </row>
-    <row r="308" ht="14.25" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="20"/>
     </row>
-    <row r="309" ht="14.25" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="20"/>
     </row>
-    <row r="310" ht="14.25" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="20"/>
     </row>
-    <row r="311" ht="14.25" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="20"/>
     </row>
-    <row r="312" ht="14.25" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="20"/>
     </row>
-    <row r="313" ht="14.25" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="20"/>
     </row>
-    <row r="314" ht="14.25" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="20"/>
     </row>
-    <row r="315" ht="14.25" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="20"/>
     </row>
-    <row r="316" ht="14.25" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="20"/>
     </row>
-    <row r="317" ht="14.25" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="20"/>
     </row>
-    <row r="318" ht="14.25" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="20"/>
     </row>
-    <row r="319" ht="14.25" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="20"/>
     </row>
-    <row r="320" ht="14.25" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="20"/>
     </row>
-    <row r="321" ht="14.25" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="20"/>
     </row>
-    <row r="322" ht="14.25" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="20"/>
     </row>
-    <row r="323" ht="14.25" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="20"/>
     </row>
-    <row r="324" ht="14.25" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="20"/>
     </row>
-    <row r="325" ht="14.25" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="20"/>
     </row>
-    <row r="326" ht="14.25" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="20"/>
     </row>
-    <row r="327" ht="14.25" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="20"/>
     </row>
-    <row r="328" ht="14.25" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="20"/>
     </row>
-    <row r="329" ht="14.25" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="20"/>
     </row>
-    <row r="330" ht="14.25" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="20"/>
     </row>
-    <row r="331" ht="14.25" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="20"/>
     </row>
-    <row r="332" ht="14.25" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="20"/>
     </row>
-    <row r="333" ht="14.25" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="20"/>
     </row>
-    <row r="334" ht="14.25" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="20"/>
     </row>
-    <row r="335" ht="14.25" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="20"/>
     </row>
-    <row r="336" ht="14.25" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="20"/>
     </row>
-    <row r="337" ht="14.25" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="20"/>
     </row>
-    <row r="338" ht="14.25" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="20"/>
     </row>
-    <row r="339" ht="14.25" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="20"/>
     </row>
-    <row r="340" ht="14.25" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="20"/>
     </row>
-    <row r="341" ht="14.25" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="20"/>
     </row>
-    <row r="342" ht="14.25" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="20"/>
     </row>
-    <row r="343" ht="14.25" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="20"/>
     </row>
-    <row r="344" ht="14.25" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="20"/>
     </row>
-    <row r="345" ht="14.25" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="20"/>
     </row>
-    <row r="346" ht="14.25" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="20"/>
     </row>
-    <row r="347" ht="14.25" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="20"/>
     </row>
-    <row r="348" ht="14.25" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="20"/>
     </row>
-    <row r="349" ht="14.25" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="20"/>
     </row>
-    <row r="350" ht="14.25" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="20"/>
     </row>
-    <row r="351" ht="14.25" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="20"/>
     </row>
-    <row r="352" ht="14.25" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="20"/>
     </row>
-    <row r="353" ht="14.25" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="20"/>
     </row>
-    <row r="354" ht="14.25" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="20"/>
     </row>
-    <row r="355" ht="14.25" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="20"/>
     </row>
-    <row r="356" ht="14.25" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="20"/>
     </row>
-    <row r="357" ht="14.25" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="20"/>
     </row>
-    <row r="358" ht="14.25" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="20"/>
     </row>
-    <row r="359" ht="14.25" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="20"/>
     </row>
-    <row r="360" ht="14.25" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="20"/>
     </row>
-    <row r="361" ht="14.25" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="20"/>
     </row>
-    <row r="362" ht="14.25" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="20"/>
     </row>
-    <row r="363" ht="14.25" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="20"/>
     </row>
-    <row r="364" ht="14.25" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="20"/>
     </row>
-    <row r="365" ht="14.25" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="20"/>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="20"/>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="20"/>
     </row>
-    <row r="368" ht="14.25" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="20"/>
     </row>
-    <row r="369" ht="14.25" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="20"/>
     </row>
-    <row r="370" ht="14.25" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="20"/>
     </row>
-    <row r="371" ht="14.25" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="20"/>
     </row>
-    <row r="372" ht="14.25" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="20"/>
     </row>
-    <row r="373" ht="14.25" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="20"/>
     </row>
-    <row r="374" ht="14.25" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="20"/>
     </row>
-    <row r="375" ht="14.25" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="20"/>
     </row>
-    <row r="376" ht="14.25" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="20"/>
     </row>
-    <row r="377" ht="14.25" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="20"/>
     </row>
-    <row r="378" ht="14.25" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="20"/>
     </row>
-    <row r="379" ht="14.25" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="20"/>
     </row>
-    <row r="380" ht="14.25" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="20"/>
     </row>
-    <row r="381" ht="14.25" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="20"/>
     </row>
-    <row r="382" ht="14.25" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="20"/>
     </row>
-    <row r="383" ht="14.25" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="20"/>
     </row>
-    <row r="384" ht="14.25" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="20"/>
     </row>
-    <row r="385" ht="14.25" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="20"/>
     </row>
-    <row r="386" ht="14.25" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="20"/>
     </row>
-    <row r="387" ht="14.25" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="20"/>
     </row>
-    <row r="388" ht="14.25" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="20"/>
     </row>
-    <row r="389" ht="14.25" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="20"/>
     </row>
-    <row r="390" ht="14.25" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="20"/>
     </row>
-    <row r="391" ht="14.25" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="20"/>
     </row>
-    <row r="392" ht="14.25" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="20"/>
     </row>
-    <row r="393" ht="14.25" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="20"/>
     </row>
-    <row r="394" ht="14.25" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="20"/>
     </row>
-    <row r="395" ht="14.25" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="20"/>
     </row>
-    <row r="396" ht="14.25" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="20"/>
     </row>
-    <row r="397" ht="14.25" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="20"/>
     </row>
-    <row r="398" ht="14.25" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="20"/>
     </row>
-    <row r="399" ht="14.25" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="20"/>
     </row>
-    <row r="400" ht="14.25" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="20"/>
     </row>
-    <row r="401" ht="14.25" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="20"/>
     </row>
-    <row r="402" ht="14.25" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="20"/>
     </row>
-    <row r="403" ht="14.25" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="20"/>
     </row>
-    <row r="404" ht="14.25" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="20"/>
     </row>
-    <row r="405" ht="14.25" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="20"/>
     </row>
-    <row r="406" ht="14.25" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="20"/>
     </row>
-    <row r="407" ht="14.25" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="20"/>
     </row>
-    <row r="408" ht="14.25" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="20"/>
     </row>
-    <row r="409" ht="14.25" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="20"/>
     </row>
-    <row r="410" ht="14.25" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="20"/>
     </row>
-    <row r="411" ht="14.25" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="20"/>
     </row>
-    <row r="412" ht="14.25" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="20"/>
     </row>
-    <row r="413" ht="14.25" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="20"/>
     </row>
-    <row r="414" ht="14.25" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="20"/>
     </row>
-    <row r="415" ht="14.25" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="20"/>
     </row>
-    <row r="416" ht="14.25" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="20"/>
     </row>
-    <row r="417" ht="14.25" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="20"/>
     </row>
-    <row r="418" ht="14.25" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="20"/>
     </row>
-    <row r="419" ht="14.25" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="20"/>
     </row>
-    <row r="420" ht="14.25" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="20"/>
     </row>
-    <row r="421" ht="14.25" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="20"/>
     </row>
-    <row r="422" ht="14.25" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="20"/>
     </row>
-    <row r="423" ht="14.25" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="20"/>
     </row>
-    <row r="424" ht="14.25" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="20"/>
     </row>
-    <row r="425" ht="14.25" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="20"/>
     </row>
-    <row r="426" ht="14.25" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="20"/>
     </row>
-    <row r="427" ht="14.25" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="20"/>
     </row>
-    <row r="428" ht="14.25" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="20"/>
     </row>
-    <row r="429" ht="14.25" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="20"/>
     </row>
-    <row r="430" ht="14.25" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="20"/>
     </row>
-    <row r="431" ht="14.25" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="20"/>
     </row>
-    <row r="432" ht="14.25" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="20"/>
     </row>
-    <row r="433" ht="14.25" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="20"/>
     </row>
-    <row r="434" ht="14.25" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="20"/>
     </row>
-    <row r="435" ht="14.25" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="20"/>
     </row>
-    <row r="436" ht="14.25" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="20"/>
     </row>
-    <row r="437" ht="14.25" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="20"/>
     </row>
-    <row r="438" ht="14.25" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="20"/>
     </row>
-    <row r="439" ht="14.25" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="20"/>
     </row>
-    <row r="440" ht="14.25" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="20"/>
     </row>
-    <row r="441" ht="14.25" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="20"/>
     </row>
-    <row r="442" ht="14.25" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="20"/>
     </row>
-    <row r="443" ht="14.25" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="20"/>
     </row>
-    <row r="444" ht="14.25" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="20"/>
     </row>
-    <row r="445" ht="14.25" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="20"/>
     </row>
-    <row r="446" ht="14.25" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="20"/>
     </row>
-    <row r="447" ht="14.25" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="20"/>
     </row>
-    <row r="448" ht="14.25" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="20"/>
     </row>
-    <row r="449" ht="14.25" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="20"/>
     </row>
-    <row r="450" ht="14.25" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="20"/>
     </row>
-    <row r="451" ht="14.25" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="20"/>
     </row>
-    <row r="452" ht="14.25" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="20"/>
     </row>
-    <row r="453" ht="14.25" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="20"/>
     </row>
-    <row r="454" ht="14.25" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="20"/>
     </row>
-    <row r="455" ht="14.25" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="20"/>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="20"/>
     </row>
-    <row r="457" ht="14.25" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="20"/>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="20"/>
     </row>
-    <row r="459" ht="14.25" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="20"/>
     </row>
-    <row r="460" ht="14.25" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="20"/>
     </row>
-    <row r="461" ht="14.25" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="20"/>
     </row>
-    <row r="462" ht="14.25" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="20"/>
     </row>
-    <row r="463" ht="14.25" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="20"/>
     </row>
-    <row r="464" ht="14.25" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="20"/>
     </row>
-    <row r="465" ht="14.25" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="20"/>
     </row>
-    <row r="466" ht="14.25" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="20"/>
     </row>
-    <row r="467" ht="14.25" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="20"/>
     </row>
-    <row r="468" ht="14.25" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="20"/>
     </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="20"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="20"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="20"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="20"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="20"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="20"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="20"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="20"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="20"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="20"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="20"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="20"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="20"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="20"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="20"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="20"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="20"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="20"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="20"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="20"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="20"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="20"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="20"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="20"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="20"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="20"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="20"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="20"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="20"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="20"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="20"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="20"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="20"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="20"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="20"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="20"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="20"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="20"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="20"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="20"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="20"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="20"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="20"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="20"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="20"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="20"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="20"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="20"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="20"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="20"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="20"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="20"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="20"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="20"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="20"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="20"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="20"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="20"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="20"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="20"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="20"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="20"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="20"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="20"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="20"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="20"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="20"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="20"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="20"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="20"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="20"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="20"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="20"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="20"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="20"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="20"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="20"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="20"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="20"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="20"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="20"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="20"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="20"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="20"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="20"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="20"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="20"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="20"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="20"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="20"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="20"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="20"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="20"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="20"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="20"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="20"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="20"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="20"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="20"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="20"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="20"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="20"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="20"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="20"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="20"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="20"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="20"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="20"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="20"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="20"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="20"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="20"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="20"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="20"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="20"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="20"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="20"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="20"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="20"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="20"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="20"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="20"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="20"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="20"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="20"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="20"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="20"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="20"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="20"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="20"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="20"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="20"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="20"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="20"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="20"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="20"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="20"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="20"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="20"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="20"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="20"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="20"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="20"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="20"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="20"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="20"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="20"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="20"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="20"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="20"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="20"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="20"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="20"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="20"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="20"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="20"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="20"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="20"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="20"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="20"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="20"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="20"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="20"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="20"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="20"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="20"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="20"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="20"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="20"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="20"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="20"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="20"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="20"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="20"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="20"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="20"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="20"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="20"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="20"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="20"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="20"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="20"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="20"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="20"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="20"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="20"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="20"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="20"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="20"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="20"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="20"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="20"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="20"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="20"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="20"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="20"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="20"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="20"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="20"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="20"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="20"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="20"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="20"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="20"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="20"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="20"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="20"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="20"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="20"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="20"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="20"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="20"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="20"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="20"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="20"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="20"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="20"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="20"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="20"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="20"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="20"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="20"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="20"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="20"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="20"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="20"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="20"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="20"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="20"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="20"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="20"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="20"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="20"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="20"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="20"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="20"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="20"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="20"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="20"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="20"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="20"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="20"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="20"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="20"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="20"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="20"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="20"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="20"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="20"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="20"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="20"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="20"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="20"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="20"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="20"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="20"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="20"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="20"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="20"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="20"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="20"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="20"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="20"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="20"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="20"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="20"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="20"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="20"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="20"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="20"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="20"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="20"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="20"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="20"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="20"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="20"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="20"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="20"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="20"/>
     </row>
-    <row r="749" ht="14.25" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="20"/>
     </row>
-    <row r="750" ht="14.25" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="20"/>
     </row>
-    <row r="751" ht="14.25" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="20"/>
     </row>
-    <row r="752" ht="14.25" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="20"/>
     </row>
-    <row r="753" ht="14.25" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="20"/>
     </row>
-    <row r="754" ht="14.25" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="20"/>
     </row>
-    <row r="755" ht="14.25" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="20"/>
     </row>
-    <row r="756" ht="14.25" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="20"/>
     </row>
-    <row r="757" ht="14.25" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="20"/>
     </row>
-    <row r="758" ht="14.25" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="20"/>
     </row>
-    <row r="759" ht="14.25" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="20"/>
     </row>
-    <row r="760" ht="14.25" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="20"/>
     </row>
-    <row r="761" ht="14.25" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="20"/>
     </row>
-    <row r="762" ht="14.25" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="20"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="21690" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="243">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -729,7 +729,7 @@
     <t>xaggt旗舰店</t>
   </si>
   <si>
-    <t>5月16号再联系</t>
+    <t>5月21号再联系</t>
   </si>
   <si>
     <t>&lt;亿万少年&gt;美式复古-欧美街</t>
@@ -742,6 +742,24 @@
   </si>
   <si>
     <t>Q:277280513</t>
+  </si>
+  <si>
+    <t>运动服精品店</t>
+  </si>
+  <si>
+    <t>Q:630535210</t>
+  </si>
+  <si>
+    <t>百诺衣衣巢尚宾度专卖店</t>
+  </si>
+  <si>
+    <t>Q:125805526</t>
+  </si>
+  <si>
+    <t>睹佳依刊运动健身服饰</t>
+  </si>
+  <si>
+    <t>Q:454984254,V:17620052656</t>
   </si>
 </sst>
 </file>
@@ -863,9 +881,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,33 +963,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -928,11 +993,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,23 +1010,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,37 +1021,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1021,7 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1087,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,19 +1123,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,25 +1183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,97 +1201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,61 +1233,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,6 +1266,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1312,6 +1315,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1320,10 +1338,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,137 +1350,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,9 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1856,15 +1871,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
   </cols>
@@ -1886,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1919,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +1964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1971,7 +1986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2018,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -2090,7 +2105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -2154,7 +2169,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2211,7 +2226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -2219,7 +2234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -2243,7 +2258,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>87</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
@@ -2263,7 +2278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -2271,7 +2286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>98</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
@@ -2303,7 +2318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>102</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="20" t="s">
         <v>104</v>
       </c>
@@ -2319,7 +2334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
@@ -2327,7 +2342,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
@@ -2335,7 +2350,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="20" t="s">
         <v>110</v>
       </c>
@@ -2343,7 +2358,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:5">
+    <row r="49" s="3" customFormat="1" ht="14.25" spans="1:5">
       <c r="A49" s="21" t="s">
         <v>112</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>117</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="20" t="s">
         <v>122</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="20" t="s">
         <v>124</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="20" t="s">
         <v>126</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>128</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>130</v>
       </c>
@@ -2423,7 +2438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>132</v>
       </c>
@@ -2431,7 +2446,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="20" t="s">
         <v>134</v>
       </c>
@@ -2439,7 +2454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>138</v>
       </c>
@@ -2455,7 +2470,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>140</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>142</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>144</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>146</v>
       </c>
@@ -2487,7 +2502,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>148</v>
       </c>
@@ -2496,7 +2511,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>150</v>
       </c>
@@ -2504,7 +2519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="20" t="s">
         <v>152</v>
       </c>
@@ -2512,7 +2527,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>154</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="20" t="s">
         <v>156</v>
       </c>
@@ -2528,7 +2543,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>158</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>160</v>
       </c>
@@ -2544,7 +2559,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>162</v>
       </c>
@@ -2552,7 +2567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>164</v>
       </c>
@@ -2560,7 +2575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>166</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>168</v>
       </c>
@@ -2576,7 +2591,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="20" t="s">
         <v>170</v>
       </c>
@@ -2584,7 +2599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>172</v>
       </c>
@@ -2592,7 +2607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>174</v>
       </c>
@@ -2600,7 +2615,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="20" t="s">
         <v>176</v>
       </c>
@@ -2608,7 +2623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>178</v>
       </c>
@@ -2616,7 +2631,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>180</v>
       </c>
@@ -2624,7 +2639,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>182</v>
       </c>
@@ -2632,7 +2647,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>184</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:5">
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A85" s="8" t="s">
         <v>186</v>
       </c>
@@ -2652,7 +2667,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="20" t="s">
         <v>191</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" ht="14.25" spans="1:4">
       <c r="A88" s="5" t="s">
         <v>193</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>195</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="20" t="s">
         <v>197</v>
       </c>
@@ -2692,7 +2707,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>199</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>201</v>
       </c>
@@ -2708,7 +2723,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>203</v>
       </c>
@@ -2716,39 +2731,39 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="23" t="s">
+    <row r="94" ht="14.25" spans="1:2">
+      <c r="A94" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="23" t="s">
+    <row r="95" ht="14.25" spans="1:2">
+      <c r="A95" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="23" t="s">
+    <row r="96" ht="14.25" spans="1:2">
+      <c r="A96" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="23" t="s">
+    <row r="97" ht="14.25" spans="1:2">
+      <c r="A97" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="20" t="s">
         <v>213</v>
       </c>
@@ -2756,55 +2771,55 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="23" t="s">
+    <row r="99" ht="14.25" spans="1:2">
+      <c r="A99" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="23" t="s">
+    <row r="100" ht="14.25" spans="1:2">
+      <c r="A100" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="23" t="s">
+    <row r="101" ht="14.25" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="23" t="s">
+    <row r="102" ht="14.25" spans="1:2">
+      <c r="A102" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="23" t="s">
+    <row r="103" ht="14.25" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="23" t="s">
+    <row r="104" ht="14.25" spans="1:2">
+      <c r="A104" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" ht="14.25" spans="1:2">
       <c r="A105" s="20" t="s">
         <v>227</v>
       </c>
@@ -2812,23 +2827,23 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="23" t="s">
+    <row r="106" ht="14.25" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="23" t="s">
+    <row r="107" ht="14.25" spans="1:4">
+      <c r="A107" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="20" t="s">
         <v>233</v>
       </c>
@@ -2836,1971 +2851,1986 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="23" t="s">
+    <row r="109" ht="14.25" spans="1:2">
+      <c r="A109" s="5" t="s">
         <v>235</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="20"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="20"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="20"/>
-    </row>
-    <row r="113" spans="1:1">
+    <row r="110" ht="14.25" spans="1:2">
+      <c r="A110" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:2">
+      <c r="A111" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:2">
+      <c r="A112" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" spans="1:1">
       <c r="A113" s="20"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" ht="14.25" spans="1:1">
       <c r="A114" s="20"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" ht="14.25" spans="1:1">
       <c r="A115" s="20"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" ht="14.25" spans="1:1">
       <c r="A116" s="20"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" ht="14.25" spans="1:1">
       <c r="A117" s="20"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" ht="14.25" spans="1:1">
       <c r="A118" s="20"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" ht="14.25" spans="1:1">
       <c r="A119" s="20"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" ht="14.25" spans="1:1">
       <c r="A120" s="20"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" ht="14.25" spans="1:1">
       <c r="A121" s="20"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" ht="14.25" spans="1:1">
       <c r="A122" s="20"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" ht="14.25" spans="1:1">
       <c r="A123" s="20"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="14.25" spans="1:1">
       <c r="A124" s="20"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="14.25" spans="1:1">
       <c r="A125" s="20"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="14.25" spans="1:1">
       <c r="A126" s="20"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="14.25" spans="1:1">
       <c r="A127" s="20"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="14.25" spans="1:1">
       <c r="A128" s="20"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="14.25" spans="1:1">
       <c r="A129" s="20"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="14.25" spans="1:1">
       <c r="A130" s="20"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="14.25" spans="1:1">
       <c r="A131" s="20"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="14.25" spans="1:1">
       <c r="A132" s="20"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.25" spans="1:1">
       <c r="A133" s="20"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="14.25" spans="1:1">
       <c r="A134" s="20"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="14.25" spans="1:1">
       <c r="A135" s="20"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="14.25" spans="1:1">
       <c r="A136" s="20"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="14.25" spans="1:1">
       <c r="A137" s="20"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="14.25" spans="1:1">
       <c r="A138" s="20"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="14.25" spans="1:1">
       <c r="A139" s="20"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="14.25" spans="1:1">
       <c r="A140" s="20"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="14.25" spans="1:1">
       <c r="A141" s="20"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="14.25" spans="1:1">
       <c r="A142" s="20"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="14.25" spans="1:1">
       <c r="A143" s="20"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="14.25" spans="1:1">
       <c r="A144" s="20"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="14.25" spans="1:1">
       <c r="A145" s="20"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="14.25" spans="1:1">
       <c r="A146" s="20"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="14.25" spans="1:1">
       <c r="A147" s="20"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="14.25" spans="1:1">
       <c r="A148" s="20"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="14.25" spans="1:1">
       <c r="A149" s="20"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="14.25" spans="1:1">
       <c r="A150" s="20"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="14.25" spans="1:1">
       <c r="A151" s="20"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="14.25" spans="1:1">
       <c r="A152" s="20"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="14.25" spans="1:1">
       <c r="A153" s="20"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="14.25" spans="1:1">
       <c r="A154" s="20"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="14.25" spans="1:1">
       <c r="A155" s="20"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="14.25" spans="1:1">
       <c r="A156" s="20"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="14.25" spans="1:1">
       <c r="A157" s="20"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="14.25" spans="1:1">
       <c r="A158" s="20"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="14.25" spans="1:1">
       <c r="A159" s="20"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="14.25" spans="1:1">
       <c r="A160" s="20"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="14.25" spans="1:1">
       <c r="A161" s="20"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="14.25" spans="1:1">
       <c r="A162" s="20"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="14.25" spans="1:1">
       <c r="A163" s="20"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="14.25" spans="1:1">
       <c r="A164" s="20"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="14.25" spans="1:1">
       <c r="A165" s="20"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="14.25" spans="1:1">
       <c r="A166" s="20"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="14.25" spans="1:1">
       <c r="A167" s="20"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="14.25" spans="1:1">
       <c r="A168" s="20"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="14.25" spans="1:1">
       <c r="A169" s="20"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="14.25" spans="1:1">
       <c r="A170" s="20"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="14.25" spans="1:1">
       <c r="A171" s="20"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="14.25" spans="1:1">
       <c r="A172" s="20"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="14.25" spans="1:1">
       <c r="A173" s="20"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="14.25" spans="1:1">
       <c r="A174" s="20"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="14.25" spans="1:1">
       <c r="A175" s="20"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="14.25" spans="1:1">
       <c r="A176" s="20"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="14.25" spans="1:1">
       <c r="A177" s="20"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="14.25" spans="1:1">
       <c r="A178" s="20"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="14.25" spans="1:1">
       <c r="A179" s="20"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="14.25" spans="1:1">
       <c r="A180" s="20"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="14.25" spans="1:1">
       <c r="A181" s="20"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" ht="14.25" spans="1:1">
       <c r="A182" s="20"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="14.25" spans="1:1">
       <c r="A183" s="20"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="14.25" spans="1:1">
       <c r="A184" s="20"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="14.25" spans="1:1">
       <c r="A185" s="20"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="14.25" spans="1:1">
       <c r="A186" s="20"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="14.25" spans="1:1">
       <c r="A187" s="20"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="14.25" spans="1:1">
       <c r="A188" s="20"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="14.25" spans="1:1">
       <c r="A189" s="20"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="14.25" spans="1:1">
       <c r="A190" s="20"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="14.25" spans="1:1">
       <c r="A191" s="20"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="14.25" spans="1:1">
       <c r="A192" s="20"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="14.25" spans="1:1">
       <c r="A193" s="20"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="14.25" spans="1:1">
       <c r="A194" s="20"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="14.25" spans="1:1">
       <c r="A195" s="20"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="14.25" spans="1:1">
       <c r="A196" s="20"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="14.25" spans="1:1">
       <c r="A197" s="20"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="14.25" spans="1:1">
       <c r="A198" s="20"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="14.25" spans="1:1">
       <c r="A199" s="20"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="14.25" spans="1:1">
       <c r="A200" s="20"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="14.25" spans="1:1">
       <c r="A201" s="20"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="14.25" spans="1:1">
       <c r="A202" s="20"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="14.25" spans="1:1">
       <c r="A203" s="20"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="14.25" spans="1:1">
       <c r="A204" s="20"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="14.25" spans="1:1">
       <c r="A205" s="20"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" ht="14.25" spans="1:1">
       <c r="A206" s="20"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" ht="14.25" spans="1:1">
       <c r="A207" s="20"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" ht="14.25" spans="1:1">
       <c r="A208" s="20"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" ht="14.25" spans="1:1">
       <c r="A209" s="20"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" ht="14.25" spans="1:1">
       <c r="A210" s="20"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" ht="14.25" spans="1:1">
       <c r="A211" s="20"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" ht="14.25" spans="1:1">
       <c r="A212" s="20"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" ht="14.25" spans="1:1">
       <c r="A213" s="20"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" ht="14.25" spans="1:1">
       <c r="A214" s="20"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" ht="14.25" spans="1:1">
       <c r="A215" s="20"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" ht="14.25" spans="1:1">
       <c r="A216" s="20"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" ht="14.25" spans="1:1">
       <c r="A217" s="20"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" ht="14.25" spans="1:1">
       <c r="A218" s="20"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" ht="14.25" spans="1:1">
       <c r="A219" s="20"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" ht="14.25" spans="1:1">
       <c r="A220" s="20"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" ht="14.25" spans="1:1">
       <c r="A221" s="20"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" ht="14.25" spans="1:1">
       <c r="A222" s="20"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" ht="14.25" spans="1:1">
       <c r="A223" s="20"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="14.25" spans="1:1">
       <c r="A224" s="20"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" ht="14.25" spans="1:1">
       <c r="A225" s="20"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" ht="14.25" spans="1:1">
       <c r="A226" s="20"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" ht="14.25" spans="1:1">
       <c r="A227" s="20"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" ht="14.25" spans="1:1">
       <c r="A228" s="20"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" ht="14.25" spans="1:1">
       <c r="A229" s="20"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" ht="14.25" spans="1:1">
       <c r="A230" s="20"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" ht="14.25" spans="1:1">
       <c r="A231" s="20"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" ht="14.25" spans="1:1">
       <c r="A232" s="20"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" ht="14.25" spans="1:1">
       <c r="A233" s="20"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" ht="14.25" spans="1:1">
       <c r="A234" s="20"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" ht="14.25" spans="1:1">
       <c r="A235" s="20"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" ht="14.25" spans="1:1">
       <c r="A236" s="20"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" ht="14.25" spans="1:1">
       <c r="A237" s="20"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" ht="14.25" spans="1:1">
       <c r="A238" s="20"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" ht="14.25" spans="1:1">
       <c r="A239" s="20"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" ht="14.25" spans="1:1">
       <c r="A240" s="20"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" ht="14.25" spans="1:1">
       <c r="A241" s="20"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" ht="14.25" spans="1:1">
       <c r="A242" s="20"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" ht="14.25" spans="1:1">
       <c r="A243" s="20"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" ht="14.25" spans="1:1">
       <c r="A244" s="20"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" ht="14.25" spans="1:1">
       <c r="A245" s="20"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" ht="14.25" spans="1:1">
       <c r="A246" s="20"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" ht="14.25" spans="1:1">
       <c r="A247" s="20"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" ht="14.25" spans="1:1">
       <c r="A248" s="20"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" ht="14.25" spans="1:1">
       <c r="A249" s="20"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" ht="14.25" spans="1:1">
       <c r="A250" s="20"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" ht="14.25" spans="1:1">
       <c r="A251" s="20"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" ht="14.25" spans="1:1">
       <c r="A252" s="20"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" ht="14.25" spans="1:1">
       <c r="A253" s="20"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" ht="14.25" spans="1:1">
       <c r="A254" s="20"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" ht="14.25" spans="1:1">
       <c r="A255" s="20"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" ht="14.25" spans="1:1">
       <c r="A256" s="20"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" ht="14.25" spans="1:1">
       <c r="A257" s="20"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" ht="14.25" spans="1:1">
       <c r="A258" s="20"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" ht="14.25" spans="1:1">
       <c r="A259" s="20"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" ht="14.25" spans="1:1">
       <c r="A260" s="20"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" ht="14.25" spans="1:1">
       <c r="A261" s="20"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" ht="14.25" spans="1:1">
       <c r="A262" s="20"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" ht="14.25" spans="1:1">
       <c r="A263" s="20"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" ht="14.25" spans="1:1">
       <c r="A264" s="20"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="14.25" spans="1:1">
       <c r="A265" s="20"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" ht="14.25" spans="1:1">
       <c r="A266" s="20"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" ht="14.25" spans="1:1">
       <c r="A267" s="20"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" ht="14.25" spans="1:1">
       <c r="A268" s="20"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" ht="14.25" spans="1:1">
       <c r="A269" s="20"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" ht="14.25" spans="1:1">
       <c r="A270" s="20"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" ht="14.25" spans="1:1">
       <c r="A271" s="20"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" ht="14.25" spans="1:1">
       <c r="A272" s="20"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" ht="14.25" spans="1:1">
       <c r="A273" s="20"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" ht="14.25" spans="1:1">
       <c r="A274" s="20"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" ht="14.25" spans="1:1">
       <c r="A275" s="20"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" ht="14.25" spans="1:1">
       <c r="A276" s="20"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" ht="14.25" spans="1:1">
       <c r="A277" s="20"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" ht="14.25" spans="1:1">
       <c r="A278" s="20"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" ht="14.25" spans="1:1">
       <c r="A279" s="20"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" ht="14.25" spans="1:1">
       <c r="A280" s="20"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" ht="14.25" spans="1:1">
       <c r="A281" s="20"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" ht="14.25" spans="1:1">
       <c r="A282" s="20"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" ht="14.25" spans="1:1">
       <c r="A283" s="20"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" ht="14.25" spans="1:1">
       <c r="A284" s="20"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="14.25" spans="1:1">
       <c r="A285" s="20"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="14.25" spans="1:1">
       <c r="A286" s="20"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" ht="14.25" spans="1:1">
       <c r="A287" s="20"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" ht="14.25" spans="1:1">
       <c r="A288" s="20"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" ht="14.25" spans="1:1">
       <c r="A289" s="20"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" ht="14.25" spans="1:1">
       <c r="A290" s="20"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" ht="14.25" spans="1:1">
       <c r="A291" s="20"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" ht="14.25" spans="1:1">
       <c r="A292" s="20"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" ht="14.25" spans="1:1">
       <c r="A293" s="20"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" ht="14.25" spans="1:1">
       <c r="A294" s="20"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" ht="14.25" spans="1:1">
       <c r="A295" s="20"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" ht="14.25" spans="1:1">
       <c r="A296" s="20"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" ht="14.25" spans="1:1">
       <c r="A297" s="20"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" ht="14.25" spans="1:1">
       <c r="A298" s="20"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" ht="14.25" spans="1:1">
       <c r="A299" s="20"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" ht="14.25" spans="1:1">
       <c r="A300" s="20"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" ht="14.25" spans="1:1">
       <c r="A301" s="20"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" ht="14.25" spans="1:1">
       <c r="A302" s="20"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" ht="14.25" spans="1:1">
       <c r="A303" s="20"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" ht="14.25" spans="1:1">
       <c r="A304" s="20"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" ht="14.25" spans="1:1">
       <c r="A305" s="20"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" ht="14.25" spans="1:1">
       <c r="A306" s="20"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" ht="14.25" spans="1:1">
       <c r="A307" s="20"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" ht="14.25" spans="1:1">
       <c r="A308" s="20"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" ht="14.25" spans="1:1">
       <c r="A309" s="20"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" ht="14.25" spans="1:1">
       <c r="A310" s="20"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" ht="14.25" spans="1:1">
       <c r="A311" s="20"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" ht="14.25" spans="1:1">
       <c r="A312" s="20"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" ht="14.25" spans="1:1">
       <c r="A313" s="20"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" ht="14.25" spans="1:1">
       <c r="A314" s="20"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" ht="14.25" spans="1:1">
       <c r="A315" s="20"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" ht="14.25" spans="1:1">
       <c r="A316" s="20"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" ht="14.25" spans="1:1">
       <c r="A317" s="20"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" ht="14.25" spans="1:1">
       <c r="A318" s="20"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" ht="14.25" spans="1:1">
       <c r="A319" s="20"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" ht="14.25" spans="1:1">
       <c r="A320" s="20"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" ht="14.25" spans="1:1">
       <c r="A321" s="20"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" ht="14.25" spans="1:1">
       <c r="A322" s="20"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" ht="14.25" spans="1:1">
       <c r="A323" s="20"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" ht="14.25" spans="1:1">
       <c r="A324" s="20"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" ht="14.25" spans="1:1">
       <c r="A325" s="20"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" ht="14.25" spans="1:1">
       <c r="A326" s="20"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" ht="14.25" spans="1:1">
       <c r="A327" s="20"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" ht="14.25" spans="1:1">
       <c r="A328" s="20"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" ht="14.25" spans="1:1">
       <c r="A329" s="20"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" ht="14.25" spans="1:1">
       <c r="A330" s="20"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" ht="14.25" spans="1:1">
       <c r="A331" s="20"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" ht="14.25" spans="1:1">
       <c r="A332" s="20"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" ht="14.25" spans="1:1">
       <c r="A333" s="20"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" ht="14.25" spans="1:1">
       <c r="A334" s="20"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" ht="14.25" spans="1:1">
       <c r="A335" s="20"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" ht="14.25" spans="1:1">
       <c r="A336" s="20"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" ht="14.25" spans="1:1">
       <c r="A337" s="20"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" ht="14.25" spans="1:1">
       <c r="A338" s="20"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" ht="14.25" spans="1:1">
       <c r="A339" s="20"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" ht="14.25" spans="1:1">
       <c r="A340" s="20"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" ht="14.25" spans="1:1">
       <c r="A341" s="20"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" ht="14.25" spans="1:1">
       <c r="A342" s="20"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" ht="14.25" spans="1:1">
       <c r="A343" s="20"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" ht="14.25" spans="1:1">
       <c r="A344" s="20"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" ht="14.25" spans="1:1">
       <c r="A345" s="20"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" ht="14.25" spans="1:1">
       <c r="A346" s="20"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" ht="14.25" spans="1:1">
       <c r="A347" s="20"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" ht="14.25" spans="1:1">
       <c r="A348" s="20"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" ht="14.25" spans="1:1">
       <c r="A349" s="20"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" ht="14.25" spans="1:1">
       <c r="A350" s="20"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" ht="14.25" spans="1:1">
       <c r="A351" s="20"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" ht="14.25" spans="1:1">
       <c r="A352" s="20"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" ht="14.25" spans="1:1">
       <c r="A353" s="20"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" ht="14.25" spans="1:1">
       <c r="A354" s="20"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" ht="14.25" spans="1:1">
       <c r="A355" s="20"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" ht="14.25" spans="1:1">
       <c r="A356" s="20"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" ht="14.25" spans="1:1">
       <c r="A357" s="20"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" ht="14.25" spans="1:1">
       <c r="A358" s="20"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" ht="14.25" spans="1:1">
       <c r="A359" s="20"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" ht="14.25" spans="1:1">
       <c r="A360" s="20"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" ht="14.25" spans="1:1">
       <c r="A361" s="20"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" ht="14.25" spans="1:1">
       <c r="A362" s="20"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" ht="14.25" spans="1:1">
       <c r="A363" s="20"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" ht="14.25" spans="1:1">
       <c r="A364" s="20"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" ht="14.25" spans="1:1">
       <c r="A365" s="20"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.25" spans="1:1">
       <c r="A366" s="20"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.25" spans="1:1">
       <c r="A367" s="20"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" ht="14.25" spans="1:1">
       <c r="A368" s="20"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" ht="14.25" spans="1:1">
       <c r="A369" s="20"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" ht="14.25" spans="1:1">
       <c r="A370" s="20"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" ht="14.25" spans="1:1">
       <c r="A371" s="20"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" ht="14.25" spans="1:1">
       <c r="A372" s="20"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" ht="14.25" spans="1:1">
       <c r="A373" s="20"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" ht="14.25" spans="1:1">
       <c r="A374" s="20"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" ht="14.25" spans="1:1">
       <c r="A375" s="20"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" ht="14.25" spans="1:1">
       <c r="A376" s="20"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" ht="14.25" spans="1:1">
       <c r="A377" s="20"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" ht="14.25" spans="1:1">
       <c r="A378" s="20"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" ht="14.25" spans="1:1">
       <c r="A379" s="20"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" ht="14.25" spans="1:1">
       <c r="A380" s="20"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" ht="14.25" spans="1:1">
       <c r="A381" s="20"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" ht="14.25" spans="1:1">
       <c r="A382" s="20"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" ht="14.25" spans="1:1">
       <c r="A383" s="20"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" ht="14.25" spans="1:1">
       <c r="A384" s="20"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" ht="14.25" spans="1:1">
       <c r="A385" s="20"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" ht="14.25" spans="1:1">
       <c r="A386" s="20"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" ht="14.25" spans="1:1">
       <c r="A387" s="20"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" ht="14.25" spans="1:1">
       <c r="A388" s="20"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" ht="14.25" spans="1:1">
       <c r="A389" s="20"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" ht="14.25" spans="1:1">
       <c r="A390" s="20"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" ht="14.25" spans="1:1">
       <c r="A391" s="20"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" ht="14.25" spans="1:1">
       <c r="A392" s="20"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" ht="14.25" spans="1:1">
       <c r="A393" s="20"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" ht="14.25" spans="1:1">
       <c r="A394" s="20"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" ht="14.25" spans="1:1">
       <c r="A395" s="20"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" ht="14.25" spans="1:1">
       <c r="A396" s="20"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" ht="14.25" spans="1:1">
       <c r="A397" s="20"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" ht="14.25" spans="1:1">
       <c r="A398" s="20"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" ht="14.25" spans="1:1">
       <c r="A399" s="20"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" ht="14.25" spans="1:1">
       <c r="A400" s="20"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" ht="14.25" spans="1:1">
       <c r="A401" s="20"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" ht="14.25" spans="1:1">
       <c r="A402" s="20"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" ht="14.25" spans="1:1">
       <c r="A403" s="20"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" ht="14.25" spans="1:1">
       <c r="A404" s="20"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" ht="14.25" spans="1:1">
       <c r="A405" s="20"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" ht="14.25" spans="1:1">
       <c r="A406" s="20"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" ht="14.25" spans="1:1">
       <c r="A407" s="20"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" ht="14.25" spans="1:1">
       <c r="A408" s="20"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" ht="14.25" spans="1:1">
       <c r="A409" s="20"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" ht="14.25" spans="1:1">
       <c r="A410" s="20"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" ht="14.25" spans="1:1">
       <c r="A411" s="20"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" ht="14.25" spans="1:1">
       <c r="A412" s="20"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" ht="14.25" spans="1:1">
       <c r="A413" s="20"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" ht="14.25" spans="1:1">
       <c r="A414" s="20"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" ht="14.25" spans="1:1">
       <c r="A415" s="20"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" ht="14.25" spans="1:1">
       <c r="A416" s="20"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" ht="14.25" spans="1:1">
       <c r="A417" s="20"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" ht="14.25" spans="1:1">
       <c r="A418" s="20"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" ht="14.25" spans="1:1">
       <c r="A419" s="20"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" ht="14.25" spans="1:1">
       <c r="A420" s="20"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" ht="14.25" spans="1:1">
       <c r="A421" s="20"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" ht="14.25" spans="1:1">
       <c r="A422" s="20"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" ht="14.25" spans="1:1">
       <c r="A423" s="20"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" ht="14.25" spans="1:1">
       <c r="A424" s="20"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" ht="14.25" spans="1:1">
       <c r="A425" s="20"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" ht="14.25" spans="1:1">
       <c r="A426" s="20"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" ht="14.25" spans="1:1">
       <c r="A427" s="20"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" ht="14.25" spans="1:1">
       <c r="A428" s="20"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" ht="14.25" spans="1:1">
       <c r="A429" s="20"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" ht="14.25" spans="1:1">
       <c r="A430" s="20"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" ht="14.25" spans="1:1">
       <c r="A431" s="20"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" ht="14.25" spans="1:1">
       <c r="A432" s="20"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" ht="14.25" spans="1:1">
       <c r="A433" s="20"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" ht="14.25" spans="1:1">
       <c r="A434" s="20"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" ht="14.25" spans="1:1">
       <c r="A435" s="20"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" ht="14.25" spans="1:1">
       <c r="A436" s="20"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" ht="14.25" spans="1:1">
       <c r="A437" s="20"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" ht="14.25" spans="1:1">
       <c r="A438" s="20"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" ht="14.25" spans="1:1">
       <c r="A439" s="20"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" ht="14.25" spans="1:1">
       <c r="A440" s="20"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" ht="14.25" spans="1:1">
       <c r="A441" s="20"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" ht="14.25" spans="1:1">
       <c r="A442" s="20"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" ht="14.25" spans="1:1">
       <c r="A443" s="20"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" ht="14.25" spans="1:1">
       <c r="A444" s="20"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" ht="14.25" spans="1:1">
       <c r="A445" s="20"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" ht="14.25" spans="1:1">
       <c r="A446" s="20"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" ht="14.25" spans="1:1">
       <c r="A447" s="20"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" ht="14.25" spans="1:1">
       <c r="A448" s="20"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" ht="14.25" spans="1:1">
       <c r="A449" s="20"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" ht="14.25" spans="1:1">
       <c r="A450" s="20"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" ht="14.25" spans="1:1">
       <c r="A451" s="20"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" ht="14.25" spans="1:1">
       <c r="A452" s="20"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" ht="14.25" spans="1:1">
       <c r="A453" s="20"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" ht="14.25" spans="1:1">
       <c r="A454" s="20"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" ht="14.25" spans="1:1">
       <c r="A455" s="20"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" ht="14.25" spans="1:1">
       <c r="A456" s="20"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" ht="14.25" spans="1:1">
       <c r="A457" s="20"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" ht="14.25" spans="1:1">
       <c r="A458" s="20"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" ht="14.25" spans="1:1">
       <c r="A459" s="20"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" ht="14.25" spans="1:1">
       <c r="A460" s="20"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" ht="14.25" spans="1:1">
       <c r="A461" s="20"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" ht="14.25" spans="1:1">
       <c r="A462" s="20"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" ht="14.25" spans="1:1">
       <c r="A463" s="20"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" ht="14.25" spans="1:1">
       <c r="A464" s="20"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" ht="14.25" spans="1:1">
       <c r="A465" s="20"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" ht="14.25" spans="1:1">
       <c r="A466" s="20"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" ht="14.25" spans="1:1">
       <c r="A467" s="20"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" ht="14.25" spans="1:1">
       <c r="A468" s="20"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" ht="14.25" spans="1:1">
       <c r="A469" s="20"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" ht="14.25" spans="1:1">
       <c r="A470" s="20"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" ht="14.25" spans="1:1">
       <c r="A471" s="20"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" ht="14.25" spans="1:1">
       <c r="A472" s="20"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.25" spans="1:1">
       <c r="A473" s="20"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.25" spans="1:1">
       <c r="A474" s="20"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.25" spans="1:1">
       <c r="A475" s="20"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="20"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="20"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.25" spans="1:1">
       <c r="A478" s="20"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.25" spans="1:1">
       <c r="A479" s="20"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.25" spans="1:1">
       <c r="A480" s="20"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.25" spans="1:1">
       <c r="A481" s="20"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.25" spans="1:1">
       <c r="A482" s="20"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.25" spans="1:1">
       <c r="A483" s="20"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.25" spans="1:1">
       <c r="A484" s="20"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.25" spans="1:1">
       <c r="A485" s="20"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.25" spans="1:1">
       <c r="A486" s="20"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.25" spans="1:1">
       <c r="A487" s="20"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.25" spans="1:1">
       <c r="A488" s="20"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.25" spans="1:1">
       <c r="A489" s="20"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.25" spans="1:1">
       <c r="A490" s="20"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.25" spans="1:1">
       <c r="A491" s="20"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.25" spans="1:1">
       <c r="A492" s="20"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.25" spans="1:1">
       <c r="A493" s="20"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.25" spans="1:1">
       <c r="A494" s="20"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.25" spans="1:1">
       <c r="A495" s="20"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.25" spans="1:1">
       <c r="A496" s="20"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.25" spans="1:1">
       <c r="A497" s="20"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.25" spans="1:1">
       <c r="A498" s="20"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.25" spans="1:1">
       <c r="A499" s="20"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.25" spans="1:1">
       <c r="A500" s="20"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.25" spans="1:1">
       <c r="A501" s="20"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.25" spans="1:1">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.25" spans="1:1">
       <c r="A503" s="20"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.25" spans="1:1">
       <c r="A504" s="20"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.25" spans="1:1">
       <c r="A505" s="20"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.25" spans="1:1">
       <c r="A506" s="20"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.25" spans="1:1">
       <c r="A507" s="20"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.25" spans="1:1">
       <c r="A508" s="20"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.25" spans="1:1">
       <c r="A509" s="20"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.25" spans="1:1">
       <c r="A510" s="20"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.25" spans="1:1">
       <c r="A511" s="20"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.25" spans="1:1">
       <c r="A512" s="20"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.25" spans="1:1">
       <c r="A513" s="20"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.25" spans="1:1">
       <c r="A514" s="20"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.25" spans="1:1">
       <c r="A515" s="20"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.25" spans="1:1">
       <c r="A516" s="20"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.25" spans="1:1">
       <c r="A517" s="20"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.25" spans="1:1">
       <c r="A518" s="20"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.25" spans="1:1">
       <c r="A519" s="20"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.25" spans="1:1">
       <c r="A520" s="20"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.25" spans="1:1">
       <c r="A521" s="20"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.25" spans="1:1">
       <c r="A522" s="20"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.25" spans="1:1">
       <c r="A523" s="20"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.25" spans="1:1">
       <c r="A524" s="20"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.25" spans="1:1">
       <c r="A525" s="20"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.25" spans="1:1">
       <c r="A526" s="20"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.25" spans="1:1">
       <c r="A527" s="20"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.25" spans="1:1">
       <c r="A528" s="20"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.25" spans="1:1">
       <c r="A529" s="20"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.25" spans="1:1">
       <c r="A530" s="20"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.25" spans="1:1">
       <c r="A531" s="20"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.25" spans="1:1">
       <c r="A532" s="20"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.25" spans="1:1">
       <c r="A533" s="20"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.25" spans="1:1">
       <c r="A534" s="20"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.25" spans="1:1">
       <c r="A535" s="20"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.25" spans="1:1">
       <c r="A536" s="20"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.25" spans="1:1">
       <c r="A537" s="20"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.25" spans="1:1">
       <c r="A538" s="20"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.25" spans="1:1">
       <c r="A539" s="20"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.25" spans="1:1">
       <c r="A540" s="20"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.25" spans="1:1">
       <c r="A541" s="20"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.25" spans="1:1">
       <c r="A542" s="20"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.25" spans="1:1">
       <c r="A543" s="20"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.25" spans="1:1">
       <c r="A544" s="20"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.25" spans="1:1">
       <c r="A545" s="20"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.25" spans="1:1">
       <c r="A546" s="20"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.25" spans="1:1">
       <c r="A547" s="20"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.25" spans="1:1">
       <c r="A548" s="20"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.25" spans="1:1">
       <c r="A549" s="20"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.25" spans="1:1">
       <c r="A550" s="20"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.25" spans="1:1">
       <c r="A551" s="20"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.25" spans="1:1">
       <c r="A552" s="20"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.25" spans="1:1">
       <c r="A553" s="20"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.25" spans="1:1">
       <c r="A554" s="20"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.25" spans="1:1">
       <c r="A555" s="20"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.25" spans="1:1">
       <c r="A556" s="20"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.25" spans="1:1">
       <c r="A557" s="20"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.25" spans="1:1">
       <c r="A558" s="20"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.25" spans="1:1">
       <c r="A559" s="20"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.25" spans="1:1">
       <c r="A560" s="20"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.25" spans="1:1">
       <c r="A561" s="20"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.25" spans="1:1">
       <c r="A562" s="20"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.25" spans="1:1">
       <c r="A563" s="20"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.25" spans="1:1">
       <c r="A564" s="20"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.25" spans="1:1">
       <c r="A565" s="20"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.25" spans="1:1">
       <c r="A566" s="20"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.25" spans="1:1">
       <c r="A567" s="20"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.25" spans="1:1">
       <c r="A568" s="20"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.25" spans="1:1">
       <c r="A569" s="20"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.25" spans="1:1">
       <c r="A570" s="20"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.25" spans="1:1">
       <c r="A571" s="20"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.25" spans="1:1">
       <c r="A572" s="20"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.25" spans="1:1">
       <c r="A573" s="20"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.25" spans="1:1">
       <c r="A574" s="20"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.25" spans="1:1">
       <c r="A575" s="20"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.25" spans="1:1">
       <c r="A576" s="20"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.25" spans="1:1">
       <c r="A577" s="20"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.25" spans="1:1">
       <c r="A578" s="20"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.25" spans="1:1">
       <c r="A579" s="20"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.25" spans="1:1">
       <c r="A580" s="20"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.25" spans="1:1">
       <c r="A581" s="20"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.25" spans="1:1">
       <c r="A582" s="20"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.25" spans="1:1">
       <c r="A583" s="20"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.25" spans="1:1">
       <c r="A584" s="20"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.25" spans="1:1">
       <c r="A585" s="20"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.25" spans="1:1">
       <c r="A586" s="20"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.25" spans="1:1">
       <c r="A587" s="20"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.25" spans="1:1">
       <c r="A588" s="20"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.25" spans="1:1">
       <c r="A589" s="20"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.25" spans="1:1">
       <c r="A590" s="20"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.25" spans="1:1">
       <c r="A591" s="20"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.25" spans="1:1">
       <c r="A592" s="20"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.25" spans="1:1">
       <c r="A593" s="20"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.25" spans="1:1">
       <c r="A594" s="20"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.25" spans="1:1">
       <c r="A595" s="20"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.25" spans="1:1">
       <c r="A596" s="20"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.25" spans="1:1">
       <c r="A597" s="20"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.25" spans="1:1">
       <c r="A598" s="20"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.25" spans="1:1">
       <c r="A599" s="20"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.25" spans="1:1">
       <c r="A600" s="20"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.25" spans="1:1">
       <c r="A601" s="20"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.25" spans="1:1">
       <c r="A602" s="20"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.25" spans="1:1">
       <c r="A603" s="20"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.25" spans="1:1">
       <c r="A604" s="20"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.25" spans="1:1">
       <c r="A605" s="20"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.25" spans="1:1">
       <c r="A606" s="20"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.25" spans="1:1">
       <c r="A607" s="20"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.25" spans="1:1">
       <c r="A608" s="20"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.25" spans="1:1">
       <c r="A609" s="20"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.25" spans="1:1">
       <c r="A610" s="20"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.25" spans="1:1">
       <c r="A611" s="20"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.25" spans="1:1">
       <c r="A612" s="20"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.25" spans="1:1">
       <c r="A613" s="20"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.25" spans="1:1">
       <c r="A614" s="20"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.25" spans="1:1">
       <c r="A615" s="20"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.25" spans="1:1">
       <c r="A616" s="20"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.25" spans="1:1">
       <c r="A617" s="20"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.25" spans="1:1">
       <c r="A618" s="20"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.25" spans="1:1">
       <c r="A619" s="20"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.25" spans="1:1">
       <c r="A620" s="20"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.25" spans="1:1">
       <c r="A621" s="20"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.25" spans="1:1">
       <c r="A622" s="20"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.25" spans="1:1">
       <c r="A623" s="20"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.25" spans="1:1">
       <c r="A624" s="20"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.25" spans="1:1">
       <c r="A625" s="20"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.25" spans="1:1">
       <c r="A626" s="20"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.25" spans="1:1">
       <c r="A627" s="20"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.25" spans="1:1">
       <c r="A628" s="20"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.25" spans="1:1">
       <c r="A629" s="20"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.25" spans="1:1">
       <c r="A630" s="20"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.25" spans="1:1">
       <c r="A631" s="20"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.25" spans="1:1">
       <c r="A632" s="20"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.25" spans="1:1">
       <c r="A633" s="20"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.25" spans="1:1">
       <c r="A634" s="20"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.25" spans="1:1">
       <c r="A635" s="20"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.25" spans="1:1">
       <c r="A636" s="20"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.25" spans="1:1">
       <c r="A637" s="20"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.25" spans="1:1">
       <c r="A638" s="20"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.25" spans="1:1">
       <c r="A639" s="20"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.25" spans="1:1">
       <c r="A640" s="20"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.25" spans="1:1">
       <c r="A641" s="20"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.25" spans="1:1">
       <c r="A642" s="20"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.25" spans="1:1">
       <c r="A643" s="20"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.25" spans="1:1">
       <c r="A644" s="20"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.25" spans="1:1">
       <c r="A645" s="20"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.25" spans="1:1">
       <c r="A646" s="20"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.25" spans="1:1">
       <c r="A647" s="20"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.25" spans="1:1">
       <c r="A648" s="20"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.25" spans="1:1">
       <c r="A649" s="20"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.25" spans="1:1">
       <c r="A650" s="20"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.25" spans="1:1">
       <c r="A651" s="20"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.25" spans="1:1">
       <c r="A652" s="20"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.25" spans="1:1">
       <c r="A653" s="20"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.25" spans="1:1">
       <c r="A654" s="20"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.25" spans="1:1">
       <c r="A655" s="20"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.25" spans="1:1">
       <c r="A656" s="20"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.25" spans="1:1">
       <c r="A657" s="20"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.25" spans="1:1">
       <c r="A658" s="20"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.25" spans="1:1">
       <c r="A659" s="20"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.25" spans="1:1">
       <c r="A660" s="20"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.25" spans="1:1">
       <c r="A661" s="20"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.25" spans="1:1">
       <c r="A662" s="20"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.25" spans="1:1">
       <c r="A663" s="20"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.25" spans="1:1">
       <c r="A664" s="20"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.25" spans="1:1">
       <c r="A665" s="20"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.25" spans="1:1">
       <c r="A666" s="20"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.25" spans="1:1">
       <c r="A667" s="20"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.25" spans="1:1">
       <c r="A668" s="20"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.25" spans="1:1">
       <c r="A669" s="20"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.25" spans="1:1">
       <c r="A670" s="20"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.25" spans="1:1">
       <c r="A671" s="20"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.25" spans="1:1">
       <c r="A672" s="20"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.25" spans="1:1">
       <c r="A673" s="20"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.25" spans="1:1">
       <c r="A674" s="20"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.25" spans="1:1">
       <c r="A675" s="20"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.25" spans="1:1">
       <c r="A676" s="20"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.25" spans="1:1">
       <c r="A677" s="20"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.25" spans="1:1">
       <c r="A678" s="20"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.25" spans="1:1">
       <c r="A679" s="20"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.25" spans="1:1">
       <c r="A680" s="20"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.25" spans="1:1">
       <c r="A681" s="20"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.25" spans="1:1">
       <c r="A682" s="20"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.25" spans="1:1">
       <c r="A683" s="20"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.25" spans="1:1">
       <c r="A684" s="20"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.25" spans="1:1">
       <c r="A685" s="20"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.25" spans="1:1">
       <c r="A686" s="20"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.25" spans="1:1">
       <c r="A687" s="20"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.25" spans="1:1">
       <c r="A688" s="20"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.25" spans="1:1">
       <c r="A689" s="20"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.25" spans="1:1">
       <c r="A690" s="20"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.25" spans="1:1">
       <c r="A691" s="20"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.25" spans="1:1">
       <c r="A692" s="20"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.25" spans="1:1">
       <c r="A693" s="20"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.25" spans="1:1">
       <c r="A694" s="20"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.25" spans="1:1">
       <c r="A695" s="20"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.25" spans="1:1">
       <c r="A696" s="20"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.25" spans="1:1">
       <c r="A697" s="20"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.25" spans="1:1">
       <c r="A698" s="20"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.25" spans="1:1">
       <c r="A699" s="20"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.25" spans="1:1">
       <c r="A700" s="20"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.25" spans="1:1">
       <c r="A701" s="20"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.25" spans="1:1">
       <c r="A702" s="20"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.25" spans="1:1">
       <c r="A703" s="20"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.25" spans="1:1">
       <c r="A704" s="20"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.25" spans="1:1">
       <c r="A705" s="20"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.25" spans="1:1">
       <c r="A706" s="20"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.25" spans="1:1">
       <c r="A707" s="20"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.25" spans="1:1">
       <c r="A708" s="20"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.25" spans="1:1">
       <c r="A709" s="20"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.25" spans="1:1">
       <c r="A710" s="20"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.25" spans="1:1">
       <c r="A711" s="20"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.25" spans="1:1">
       <c r="A712" s="20"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.25" spans="1:1">
       <c r="A713" s="20"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.25" spans="1:1">
       <c r="A714" s="20"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.25" spans="1:1">
       <c r="A715" s="20"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.25" spans="1:1">
       <c r="A716" s="20"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.25" spans="1:1">
       <c r="A717" s="20"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.25" spans="1:1">
       <c r="A718" s="20"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.25" spans="1:1">
       <c r="A719" s="20"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.25" spans="1:1">
       <c r="A720" s="20"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.25" spans="1:1">
       <c r="A721" s="20"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.25" spans="1:1">
       <c r="A722" s="20"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.25" spans="1:1">
       <c r="A723" s="20"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.25" spans="1:1">
       <c r="A724" s="20"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.25" spans="1:1">
       <c r="A725" s="20"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.25" spans="1:1">
       <c r="A726" s="20"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.25" spans="1:1">
       <c r="A727" s="20"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.25" spans="1:1">
       <c r="A728" s="20"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.25" spans="1:1">
       <c r="A729" s="20"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.25" spans="1:1">
       <c r="A730" s="20"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.25" spans="1:1">
       <c r="A731" s="20"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.25" spans="1:1">
       <c r="A732" s="20"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.25" spans="1:1">
       <c r="A733" s="20"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.25" spans="1:1">
       <c r="A734" s="20"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.25" spans="1:1">
       <c r="A735" s="20"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.25" spans="1:1">
       <c r="A736" s="20"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.25" spans="1:1">
       <c r="A737" s="20"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.25" spans="1:1">
       <c r="A738" s="20"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.25" spans="1:1">
       <c r="A739" s="20"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.25" spans="1:1">
       <c r="A740" s="20"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.25" spans="1:1">
       <c r="A741" s="20"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.25" spans="1:1">
       <c r="A742" s="20"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.25" spans="1:1">
       <c r="A743" s="20"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.25" spans="1:1">
       <c r="A744" s="20"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.25" spans="1:1">
       <c r="A745" s="20"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.25" spans="1:1">
       <c r="A746" s="20"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.25" spans="1:1">
       <c r="A747" s="20"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.25" spans="1:1">
       <c r="A748" s="20"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.25" spans="1:1">
       <c r="A749" s="20"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.25" spans="1:1">
       <c r="A750" s="20"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.25" spans="1:1">
       <c r="A751" s="20"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.25" spans="1:1">
       <c r="A752" s="20"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.25" spans="1:1">
       <c r="A753" s="20"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.25" spans="1:1">
       <c r="A754" s="20"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.25" spans="1:1">
       <c r="A755" s="20"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.25" spans="1:1">
       <c r="A756" s="20"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.25" spans="1:1">
       <c r="A757" s="20"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.25" spans="1:1">
       <c r="A758" s="20"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.25" spans="1:1">
       <c r="A759" s="20"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.25" spans="1:1">
       <c r="A760" s="20"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.25" spans="1:1">
       <c r="A761" s="20"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="20"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17544" windowHeight="7512"/>
+    <workbookView windowWidth="21690" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="264">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -369,13 +369,16 @@
     <t>QQ：393422703</t>
   </si>
   <si>
-    <t>未来我准备为你而来(萌莉拖鞋)</t>
+    <t>润福阁形象店（原萌莉拖鞋）</t>
   </si>
   <si>
     <t>vx:xiaozhu89888</t>
   </si>
   <si>
-    <t>5-16其他团队活动到期，再次联系</t>
+    <t>报名两款商品</t>
+  </si>
+  <si>
+    <t>19-05-17~19-06-20</t>
   </si>
   <si>
     <t>吻肤kiskin</t>
@@ -772,6 +775,54 @@
   </si>
   <si>
     <t xml:space="preserve">Q:240071668  </t>
+  </si>
+  <si>
+    <t>派格希旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2810415398</t>
+  </si>
+  <si>
+    <t>MASOOMAKE 玛速主义潮流</t>
+  </si>
+  <si>
+    <t>Q:402960650</t>
+  </si>
+  <si>
+    <t>卓诗尼笑好专卖店</t>
+  </si>
+  <si>
+    <t>Q:792505071</t>
+  </si>
+  <si>
+    <t>乔治家女鞋</t>
+  </si>
+  <si>
+    <t>Q:577740782</t>
+  </si>
+  <si>
+    <t>晚雨 定制女鞋</t>
+  </si>
+  <si>
+    <t>Q:30847591</t>
+  </si>
+  <si>
+    <t>戈美其女鞋官方店</t>
+  </si>
+  <si>
+    <t>Q:597450074</t>
+  </si>
+  <si>
+    <t>8899美鞋美铺</t>
+  </si>
+  <si>
+    <t>Q:148131349</t>
+  </si>
+  <si>
+    <t>牛夫人的理想国</t>
+  </si>
+  <si>
+    <t>问了佣金比例，有谈的机会</t>
   </si>
 </sst>
 </file>
@@ -779,10 +830,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -808,7 +859,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -894,7 +945,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="5"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
     </font>
@@ -906,15 +957,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,8 +977,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,7 +1039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,7 +1047,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,47 +1069,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,16 +1092,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,13 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,19 +1145,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,25 +1205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,37 +1223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,13 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,49 +1277,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,6 +1306,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1269,30 +1329,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1358,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1363,10 +1414,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,133 +1426,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,8 +1635,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1908,15 +1959,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
   </cols>
@@ -1938,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +2011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2023,7 +2074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2037,7 +2088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -2059,7 +2110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -2070,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -2081,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -2106,7 +2157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2117,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2142,7 +2193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -2150,7 +2201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2180,7 +2231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:2">
+    <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -2188,7 +2239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2196,7 +2247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -2206,7 +2257,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -2214,7 +2265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
@@ -2228,7 +2279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -2239,7 +2290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -2247,7 +2298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>75</v>
       </c>
@@ -2255,7 +2306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>77</v>
       </c>
@@ -2263,7 +2314,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2271,7 +2322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -2279,7 +2330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>83</v>
       </c>
@@ -2287,7 +2338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
@@ -2295,7 +2346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A37" s="20" t="s">
         <v>87</v>
       </c>
@@ -2307,7 +2358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
@@ -2315,7 +2366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>92</v>
       </c>
@@ -2323,7 +2374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
@@ -2331,7 +2382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>96</v>
       </c>
@@ -2339,7 +2390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
@@ -2347,7 +2398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="6" t="s">
         <v>100</v>
       </c>
@@ -2355,7 +2406,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2363,7 +2414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="21" t="s">
         <v>104</v>
       </c>
@@ -2371,7 +2422,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="6" t="s">
         <v>106</v>
       </c>
@@ -2379,7 +2430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="6" t="s">
         <v>108</v>
       </c>
@@ -2387,7 +2438,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="21" t="s">
         <v>110</v>
       </c>
@@ -2395,2491 +2446,2533 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:5">
-      <c r="A49" s="22" t="s">
+    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:5">
-      <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="D52" s="10" t="s">
+    </row>
+    <row r="52" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A52" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="23"/>
+      <c r="D52" s="23" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="1:2">
       <c r="A77" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="1:2">
       <c r="A80" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:2">
       <c r="A87" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" spans="1:2">
       <c r="A90" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" spans="1:2">
       <c r="A98" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" spans="1:2">
       <c r="A105" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:2">
       <c r="A108" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:2">
       <c r="A110" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" spans="1:2">
       <c r="A111" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" s="4" customFormat="1" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A112" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-    </row>
-    <row r="113" spans="1:2">
+        <v>243</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:2">
       <c r="A113" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" spans="1:2">
       <c r="A114" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="21"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="21"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="21"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="21"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="21"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="21"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="21"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="21"/>
-    </row>
-    <row r="123" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" spans="1:2">
+      <c r="A115" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="1:2">
+      <c r="A116" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:2">
+      <c r="A117" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="1:2">
+      <c r="A118" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" spans="1:2">
+      <c r="A119" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="1:2">
+      <c r="A120" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="1:2">
+      <c r="A121" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" spans="1:4">
+      <c r="A122" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:1">
       <c r="A123" s="21"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" ht="14.25" spans="1:1">
       <c r="A124" s="21"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" ht="14.25" spans="1:1">
       <c r="A125" s="21"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" ht="14.25" spans="1:1">
       <c r="A126" s="21"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" ht="14.25" spans="1:1">
       <c r="A127" s="21"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" ht="14.25" spans="1:1">
       <c r="A128" s="21"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" ht="14.25" spans="1:1">
       <c r="A129" s="21"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" ht="14.25" spans="1:1">
       <c r="A130" s="21"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" ht="14.25" spans="1:1">
       <c r="A131" s="21"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" ht="14.25" spans="1:1">
       <c r="A132" s="21"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" ht="14.25" spans="1:1">
       <c r="A133" s="21"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" ht="14.25" spans="1:1">
       <c r="A134" s="21"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" ht="14.25" spans="1:1">
       <c r="A135" s="21"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" ht="14.25" spans="1:1">
       <c r="A136" s="21"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" ht="14.25" spans="1:1">
       <c r="A137" s="21"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" ht="14.25" spans="1:1">
       <c r="A138" s="21"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" ht="14.25" spans="1:1">
       <c r="A139" s="21"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" ht="14.25" spans="1:1">
       <c r="A140" s="21"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" ht="14.25" spans="1:1">
       <c r="A141" s="21"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" ht="14.25" spans="1:1">
       <c r="A142" s="21"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" ht="14.25" spans="1:1">
       <c r="A143" s="21"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" ht="14.25" spans="1:1">
       <c r="A144" s="21"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" ht="14.25" spans="1:1">
       <c r="A145" s="21"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" ht="14.25" spans="1:1">
       <c r="A146" s="21"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" ht="14.25" spans="1:1">
       <c r="A147" s="21"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" ht="14.25" spans="1:1">
       <c r="A148" s="21"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" ht="14.25" spans="1:1">
       <c r="A149" s="21"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" ht="14.25" spans="1:1">
       <c r="A150" s="21"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" ht="14.25" spans="1:1">
       <c r="A151" s="21"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" ht="14.25" spans="1:1">
       <c r="A152" s="21"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" ht="14.25" spans="1:1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" ht="14.25" spans="1:1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" ht="14.25" spans="1:1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" ht="14.25" spans="1:1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" ht="14.25" spans="1:1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" ht="14.25" spans="1:1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" ht="14.25" spans="1:1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" ht="14.25" spans="1:1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" ht="14.25" spans="1:1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" ht="14.25" spans="1:1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" ht="14.25" spans="1:1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" ht="14.25" spans="1:1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" ht="14.25" spans="1:1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" ht="14.25" spans="1:1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" ht="14.25" spans="1:1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" ht="14.25" spans="1:1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" ht="14.25" spans="1:1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" ht="14.25" spans="1:1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" ht="14.25" spans="1:1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" ht="14.25" spans="1:1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" ht="14.25" spans="1:1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" ht="14.25" spans="1:1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" ht="14.25" spans="1:1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" ht="14.25" spans="1:1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" ht="14.25" spans="1:1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" ht="14.25" spans="1:1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" ht="14.25" spans="1:1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" ht="14.25" spans="1:1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" ht="14.25" spans="1:1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" ht="14.25" spans="1:1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" ht="14.25" spans="1:1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" ht="14.25" spans="1:1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" ht="14.25" spans="1:1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" ht="14.25" spans="1:1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" ht="14.25" spans="1:1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" ht="14.25" spans="1:1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" ht="14.25" spans="1:1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" ht="14.25" spans="1:1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" ht="14.25" spans="1:1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" ht="14.25" spans="1:1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" ht="14.25" spans="1:1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" ht="14.25" spans="1:1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" ht="14.25" spans="1:1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" ht="14.25" spans="1:1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" ht="14.25" spans="1:1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" ht="14.25" spans="1:1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" ht="14.25" spans="1:1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" ht="14.25" spans="1:1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" ht="14.25" spans="1:1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" ht="14.25" spans="1:1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" ht="14.25" spans="1:1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" ht="14.25" spans="1:1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" ht="14.25" spans="1:1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" ht="14.25" spans="1:1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" ht="14.25" spans="1:1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" ht="14.25" spans="1:1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" ht="14.25" spans="1:1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" ht="14.25" spans="1:1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" ht="14.25" spans="1:1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" ht="14.25" spans="1:1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" ht="14.25" spans="1:1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" ht="14.25" spans="1:1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" ht="14.25" spans="1:1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" ht="14.25" spans="1:1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" ht="14.25" spans="1:1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" ht="14.25" spans="1:1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" ht="14.25" spans="1:1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" ht="14.25" spans="1:1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" ht="14.25" spans="1:1">
       <c r="A221" s="21"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" ht="14.25" spans="1:1">
       <c r="A222" s="21"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" ht="14.25" spans="1:1">
       <c r="A223" s="21"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" ht="14.25" spans="1:1">
       <c r="A224" s="21"/>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" ht="14.25" spans="1:1">
       <c r="A225" s="21"/>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" ht="14.25" spans="1:1">
       <c r="A226" s="21"/>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" ht="14.25" spans="1:1">
       <c r="A227" s="21"/>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" ht="14.25" spans="1:1">
       <c r="A228" s="21"/>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" ht="14.25" spans="1:1">
       <c r="A229" s="21"/>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" ht="14.25" spans="1:1">
       <c r="A230" s="21"/>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" ht="14.25" spans="1:1">
       <c r="A231" s="21"/>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" ht="14.25" spans="1:1">
       <c r="A232" s="21"/>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" ht="14.25" spans="1:1">
       <c r="A233" s="21"/>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" ht="14.25" spans="1:1">
       <c r="A234" s="21"/>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" ht="14.25" spans="1:1">
       <c r="A235" s="21"/>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" ht="14.25" spans="1:1">
       <c r="A236" s="21"/>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" ht="14.25" spans="1:1">
       <c r="A237" s="21"/>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" ht="14.25" spans="1:1">
       <c r="A238" s="21"/>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" ht="14.25" spans="1:1">
       <c r="A239" s="21"/>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" ht="14.25" spans="1:1">
       <c r="A240" s="21"/>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" ht="14.25" spans="1:1">
       <c r="A241" s="21"/>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" ht="14.25" spans="1:1">
       <c r="A242" s="21"/>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" ht="14.25" spans="1:1">
       <c r="A243" s="21"/>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" ht="14.25" spans="1:1">
       <c r="A244" s="21"/>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" ht="14.25" spans="1:1">
       <c r="A245" s="21"/>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" ht="14.25" spans="1:1">
       <c r="A246" s="21"/>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" ht="14.25" spans="1:1">
       <c r="A247" s="21"/>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" ht="14.25" spans="1:1">
       <c r="A248" s="21"/>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" ht="14.25" spans="1:1">
       <c r="A249" s="21"/>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" ht="14.25" spans="1:1">
       <c r="A250" s="21"/>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" ht="14.25" spans="1:1">
       <c r="A251" s="21"/>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" ht="14.25" spans="1:1">
       <c r="A252" s="21"/>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" ht="14.25" spans="1:1">
       <c r="A253" s="21"/>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" ht="14.25" spans="1:1">
       <c r="A254" s="21"/>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" ht="14.25" spans="1:1">
       <c r="A255" s="21"/>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" ht="14.25" spans="1:1">
       <c r="A256" s="21"/>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" ht="14.25" spans="1:1">
       <c r="A257" s="21"/>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" ht="14.25" spans="1:1">
       <c r="A258" s="21"/>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" ht="14.25" spans="1:1">
       <c r="A259" s="21"/>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" ht="14.25" spans="1:1">
       <c r="A260" s="21"/>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" ht="14.25" spans="1:1">
       <c r="A261" s="21"/>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" ht="14.25" spans="1:1">
       <c r="A262" s="21"/>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" ht="14.25" spans="1:1">
       <c r="A263" s="21"/>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" ht="14.25" spans="1:1">
       <c r="A264" s="21"/>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" ht="14.25" spans="1:1">
       <c r="A265" s="21"/>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" ht="14.25" spans="1:1">
       <c r="A266" s="21"/>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" ht="14.25" spans="1:1">
       <c r="A267" s="21"/>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" ht="14.25" spans="1:1">
       <c r="A268" s="21"/>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" ht="14.25" spans="1:1">
       <c r="A269" s="21"/>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" ht="14.25" spans="1:1">
       <c r="A270" s="21"/>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" ht="14.25" spans="1:1">
       <c r="A271" s="21"/>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" ht="14.25" spans="1:1">
       <c r="A272" s="21"/>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" ht="14.25" spans="1:1">
       <c r="A273" s="21"/>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" ht="14.25" spans="1:1">
       <c r="A274" s="21"/>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" ht="14.25" spans="1:1">
       <c r="A275" s="21"/>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" ht="14.25" spans="1:1">
       <c r="A276" s="21"/>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" ht="14.25" spans="1:1">
       <c r="A277" s="21"/>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" ht="14.25" spans="1:1">
       <c r="A278" s="21"/>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" ht="14.25" spans="1:1">
       <c r="A279" s="21"/>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" ht="14.25" spans="1:1">
       <c r="A280" s="21"/>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" ht="14.25" spans="1:1">
       <c r="A281" s="21"/>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" ht="14.25" spans="1:1">
       <c r="A282" s="21"/>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" ht="14.25" spans="1:1">
       <c r="A283" s="21"/>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" ht="14.25" spans="1:1">
       <c r="A284" s="21"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="14.25" spans="1:1">
       <c r="A285" s="21"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="14.25" spans="1:1">
       <c r="A286" s="21"/>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" ht="14.25" spans="1:1">
       <c r="A287" s="21"/>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" ht="14.25" spans="1:1">
       <c r="A288" s="21"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" ht="14.25" spans="1:1">
       <c r="A289" s="21"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" ht="14.25" spans="1:1">
       <c r="A290" s="21"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" ht="14.25" spans="1:1">
       <c r="A291" s="21"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" ht="14.25" spans="1:1">
       <c r="A292" s="21"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" ht="14.25" spans="1:1">
       <c r="A293" s="21"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" ht="14.25" spans="1:1">
       <c r="A294" s="21"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" ht="14.25" spans="1:1">
       <c r="A295" s="21"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" ht="14.25" spans="1:1">
       <c r="A296" s="21"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" ht="14.25" spans="1:1">
       <c r="A297" s="21"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" ht="14.25" spans="1:1">
       <c r="A298" s="21"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" ht="14.25" spans="1:1">
       <c r="A299" s="21"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" ht="14.25" spans="1:1">
       <c r="A300" s="21"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" ht="14.25" spans="1:1">
       <c r="A301" s="21"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" ht="14.25" spans="1:1">
       <c r="A302" s="21"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" ht="14.25" spans="1:1">
       <c r="A303" s="21"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" ht="14.25" spans="1:1">
       <c r="A304" s="21"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" ht="14.25" spans="1:1">
       <c r="A305" s="21"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" ht="14.25" spans="1:1">
       <c r="A306" s="21"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" ht="14.25" spans="1:1">
       <c r="A307" s="21"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" ht="14.25" spans="1:1">
       <c r="A308" s="21"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" ht="14.25" spans="1:1">
       <c r="A309" s="21"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" ht="14.25" spans="1:1">
       <c r="A310" s="21"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" ht="14.25" spans="1:1">
       <c r="A311" s="21"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" ht="14.25" spans="1:1">
       <c r="A312" s="21"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" ht="14.25" spans="1:1">
       <c r="A313" s="21"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" ht="14.25" spans="1:1">
       <c r="A314" s="21"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" ht="14.25" spans="1:1">
       <c r="A315" s="21"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" ht="14.25" spans="1:1">
       <c r="A316" s="21"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" ht="14.25" spans="1:1">
       <c r="A317" s="21"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" ht="14.25" spans="1:1">
       <c r="A318" s="21"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" ht="14.25" spans="1:1">
       <c r="A319" s="21"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" ht="14.25" spans="1:1">
       <c r="A320" s="21"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" ht="14.25" spans="1:1">
       <c r="A321" s="21"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" ht="14.25" spans="1:1">
       <c r="A322" s="21"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" ht="14.25" spans="1:1">
       <c r="A323" s="21"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" ht="14.25" spans="1:1">
       <c r="A324" s="21"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" ht="14.25" spans="1:1">
       <c r="A325" s="21"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" ht="14.25" spans="1:1">
       <c r="A326" s="21"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" ht="14.25" spans="1:1">
       <c r="A327" s="21"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" ht="14.25" spans="1:1">
       <c r="A328" s="21"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" ht="14.25" spans="1:1">
       <c r="A329" s="21"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" ht="14.25" spans="1:1">
       <c r="A330" s="21"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" ht="14.25" spans="1:1">
       <c r="A331" s="21"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" ht="14.25" spans="1:1">
       <c r="A332" s="21"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" ht="14.25" spans="1:1">
       <c r="A333" s="21"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" ht="14.25" spans="1:1">
       <c r="A334" s="21"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" ht="14.25" spans="1:1">
       <c r="A335" s="21"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" ht="14.25" spans="1:1">
       <c r="A336" s="21"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" ht="14.25" spans="1:1">
       <c r="A337" s="21"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" ht="14.25" spans="1:1">
       <c r="A338" s="21"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" ht="14.25" spans="1:1">
       <c r="A339" s="21"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" ht="14.25" spans="1:1">
       <c r="A340" s="21"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" ht="14.25" spans="1:1">
       <c r="A341" s="21"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" ht="14.25" spans="1:1">
       <c r="A342" s="21"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" ht="14.25" spans="1:1">
       <c r="A343" s="21"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" ht="14.25" spans="1:1">
       <c r="A344" s="21"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" ht="14.25" spans="1:1">
       <c r="A345" s="21"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" ht="14.25" spans="1:1">
       <c r="A346" s="21"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" ht="14.25" spans="1:1">
       <c r="A347" s="21"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" ht="14.25" spans="1:1">
       <c r="A348" s="21"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" ht="14.25" spans="1:1">
       <c r="A349" s="21"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" ht="14.25" spans="1:1">
       <c r="A350" s="21"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" ht="14.25" spans="1:1">
       <c r="A351" s="21"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" ht="14.25" spans="1:1">
       <c r="A352" s="21"/>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" ht="14.25" spans="1:1">
       <c r="A353" s="21"/>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" ht="14.25" spans="1:1">
       <c r="A354" s="21"/>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" ht="14.25" spans="1:1">
       <c r="A355" s="21"/>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" ht="14.25" spans="1:1">
       <c r="A356" s="21"/>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" ht="14.25" spans="1:1">
       <c r="A357" s="21"/>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" ht="14.25" spans="1:1">
       <c r="A358" s="21"/>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" ht="14.25" spans="1:1">
       <c r="A359" s="21"/>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" ht="14.25" spans="1:1">
       <c r="A360" s="21"/>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" ht="14.25" spans="1:1">
       <c r="A361" s="21"/>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" ht="14.25" spans="1:1">
       <c r="A362" s="21"/>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" ht="14.25" spans="1:1">
       <c r="A363" s="21"/>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" ht="14.25" spans="1:1">
       <c r="A364" s="21"/>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" ht="14.25" spans="1:1">
       <c r="A365" s="21"/>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" ht="14.25" spans="1:1">
       <c r="A366" s="21"/>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" ht="14.25" spans="1:1">
       <c r="A367" s="21"/>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" ht="14.25" spans="1:1">
       <c r="A368" s="21"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" ht="14.25" spans="1:1">
       <c r="A369" s="21"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" ht="14.25" spans="1:1">
       <c r="A370" s="21"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" ht="14.25" spans="1:1">
       <c r="A371" s="21"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" ht="14.25" spans="1:1">
       <c r="A372" s="21"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" ht="14.25" spans="1:1">
       <c r="A373" s="21"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" ht="14.25" spans="1:1">
       <c r="A374" s="21"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" ht="14.25" spans="1:1">
       <c r="A375" s="21"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" ht="14.25" spans="1:1">
       <c r="A376" s="21"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" ht="14.25" spans="1:1">
       <c r="A377" s="21"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" ht="14.25" spans="1:1">
       <c r="A378" s="21"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" ht="14.25" spans="1:1">
       <c r="A379" s="21"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" ht="14.25" spans="1:1">
       <c r="A380" s="21"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" ht="14.25" spans="1:1">
       <c r="A381" s="21"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" ht="14.25" spans="1:1">
       <c r="A382" s="21"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" ht="14.25" spans="1:1">
       <c r="A383" s="21"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" ht="14.25" spans="1:1">
       <c r="A384" s="21"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" ht="14.25" spans="1:1">
       <c r="A385" s="21"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" ht="14.25" spans="1:1">
       <c r="A386" s="21"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" ht="14.25" spans="1:1">
       <c r="A387" s="21"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" ht="14.25" spans="1:1">
       <c r="A388" s="21"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" ht="14.25" spans="1:1">
       <c r="A389" s="21"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" ht="14.25" spans="1:1">
       <c r="A390" s="21"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" ht="14.25" spans="1:1">
       <c r="A391" s="21"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" ht="14.25" spans="1:1">
       <c r="A392" s="21"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" ht="14.25" spans="1:1">
       <c r="A393" s="21"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" ht="14.25" spans="1:1">
       <c r="A394" s="21"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" ht="14.25" spans="1:1">
       <c r="A395" s="21"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" ht="14.25" spans="1:1">
       <c r="A396" s="21"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" ht="14.25" spans="1:1">
       <c r="A397" s="21"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" ht="14.25" spans="1:1">
       <c r="A398" s="21"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" ht="14.25" spans="1:1">
       <c r="A399" s="21"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" ht="14.25" spans="1:1">
       <c r="A400" s="21"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" ht="14.25" spans="1:1">
       <c r="A401" s="21"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" ht="14.25" spans="1:1">
       <c r="A402" s="21"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" ht="14.25" spans="1:1">
       <c r="A403" s="21"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" ht="14.25" spans="1:1">
       <c r="A404" s="21"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" ht="14.25" spans="1:1">
       <c r="A405" s="21"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" ht="14.25" spans="1:1">
       <c r="A406" s="21"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" ht="14.25" spans="1:1">
       <c r="A407" s="21"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" ht="14.25" spans="1:1">
       <c r="A408" s="21"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" ht="14.25" spans="1:1">
       <c r="A409" s="21"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" ht="14.25" spans="1:1">
       <c r="A410" s="21"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" ht="14.25" spans="1:1">
       <c r="A411" s="21"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" ht="14.25" spans="1:1">
       <c r="A412" s="21"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" ht="14.25" spans="1:1">
       <c r="A413" s="21"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" ht="14.25" spans="1:1">
       <c r="A414" s="21"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" ht="14.25" spans="1:1">
       <c r="A415" s="21"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" ht="14.25" spans="1:1">
       <c r="A416" s="21"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" ht="14.25" spans="1:1">
       <c r="A417" s="21"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" ht="14.25" spans="1:1">
       <c r="A418" s="21"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" ht="14.25" spans="1:1">
       <c r="A419" s="21"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" ht="14.25" spans="1:1">
       <c r="A420" s="21"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" ht="14.25" spans="1:1">
       <c r="A421" s="21"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" ht="14.25" spans="1:1">
       <c r="A422" s="21"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" ht="14.25" spans="1:1">
       <c r="A423" s="21"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" ht="14.25" spans="1:1">
       <c r="A424" s="21"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" ht="14.25" spans="1:1">
       <c r="A425" s="21"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" ht="14.25" spans="1:1">
       <c r="A426" s="21"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" ht="14.25" spans="1:1">
       <c r="A427" s="21"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" ht="14.25" spans="1:1">
       <c r="A428" s="21"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" ht="14.25" spans="1:1">
       <c r="A429" s="21"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" ht="14.25" spans="1:1">
       <c r="A430" s="21"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" ht="14.25" spans="1:1">
       <c r="A431" s="21"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" ht="14.25" spans="1:1">
       <c r="A432" s="21"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" ht="14.25" spans="1:1">
       <c r="A433" s="21"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" ht="14.25" spans="1:1">
       <c r="A434" s="21"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" ht="14.25" spans="1:1">
       <c r="A435" s="21"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" ht="14.25" spans="1:1">
       <c r="A436" s="21"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" ht="14.25" spans="1:1">
       <c r="A437" s="21"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" ht="14.25" spans="1:1">
       <c r="A438" s="21"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" ht="14.25" spans="1:1">
       <c r="A439" s="21"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" ht="14.25" spans="1:1">
       <c r="A440" s="21"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" ht="14.25" spans="1:1">
       <c r="A441" s="21"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" ht="14.25" spans="1:1">
       <c r="A442" s="21"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" ht="14.25" spans="1:1">
       <c r="A443" s="21"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" ht="14.25" spans="1:1">
       <c r="A444" s="21"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" ht="14.25" spans="1:1">
       <c r="A445" s="21"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" ht="14.25" spans="1:1">
       <c r="A446" s="21"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" ht="14.25" spans="1:1">
       <c r="A447" s="21"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" ht="14.25" spans="1:1">
       <c r="A448" s="21"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" ht="14.25" spans="1:1">
       <c r="A449" s="21"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" ht="14.25" spans="1:1">
       <c r="A450" s="21"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" ht="14.25" spans="1:1">
       <c r="A451" s="21"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" ht="14.25" spans="1:1">
       <c r="A452" s="21"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" ht="14.25" spans="1:1">
       <c r="A453" s="21"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" ht="14.25" spans="1:1">
       <c r="A454" s="21"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" ht="14.25" spans="1:1">
       <c r="A455" s="21"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" ht="14.25" spans="1:1">
       <c r="A456" s="21"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" ht="14.25" spans="1:1">
       <c r="A457" s="21"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" ht="14.25" spans="1:1">
       <c r="A458" s="21"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" ht="14.25" spans="1:1">
       <c r="A459" s="21"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" ht="14.25" spans="1:1">
       <c r="A460" s="21"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" ht="14.25" spans="1:1">
       <c r="A461" s="21"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" ht="14.25" spans="1:1">
       <c r="A462" s="21"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" ht="14.25" spans="1:1">
       <c r="A463" s="21"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" ht="14.25" spans="1:1">
       <c r="A464" s="21"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" ht="14.25" spans="1:1">
       <c r="A465" s="21"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" ht="14.25" spans="1:1">
       <c r="A466" s="21"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" ht="14.25" spans="1:1">
       <c r="A467" s="21"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" ht="14.25" spans="1:1">
       <c r="A468" s="21"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" ht="14.25" spans="1:1">
       <c r="A469" s="21"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" ht="14.25" spans="1:1">
       <c r="A470" s="21"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" ht="14.25" spans="1:1">
       <c r="A471" s="21"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" ht="14.25" spans="1:1">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" ht="14.25" spans="1:1">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" ht="14.25" spans="1:1">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" ht="14.25" spans="1:1">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" ht="14.25" spans="1:1">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" ht="14.25" spans="1:1">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" ht="14.25" spans="1:1">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" ht="14.25" spans="1:1">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" ht="14.25" spans="1:1">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" ht="14.25" spans="1:1">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" ht="14.25" spans="1:1">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" ht="14.25" spans="1:1">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" ht="14.25" spans="1:1">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" ht="14.25" spans="1:1">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" ht="14.25" spans="1:1">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" ht="14.25" spans="1:1">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" ht="14.25" spans="1:1">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" ht="14.25" spans="1:1">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" ht="14.25" spans="1:1">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" ht="14.25" spans="1:1">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" ht="14.25" spans="1:1">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" ht="14.25" spans="1:1">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" ht="14.25" spans="1:1">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" ht="14.25" spans="1:1">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" ht="14.25" spans="1:1">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" ht="14.25" spans="1:1">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" ht="14.25" spans="1:1">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" ht="14.25" spans="1:1">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" ht="14.25" spans="1:1">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" ht="14.25" spans="1:1">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" ht="14.25" spans="1:1">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" ht="14.25" spans="1:1">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" ht="14.25" spans="1:1">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" ht="14.25" spans="1:1">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" ht="14.25" spans="1:1">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" ht="14.25" spans="1:1">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" ht="14.25" spans="1:1">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" ht="14.25" spans="1:1">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" ht="14.25" spans="1:1">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" ht="14.25" spans="1:1">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" ht="14.25" spans="1:1">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" ht="14.25" spans="1:1">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" ht="14.25" spans="1:1">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" ht="14.25" spans="1:1">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" ht="14.25" spans="1:1">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" ht="14.25" spans="1:1">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" ht="14.25" spans="1:1">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" ht="14.25" spans="1:1">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" ht="14.25" spans="1:1">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" ht="14.25" spans="1:1">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" ht="14.25" spans="1:1">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" ht="14.25" spans="1:1">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" ht="14.25" spans="1:1">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" ht="14.25" spans="1:1">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" ht="14.25" spans="1:1">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" ht="14.25" spans="1:1">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" ht="14.25" spans="1:1">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" ht="14.25" spans="1:1">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" ht="14.25" spans="1:1">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" ht="14.25" spans="1:1">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" ht="14.25" spans="1:1">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" ht="14.25" spans="1:1">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" ht="14.25" spans="1:1">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" ht="14.25" spans="1:1">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" ht="14.25" spans="1:1">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" ht="14.25" spans="1:1">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" ht="14.25" spans="1:1">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" ht="14.25" spans="1:1">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" ht="14.25" spans="1:1">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" ht="14.25" spans="1:1">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" ht="14.25" spans="1:1">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" ht="14.25" spans="1:1">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" ht="14.25" spans="1:1">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" ht="14.25" spans="1:1">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" ht="14.25" spans="1:1">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" ht="14.25" spans="1:1">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" ht="14.25" spans="1:1">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" ht="14.25" spans="1:1">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" ht="14.25" spans="1:1">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" ht="14.25" spans="1:1">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" ht="14.25" spans="1:1">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" ht="14.25" spans="1:1">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" ht="14.25" spans="1:1">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" ht="14.25" spans="1:1">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" ht="14.25" spans="1:1">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" ht="14.25" spans="1:1">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" ht="14.25" spans="1:1">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" ht="14.25" spans="1:1">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" ht="14.25" spans="1:1">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" ht="14.25" spans="1:1">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" ht="14.25" spans="1:1">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" ht="14.25" spans="1:1">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" ht="14.25" spans="1:1">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" ht="14.25" spans="1:1">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" ht="14.25" spans="1:1">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" ht="14.25" spans="1:1">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" ht="14.25" spans="1:1">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" ht="14.25" spans="1:1">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" ht="14.25" spans="1:1">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" ht="14.25" spans="1:1">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" ht="14.25" spans="1:1">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" ht="14.25" spans="1:1">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" ht="14.25" spans="1:1">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" ht="14.25" spans="1:1">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" ht="14.25" spans="1:1">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" ht="14.25" spans="1:1">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" ht="14.25" spans="1:1">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" ht="14.25" spans="1:1">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" ht="14.25" spans="1:1">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" ht="14.25" spans="1:1">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" ht="14.25" spans="1:1">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" ht="14.25" spans="1:1">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" ht="14.25" spans="1:1">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" ht="14.25" spans="1:1">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" ht="14.25" spans="1:1">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" ht="14.25" spans="1:1">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" ht="14.25" spans="1:1">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" ht="14.25" spans="1:1">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" ht="14.25" spans="1:1">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" ht="14.25" spans="1:1">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" ht="14.25" spans="1:1">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" ht="14.25" spans="1:1">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" ht="14.25" spans="1:1">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" ht="14.25" spans="1:1">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" ht="14.25" spans="1:1">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" ht="14.25" spans="1:1">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" ht="14.25" spans="1:1">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" ht="14.25" spans="1:1">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" ht="14.25" spans="1:1">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" ht="14.25" spans="1:1">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" ht="14.25" spans="1:1">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" ht="14.25" spans="1:1">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" ht="14.25" spans="1:1">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" ht="14.25" spans="1:1">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" ht="14.25" spans="1:1">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" ht="14.25" spans="1:1">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" ht="14.25" spans="1:1">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" ht="14.25" spans="1:1">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" ht="14.25" spans="1:1">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" ht="14.25" spans="1:1">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" ht="14.25" spans="1:1">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" ht="14.25" spans="1:1">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" ht="14.25" spans="1:1">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" ht="14.25" spans="1:1">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" ht="14.25" spans="1:1">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" ht="14.25" spans="1:1">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" ht="14.25" spans="1:1">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" ht="14.25" spans="1:1">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" ht="14.25" spans="1:1">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" ht="14.25" spans="1:1">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" ht="14.25" spans="1:1">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" ht="14.25" spans="1:1">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" ht="14.25" spans="1:1">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" ht="14.25" spans="1:1">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" ht="14.25" spans="1:1">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" ht="14.25" spans="1:1">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" ht="14.25" spans="1:1">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" ht="14.25" spans="1:1">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" ht="14.25" spans="1:1">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" ht="14.25" spans="1:1">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" ht="14.25" spans="1:1">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" ht="14.25" spans="1:1">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" ht="14.25" spans="1:1">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" ht="14.25" spans="1:1">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" ht="14.25" spans="1:1">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" ht="14.25" spans="1:1">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" ht="14.25" spans="1:1">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" ht="14.25" spans="1:1">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" ht="14.25" spans="1:1">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" ht="14.25" spans="1:1">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" ht="14.25" spans="1:1">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" ht="14.25" spans="1:1">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" ht="14.25" spans="1:1">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" ht="14.25" spans="1:1">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" ht="14.25" spans="1:1">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" ht="14.25" spans="1:1">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" ht="14.25" spans="1:1">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" ht="14.25" spans="1:1">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" ht="14.25" spans="1:1">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" ht="14.25" spans="1:1">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" ht="14.25" spans="1:1">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" ht="14.25" spans="1:1">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" ht="14.25" spans="1:1">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" ht="14.25" spans="1:1">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" ht="14.25" spans="1:1">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" ht="14.25" spans="1:1">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" ht="14.25" spans="1:1">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" ht="14.25" spans="1:1">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" ht="14.25" spans="1:1">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" ht="14.25" spans="1:1">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" ht="14.25" spans="1:1">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" ht="14.25" spans="1:1">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" ht="14.25" spans="1:1">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" ht="14.25" spans="1:1">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" ht="14.25" spans="1:1">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" ht="14.25" spans="1:1">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" ht="14.25" spans="1:1">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" ht="14.25" spans="1:1">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" ht="14.25" spans="1:1">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" ht="14.25" spans="1:1">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" ht="14.25" spans="1:1">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" ht="14.25" spans="1:1">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" ht="14.25" spans="1:1">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" ht="14.25" spans="1:1">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" ht="14.25" spans="1:1">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" ht="14.25" spans="1:1">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" ht="14.25" spans="1:1">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" ht="14.25" spans="1:1">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" ht="14.25" spans="1:1">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" ht="14.25" spans="1:1">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" ht="14.25" spans="1:1">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" ht="14.25" spans="1:1">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" ht="14.25" spans="1:1">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" ht="14.25" spans="1:1">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" ht="14.25" spans="1:1">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" ht="14.25" spans="1:1">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" ht="14.25" spans="1:1">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" ht="14.25" spans="1:1">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" ht="14.25" spans="1:1">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" ht="14.25" spans="1:1">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" ht="14.25" spans="1:1">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" ht="14.25" spans="1:1">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" ht="14.25" spans="1:1">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" ht="14.25" spans="1:1">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" ht="14.25" spans="1:1">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" ht="14.25" spans="1:1">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" ht="14.25" spans="1:1">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" ht="14.25" spans="1:1">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" ht="14.25" spans="1:1">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" ht="14.25" spans="1:1">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" ht="14.25" spans="1:1">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" ht="14.25" spans="1:1">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" ht="14.25" spans="1:1">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" ht="14.25" spans="1:1">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" ht="14.25" spans="1:1">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" ht="14.25" spans="1:1">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" ht="14.25" spans="1:1">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" ht="14.25" spans="1:1">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" ht="14.25" spans="1:1">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" ht="14.25" spans="1:1">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" ht="14.25" spans="1:1">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" ht="14.25" spans="1:1">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" ht="14.25" spans="1:1">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" ht="14.25" spans="1:1">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" ht="14.25" spans="1:1">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" ht="14.25" spans="1:1">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" ht="14.25" spans="1:1">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" ht="14.25" spans="1:1">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" ht="14.25" spans="1:1">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" ht="14.25" spans="1:1">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" ht="14.25" spans="1:1">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" ht="14.25" spans="1:1">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" ht="14.25" spans="1:1">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" ht="14.25" spans="1:1">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" ht="14.25" spans="1:1">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" ht="14.25" spans="1:1">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" ht="14.25" spans="1:1">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" ht="14.25" spans="1:1">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" ht="14.25" spans="1:1">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" ht="14.25" spans="1:1">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" ht="14.25" spans="1:1">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" ht="14.25" spans="1:1">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" ht="14.25" spans="1:1">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" ht="14.25" spans="1:1">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" ht="14.25" spans="1:1">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" ht="14.25" spans="1:1">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" ht="14.25" spans="1:1">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" ht="14.25" spans="1:1">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" ht="14.25" spans="1:1">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" ht="14.25" spans="1:1">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" ht="14.25" spans="1:1">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" ht="14.25" spans="1:1">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" ht="14.25" spans="1:1">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" ht="14.25" spans="1:1">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" ht="14.25" spans="1:1">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" ht="14.25" spans="1:1">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" ht="14.25" spans="1:1">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" ht="14.25" spans="1:1">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" ht="14.25" spans="1:1">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" ht="14.25" spans="1:1">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" ht="14.25" spans="1:1">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" ht="14.25" spans="1:1">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" ht="14.25" spans="1:1">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" ht="14.25" spans="1:1">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" ht="14.25" spans="1:1">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" ht="14.25" spans="1:1">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" ht="14.25" spans="1:1">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" ht="14.25" spans="1:1">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" ht="14.25" spans="1:1">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" ht="14.25" spans="1:1">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" ht="14.25" spans="1:1">
       <c r="A762" s="21"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="270">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -823,6 +823,24 @@
   </si>
   <si>
     <t>问了佣金比例，有谈的机会</t>
+  </si>
+  <si>
+    <t>足享来鞋材</t>
+  </si>
+  <si>
+    <t>Q:358835759</t>
+  </si>
+  <si>
+    <t>伊伊商城</t>
+  </si>
+  <si>
+    <t>Q:1101746382</t>
+  </si>
+  <si>
+    <t>红尾鹊正品皮鞋</t>
+  </si>
+  <si>
+    <t>Q:543208790</t>
   </si>
 </sst>
 </file>
@@ -957,7 +975,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,13 +1021,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,6 +1049,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1009,22 +1066,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,37 +1087,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1100,6 +1110,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
@@ -1115,13 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1151,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,25 +1211,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,13 +1223,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,25 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,49 +1259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,6 +1281,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1306,6 +1324,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1363,21 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1385,15 +1412,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,10 +1432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,137 +1444,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,9 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1959,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A122" sqref="$A122:$XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2992,7 +3007,7 @@
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:2">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -3055,14 +3070,29 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:1">
-      <c r="A123" s="21"/>
-    </row>
-    <row r="124" ht="14.25" spans="1:1">
-      <c r="A124" s="21"/>
-    </row>
-    <row r="125" ht="14.25" spans="1:1">
-      <c r="A125" s="21"/>
+    <row r="123" ht="14.25" spans="1:2">
+      <c r="A123" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" spans="1:2">
+      <c r="A124" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:2">
+      <c r="A125" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="126" ht="14.25" spans="1:1">
       <c r="A126" s="21"/>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21690" windowHeight="10590"/>
+    <workbookView windowWidth="18491" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="325">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -171,7 +171,7 @@
     <t>已报名1款手机壳</t>
   </si>
   <si>
-    <t>19-05-12~2019-05-19</t>
+    <t>19-05-20~2019-05-27</t>
   </si>
   <si>
     <t>壹点创意数码专营店</t>
@@ -396,10 +396,10 @@
     <t>浣絮洗护家居用品</t>
   </si>
   <si>
-    <t>报名一款洗衣凝珠</t>
-  </si>
-  <si>
-    <t>19-05-10~19-05-17</t>
+    <t>报名2款</t>
+  </si>
+  <si>
+    <t>19-05-20~19-06-20</t>
   </si>
   <si>
     <t>绿氧多居家日用专营店</t>
@@ -841,6 +841,171 @@
   </si>
   <si>
     <t>Q:543208790</t>
+  </si>
+  <si>
+    <t>高蒂服饰旗舰店</t>
+  </si>
+  <si>
+    <t>Q:125186401</t>
+  </si>
+  <si>
+    <t>巴图腾旗舰店</t>
+  </si>
+  <si>
+    <t>Q:87246920</t>
+  </si>
+  <si>
+    <t>天使老北京布鞋店</t>
+  </si>
+  <si>
+    <t>Q:459322567</t>
+  </si>
+  <si>
+    <t>报名了8款老北京布鞋</t>
+  </si>
+  <si>
+    <t>zaezar旗舰店</t>
+  </si>
+  <si>
+    <t>Q:309691607</t>
+  </si>
+  <si>
+    <t>丹特鸟旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V:15888715971;q:2802880373  </t>
+  </si>
+  <si>
+    <t>蚪鸟旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1085785919</t>
+  </si>
+  <si>
+    <t>小猪肥出油 (鲁冰花女鞋)</t>
+  </si>
+  <si>
+    <t>Q:385962377</t>
+  </si>
+  <si>
+    <t>ouse讴色</t>
+  </si>
+  <si>
+    <t>Q:2851586658</t>
+  </si>
+  <si>
+    <t>youthvip旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1373127259</t>
+  </si>
+  <si>
+    <t>喜望男鞋专店</t>
+  </si>
+  <si>
+    <t>Q:1364262118</t>
+  </si>
+  <si>
+    <t>辉翱</t>
+  </si>
+  <si>
+    <t>Q:337456607</t>
+  </si>
+  <si>
+    <t>乔帝狼旗舰店</t>
+  </si>
+  <si>
+    <t>Q:1377470759</t>
+  </si>
+  <si>
+    <t>加米羊鞋类旗舰店</t>
+  </si>
+  <si>
+    <t>Q:514758079</t>
+  </si>
+  <si>
+    <t>函夏鞋业</t>
+  </si>
+  <si>
+    <t>Q:562187601</t>
+  </si>
+  <si>
+    <t>天芳星运动专营店</t>
+  </si>
+  <si>
+    <t>Q:451827065</t>
+  </si>
+  <si>
+    <t>看海旗舰店</t>
+  </si>
+  <si>
+    <t>Q:3337230554</t>
+  </si>
+  <si>
+    <t>老人头皮鞋官方企业店</t>
+  </si>
+  <si>
+    <t>Q:738528874</t>
+  </si>
+  <si>
+    <t>tnj旗舰店</t>
+  </si>
+  <si>
+    <t>Q:544720461</t>
+  </si>
+  <si>
+    <t>靓依足女鞋工厂店</t>
+  </si>
+  <si>
+    <t>Q:853789389；V:top2587758</t>
+  </si>
+  <si>
+    <t>酷足时代</t>
+  </si>
+  <si>
+    <t>Q:335026705</t>
+  </si>
+  <si>
+    <t>魅弋时尚坊定制女鞋</t>
+  </si>
+  <si>
+    <t>Q:516081075</t>
+  </si>
+  <si>
+    <t>palmpolo旗舰店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:992209493  </t>
+  </si>
+  <si>
+    <t>名雅服饰</t>
+  </si>
+  <si>
+    <t>Q:1804572326</t>
+  </si>
+  <si>
+    <t>森列夫旗舰店</t>
+  </si>
+  <si>
+    <t>Q:516365788</t>
+  </si>
+  <si>
+    <t>传祺女鞋STELLA WEISZ</t>
+  </si>
+  <si>
+    <t>Q:20302848;v:13777776435</t>
+  </si>
+  <si>
+    <t>chopben肖班旗舰店</t>
+  </si>
+  <si>
+    <t>Q:330548568</t>
+  </si>
+  <si>
+    <t>泰和源鞋类旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2981371577</t>
   </si>
 </sst>
 </file>
@@ -848,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,13 +1036,6 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -963,15 +1121,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="5"/>
-      <name val="microsoft yahei"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -981,8 +1148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,40 +1172,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,9 +1185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,36 +1216,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1102,17 +1239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,37 +1285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,7 +1327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,19 +1363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,7 +1405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,79 +1465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,11 +1479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,26 +1509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,21 +1535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,6 +1558,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1432,149 +1584,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,71 +1739,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1974,15 +2123,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A122" sqref="$A122:$XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
   </cols>
@@ -2004,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2026,7 +2175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2048,7 +2197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -2067,7 +2216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2089,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2103,7 +2252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2114,7 +2263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -2125,7 +2274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -2136,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -2147,7 +2296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2183,7 +2332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2208,7 +2357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -2216,7 +2365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -2230,7 +2379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -2238,7 +2387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2246,7 +2395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -2254,7 +2403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2262,7 +2411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2421,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -2280,7 +2429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="9" t="s">
         <v>67</v>
       </c>
@@ -2294,7 +2443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -2305,7 +2454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -2313,7 +2462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>75</v>
       </c>
@@ -2321,7 +2470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>77</v>
       </c>
@@ -2329,7 +2478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2337,7 +2486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -2345,7 +2494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>83</v>
       </c>
@@ -2353,7 +2502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
@@ -2361,7 +2510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="20" t="s">
         <v>87</v>
       </c>
@@ -2373,7 +2522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
@@ -2381,7 +2530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>92</v>
       </c>
@@ -2389,7 +2538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
@@ -2397,7 +2546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>96</v>
       </c>
@@ -2405,7 +2554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
@@ -2413,7 +2562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
         <v>100</v>
       </c>
@@ -2421,7 +2570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -2429,7 +2578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="21" t="s">
         <v>104</v>
       </c>
@@ -2437,7 +2586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
         <v>106</v>
       </c>
@@ -2445,7 +2594,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
         <v>108</v>
       </c>
@@ -2453,7 +2602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="21" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
@@ -2483,7 +2632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>118</v>
       </c>
@@ -2491,19 +2640,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A52" s="22" t="s">
+    <row r="52" s="1" customFormat="1" spans="1:5">
+      <c r="A52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="D52" s="23" t="s">
+      <c r="B52" s="10"/>
+      <c r="D52" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="21" t="s">
         <v>123</v>
       </c>
@@ -2511,7 +2660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
         <v>125</v>
       </c>
@@ -2519,7 +2668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="21" t="s">
         <v>127</v>
       </c>
@@ -2527,7 +2676,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>129</v>
       </c>
@@ -2535,7 +2684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>131</v>
       </c>
@@ -2543,7 +2692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>133</v>
       </c>
@@ -2551,7 +2700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="21" t="s">
         <v>135</v>
       </c>
@@ -2559,7 +2708,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>137</v>
       </c>
@@ -2567,7 +2716,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>139</v>
       </c>
@@ -2575,7 +2724,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
         <v>141</v>
       </c>
@@ -2583,7 +2732,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
         <v>143</v>
       </c>
@@ -2591,7 +2740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
         <v>145</v>
       </c>
@@ -2599,7 +2748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
         <v>147</v>
       </c>
@@ -2607,7 +2756,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
         <v>149</v>
       </c>
@@ -2616,7 +2765,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
         <v>151</v>
       </c>
@@ -2624,7 +2773,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="21" t="s">
         <v>153</v>
       </c>
@@ -2632,7 +2781,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
         <v>155</v>
       </c>
@@ -2640,7 +2789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="21" t="s">
         <v>157</v>
       </c>
@@ -2648,7 +2797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
         <v>159</v>
       </c>
@@ -2656,7 +2805,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
         <v>161</v>
       </c>
@@ -2664,7 +2813,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
         <v>163</v>
       </c>
@@ -2672,7 +2821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
         <v>165</v>
       </c>
@@ -2680,7 +2829,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
         <v>167</v>
       </c>
@@ -2688,7 +2837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
         <v>169</v>
       </c>
@@ -2696,7 +2845,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="21" t="s">
         <v>171</v>
       </c>
@@ -2704,7 +2853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
         <v>173</v>
       </c>
@@ -2712,7 +2861,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
@@ -2720,7 +2869,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="21" t="s">
         <v>177</v>
       </c>
@@ -2728,7 +2877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
         <v>179</v>
       </c>
@@ -2736,7 +2885,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>181</v>
       </c>
@@ -2744,7 +2893,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
         <v>183</v>
       </c>
@@ -2752,7 +2901,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
         <v>185</v>
       </c>
@@ -2760,7 +2909,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="85" s="1" customFormat="1" spans="1:5">
       <c r="A85" s="9" t="s">
         <v>187</v>
       </c>
@@ -2772,7 +2921,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
         <v>190</v>
       </c>
@@ -2780,7 +2929,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="21" t="s">
         <v>192</v>
       </c>
@@ -2788,7 +2937,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>194</v>
       </c>
@@ -2796,7 +2945,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
         <v>196</v>
       </c>
@@ -2804,7 +2953,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="21" t="s">
         <v>198</v>
       </c>
@@ -2812,7 +2961,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
         <v>200</v>
       </c>
@@ -2820,7 +2969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>202</v>
       </c>
@@ -2828,7 +2977,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
         <v>204</v>
       </c>
@@ -2836,7 +2985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
         <v>206</v>
       </c>
@@ -2844,7 +2993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
         <v>208</v>
       </c>
@@ -2852,7 +3001,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>210</v>
       </c>
@@ -2860,7 +3009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
         <v>212</v>
       </c>
@@ -2868,7 +3017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="21" t="s">
         <v>214</v>
       </c>
@@ -2876,7 +3025,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>216</v>
       </c>
@@ -2884,7 +3033,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
         <v>218</v>
       </c>
@@ -2892,7 +3041,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
         <v>220</v>
       </c>
@@ -2900,7 +3049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
         <v>222</v>
       </c>
@@ -2908,7 +3057,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>224</v>
       </c>
@@ -2916,7 +3065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>226</v>
       </c>
@@ -2924,7 +3073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="21" t="s">
         <v>228</v>
       </c>
@@ -2932,7 +3081,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
         <v>230</v>
       </c>
@@ -2940,7 +3089,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>232</v>
       </c>
@@ -2948,7 +3097,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="21" t="s">
         <v>234</v>
       </c>
@@ -2956,7 +3105,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>236</v>
       </c>
@@ -2964,7 +3113,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="21" t="s">
         <v>238</v>
       </c>
@@ -2972,7 +3121,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="21" t="s">
         <v>240</v>
       </c>
@@ -2980,17 +3129,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A112" s="24" t="s">
+    <row r="112" s="3" customFormat="1" spans="1:5">
+      <c r="A112" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:2">
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="21" t="s">
         <v>244</v>
       </c>
@@ -2998,7 +3147,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="21" t="s">
         <v>246</v>
       </c>
@@ -3006,7 +3155,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
         <v>248</v>
       </c>
@@ -3014,7 +3163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="21" t="s">
         <v>250</v>
       </c>
@@ -3022,7 +3171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="21" t="s">
         <v>252</v>
       </c>
@@ -3030,7 +3179,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="21" t="s">
         <v>254</v>
       </c>
@@ -3038,7 +3187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="21" t="s">
         <v>256</v>
       </c>
@@ -3046,7 +3195,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="21" t="s">
         <v>258</v>
       </c>
@@ -3054,7 +3203,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="21" t="s">
         <v>260</v>
       </c>
@@ -3062,7 +3211,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="21" t="s">
         <v>262</v>
       </c>
@@ -3070,7 +3219,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="21" t="s">
         <v>264</v>
       </c>
@@ -3078,7 +3227,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="21" t="s">
         <v>266</v>
       </c>
@@ -3086,7 +3235,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="21" t="s">
         <v>268</v>
       </c>
@@ -3094,1915 +3243,2056 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:1">
-      <c r="A126" s="21"/>
-    </row>
-    <row r="127" ht="14.25" spans="1:1">
-      <c r="A127" s="21"/>
-    </row>
-    <row r="128" ht="14.25" spans="1:1">
-      <c r="A128" s="21"/>
-    </row>
-    <row r="129" ht="14.25" spans="1:1">
-      <c r="A129" s="21"/>
-    </row>
-    <row r="130" ht="14.25" spans="1:1">
-      <c r="A130" s="21"/>
-    </row>
-    <row r="131" ht="14.25" spans="1:1">
-      <c r="A131" s="21"/>
-    </row>
-    <row r="132" ht="14.25" spans="1:1">
-      <c r="A132" s="21"/>
-    </row>
-    <row r="133" ht="14.25" spans="1:1">
-      <c r="A133" s="21"/>
-    </row>
-    <row r="134" ht="14.25" spans="1:1">
-      <c r="A134" s="21"/>
-    </row>
-    <row r="135" ht="14.25" spans="1:1">
-      <c r="A135" s="21"/>
-    </row>
-    <row r="136" ht="14.25" spans="1:1">
-      <c r="A136" s="21"/>
-    </row>
-    <row r="137" ht="14.25" spans="1:1">
-      <c r="A137" s="21"/>
-    </row>
-    <row r="138" ht="14.25" spans="1:1">
-      <c r="A138" s="21"/>
-    </row>
-    <row r="139" ht="14.25" spans="1:1">
-      <c r="A139" s="21"/>
-    </row>
-    <row r="140" ht="14.25" spans="1:1">
-      <c r="A140" s="21"/>
-    </row>
-    <row r="141" ht="14.25" spans="1:1">
-      <c r="A141" s="21"/>
-    </row>
-    <row r="142" ht="14.25" spans="1:1">
-      <c r="A142" s="21"/>
-    </row>
-    <row r="143" ht="14.25" spans="1:1">
-      <c r="A143" s="21"/>
-    </row>
-    <row r="144" ht="14.25" spans="1:1">
-      <c r="A144" s="21"/>
-    </row>
-    <row r="145" ht="14.25" spans="1:1">
-      <c r="A145" s="21"/>
-    </row>
-    <row r="146" ht="14.25" spans="1:1">
-      <c r="A146" s="21"/>
-    </row>
-    <row r="147" ht="14.25" spans="1:1">
-      <c r="A147" s="21"/>
-    </row>
-    <row r="148" ht="14.25" spans="1:1">
-      <c r="A148" s="21"/>
-    </row>
-    <row r="149" ht="14.25" spans="1:1">
-      <c r="A149" s="21"/>
-    </row>
-    <row r="150" ht="14.25" spans="1:1">
-      <c r="A150" s="21"/>
-    </row>
-    <row r="151" ht="14.25" spans="1:1">
-      <c r="A151" s="21"/>
-    </row>
-    <row r="152" ht="14.25" spans="1:1">
-      <c r="A152" s="21"/>
-    </row>
-    <row r="153" ht="14.25" spans="1:1">
+    <row r="126" spans="1:2">
+      <c r="A126" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" s="4" customFormat="1" spans="1:5">
+      <c r="A128" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" s="21"/>
     </row>
-    <row r="154" ht="14.25" spans="1:1">
+    <row r="154" spans="1:1">
       <c r="A154" s="21"/>
     </row>
-    <row r="155" ht="14.25" spans="1:1">
+    <row r="155" spans="1:1">
       <c r="A155" s="21"/>
     </row>
-    <row r="156" ht="14.25" spans="1:1">
+    <row r="156" spans="1:1">
       <c r="A156" s="21"/>
     </row>
-    <row r="157" ht="14.25" spans="1:1">
+    <row r="157" spans="1:1">
       <c r="A157" s="21"/>
     </row>
-    <row r="158" ht="14.25" spans="1:1">
+    <row r="158" spans="1:1">
       <c r="A158" s="21"/>
     </row>
-    <row r="159" ht="14.25" spans="1:1">
+    <row r="159" spans="1:1">
       <c r="A159" s="21"/>
     </row>
-    <row r="160" ht="14.25" spans="1:1">
+    <row r="160" spans="1:1">
       <c r="A160" s="21"/>
     </row>
-    <row r="161" ht="14.25" spans="1:1">
+    <row r="161" spans="1:1">
       <c r="A161" s="21"/>
     </row>
-    <row r="162" ht="14.25" spans="1:1">
+    <row r="162" spans="1:1">
       <c r="A162" s="21"/>
     </row>
-    <row r="163" ht="14.25" spans="1:1">
+    <row r="163" spans="1:1">
       <c r="A163" s="21"/>
     </row>
-    <row r="164" ht="14.25" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="21"/>
     </row>
-    <row r="165" ht="14.25" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="21"/>
     </row>
-    <row r="166" ht="14.25" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="21"/>
     </row>
-    <row r="167" ht="14.25" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="21"/>
     </row>
-    <row r="168" ht="14.25" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="21"/>
     </row>
-    <row r="169" ht="14.25" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="21"/>
     </row>
-    <row r="170" ht="14.25" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="21"/>
     </row>
-    <row r="171" ht="14.25" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="21"/>
     </row>
-    <row r="172" ht="14.25" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="21"/>
     </row>
-    <row r="173" ht="14.25" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="21"/>
     </row>
-    <row r="174" ht="14.25" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="21"/>
     </row>
-    <row r="175" ht="14.25" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="21"/>
     </row>
-    <row r="176" ht="14.25" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="21"/>
     </row>
-    <row r="177" ht="14.25" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="21"/>
     </row>
-    <row r="178" ht="14.25" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="21"/>
     </row>
-    <row r="179" ht="14.25" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="21"/>
     </row>
-    <row r="180" ht="14.25" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="21"/>
     </row>
-    <row r="181" ht="14.25" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="21"/>
     </row>
-    <row r="182" ht="14.25" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="21"/>
     </row>
-    <row r="183" ht="14.25" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" ht="14.25" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" ht="14.25" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" ht="14.25" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" ht="14.25" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" ht="14.25" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" ht="14.25" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" ht="14.25" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" ht="14.25" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" ht="14.25" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" ht="14.25" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" ht="14.25" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" ht="14.25" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" ht="14.25" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" ht="14.25" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" ht="14.25" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" ht="14.25" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" ht="14.25" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" ht="14.25" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" ht="14.25" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" ht="14.25" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" ht="14.25" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" ht="14.25" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" ht="14.25" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" ht="14.25" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" ht="14.25" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" ht="14.25" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" ht="14.25" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" ht="14.25" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="21"/>
     </row>
-    <row r="222" ht="14.25" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="21"/>
     </row>
-    <row r="223" ht="14.25" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="21"/>
     </row>
-    <row r="224" ht="14.25" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="21"/>
     </row>
-    <row r="225" ht="14.25" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="21"/>
     </row>
-    <row r="226" ht="14.25" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="21"/>
     </row>
-    <row r="227" ht="14.25" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="21"/>
     </row>
-    <row r="228" ht="14.25" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="21"/>
     </row>
-    <row r="229" ht="14.25" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="21"/>
     </row>
-    <row r="230" ht="14.25" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="21"/>
     </row>
-    <row r="231" ht="14.25" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="21"/>
     </row>
-    <row r="232" ht="14.25" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="21"/>
     </row>
-    <row r="233" ht="14.25" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="21"/>
     </row>
-    <row r="234" ht="14.25" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="21"/>
     </row>
-    <row r="235" ht="14.25" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="21"/>
     </row>
-    <row r="236" ht="14.25" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="21"/>
     </row>
-    <row r="237" ht="14.25" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="21"/>
     </row>
-    <row r="238" ht="14.25" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="21"/>
     </row>
-    <row r="239" ht="14.25" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="21"/>
     </row>
-    <row r="240" ht="14.25" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="21"/>
     </row>
-    <row r="241" ht="14.25" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="21"/>
     </row>
-    <row r="242" ht="14.25" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="21"/>
     </row>
-    <row r="243" ht="14.25" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="21"/>
     </row>
-    <row r="244" ht="14.25" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="21"/>
     </row>
-    <row r="245" ht="14.25" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="21"/>
     </row>
-    <row r="246" ht="14.25" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="21"/>
     </row>
-    <row r="247" ht="14.25" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="21"/>
     </row>
-    <row r="248" ht="14.25" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="21"/>
     </row>
-    <row r="249" ht="14.25" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="21"/>
     </row>
-    <row r="250" ht="14.25" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="21"/>
     </row>
-    <row r="251" ht="14.25" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="21"/>
     </row>
-    <row r="252" ht="14.25" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="21"/>
     </row>
-    <row r="253" ht="14.25" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="21"/>
     </row>
-    <row r="254" ht="14.25" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="21"/>
     </row>
-    <row r="255" ht="14.25" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="21"/>
     </row>
-    <row r="256" ht="14.25" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="21"/>
     </row>
-    <row r="257" ht="14.25" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="21"/>
     </row>
-    <row r="258" ht="14.25" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="21"/>
     </row>
-    <row r="259" ht="14.25" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="21"/>
     </row>
-    <row r="260" ht="14.25" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="21"/>
     </row>
-    <row r="261" ht="14.25" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="21"/>
     </row>
-    <row r="262" ht="14.25" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="21"/>
     </row>
-    <row r="263" ht="14.25" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="21"/>
     </row>
-    <row r="264" ht="14.25" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="21"/>
     </row>
-    <row r="265" ht="14.25" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="21"/>
     </row>
-    <row r="266" ht="14.25" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="21"/>
     </row>
-    <row r="267" ht="14.25" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="21"/>
     </row>
-    <row r="268" ht="14.25" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="21"/>
     </row>
-    <row r="269" ht="14.25" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="21"/>
     </row>
-    <row r="270" ht="14.25" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="21"/>
     </row>
-    <row r="271" ht="14.25" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="21"/>
     </row>
-    <row r="272" ht="14.25" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="21"/>
     </row>
-    <row r="273" ht="14.25" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="21"/>
     </row>
-    <row r="274" ht="14.25" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="21"/>
     </row>
-    <row r="275" ht="14.25" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="21"/>
     </row>
-    <row r="276" ht="14.25" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="21"/>
     </row>
-    <row r="277" ht="14.25" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="21"/>
     </row>
-    <row r="278" ht="14.25" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="21"/>
     </row>
-    <row r="279" ht="14.25" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="21"/>
     </row>
-    <row r="280" ht="14.25" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="21"/>
     </row>
-    <row r="281" ht="14.25" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="21"/>
     </row>
-    <row r="282" ht="14.25" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="21"/>
     </row>
-    <row r="283" ht="14.25" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="21"/>
     </row>
-    <row r="284" ht="14.25" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="21"/>
     </row>
-    <row r="285" ht="14.25" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="21"/>
     </row>
-    <row r="286" ht="14.25" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="21"/>
     </row>
-    <row r="287" ht="14.25" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="21"/>
     </row>
-    <row r="288" ht="14.25" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="21"/>
     </row>
-    <row r="289" ht="14.25" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="21"/>
     </row>
-    <row r="290" ht="14.25" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="21"/>
     </row>
-    <row r="291" ht="14.25" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="21"/>
     </row>
-    <row r="292" ht="14.25" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="21"/>
     </row>
-    <row r="293" ht="14.25" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="21"/>
     </row>
-    <row r="294" ht="14.25" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="21"/>
     </row>
-    <row r="295" ht="14.25" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="21"/>
     </row>
-    <row r="296" ht="14.25" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="21"/>
     </row>
-    <row r="297" ht="14.25" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="21"/>
     </row>
-    <row r="298" ht="14.25" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="21"/>
     </row>
-    <row r="299" ht="14.25" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="21"/>
     </row>
-    <row r="300" ht="14.25" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="21"/>
     </row>
-    <row r="301" ht="14.25" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="21"/>
     </row>
-    <row r="302" ht="14.25" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="21"/>
     </row>
-    <row r="303" ht="14.25" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="21"/>
     </row>
-    <row r="304" ht="14.25" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="21"/>
     </row>
-    <row r="305" ht="14.25" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="21"/>
     </row>
-    <row r="306" ht="14.25" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="21"/>
     </row>
-    <row r="307" ht="14.25" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="21"/>
     </row>
-    <row r="308" ht="14.25" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="21"/>
     </row>
-    <row r="309" ht="14.25" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="21"/>
     </row>
-    <row r="310" ht="14.25" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="21"/>
     </row>
-    <row r="311" ht="14.25" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="21"/>
     </row>
-    <row r="312" ht="14.25" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="21"/>
     </row>
-    <row r="313" ht="14.25" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="21"/>
     </row>
-    <row r="314" ht="14.25" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="21"/>
     </row>
-    <row r="315" ht="14.25" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="21"/>
     </row>
-    <row r="316" ht="14.25" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="21"/>
     </row>
-    <row r="317" ht="14.25" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="21"/>
     </row>
-    <row r="318" ht="14.25" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="21"/>
     </row>
-    <row r="319" ht="14.25" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="21"/>
     </row>
-    <row r="320" ht="14.25" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="21"/>
     </row>
-    <row r="321" ht="14.25" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="21"/>
     </row>
-    <row r="322" ht="14.25" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="21"/>
     </row>
-    <row r="323" ht="14.25" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="21"/>
     </row>
-    <row r="324" ht="14.25" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="21"/>
     </row>
-    <row r="325" ht="14.25" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="21"/>
     </row>
-    <row r="326" ht="14.25" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="21"/>
     </row>
-    <row r="327" ht="14.25" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="21"/>
     </row>
-    <row r="328" ht="14.25" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="21"/>
     </row>
-    <row r="329" ht="14.25" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="21"/>
     </row>
-    <row r="330" ht="14.25" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="21"/>
     </row>
-    <row r="331" ht="14.25" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="21"/>
     </row>
-    <row r="332" ht="14.25" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="21"/>
     </row>
-    <row r="333" ht="14.25" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="21"/>
     </row>
-    <row r="334" ht="14.25" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="21"/>
     </row>
-    <row r="335" ht="14.25" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="21"/>
     </row>
-    <row r="336" ht="14.25" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="21"/>
     </row>
-    <row r="337" ht="14.25" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="21"/>
     </row>
-    <row r="338" ht="14.25" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="21"/>
     </row>
-    <row r="339" ht="14.25" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="21"/>
     </row>
-    <row r="340" ht="14.25" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="21"/>
     </row>
-    <row r="341" ht="14.25" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="21"/>
     </row>
-    <row r="342" ht="14.25" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="21"/>
     </row>
-    <row r="343" ht="14.25" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="21"/>
     </row>
-    <row r="344" ht="14.25" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="21"/>
     </row>
-    <row r="345" ht="14.25" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="21"/>
     </row>
-    <row r="346" ht="14.25" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="21"/>
     </row>
-    <row r="347" ht="14.25" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="21"/>
     </row>
-    <row r="348" ht="14.25" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="21"/>
     </row>
-    <row r="349" ht="14.25" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="21"/>
     </row>
-    <row r="350" ht="14.25" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="21"/>
     </row>
-    <row r="351" ht="14.25" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="21"/>
     </row>
-    <row r="352" ht="14.25" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="21"/>
     </row>
-    <row r="353" ht="14.25" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="21"/>
     </row>
-    <row r="354" ht="14.25" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="21"/>
     </row>
-    <row r="355" ht="14.25" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="21"/>
     </row>
-    <row r="356" ht="14.25" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="21"/>
     </row>
-    <row r="357" ht="14.25" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="21"/>
     </row>
-    <row r="358" ht="14.25" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="21"/>
     </row>
-    <row r="359" ht="14.25" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="21"/>
     </row>
-    <row r="360" ht="14.25" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="21"/>
     </row>
-    <row r="361" ht="14.25" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="21"/>
     </row>
-    <row r="362" ht="14.25" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="21"/>
     </row>
-    <row r="363" ht="14.25" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="21"/>
     </row>
-    <row r="364" ht="14.25" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="21"/>
     </row>
-    <row r="365" ht="14.25" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="21"/>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="21"/>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="21"/>
     </row>
-    <row r="368" ht="14.25" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="21"/>
     </row>
-    <row r="369" ht="14.25" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="21"/>
     </row>
-    <row r="370" ht="14.25" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="21"/>
     </row>
-    <row r="371" ht="14.25" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="21"/>
     </row>
-    <row r="372" ht="14.25" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="21"/>
     </row>
-    <row r="373" ht="14.25" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="21"/>
     </row>
-    <row r="374" ht="14.25" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="21"/>
     </row>
-    <row r="375" ht="14.25" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="21"/>
     </row>
-    <row r="376" ht="14.25" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="21"/>
     </row>
-    <row r="377" ht="14.25" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="21"/>
     </row>
-    <row r="378" ht="14.25" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="21"/>
     </row>
-    <row r="379" ht="14.25" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="21"/>
     </row>
-    <row r="380" ht="14.25" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="21"/>
     </row>
-    <row r="381" ht="14.25" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="21"/>
     </row>
-    <row r="382" ht="14.25" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="21"/>
     </row>
-    <row r="383" ht="14.25" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="21"/>
     </row>
-    <row r="384" ht="14.25" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="21"/>
     </row>
-    <row r="385" ht="14.25" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="21"/>
     </row>
-    <row r="386" ht="14.25" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="21"/>
     </row>
-    <row r="387" ht="14.25" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="21"/>
     </row>
-    <row r="388" ht="14.25" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="21"/>
     </row>
-    <row r="389" ht="14.25" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="21"/>
     </row>
-    <row r="390" ht="14.25" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="21"/>
     </row>
-    <row r="391" ht="14.25" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="21"/>
     </row>
-    <row r="392" ht="14.25" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="21"/>
     </row>
-    <row r="393" ht="14.25" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="21"/>
     </row>
-    <row r="394" ht="14.25" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="21"/>
     </row>
-    <row r="395" ht="14.25" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="21"/>
     </row>
-    <row r="396" ht="14.25" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="21"/>
     </row>
-    <row r="397" ht="14.25" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="21"/>
     </row>
-    <row r="398" ht="14.25" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="21"/>
     </row>
-    <row r="399" ht="14.25" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="21"/>
     </row>
-    <row r="400" ht="14.25" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="21"/>
     </row>
-    <row r="401" ht="14.25" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="21"/>
     </row>
-    <row r="402" ht="14.25" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="21"/>
     </row>
-    <row r="403" ht="14.25" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="21"/>
     </row>
-    <row r="404" ht="14.25" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="21"/>
     </row>
-    <row r="405" ht="14.25" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="21"/>
     </row>
-    <row r="406" ht="14.25" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="21"/>
     </row>
-    <row r="407" ht="14.25" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="21"/>
     </row>
-    <row r="408" ht="14.25" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="21"/>
     </row>
-    <row r="409" ht="14.25" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="21"/>
     </row>
-    <row r="410" ht="14.25" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="21"/>
     </row>
-    <row r="411" ht="14.25" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="21"/>
     </row>
-    <row r="412" ht="14.25" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="21"/>
     </row>
-    <row r="413" ht="14.25" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="21"/>
     </row>
-    <row r="414" ht="14.25" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="21"/>
     </row>
-    <row r="415" ht="14.25" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="21"/>
     </row>
-    <row r="416" ht="14.25" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="21"/>
     </row>
-    <row r="417" ht="14.25" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="21"/>
     </row>
-    <row r="418" ht="14.25" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="21"/>
     </row>
-    <row r="419" ht="14.25" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="21"/>
     </row>
-    <row r="420" ht="14.25" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="21"/>
     </row>
-    <row r="421" ht="14.25" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="21"/>
     </row>
-    <row r="422" ht="14.25" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="21"/>
     </row>
-    <row r="423" ht="14.25" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="21"/>
     </row>
-    <row r="424" ht="14.25" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="21"/>
     </row>
-    <row r="425" ht="14.25" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="21"/>
     </row>
-    <row r="426" ht="14.25" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="21"/>
     </row>
-    <row r="427" ht="14.25" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="21"/>
     </row>
-    <row r="428" ht="14.25" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="21"/>
     </row>
-    <row r="429" ht="14.25" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="21"/>
     </row>
-    <row r="430" ht="14.25" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="21"/>
     </row>
-    <row r="431" ht="14.25" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="21"/>
     </row>
-    <row r="432" ht="14.25" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="21"/>
     </row>
-    <row r="433" ht="14.25" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="21"/>
     </row>
-    <row r="434" ht="14.25" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="21"/>
     </row>
-    <row r="435" ht="14.25" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="21"/>
     </row>
-    <row r="436" ht="14.25" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="21"/>
     </row>
-    <row r="437" ht="14.25" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="21"/>
     </row>
-    <row r="438" ht="14.25" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="21"/>
     </row>
-    <row r="439" ht="14.25" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="21"/>
     </row>
-    <row r="440" ht="14.25" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="21"/>
     </row>
-    <row r="441" ht="14.25" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="21"/>
     </row>
-    <row r="442" ht="14.25" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="21"/>
     </row>
-    <row r="443" ht="14.25" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="21"/>
     </row>
-    <row r="444" ht="14.25" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="21"/>
     </row>
-    <row r="445" ht="14.25" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="21"/>
     </row>
-    <row r="446" ht="14.25" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="21"/>
     </row>
-    <row r="447" ht="14.25" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="21"/>
     </row>
-    <row r="448" ht="14.25" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="21"/>
     </row>
-    <row r="449" ht="14.25" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="21"/>
     </row>
-    <row r="450" ht="14.25" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="21"/>
     </row>
-    <row r="451" ht="14.25" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="21"/>
     </row>
-    <row r="452" ht="14.25" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="21"/>
     </row>
-    <row r="453" ht="14.25" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="21"/>
     </row>
-    <row r="454" ht="14.25" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="21"/>
     </row>
-    <row r="455" ht="14.25" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="21"/>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="21"/>
     </row>
-    <row r="457" ht="14.25" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="21"/>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="21"/>
     </row>
-    <row r="459" ht="14.25" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="21"/>
     </row>
-    <row r="460" ht="14.25" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="21"/>
     </row>
-    <row r="461" ht="14.25" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="21"/>
     </row>
-    <row r="462" ht="14.25" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="21"/>
     </row>
-    <row r="463" ht="14.25" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="21"/>
     </row>
-    <row r="464" ht="14.25" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="21"/>
     </row>
-    <row r="465" ht="14.25" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="21"/>
     </row>
-    <row r="466" ht="14.25" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="21"/>
     </row>
-    <row r="467" ht="14.25" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="21"/>
     </row>
-    <row r="468" ht="14.25" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="21"/>
     </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="21"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="21"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="21"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" ht="14.25" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" ht="14.25" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" ht="14.25" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" ht="14.25" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" ht="14.25" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" ht="14.25" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" ht="14.25" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" ht="14.25" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" ht="14.25" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" ht="14.25" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" ht="14.25" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" ht="14.25" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" ht="14.25" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" ht="14.25" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="21"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21630" windowHeight="10590"/>
+    <workbookView windowWidth="18491" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="346">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -1016,6 +1016,60 @@
   <si>
     <t>Q:52582081</t>
   </si>
+  <si>
+    <t>大小姐家 独家定制</t>
+  </si>
+  <si>
+    <t>Q:1834029876  V:kitty882</t>
+  </si>
+  <si>
+    <t>出水芙蓉衣柜女装</t>
+  </si>
+  <si>
+    <t>Q:2047418623</t>
+  </si>
+  <si>
+    <t>星空下的服饰女装</t>
+  </si>
+  <si>
+    <t>Q:2012037912</t>
+  </si>
+  <si>
+    <t>伊含大码女装</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:84512739  </t>
+  </si>
+  <si>
+    <t>小幸运HB 大码女装定制</t>
+  </si>
+  <si>
+    <t>Q:1028948625</t>
+  </si>
+  <si>
+    <t>小象韩美眉大码</t>
+  </si>
+  <si>
+    <t>Q:1032023632；V：1379806237</t>
+  </si>
+  <si>
+    <t>米可女装 美衣店</t>
+  </si>
+  <si>
+    <t>Q:522480853</t>
+  </si>
+  <si>
+    <t>诗尚语大码女装</t>
+  </si>
+  <si>
+    <t>Q:601391470</t>
+  </si>
+  <si>
+    <t>百骆丹女装服饰</t>
+  </si>
+  <si>
+    <t>Q:362294356</t>
+  </si>
 </sst>
 </file>
 
@@ -1023,8 +1077,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -1135,6 +1189,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1149,9 +1219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,60 +1242,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1233,16 +1271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,9 +1295,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1294,7 +1348,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,13 +1492,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,157 +1528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,26 +1542,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,6 +1583,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1539,25 +1602,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,10 +1647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1605,137 +1659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1804,9 +1858,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2129,15 +2180,15 @@
   <sheetPr/>
   <dimension ref="A1:E762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A122" sqref="$A122:$XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="30.75" style="4" customWidth="1"/>
   </cols>
@@ -2159,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2181,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2192,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -2269,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2280,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2291,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -2302,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2313,7 +2364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2338,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -2363,7 +2414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -2371,7 +2422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2385,7 +2436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -2393,7 +2444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -2401,7 +2452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -2409,7 +2460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2417,7 +2468,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -2427,7 +2478,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -2435,7 +2486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -2449,7 +2500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -2460,7 +2511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -2468,7 +2519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2476,7 +2527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -2484,7 +2535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -2492,7 +2543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -2500,7 +2551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -2508,7 +2559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -2516,7 +2567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>87</v>
       </c>
@@ -2528,7 +2579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
@@ -2536,7 +2587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>92</v>
       </c>
@@ -2544,7 +2595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
@@ -2552,7 +2603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
@@ -2560,7 +2611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>98</v>
       </c>
@@ -2568,7 +2619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
@@ -2576,7 +2627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>102</v>
       </c>
@@ -2584,7 +2635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="20" t="s">
         <v>104</v>
       </c>
@@ -2592,7 +2643,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
@@ -2600,7 +2651,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
@@ -2608,7 +2659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="20" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +2667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="8" t="s">
         <v>112</v>
       </c>
@@ -2638,7 +2689,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
         <v>118</v>
       </c>
@@ -2646,7 +2697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="52" s="1" customFormat="1" spans="1:5">
       <c r="A52" s="8" t="s">
         <v>120</v>
       </c>
@@ -2658,7 +2709,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="20" t="s">
         <v>123</v>
       </c>
@@ -2666,7 +2717,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="20" t="s">
         <v>125</v>
       </c>
@@ -2674,7 +2725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="20" t="s">
         <v>127</v>
       </c>
@@ -2682,7 +2733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>129</v>
       </c>
@@ -2690,7 +2741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
         <v>131</v>
       </c>
@@ -2698,7 +2749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>133</v>
       </c>
@@ -2706,7 +2757,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="20" t="s">
         <v>135</v>
       </c>
@@ -2714,7 +2765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
         <v>137</v>
       </c>
@@ -2722,7 +2773,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
         <v>139</v>
       </c>
@@ -2730,7 +2781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
         <v>141</v>
       </c>
@@ -2738,7 +2789,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>143</v>
       </c>
@@ -2746,7 +2797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
         <v>145</v>
       </c>
@@ -2754,7 +2805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
         <v>147</v>
       </c>
@@ -2762,7 +2813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
         <v>149</v>
       </c>
@@ -2771,7 +2822,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
         <v>151</v>
       </c>
@@ -2779,7 +2830,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="20" t="s">
         <v>153</v>
       </c>
@@ -2787,7 +2838,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="5" t="s">
         <v>155</v>
       </c>
@@ -2795,7 +2846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="20" t="s">
         <v>157</v>
       </c>
@@ -2803,7 +2854,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>159</v>
       </c>
@@ -2811,7 +2862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>161</v>
       </c>
@@ -2819,7 +2870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>163</v>
       </c>
@@ -2827,7 +2878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>165</v>
       </c>
@@ -2835,7 +2886,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>167</v>
       </c>
@@ -2843,7 +2894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>169</v>
       </c>
@@ -2851,7 +2902,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="20" t="s">
         <v>171</v>
       </c>
@@ -2859,7 +2910,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="5" t="s">
         <v>173</v>
       </c>
@@ -2867,7 +2918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="5" t="s">
         <v>175</v>
       </c>
@@ -2875,7 +2926,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="20" t="s">
         <v>177</v>
       </c>
@@ -2883,7 +2934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="5" t="s">
         <v>179</v>
       </c>
@@ -2891,7 +2942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="5" t="s">
         <v>181</v>
       </c>
@@ -2899,7 +2950,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>183</v>
       </c>
@@ -2907,7 +2958,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>185</v>
       </c>
@@ -2915,7 +2966,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="85" s="1" customFormat="1" spans="1:5">
       <c r="A85" s="8" t="s">
         <v>187</v>
       </c>
@@ -2927,7 +2978,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>190</v>
       </c>
@@ -2935,7 +2986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="20" t="s">
         <v>192</v>
       </c>
@@ -2943,7 +2994,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
         <v>194</v>
       </c>
@@ -2951,7 +3002,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>196</v>
       </c>
@@ -2959,7 +3010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="20" t="s">
         <v>198</v>
       </c>
@@ -2967,7 +3018,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="5" t="s">
         <v>200</v>
       </c>
@@ -2975,7 +3026,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="5" t="s">
         <v>202</v>
       </c>
@@ -2983,7 +3034,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="5" t="s">
         <v>204</v>
       </c>
@@ -2991,7 +3042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="5" t="s">
         <v>206</v>
       </c>
@@ -2999,7 +3050,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="5" t="s">
         <v>208</v>
       </c>
@@ -3007,7 +3058,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="5" t="s">
         <v>210</v>
       </c>
@@ -3015,7 +3066,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>212</v>
       </c>
@@ -3023,7 +3074,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="20" t="s">
         <v>214</v>
       </c>
@@ -3031,7 +3082,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>216</v>
       </c>
@@ -3039,7 +3090,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>218</v>
       </c>
@@ -3047,7 +3098,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>220</v>
       </c>
@@ -3055,7 +3106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>222</v>
       </c>
@@ -3063,7 +3114,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>224</v>
       </c>
@@ -3071,7 +3122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>226</v>
       </c>
@@ -3079,7 +3130,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="20" t="s">
         <v>228</v>
       </c>
@@ -3087,7 +3138,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>230</v>
       </c>
@@ -3095,7 +3146,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
         <v>232</v>
       </c>
@@ -3103,7 +3154,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="20" t="s">
         <v>234</v>
       </c>
@@ -3111,7 +3162,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>236</v>
       </c>
@@ -3119,7 +3170,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="20" t="s">
         <v>238</v>
       </c>
@@ -3127,7 +3178,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="20" t="s">
         <v>240</v>
       </c>
@@ -3135,7 +3186,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" s="3" customFormat="1" ht="14.25" spans="1:5">
+    <row r="112" s="3" customFormat="1" spans="1:5">
       <c r="A112" s="21" t="s">
         <v>242</v>
       </c>
@@ -3145,7 +3196,7 @@
       <c r="D112" s="22"/>
       <c r="E112" s="22"/>
     </row>
-    <row r="113" ht="14.25" spans="1:2">
+    <row r="113" spans="1:2">
       <c r="A113" s="20" t="s">
         <v>244</v>
       </c>
@@ -3153,7 +3204,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="20" t="s">
         <v>246</v>
       </c>
@@ -3161,7 +3212,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="5" t="s">
         <v>248</v>
       </c>
@@ -3169,7 +3220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="20" t="s">
         <v>250</v>
       </c>
@@ -3177,7 +3228,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="20" t="s">
         <v>252</v>
       </c>
@@ -3185,7 +3236,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="20" t="s">
         <v>254</v>
       </c>
@@ -3193,7 +3244,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="20" t="s">
         <v>256</v>
       </c>
@@ -3201,7 +3252,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="20" t="s">
         <v>258</v>
       </c>
@@ -3209,7 +3260,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="20" t="s">
         <v>260</v>
       </c>
@@ -3217,7 +3268,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="20" t="s">
         <v>262</v>
       </c>
@@ -3225,7 +3276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="20" t="s">
         <v>264</v>
       </c>
@@ -3233,7 +3284,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="20" t="s">
         <v>266</v>
       </c>
@@ -3241,7 +3292,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="20" t="s">
         <v>268</v>
       </c>
@@ -3249,7 +3300,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:2">
+    <row r="126" spans="1:2">
       <c r="A126" s="20" t="s">
         <v>270</v>
       </c>
@@ -3257,7 +3308,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:2">
+    <row r="127" spans="1:2">
       <c r="A127" s="20" t="s">
         <v>272</v>
       </c>
@@ -3265,7 +3316,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="128" s="1" customFormat="1" spans="1:5">
       <c r="A128" s="19" t="s">
         <v>274</v>
       </c>
@@ -3279,7 +3330,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:2">
+    <row r="129" spans="1:2">
       <c r="A129" s="5" t="s">
         <v>277</v>
       </c>
@@ -3287,7 +3338,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:2">
+    <row r="130" spans="1:2">
       <c r="A130" s="20" t="s">
         <v>279</v>
       </c>
@@ -3295,7 +3346,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="5" t="s">
         <v>281</v>
       </c>
@@ -3303,7 +3354,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="5" t="s">
         <v>283</v>
       </c>
@@ -3311,7 +3362,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="20" t="s">
         <v>285</v>
       </c>
@@ -3319,7 +3370,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:2">
       <c r="A134" s="5" t="s">
         <v>287</v>
       </c>
@@ -3327,7 +3378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="20" t="s">
         <v>289</v>
       </c>
@@ -3335,7 +3386,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="20" t="s">
         <v>291</v>
       </c>
@@ -3343,7 +3394,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:2">
+    <row r="137" spans="1:2">
       <c r="A137" s="5" t="s">
         <v>293</v>
       </c>
@@ -3351,7 +3402,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:2">
+    <row r="138" spans="1:2">
       <c r="A138" s="5" t="s">
         <v>295</v>
       </c>
@@ -3359,7 +3410,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="20" t="s">
         <v>297</v>
       </c>
@@ -3367,7 +3418,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:2">
+    <row r="140" spans="1:2">
       <c r="A140" s="5" t="s">
         <v>299</v>
       </c>
@@ -3375,7 +3426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="5" t="s">
         <v>301</v>
       </c>
@@ -3383,7 +3434,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:4">
+    <row r="142" spans="1:4">
       <c r="A142" s="20" t="s">
         <v>303</v>
       </c>
@@ -3394,7 +3445,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="20" t="s">
         <v>306</v>
       </c>
@@ -3402,7 +3453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="5" t="s">
         <v>308</v>
       </c>
@@ -3410,7 +3461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="20" t="s">
         <v>310</v>
       </c>
@@ -3418,7 +3469,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:2">
+    <row r="146" spans="1:2">
       <c r="A146" s="20" t="s">
         <v>312</v>
       </c>
@@ -3426,7 +3477,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="5" t="s">
         <v>314</v>
       </c>
@@ -3434,7 +3485,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:2">
+    <row r="148" spans="1:2">
       <c r="A148" s="20" t="s">
         <v>316</v>
       </c>
@@ -3442,7 +3493,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:2">
+    <row r="149" spans="1:2">
       <c r="A149" s="20" t="s">
         <v>318</v>
       </c>
@@ -3450,7 +3501,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:2">
+    <row r="150" spans="1:2">
       <c r="A150" s="20" t="s">
         <v>320</v>
       </c>
@@ -3458,7 +3509,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="5" t="s">
         <v>322</v>
       </c>
@@ -3466,7 +3517,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="20" t="s">
         <v>324</v>
       </c>
@@ -3474,1839 +3525,1884 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:2">
-      <c r="A153" s="23" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:1">
-      <c r="A154" s="20"/>
-    </row>
-    <row r="155" ht="14.25" spans="1:1">
-      <c r="A155" s="20"/>
-    </row>
-    <row r="156" ht="14.25" spans="1:1">
-      <c r="A156" s="20"/>
-    </row>
-    <row r="157" ht="14.25" spans="1:1">
-      <c r="A157" s="20"/>
-    </row>
-    <row r="158" ht="14.25" spans="1:1">
-      <c r="A158" s="20"/>
-    </row>
-    <row r="159" ht="14.25" spans="1:1">
-      <c r="A159" s="20"/>
-    </row>
-    <row r="160" ht="14.25" spans="1:1">
-      <c r="A160" s="20"/>
-    </row>
-    <row r="161" ht="14.25" spans="1:1">
-      <c r="A161" s="20"/>
-    </row>
-    <row r="162" ht="14.25" spans="1:1">
-      <c r="A162" s="20"/>
-    </row>
-    <row r="163" ht="14.25" spans="1:1">
+    <row r="154" spans="1:2">
+      <c r="A154" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" s="20"/>
     </row>
-    <row r="164" ht="14.25" spans="1:1">
+    <row r="164" spans="1:1">
       <c r="A164" s="20"/>
     </row>
-    <row r="165" ht="14.25" spans="1:1">
+    <row r="165" spans="1:1">
       <c r="A165" s="20"/>
     </row>
-    <row r="166" ht="14.25" spans="1:1">
+    <row r="166" spans="1:1">
       <c r="A166" s="20"/>
     </row>
-    <row r="167" ht="14.25" spans="1:1">
+    <row r="167" spans="1:1">
       <c r="A167" s="20"/>
     </row>
-    <row r="168" ht="14.25" spans="1:1">
+    <row r="168" spans="1:1">
       <c r="A168" s="20"/>
     </row>
-    <row r="169" ht="14.25" spans="1:1">
+    <row r="169" spans="1:1">
       <c r="A169" s="20"/>
     </row>
-    <row r="170" ht="14.25" spans="1:1">
+    <row r="170" spans="1:1">
       <c r="A170" s="20"/>
     </row>
-    <row r="171" ht="14.25" spans="1:1">
+    <row r="171" spans="1:1">
       <c r="A171" s="20"/>
     </row>
-    <row r="172" ht="14.25" spans="1:1">
+    <row r="172" spans="1:1">
       <c r="A172" s="20"/>
     </row>
-    <row r="173" ht="14.25" spans="1:1">
+    <row r="173" spans="1:1">
       <c r="A173" s="20"/>
     </row>
-    <row r="174" ht="14.25" spans="1:1">
+    <row r="174" spans="1:1">
       <c r="A174" s="20"/>
     </row>
-    <row r="175" ht="14.25" spans="1:1">
+    <row r="175" spans="1:1">
       <c r="A175" s="20"/>
     </row>
-    <row r="176" ht="14.25" spans="1:1">
+    <row r="176" spans="1:1">
       <c r="A176" s="20"/>
     </row>
-    <row r="177" ht="14.25" spans="1:1">
+    <row r="177" spans="1:1">
       <c r="A177" s="20"/>
     </row>
-    <row r="178" ht="14.25" spans="1:1">
+    <row r="178" spans="1:1">
       <c r="A178" s="20"/>
     </row>
-    <row r="179" ht="14.25" spans="1:1">
+    <row r="179" spans="1:1">
       <c r="A179" s="20"/>
     </row>
-    <row r="180" ht="14.25" spans="1:1">
+    <row r="180" spans="1:1">
       <c r="A180" s="20"/>
     </row>
-    <row r="181" ht="14.25" spans="1:1">
+    <row r="181" spans="1:1">
       <c r="A181" s="20"/>
     </row>
-    <row r="182" ht="14.25" spans="1:1">
+    <row r="182" spans="1:1">
       <c r="A182" s="20"/>
     </row>
-    <row r="183" ht="14.25" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="20"/>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="20"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="20"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="20"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="20"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="20"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="20"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="20"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="20"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="20"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="20"/>
     </row>
-    <row r="194" ht="14.25" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="20"/>
     </row>
-    <row r="195" ht="14.25" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="20"/>
     </row>
-    <row r="196" ht="14.25" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="20"/>
     </row>
-    <row r="197" ht="14.25" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="20"/>
     </row>
-    <row r="198" ht="14.25" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="20"/>
     </row>
-    <row r="199" ht="14.25" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="20"/>
     </row>
-    <row r="200" ht="14.25" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="20"/>
     </row>
-    <row r="201" ht="14.25" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="20"/>
     </row>
-    <row r="202" ht="14.25" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="20"/>
     </row>
-    <row r="203" ht="14.25" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="20"/>
     </row>
-    <row r="204" ht="14.25" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="20"/>
     </row>
-    <row r="205" ht="14.25" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="20"/>
     </row>
-    <row r="206" ht="14.25" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="20"/>
     </row>
-    <row r="207" ht="14.25" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="20"/>
     </row>
-    <row r="208" ht="14.25" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="20"/>
     </row>
-    <row r="209" ht="14.25" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="20"/>
     </row>
-    <row r="210" ht="14.25" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="20"/>
     </row>
-    <row r="211" ht="14.25" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="20"/>
     </row>
-    <row r="212" ht="14.25" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="20"/>
     </row>
-    <row r="213" ht="14.25" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="20"/>
     </row>
-    <row r="214" ht="14.25" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="20"/>
     </row>
-    <row r="215" ht="14.25" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="20"/>
     </row>
-    <row r="216" ht="14.25" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="20"/>
     </row>
-    <row r="217" ht="14.25" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="20"/>
     </row>
-    <row r="218" ht="14.25" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="20"/>
     </row>
-    <row r="219" ht="14.25" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="20"/>
     </row>
-    <row r="220" ht="14.25" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="20"/>
     </row>
-    <row r="221" ht="14.25" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="20"/>
     </row>
-    <row r="222" ht="14.25" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="20"/>
     </row>
-    <row r="223" ht="14.25" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="20"/>
     </row>
-    <row r="224" ht="14.25" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="20"/>
     </row>
-    <row r="225" ht="14.25" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="20"/>
     </row>
-    <row r="226" ht="14.25" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="20"/>
     </row>
-    <row r="227" ht="14.25" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="20"/>
     </row>
-    <row r="228" ht="14.25" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="20"/>
     </row>
-    <row r="229" ht="14.25" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="20"/>
     </row>
-    <row r="230" ht="14.25" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="20"/>
     </row>
-    <row r="231" ht="14.25" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="20"/>
     </row>
-    <row r="232" ht="14.25" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="20"/>
     </row>
-    <row r="233" ht="14.25" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="20"/>
     </row>
-    <row r="234" ht="14.25" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="20"/>
     </row>
-    <row r="235" ht="14.25" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="20"/>
     </row>
-    <row r="236" ht="14.25" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="20"/>
     </row>
-    <row r="237" ht="14.25" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="20"/>
     </row>
-    <row r="238" ht="14.25" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="20"/>
     </row>
-    <row r="239" ht="14.25" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="20"/>
     </row>
-    <row r="240" ht="14.25" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="20"/>
     </row>
-    <row r="241" ht="14.25" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="20"/>
     </row>
-    <row r="242" ht="14.25" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="20"/>
     </row>
-    <row r="243" ht="14.25" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="20"/>
     </row>
-    <row r="244" ht="14.25" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="20"/>
     </row>
-    <row r="245" ht="14.25" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="20"/>
     </row>
-    <row r="246" ht="14.25" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="20"/>
     </row>
-    <row r="247" ht="14.25" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="20"/>
     </row>
-    <row r="248" ht="14.25" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="20"/>
     </row>
-    <row r="249" ht="14.25" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="20"/>
     </row>
-    <row r="250" ht="14.25" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="20"/>
     </row>
-    <row r="251" ht="14.25" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="20"/>
     </row>
-    <row r="252" ht="14.25" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="20"/>
     </row>
-    <row r="253" ht="14.25" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="20"/>
     </row>
-    <row r="254" ht="14.25" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="20"/>
     </row>
-    <row r="255" ht="14.25" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="20"/>
     </row>
-    <row r="256" ht="14.25" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="20"/>
     </row>
-    <row r="257" ht="14.25" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="20"/>
     </row>
-    <row r="258" ht="14.25" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="20"/>
     </row>
-    <row r="259" ht="14.25" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="20"/>
     </row>
-    <row r="260" ht="14.25" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="20"/>
     </row>
-    <row r="261" ht="14.25" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="20"/>
     </row>
-    <row r="262" ht="14.25" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="20"/>
     </row>
-    <row r="263" ht="14.25" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="20"/>
     </row>
-    <row r="264" ht="14.25" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="20"/>
     </row>
-    <row r="265" ht="14.25" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="20"/>
     </row>
-    <row r="266" ht="14.25" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="20"/>
     </row>
-    <row r="267" ht="14.25" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="20"/>
     </row>
-    <row r="268" ht="14.25" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="20"/>
     </row>
-    <row r="269" ht="14.25" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="20"/>
     </row>
-    <row r="270" ht="14.25" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="20"/>
     </row>
-    <row r="271" ht="14.25" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="20"/>
     </row>
-    <row r="272" ht="14.25" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="20"/>
     </row>
-    <row r="273" ht="14.25" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="20"/>
     </row>
-    <row r="274" ht="14.25" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="20"/>
     </row>
-    <row r="275" ht="14.25" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="20"/>
     </row>
-    <row r="276" ht="14.25" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="20"/>
     </row>
-    <row r="277" ht="14.25" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="20"/>
     </row>
-    <row r="278" ht="14.25" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="20"/>
     </row>
-    <row r="279" ht="14.25" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="20"/>
     </row>
-    <row r="280" ht="14.25" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="20"/>
     </row>
-    <row r="281" ht="14.25" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="20"/>
     </row>
-    <row r="282" ht="14.25" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="20"/>
     </row>
-    <row r="283" ht="14.25" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="20"/>
     </row>
-    <row r="284" ht="14.25" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="20"/>
     </row>
-    <row r="285" ht="14.25" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="20"/>
     </row>
-    <row r="286" ht="14.25" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="20"/>
     </row>
-    <row r="287" ht="14.25" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="20"/>
     </row>
-    <row r="288" ht="14.25" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="20"/>
     </row>
-    <row r="289" ht="14.25" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="20"/>
     </row>
-    <row r="290" ht="14.25" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="20"/>
     </row>
-    <row r="291" ht="14.25" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="20"/>
     </row>
-    <row r="292" ht="14.25" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="20"/>
     </row>
-    <row r="293" ht="14.25" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="20"/>
     </row>
-    <row r="294" ht="14.25" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="20"/>
     </row>
-    <row r="295" ht="14.25" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="20"/>
     </row>
-    <row r="296" ht="14.25" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="20"/>
     </row>
-    <row r="297" ht="14.25" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="20"/>
     </row>
-    <row r="298" ht="14.25" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="20"/>
     </row>
-    <row r="299" ht="14.25" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="20"/>
     </row>
-    <row r="300" ht="14.25" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="20"/>
     </row>
-    <row r="301" ht="14.25" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="20"/>
     </row>
-    <row r="302" ht="14.25" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="20"/>
     </row>
-    <row r="303" ht="14.25" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="20"/>
     </row>
-    <row r="304" ht="14.25" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="20"/>
     </row>
-    <row r="305" ht="14.25" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="20"/>
     </row>
-    <row r="306" ht="14.25" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="20"/>
     </row>
-    <row r="307" ht="14.25" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="20"/>
     </row>
-    <row r="308" ht="14.25" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="20"/>
     </row>
-    <row r="309" ht="14.25" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="20"/>
     </row>
-    <row r="310" ht="14.25" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="20"/>
     </row>
-    <row r="311" ht="14.25" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="20"/>
     </row>
-    <row r="312" ht="14.25" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="20"/>
     </row>
-    <row r="313" ht="14.25" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="20"/>
     </row>
-    <row r="314" ht="14.25" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="20"/>
     </row>
-    <row r="315" ht="14.25" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="20"/>
     </row>
-    <row r="316" ht="14.25" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="20"/>
     </row>
-    <row r="317" ht="14.25" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="20"/>
     </row>
-    <row r="318" ht="14.25" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="20"/>
     </row>
-    <row r="319" ht="14.25" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="20"/>
     </row>
-    <row r="320" ht="14.25" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="20"/>
     </row>
-    <row r="321" ht="14.25" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="20"/>
     </row>
-    <row r="322" ht="14.25" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="20"/>
     </row>
-    <row r="323" ht="14.25" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="20"/>
     </row>
-    <row r="324" ht="14.25" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="20"/>
     </row>
-    <row r="325" ht="14.25" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="20"/>
     </row>
-    <row r="326" ht="14.25" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="20"/>
     </row>
-    <row r="327" ht="14.25" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="20"/>
     </row>
-    <row r="328" ht="14.25" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="20"/>
     </row>
-    <row r="329" ht="14.25" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="20"/>
     </row>
-    <row r="330" ht="14.25" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="20"/>
     </row>
-    <row r="331" ht="14.25" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="20"/>
     </row>
-    <row r="332" ht="14.25" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="20"/>
     </row>
-    <row r="333" ht="14.25" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="20"/>
     </row>
-    <row r="334" ht="14.25" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="20"/>
     </row>
-    <row r="335" ht="14.25" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="20"/>
     </row>
-    <row r="336" ht="14.25" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="20"/>
     </row>
-    <row r="337" ht="14.25" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="20"/>
     </row>
-    <row r="338" ht="14.25" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="20"/>
     </row>
-    <row r="339" ht="14.25" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="20"/>
     </row>
-    <row r="340" ht="14.25" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="20"/>
     </row>
-    <row r="341" ht="14.25" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="20"/>
     </row>
-    <row r="342" ht="14.25" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="20"/>
     </row>
-    <row r="343" ht="14.25" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="20"/>
     </row>
-    <row r="344" ht="14.25" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="20"/>
     </row>
-    <row r="345" ht="14.25" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="20"/>
     </row>
-    <row r="346" ht="14.25" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="20"/>
     </row>
-    <row r="347" ht="14.25" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="20"/>
     </row>
-    <row r="348" ht="14.25" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="20"/>
     </row>
-    <row r="349" ht="14.25" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="20"/>
     </row>
-    <row r="350" ht="14.25" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="20"/>
     </row>
-    <row r="351" ht="14.25" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="20"/>
     </row>
-    <row r="352" ht="14.25" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="20"/>
     </row>
-    <row r="353" ht="14.25" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="20"/>
     </row>
-    <row r="354" ht="14.25" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="20"/>
     </row>
-    <row r="355" ht="14.25" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="20"/>
     </row>
-    <row r="356" ht="14.25" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="20"/>
     </row>
-    <row r="357" ht="14.25" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="20"/>
     </row>
-    <row r="358" ht="14.25" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="20"/>
     </row>
-    <row r="359" ht="14.25" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="20"/>
     </row>
-    <row r="360" ht="14.25" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="20"/>
     </row>
-    <row r="361" ht="14.25" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="20"/>
     </row>
-    <row r="362" ht="14.25" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="20"/>
     </row>
-    <row r="363" ht="14.25" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="20"/>
     </row>
-    <row r="364" ht="14.25" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="20"/>
     </row>
-    <row r="365" ht="14.25" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="20"/>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="20"/>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="20"/>
     </row>
-    <row r="368" ht="14.25" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="20"/>
     </row>
-    <row r="369" ht="14.25" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="20"/>
     </row>
-    <row r="370" ht="14.25" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="20"/>
     </row>
-    <row r="371" ht="14.25" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="20"/>
     </row>
-    <row r="372" ht="14.25" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="20"/>
     </row>
-    <row r="373" ht="14.25" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="20"/>
     </row>
-    <row r="374" ht="14.25" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="20"/>
     </row>
-    <row r="375" ht="14.25" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="20"/>
     </row>
-    <row r="376" ht="14.25" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="20"/>
     </row>
-    <row r="377" ht="14.25" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="20"/>
     </row>
-    <row r="378" ht="14.25" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="20"/>
     </row>
-    <row r="379" ht="14.25" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="20"/>
     </row>
-    <row r="380" ht="14.25" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="20"/>
     </row>
-    <row r="381" ht="14.25" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="20"/>
     </row>
-    <row r="382" ht="14.25" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="20"/>
     </row>
-    <row r="383" ht="14.25" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="20"/>
     </row>
-    <row r="384" ht="14.25" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="20"/>
     </row>
-    <row r="385" ht="14.25" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="20"/>
     </row>
-    <row r="386" ht="14.25" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="20"/>
     </row>
-    <row r="387" ht="14.25" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="20"/>
     </row>
-    <row r="388" ht="14.25" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="20"/>
     </row>
-    <row r="389" ht="14.25" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="20"/>
     </row>
-    <row r="390" ht="14.25" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="20"/>
     </row>
-    <row r="391" ht="14.25" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="20"/>
     </row>
-    <row r="392" ht="14.25" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="20"/>
     </row>
-    <row r="393" ht="14.25" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="20"/>
     </row>
-    <row r="394" ht="14.25" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="20"/>
     </row>
-    <row r="395" ht="14.25" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="20"/>
     </row>
-    <row r="396" ht="14.25" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="20"/>
     </row>
-    <row r="397" ht="14.25" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="20"/>
     </row>
-    <row r="398" ht="14.25" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="20"/>
     </row>
-    <row r="399" ht="14.25" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="20"/>
     </row>
-    <row r="400" ht="14.25" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="20"/>
     </row>
-    <row r="401" ht="14.25" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="20"/>
     </row>
-    <row r="402" ht="14.25" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="20"/>
     </row>
-    <row r="403" ht="14.25" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="20"/>
     </row>
-    <row r="404" ht="14.25" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="20"/>
     </row>
-    <row r="405" ht="14.25" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="20"/>
     </row>
-    <row r="406" ht="14.25" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="20"/>
     </row>
-    <row r="407" ht="14.25" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="20"/>
     </row>
-    <row r="408" ht="14.25" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="20"/>
     </row>
-    <row r="409" ht="14.25" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="20"/>
     </row>
-    <row r="410" ht="14.25" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="20"/>
     </row>
-    <row r="411" ht="14.25" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="20"/>
     </row>
-    <row r="412" ht="14.25" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="20"/>
     </row>
-    <row r="413" ht="14.25" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="20"/>
     </row>
-    <row r="414" ht="14.25" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="20"/>
     </row>
-    <row r="415" ht="14.25" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="20"/>
     </row>
-    <row r="416" ht="14.25" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="20"/>
     </row>
-    <row r="417" ht="14.25" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="20"/>
     </row>
-    <row r="418" ht="14.25" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="20"/>
     </row>
-    <row r="419" ht="14.25" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="20"/>
     </row>
-    <row r="420" ht="14.25" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="20"/>
     </row>
-    <row r="421" ht="14.25" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="20"/>
     </row>
-    <row r="422" ht="14.25" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="20"/>
     </row>
-    <row r="423" ht="14.25" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="20"/>
     </row>
-    <row r="424" ht="14.25" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="20"/>
     </row>
-    <row r="425" ht="14.25" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="20"/>
     </row>
-    <row r="426" ht="14.25" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="20"/>
     </row>
-    <row r="427" ht="14.25" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="20"/>
     </row>
-    <row r="428" ht="14.25" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="20"/>
     </row>
-    <row r="429" ht="14.25" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="20"/>
     </row>
-    <row r="430" ht="14.25" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="20"/>
     </row>
-    <row r="431" ht="14.25" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="20"/>
     </row>
-    <row r="432" ht="14.25" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="20"/>
     </row>
-    <row r="433" ht="14.25" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="20"/>
     </row>
-    <row r="434" ht="14.25" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="20"/>
     </row>
-    <row r="435" ht="14.25" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="20"/>
     </row>
-    <row r="436" ht="14.25" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="20"/>
     </row>
-    <row r="437" ht="14.25" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="20"/>
     </row>
-    <row r="438" ht="14.25" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="20"/>
     </row>
-    <row r="439" ht="14.25" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="20"/>
     </row>
-    <row r="440" ht="14.25" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="20"/>
     </row>
-    <row r="441" ht="14.25" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="20"/>
     </row>
-    <row r="442" ht="14.25" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="20"/>
     </row>
-    <row r="443" ht="14.25" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="20"/>
     </row>
-    <row r="444" ht="14.25" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="20"/>
     </row>
-    <row r="445" ht="14.25" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="20"/>
     </row>
-    <row r="446" ht="14.25" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="20"/>
     </row>
-    <row r="447" ht="14.25" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="20"/>
     </row>
-    <row r="448" ht="14.25" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="20"/>
     </row>
-    <row r="449" ht="14.25" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="20"/>
     </row>
-    <row r="450" ht="14.25" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="20"/>
     </row>
-    <row r="451" ht="14.25" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="20"/>
     </row>
-    <row r="452" ht="14.25" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="20"/>
     </row>
-    <row r="453" ht="14.25" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="20"/>
     </row>
-    <row r="454" ht="14.25" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="20"/>
     </row>
-    <row r="455" ht="14.25" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="20"/>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="20"/>
     </row>
-    <row r="457" ht="14.25" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="20"/>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="20"/>
     </row>
-    <row r="459" ht="14.25" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="20"/>
     </row>
-    <row r="460" ht="14.25" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="20"/>
     </row>
-    <row r="461" ht="14.25" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="20"/>
     </row>
-    <row r="462" ht="14.25" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="20"/>
     </row>
-    <row r="463" ht="14.25" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="20"/>
     </row>
-    <row r="464" ht="14.25" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="20"/>
     </row>
-    <row r="465" ht="14.25" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="20"/>
     </row>
-    <row r="466" ht="14.25" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="20"/>
     </row>
-    <row r="467" ht="14.25" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="20"/>
     </row>
-    <row r="468" ht="14.25" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="20"/>
     </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="20"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="20"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="20"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="20"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="20"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="20"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="20"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="20"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="20"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="20"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="20"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="20"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="20"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="20"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="20"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="20"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="20"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="20"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="20"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="20"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="20"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="20"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="20"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="20"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="20"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="20"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="20"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="20"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="20"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="20"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="20"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="20"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="20"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="20"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="20"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="20"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="20"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="20"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="20"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="20"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="20"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="20"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="20"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="20"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="20"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="20"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="20"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="20"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="20"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="20"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="20"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="20"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="20"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="20"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="20"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="20"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="20"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="20"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="20"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="20"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="20"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="20"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="20"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="20"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="20"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="20"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="20"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="20"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="20"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="20"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="20"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="20"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="20"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="20"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="20"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="20"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="20"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="20"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="20"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="20"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="20"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="20"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="20"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="20"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="20"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="20"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="20"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="20"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="20"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="20"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="20"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="20"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="20"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="20"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="20"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="20"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="20"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="20"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="20"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="20"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="20"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="20"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="20"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="20"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="20"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="20"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="20"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="20"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="20"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="20"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="20"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="20"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="20"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="20"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="20"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="20"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="20"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="20"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="20"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="20"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="20"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="20"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="20"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="20"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="20"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="20"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="20"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="20"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="20"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="20"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="20"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="20"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="20"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="20"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="20"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="20"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="20"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="20"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="20"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="20"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="20"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="20"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="20"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="20"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="20"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="20"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="20"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="20"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="20"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="20"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="20"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="20"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="20"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="20"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="20"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="20"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="20"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="20"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="20"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="20"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="20"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="20"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="20"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="20"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="20"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="20"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="20"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="20"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="20"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="20"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="20"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="20"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="20"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="20"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="20"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="20"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="20"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="20"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="20"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="20"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="20"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="20"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="20"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="20"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="20"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="20"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="20"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="20"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="20"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="20"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="20"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="20"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="20"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="20"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="20"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="20"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="20"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="20"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="20"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="20"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="20"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="20"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="20"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="20"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="20"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="20"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="20"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="20"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="20"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="20"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="20"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="20"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="20"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="20"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="20"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="20"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="20"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="20"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="20"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="20"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="20"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="20"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="20"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="20"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="20"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="20"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="20"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="20"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="20"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="20"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="20"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="20"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="20"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="20"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="20"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="20"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="20"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="20"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="20"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="20"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="20"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="20"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="20"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="20"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="20"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="20"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="20"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="20"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="20"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="20"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="20"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="20"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="20"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="20"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="20"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="20"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="20"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="20"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="20"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="20"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="20"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="20"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="20"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="20"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="20"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="20"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="20"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="20"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="20"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="20"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="20"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="20"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="20"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="20"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="20"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="20"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="20"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="20"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="20"/>
     </row>
-    <row r="749" ht="14.25" spans="1:1">
+    <row r="749" spans="1:1">
       <c r="A749" s="20"/>
     </row>
-    <row r="750" ht="14.25" spans="1:1">
+    <row r="750" spans="1:1">
       <c r="A750" s="20"/>
     </row>
-    <row r="751" ht="14.25" spans="1:1">
+    <row r="751" spans="1:1">
       <c r="A751" s="20"/>
     </row>
-    <row r="752" ht="14.25" spans="1:1">
+    <row r="752" spans="1:1">
       <c r="A752" s="20"/>
     </row>
-    <row r="753" ht="14.25" spans="1:1">
+    <row r="753" spans="1:1">
       <c r="A753" s="20"/>
     </row>
-    <row r="754" ht="14.25" spans="1:1">
+    <row r="754" spans="1:1">
       <c r="A754" s="20"/>
     </row>
-    <row r="755" ht="14.25" spans="1:1">
+    <row r="755" spans="1:1">
       <c r="A755" s="20"/>
     </row>
-    <row r="756" ht="14.25" spans="1:1">
+    <row r="756" spans="1:1">
       <c r="A756" s="20"/>
     </row>
-    <row r="757" ht="14.25" spans="1:1">
+    <row r="757" spans="1:1">
       <c r="A757" s="20"/>
     </row>
-    <row r="758" ht="14.25" spans="1:1">
+    <row r="758" spans="1:1">
       <c r="A758" s="20"/>
     </row>
-    <row r="759" ht="14.25" spans="1:1">
+    <row r="759" spans="1:1">
       <c r="A759" s="20"/>
     </row>
-    <row r="760" ht="14.25" spans="1:1">
+    <row r="760" spans="1:1">
       <c r="A760" s="20"/>
     </row>
-    <row r="761" ht="14.25" spans="1:1">
+    <row r="761" spans="1:1">
       <c r="A761" s="20"/>
     </row>
-    <row r="762" ht="14.25" spans="1:1">
+    <row r="762" spans="1:1">
       <c r="A762" s="20"/>
     </row>
   </sheetData>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18915" windowHeight="9750"/>
+    <workbookView windowWidth="19875" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="384">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -303,6 +303,9 @@
     <t>19-05-09~19-05-23</t>
   </si>
   <si>
+    <t>6月1号重新报名</t>
+  </si>
+  <si>
     <t>bovey珀薇旗舰店</t>
   </si>
   <si>
@@ -1132,6 +1135,54 @@
   </si>
   <si>
     <t>起： 2019-05-23止：2019-06-07</t>
+  </si>
+  <si>
+    <t>BYPHASSE海外旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2679812817</t>
+  </si>
+  <si>
+    <t>兰可欣旗舰店</t>
+  </si>
+  <si>
+    <t>Q:3050549503</t>
+  </si>
+  <si>
+    <t>水密码爱坊美专卖店</t>
+  </si>
+  <si>
+    <t>Q:853335999</t>
+  </si>
+  <si>
+    <t>丁家宜迷尚专卖店</t>
+  </si>
+  <si>
+    <t>Q:1113059682</t>
+  </si>
+  <si>
+    <t>军博仕福可思专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:2133242837  </t>
+  </si>
+  <si>
+    <t>锐度旗舰店</t>
+  </si>
+  <si>
+    <t>Q:2640121640</t>
+  </si>
+  <si>
+    <t>野菜旗舰店</t>
+  </si>
+  <si>
+    <t>Q:180796516</t>
+  </si>
+  <si>
+    <t>靓邦素尤奈丝专卖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q:2423838504  </t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1191,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,6 +1213,13 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1229,13 +1287,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0" tint="-0.5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1247,13 +1311,22 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1266,19 +1339,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1297,6 +1361,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1305,9 +1383,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,21 +1423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,23 +1439,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,7 +1447,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,13 +1455,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,54 +1475,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1471,7 +1487,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,73 +1583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,13 +1607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,13 +1637,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,15 +1684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1647,8 +1702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,8 +1711,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1677,17 +1741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1702,6 +1755,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1710,10 +1774,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1722,137 +1786,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,71 +1929,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2250,19 +2317,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E762"/>
+  <dimension ref="A1:F762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2558,17 +2626,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A28" s="9" t="s">
+    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2576,7 +2644,7 @@
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2639,2900 +2707,2943 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A37" s="20" t="s">
+    <row r="37" s="4" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A37" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="23"/>
+      <c r="D37" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="23" t="s">
         <v>89</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:2">
-      <c r="A45" s="21" t="s">
-        <v>104</v>
+      <c r="A45" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:2">
-      <c r="A48" s="21" t="s">
-        <v>110</v>
+      <c r="A48" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A49" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A52" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:2">
-      <c r="A53" s="21" t="s">
-        <v>123</v>
+      <c r="A53" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:2">
-      <c r="A54" s="21" t="s">
-        <v>125</v>
+      <c r="A54" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:2">
-      <c r="A55" s="21" t="s">
-        <v>127</v>
+      <c r="A55" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:2">
-      <c r="A59" s="21" t="s">
-        <v>135</v>
+      <c r="A59" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D66"/>
     </row>
     <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:2">
-      <c r="A68" s="21" t="s">
-        <v>153</v>
+      <c r="A68" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:2">
-      <c r="A70" s="21" t="s">
-        <v>157</v>
+      <c r="A70" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:2">
-      <c r="A77" s="21" t="s">
-        <v>171</v>
+      <c r="A77" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:2">
-      <c r="A80" s="21" t="s">
-        <v>177</v>
+      <c r="A80" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:2">
       <c r="A83" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:2">
       <c r="A84" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:2">
-      <c r="A87" s="21" t="s">
-        <v>192</v>
+      <c r="A87" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:2">
       <c r="A89" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:2">
-      <c r="A90" s="21" t="s">
-        <v>198</v>
+      <c r="A90" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:2">
       <c r="A91" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:2">
       <c r="A92" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:2">
       <c r="A93" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:2">
       <c r="A94" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:2">
-      <c r="A98" s="21" t="s">
-        <v>214</v>
+      <c r="A98" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:2">
-      <c r="A105" s="21" t="s">
-        <v>228</v>
+      <c r="A105" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:2">
       <c r="A106" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:4">
       <c r="A107" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
-      <c r="A108" s="21" t="s">
-        <v>234</v>
+      <c r="A108" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:2">
-      <c r="A110" s="21" t="s">
-        <v>238</v>
+      <c r="A110" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:2">
-      <c r="A111" s="21" t="s">
-        <v>240</v>
+      <c r="A111" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1" ht="14.25" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="14.25" spans="1:5">
       <c r="A112" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
     </row>
     <row r="113" ht="14.25" spans="1:2">
-      <c r="A113" s="21" t="s">
-        <v>244</v>
+      <c r="A113" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:2">
-      <c r="A114" s="21" t="s">
-        <v>246</v>
+      <c r="A114" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:2">
       <c r="A115" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:2">
-      <c r="A116" s="21" t="s">
-        <v>250</v>
+      <c r="A116" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:2">
-      <c r="A117" s="21" t="s">
-        <v>252</v>
+      <c r="A117" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" ht="14.25" spans="1:2">
-      <c r="A118" s="21" t="s">
-        <v>254</v>
+      <c r="A118" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" ht="14.25" spans="1:2">
-      <c r="A119" s="21" t="s">
-        <v>256</v>
+      <c r="A119" s="24" t="s">
+        <v>257</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" ht="14.25" spans="1:2">
-      <c r="A120" s="21" t="s">
-        <v>258</v>
+      <c r="A120" s="24" t="s">
+        <v>259</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" ht="14.25" spans="1:2">
-      <c r="A121" s="21" t="s">
-        <v>260</v>
+      <c r="A121" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" ht="14.25" spans="1:4">
-      <c r="A122" s="21" t="s">
-        <v>262</v>
+      <c r="A122" s="24" t="s">
+        <v>263</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" ht="14.25" spans="1:2">
-      <c r="A123" s="21" t="s">
-        <v>264</v>
+      <c r="A123" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" ht="14.25" spans="1:2">
-      <c r="A124" s="21" t="s">
-        <v>266</v>
+      <c r="A124" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" ht="14.25" spans="1:2">
-      <c r="A125" s="21" t="s">
-        <v>268</v>
+      <c r="A125" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" ht="14.25" spans="1:2">
-      <c r="A126" s="21" t="s">
-        <v>270</v>
+      <c r="A126" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" ht="14.25" spans="1:2">
-      <c r="A127" s="21" t="s">
-        <v>272</v>
+      <c r="A127" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A128" s="20" t="s">
-        <v>274</v>
+      <c r="A128" s="25" t="s">
+        <v>275</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" ht="14.25" spans="1:2">
       <c r="A129" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" ht="14.25" spans="1:2">
-      <c r="A130" s="21" t="s">
-        <v>279</v>
+      <c r="A130" s="24" t="s">
+        <v>280</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:2">
       <c r="A131" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" ht="14.25" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" ht="14.25" spans="1:2">
-      <c r="A133" s="21" t="s">
-        <v>285</v>
+      <c r="A133" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" ht="14.25" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" ht="14.25" spans="1:2">
-      <c r="A135" s="21" t="s">
-        <v>289</v>
+      <c r="A135" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" ht="14.25" spans="1:2">
-      <c r="A136" s="21" t="s">
-        <v>291</v>
+      <c r="A136" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" ht="14.25" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" ht="14.25" spans="1:2">
       <c r="A138" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" ht="14.25" spans="1:2">
-      <c r="A139" s="21" t="s">
-        <v>297</v>
+      <c r="A139" s="24" t="s">
+        <v>298</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" ht="14.25" spans="1:2">
       <c r="A140" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" ht="14.25" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" ht="14.25" spans="1:4">
-      <c r="A142" s="21" t="s">
-        <v>303</v>
+      <c r="A142" s="24" t="s">
+        <v>304</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" ht="14.25" spans="1:2">
-      <c r="A143" s="21" t="s">
-        <v>306</v>
+      <c r="A143" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" ht="14.25" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" ht="14.25" spans="1:2">
-      <c r="A145" s="21" t="s">
-        <v>310</v>
+      <c r="A145" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" ht="14.25" spans="1:2">
-      <c r="A146" s="21" t="s">
-        <v>312</v>
+      <c r="A146" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" ht="14.25" spans="1:2">
       <c r="A147" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" ht="14.25" spans="1:2">
-      <c r="A148" s="21" t="s">
-        <v>316</v>
+      <c r="A148" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" ht="14.25" spans="1:2">
-      <c r="A149" s="21" t="s">
-        <v>318</v>
+      <c r="A149" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" ht="14.25" spans="1:2">
-      <c r="A150" s="21" t="s">
-        <v>320</v>
+      <c r="A150" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" ht="14.25" spans="1:2">
       <c r="A151" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" ht="14.25" spans="1:2">
-      <c r="A152" s="21" t="s">
-        <v>324</v>
+      <c r="A152" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" ht="14.25" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" ht="14.25" spans="1:2">
-      <c r="A154" s="21" t="s">
-        <v>328</v>
+      <c r="A154" s="24" t="s">
+        <v>329</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" ht="14.25" spans="1:2">
-      <c r="A155" s="21" t="s">
-        <v>330</v>
+      <c r="A155" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" ht="14.25" spans="1:2">
-      <c r="A156" s="21" t="s">
-        <v>332</v>
+      <c r="A156" s="24" t="s">
+        <v>333</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" ht="14.25" spans="1:2">
-      <c r="A157" s="21" t="s">
-        <v>334</v>
+      <c r="A157" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" ht="14.25" spans="1:2">
-      <c r="A158" s="21" t="s">
-        <v>336</v>
+      <c r="A158" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" ht="14.25" spans="1:2">
-      <c r="A159" s="21" t="s">
-        <v>338</v>
+      <c r="A159" s="24" t="s">
+        <v>339</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" ht="14.25" spans="1:2">
-      <c r="A160" s="21" t="s">
-        <v>340</v>
+      <c r="A160" s="24" t="s">
+        <v>341</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" ht="14.25" spans="1:2">
-      <c r="A161" s="21" t="s">
-        <v>342</v>
+      <c r="A161" s="24" t="s">
+        <v>343</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" ht="14.25" spans="1:2">
-      <c r="A162" s="21" t="s">
-        <v>344</v>
+      <c r="A162" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" ht="14.25" spans="1:2">
       <c r="A163" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" ht="14.25" spans="1:2">
-      <c r="A164" s="21" t="s">
-        <v>348</v>
+      <c r="A164" s="24" t="s">
+        <v>349</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" ht="14.25" spans="1:2">
-      <c r="A165" s="21" t="s">
-        <v>350</v>
+      <c r="A165" s="24" t="s">
+        <v>351</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" ht="14.25" spans="1:2">
-      <c r="A166" s="24">
+      <c r="A166" s="26">
         <v>54478797</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" ht="14.25" spans="1:2">
-      <c r="A167" s="21" t="s">
-        <v>353</v>
+      <c r="A167" s="24" t="s">
+        <v>354</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" ht="14.25" spans="1:2">
-      <c r="A168" s="21" t="s">
-        <v>355</v>
+      <c r="A168" s="24" t="s">
+        <v>356</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" ht="14.25" spans="1:2">
-      <c r="A169" s="21" t="s">
-        <v>357</v>
+      <c r="A169" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="170" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A170" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B170" s="25" t="s">
+    </row>
+    <row r="170" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A170" s="25" t="s">
         <v>360</v>
       </c>
+      <c r="B170" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="D170" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="171" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A171" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B171" s="25" t="s">
+    </row>
+    <row r="171" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A171" s="25" t="s">
         <v>364</v>
       </c>
+      <c r="B171" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="D171" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="172" ht="14.25" spans="1:1">
-      <c r="A172" s="21"/>
-    </row>
-    <row r="173" ht="14.25" spans="1:1">
-      <c r="A173" s="21"/>
-    </row>
-    <row r="174" ht="14.25" spans="1:1">
-      <c r="A174" s="21"/>
-    </row>
-    <row r="175" ht="14.25" spans="1:1">
-      <c r="A175" s="21"/>
-    </row>
-    <row r="176" ht="14.25" spans="1:1">
-      <c r="A176" s="21"/>
-    </row>
-    <row r="177" ht="14.25" spans="1:1">
-      <c r="A177" s="21"/>
-    </row>
-    <row r="178" ht="14.25" spans="1:1">
-      <c r="A178" s="21"/>
-    </row>
-    <row r="179" ht="14.25" spans="1:1">
-      <c r="A179" s="21"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25" spans="1:2">
+      <c r="A172" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25" spans="1:2">
+      <c r="A173" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25" spans="1:2">
+      <c r="A174" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25" spans="1:2">
+      <c r="A175" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25" spans="1:2">
+      <c r="A176" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25" spans="1:2">
+      <c r="A177" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25" spans="1:2">
+      <c r="A178" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25" spans="1:2">
+      <c r="A179" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="180" ht="14.25" spans="1:1">
-      <c r="A180" s="21"/>
+      <c r="A180" s="24"/>
     </row>
     <row r="181" ht="14.25" spans="1:1">
-      <c r="A181" s="21"/>
+      <c r="A181" s="24"/>
     </row>
     <row r="182" ht="14.25" spans="1:1">
-      <c r="A182" s="21"/>
+      <c r="A182" s="24"/>
     </row>
     <row r="183" ht="14.25" spans="1:1">
-      <c r="A183" s="21"/>
+      <c r="A183" s="24"/>
     </row>
     <row r="184" ht="14.25" spans="1:1">
-      <c r="A184" s="21"/>
+      <c r="A184" s="24"/>
     </row>
     <row r="185" ht="14.25" spans="1:1">
-      <c r="A185" s="21"/>
+      <c r="A185" s="24"/>
     </row>
     <row r="186" ht="14.25" spans="1:1">
-      <c r="A186" s="21"/>
+      <c r="A186" s="24"/>
     </row>
     <row r="187" ht="14.25" spans="1:1">
-      <c r="A187" s="21"/>
+      <c r="A187" s="24"/>
     </row>
     <row r="188" ht="14.25" spans="1:1">
-      <c r="A188" s="21"/>
+      <c r="A188" s="24"/>
     </row>
     <row r="189" ht="14.25" spans="1:1">
-      <c r="A189" s="21"/>
+      <c r="A189" s="24"/>
     </row>
     <row r="190" ht="14.25" spans="1:1">
-      <c r="A190" s="21"/>
+      <c r="A190" s="24"/>
     </row>
     <row r="191" ht="14.25" spans="1:1">
-      <c r="A191" s="21"/>
+      <c r="A191" s="24"/>
     </row>
     <row r="192" ht="14.25" spans="1:1">
-      <c r="A192" s="21"/>
+      <c r="A192" s="24"/>
     </row>
     <row r="193" ht="14.25" spans="1:1">
-      <c r="A193" s="21"/>
+      <c r="A193" s="24"/>
     </row>
     <row r="194" ht="14.25" spans="1:1">
-      <c r="A194" s="21"/>
+      <c r="A194" s="24"/>
     </row>
     <row r="195" ht="14.25" spans="1:1">
-      <c r="A195" s="21"/>
+      <c r="A195" s="24"/>
     </row>
     <row r="196" ht="14.25" spans="1:1">
-      <c r="A196" s="21"/>
+      <c r="A196" s="24"/>
     </row>
     <row r="197" ht="14.25" spans="1:1">
-      <c r="A197" s="21"/>
+      <c r="A197" s="24"/>
     </row>
     <row r="198" ht="14.25" spans="1:1">
-      <c r="A198" s="21"/>
+      <c r="A198" s="24"/>
     </row>
     <row r="199" ht="14.25" spans="1:1">
-      <c r="A199" s="21"/>
+      <c r="A199" s="24"/>
     </row>
     <row r="200" ht="14.25" spans="1:1">
-      <c r="A200" s="21"/>
+      <c r="A200" s="24"/>
     </row>
     <row r="201" ht="14.25" spans="1:1">
-      <c r="A201" s="21"/>
+      <c r="A201" s="24"/>
     </row>
     <row r="202" ht="14.25" spans="1:1">
-      <c r="A202" s="21"/>
+      <c r="A202" s="24"/>
     </row>
     <row r="203" ht="14.25" spans="1:1">
-      <c r="A203" s="21"/>
+      <c r="A203" s="24"/>
     </row>
     <row r="204" ht="14.25" spans="1:1">
-      <c r="A204" s="21"/>
+      <c r="A204" s="24"/>
     </row>
     <row r="205" ht="14.25" spans="1:1">
-      <c r="A205" s="21"/>
+      <c r="A205" s="24"/>
     </row>
     <row r="206" ht="14.25" spans="1:1">
-      <c r="A206" s="21"/>
+      <c r="A206" s="24"/>
     </row>
     <row r="207" ht="14.25" spans="1:1">
-      <c r="A207" s="21"/>
+      <c r="A207" s="24"/>
     </row>
     <row r="208" ht="14.25" spans="1:1">
-      <c r="A208" s="21"/>
+      <c r="A208" s="24"/>
     </row>
     <row r="209" ht="14.25" spans="1:1">
-      <c r="A209" s="21"/>
+      <c r="A209" s="24"/>
     </row>
     <row r="210" ht="14.25" spans="1:1">
-      <c r="A210" s="21"/>
+      <c r="A210" s="24"/>
     </row>
     <row r="211" ht="14.25" spans="1:1">
-      <c r="A211" s="21"/>
+      <c r="A211" s="24"/>
     </row>
     <row r="212" ht="14.25" spans="1:1">
-      <c r="A212" s="21"/>
+      <c r="A212" s="24"/>
     </row>
     <row r="213" ht="14.25" spans="1:1">
-      <c r="A213" s="21"/>
+      <c r="A213" s="24"/>
     </row>
     <row r="214" ht="14.25" spans="1:1">
-      <c r="A214" s="21"/>
+      <c r="A214" s="24"/>
     </row>
     <row r="215" ht="14.25" spans="1:1">
-      <c r="A215" s="21"/>
+      <c r="A215" s="24"/>
     </row>
     <row r="216" ht="14.25" spans="1:1">
-      <c r="A216" s="21"/>
+      <c r="A216" s="24"/>
     </row>
     <row r="217" ht="14.25" spans="1:1">
-      <c r="A217" s="21"/>
+      <c r="A217" s="24"/>
     </row>
     <row r="218" ht="14.25" spans="1:1">
-      <c r="A218" s="21"/>
+      <c r="A218" s="24"/>
     </row>
     <row r="219" ht="14.25" spans="1:1">
-      <c r="A219" s="21"/>
+      <c r="A219" s="24"/>
     </row>
     <row r="220" ht="14.25" spans="1:1">
-      <c r="A220" s="21"/>
+      <c r="A220" s="24"/>
     </row>
     <row r="221" ht="14.25" spans="1:1">
-      <c r="A221" s="21"/>
+      <c r="A221" s="24"/>
     </row>
     <row r="222" ht="14.25" spans="1:1">
-      <c r="A222" s="21"/>
+      <c r="A222" s="24"/>
     </row>
     <row r="223" ht="14.25" spans="1:1">
-      <c r="A223" s="21"/>
+      <c r="A223" s="24"/>
     </row>
     <row r="224" ht="14.25" spans="1:1">
-      <c r="A224" s="21"/>
+      <c r="A224" s="24"/>
     </row>
     <row r="225" ht="14.25" spans="1:1">
-      <c r="A225" s="21"/>
+      <c r="A225" s="24"/>
     </row>
     <row r="226" ht="14.25" spans="1:1">
-      <c r="A226" s="21"/>
+      <c r="A226" s="24"/>
     </row>
     <row r="227" ht="14.25" spans="1:1">
-      <c r="A227" s="21"/>
+      <c r="A227" s="24"/>
     </row>
     <row r="228" ht="14.25" spans="1:1">
-      <c r="A228" s="21"/>
+      <c r="A228" s="24"/>
     </row>
     <row r="229" ht="14.25" spans="1:1">
-      <c r="A229" s="21"/>
+      <c r="A229" s="24"/>
     </row>
     <row r="230" ht="14.25" spans="1:1">
-      <c r="A230" s="21"/>
+      <c r="A230" s="24"/>
     </row>
     <row r="231" ht="14.25" spans="1:1">
-      <c r="A231" s="21"/>
+      <c r="A231" s="24"/>
     </row>
     <row r="232" ht="14.25" spans="1:1">
-      <c r="A232" s="21"/>
+      <c r="A232" s="24"/>
     </row>
     <row r="233" ht="14.25" spans="1:1">
-      <c r="A233" s="21"/>
+      <c r="A233" s="24"/>
     </row>
     <row r="234" ht="14.25" spans="1:1">
-      <c r="A234" s="21"/>
+      <c r="A234" s="24"/>
     </row>
     <row r="235" ht="14.25" spans="1:1">
-      <c r="A235" s="21"/>
+      <c r="A235" s="24"/>
     </row>
     <row r="236" ht="14.25" spans="1:1">
-      <c r="A236" s="21"/>
+      <c r="A236" s="24"/>
     </row>
     <row r="237" ht="14.25" spans="1:1">
-      <c r="A237" s="21"/>
+      <c r="A237" s="24"/>
     </row>
     <row r="238" ht="14.25" spans="1:1">
-      <c r="A238" s="21"/>
+      <c r="A238" s="24"/>
     </row>
     <row r="239" ht="14.25" spans="1:1">
-      <c r="A239" s="21"/>
+      <c r="A239" s="24"/>
     </row>
     <row r="240" ht="14.25" spans="1:1">
-      <c r="A240" s="21"/>
+      <c r="A240" s="24"/>
     </row>
     <row r="241" ht="14.25" spans="1:1">
-      <c r="A241" s="21"/>
+      <c r="A241" s="24"/>
     </row>
     <row r="242" ht="14.25" spans="1:1">
-      <c r="A242" s="21"/>
+      <c r="A242" s="24"/>
     </row>
     <row r="243" ht="14.25" spans="1:1">
-      <c r="A243" s="21"/>
+      <c r="A243" s="24"/>
     </row>
     <row r="244" ht="14.25" spans="1:1">
-      <c r="A244" s="21"/>
+      <c r="A244" s="24"/>
     </row>
     <row r="245" ht="14.25" spans="1:1">
-      <c r="A245" s="21"/>
+      <c r="A245" s="24"/>
     </row>
     <row r="246" ht="14.25" spans="1:1">
-      <c r="A246" s="21"/>
+      <c r="A246" s="24"/>
     </row>
     <row r="247" ht="14.25" spans="1:1">
-      <c r="A247" s="21"/>
+      <c r="A247" s="24"/>
     </row>
     <row r="248" ht="14.25" spans="1:1">
-      <c r="A248" s="21"/>
+      <c r="A248" s="24"/>
     </row>
     <row r="249" ht="14.25" spans="1:1">
-      <c r="A249" s="21"/>
+      <c r="A249" s="24"/>
     </row>
     <row r="250" ht="14.25" spans="1:1">
-      <c r="A250" s="21"/>
+      <c r="A250" s="24"/>
     </row>
     <row r="251" ht="14.25" spans="1:1">
-      <c r="A251" s="21"/>
+      <c r="A251" s="24"/>
     </row>
     <row r="252" ht="14.25" spans="1:1">
-      <c r="A252" s="21"/>
+      <c r="A252" s="24"/>
     </row>
     <row r="253" ht="14.25" spans="1:1">
-      <c r="A253" s="21"/>
+      <c r="A253" s="24"/>
     </row>
     <row r="254" ht="14.25" spans="1:1">
-      <c r="A254" s="21"/>
+      <c r="A254" s="24"/>
     </row>
     <row r="255" ht="14.25" spans="1:1">
-      <c r="A255" s="21"/>
+      <c r="A255" s="24"/>
     </row>
     <row r="256" ht="14.25" spans="1:1">
-      <c r="A256" s="21"/>
+      <c r="A256" s="24"/>
     </row>
     <row r="257" ht="14.25" spans="1:1">
-      <c r="A257" s="21"/>
+      <c r="A257" s="24"/>
     </row>
     <row r="258" ht="14.25" spans="1:1">
-      <c r="A258" s="21"/>
+      <c r="A258" s="24"/>
     </row>
     <row r="259" ht="14.25" spans="1:1">
-      <c r="A259" s="21"/>
+      <c r="A259" s="24"/>
     </row>
     <row r="260" ht="14.25" spans="1:1">
-      <c r="A260" s="21"/>
+      <c r="A260" s="24"/>
     </row>
     <row r="261" ht="14.25" spans="1:1">
-      <c r="A261" s="21"/>
+      <c r="A261" s="24"/>
     </row>
     <row r="262" ht="14.25" spans="1:1">
-      <c r="A262" s="21"/>
+      <c r="A262" s="24"/>
     </row>
     <row r="263" ht="14.25" spans="1:1">
-      <c r="A263" s="21"/>
+      <c r="A263" s="24"/>
     </row>
     <row r="264" ht="14.25" spans="1:1">
-      <c r="A264" s="21"/>
+      <c r="A264" s="24"/>
     </row>
     <row r="265" ht="14.25" spans="1:1">
-      <c r="A265" s="21"/>
+      <c r="A265" s="24"/>
     </row>
     <row r="266" ht="14.25" spans="1:1">
-      <c r="A266" s="21"/>
+      <c r="A266" s="24"/>
     </row>
     <row r="267" ht="14.25" spans="1:1">
-      <c r="A267" s="21"/>
+      <c r="A267" s="24"/>
     </row>
     <row r="268" ht="14.25" spans="1:1">
-      <c r="A268" s="21"/>
+      <c r="A268" s="24"/>
     </row>
     <row r="269" ht="14.25" spans="1:1">
-      <c r="A269" s="21"/>
+      <c r="A269" s="24"/>
     </row>
     <row r="270" ht="14.25" spans="1:1">
-      <c r="A270" s="21"/>
+      <c r="A270" s="24"/>
     </row>
     <row r="271" ht="14.25" spans="1:1">
-      <c r="A271" s="21"/>
+      <c r="A271" s="24"/>
     </row>
     <row r="272" ht="14.25" spans="1:1">
-      <c r="A272" s="21"/>
+      <c r="A272" s="24"/>
     </row>
     <row r="273" ht="14.25" spans="1:1">
-      <c r="A273" s="21"/>
+      <c r="A273" s="24"/>
     </row>
     <row r="274" ht="14.25" spans="1:1">
-      <c r="A274" s="21"/>
+      <c r="A274" s="24"/>
     </row>
     <row r="275" ht="14.25" spans="1:1">
-      <c r="A275" s="21"/>
+      <c r="A275" s="24"/>
     </row>
     <row r="276" ht="14.25" spans="1:1">
-      <c r="A276" s="21"/>
+      <c r="A276" s="24"/>
     </row>
     <row r="277" ht="14.25" spans="1:1">
-      <c r="A277" s="21"/>
+      <c r="A277" s="24"/>
     </row>
     <row r="278" ht="14.25" spans="1:1">
-      <c r="A278" s="21"/>
+      <c r="A278" s="24"/>
     </row>
     <row r="279" ht="14.25" spans="1:1">
-      <c r="A279" s="21"/>
+      <c r="A279" s="24"/>
     </row>
     <row r="280" ht="14.25" spans="1:1">
-      <c r="A280" s="21"/>
+      <c r="A280" s="24"/>
     </row>
     <row r="281" ht="14.25" spans="1:1">
-      <c r="A281" s="21"/>
+      <c r="A281" s="24"/>
     </row>
     <row r="282" ht="14.25" spans="1:1">
-      <c r="A282" s="21"/>
+      <c r="A282" s="24"/>
     </row>
     <row r="283" ht="14.25" spans="1:1">
-      <c r="A283" s="21"/>
+      <c r="A283" s="24"/>
     </row>
     <row r="284" ht="14.25" spans="1:1">
-      <c r="A284" s="21"/>
+      <c r="A284" s="24"/>
     </row>
     <row r="285" ht="14.25" spans="1:1">
-      <c r="A285" s="21"/>
+      <c r="A285" s="24"/>
     </row>
     <row r="286" ht="14.25" spans="1:1">
-      <c r="A286" s="21"/>
+      <c r="A286" s="24"/>
     </row>
     <row r="287" ht="14.25" spans="1:1">
-      <c r="A287" s="21"/>
+      <c r="A287" s="24"/>
     </row>
     <row r="288" ht="14.25" spans="1:1">
-      <c r="A288" s="21"/>
+      <c r="A288" s="24"/>
     </row>
     <row r="289" ht="14.25" spans="1:1">
-      <c r="A289" s="21"/>
+      <c r="A289" s="24"/>
     </row>
     <row r="290" ht="14.25" spans="1:1">
-      <c r="A290" s="21"/>
+      <c r="A290" s="24"/>
     </row>
     <row r="291" ht="14.25" spans="1:1">
-      <c r="A291" s="21"/>
+      <c r="A291" s="24"/>
     </row>
     <row r="292" ht="14.25" spans="1:1">
-      <c r="A292" s="21"/>
+      <c r="A292" s="24"/>
     </row>
     <row r="293" ht="14.25" spans="1:1">
-      <c r="A293" s="21"/>
+      <c r="A293" s="24"/>
     </row>
     <row r="294" ht="14.25" spans="1:1">
-      <c r="A294" s="21"/>
+      <c r="A294" s="24"/>
     </row>
     <row r="295" ht="14.25" spans="1:1">
-      <c r="A295" s="21"/>
+      <c r="A295" s="24"/>
     </row>
     <row r="296" ht="14.25" spans="1:1">
-      <c r="A296" s="21"/>
+      <c r="A296" s="24"/>
     </row>
     <row r="297" ht="14.25" spans="1:1">
-      <c r="A297" s="21"/>
+      <c r="A297" s="24"/>
     </row>
     <row r="298" ht="14.25" spans="1:1">
-      <c r="A298" s="21"/>
+      <c r="A298" s="24"/>
     </row>
     <row r="299" ht="14.25" spans="1:1">
-      <c r="A299" s="21"/>
+      <c r="A299" s="24"/>
     </row>
     <row r="300" ht="14.25" spans="1:1">
-      <c r="A300" s="21"/>
+      <c r="A300" s="24"/>
     </row>
     <row r="301" ht="14.25" spans="1:1">
-      <c r="A301" s="21"/>
+      <c r="A301" s="24"/>
     </row>
     <row r="302" ht="14.25" spans="1:1">
-      <c r="A302" s="21"/>
+      <c r="A302" s="24"/>
     </row>
     <row r="303" ht="14.25" spans="1:1">
-      <c r="A303" s="21"/>
+      <c r="A303" s="24"/>
     </row>
     <row r="304" ht="14.25" spans="1:1">
-      <c r="A304" s="21"/>
+      <c r="A304" s="24"/>
     </row>
     <row r="305" ht="14.25" spans="1:1">
-      <c r="A305" s="21"/>
+      <c r="A305" s="24"/>
     </row>
     <row r="306" ht="14.25" spans="1:1">
-      <c r="A306" s="21"/>
+      <c r="A306" s="24"/>
     </row>
     <row r="307" ht="14.25" spans="1:1">
-      <c r="A307" s="21"/>
+      <c r="A307" s="24"/>
     </row>
     <row r="308" ht="14.25" spans="1:1">
-      <c r="A308" s="21"/>
+      <c r="A308" s="24"/>
     </row>
     <row r="309" ht="14.25" spans="1:1">
-      <c r="A309" s="21"/>
+      <c r="A309" s="24"/>
     </row>
     <row r="310" ht="14.25" spans="1:1">
-      <c r="A310" s="21"/>
+      <c r="A310" s="24"/>
     </row>
     <row r="311" ht="14.25" spans="1:1">
-      <c r="A311" s="21"/>
+      <c r="A311" s="24"/>
     </row>
     <row r="312" ht="14.25" spans="1:1">
-      <c r="A312" s="21"/>
+      <c r="A312" s="24"/>
     </row>
     <row r="313" ht="14.25" spans="1:1">
-      <c r="A313" s="21"/>
+      <c r="A313" s="24"/>
     </row>
     <row r="314" ht="14.25" spans="1:1">
-      <c r="A314" s="21"/>
+      <c r="A314" s="24"/>
     </row>
     <row r="315" ht="14.25" spans="1:1">
-      <c r="A315" s="21"/>
+      <c r="A315" s="24"/>
     </row>
     <row r="316" ht="14.25" spans="1:1">
-      <c r="A316" s="21"/>
+      <c r="A316" s="24"/>
     </row>
     <row r="317" ht="14.25" spans="1:1">
-      <c r="A317" s="21"/>
+      <c r="A317" s="24"/>
     </row>
     <row r="318" ht="14.25" spans="1:1">
-      <c r="A318" s="21"/>
+      <c r="A318" s="24"/>
     </row>
     <row r="319" ht="14.25" spans="1:1">
-      <c r="A319" s="21"/>
+      <c r="A319" s="24"/>
     </row>
     <row r="320" ht="14.25" spans="1:1">
-      <c r="A320" s="21"/>
+      <c r="A320" s="24"/>
     </row>
     <row r="321" ht="14.25" spans="1:1">
-      <c r="A321" s="21"/>
+      <c r="A321" s="24"/>
     </row>
     <row r="322" ht="14.25" spans="1:1">
-      <c r="A322" s="21"/>
+      <c r="A322" s="24"/>
     </row>
     <row r="323" ht="14.25" spans="1:1">
-      <c r="A323" s="21"/>
+      <c r="A323" s="24"/>
     </row>
     <row r="324" ht="14.25" spans="1:1">
-      <c r="A324" s="21"/>
+      <c r="A324" s="24"/>
     </row>
     <row r="325" ht="14.25" spans="1:1">
-      <c r="A325" s="21"/>
+      <c r="A325" s="24"/>
     </row>
     <row r="326" ht="14.25" spans="1:1">
-      <c r="A326" s="21"/>
+      <c r="A326" s="24"/>
     </row>
     <row r="327" ht="14.25" spans="1:1">
-      <c r="A327" s="21"/>
+      <c r="A327" s="24"/>
     </row>
     <row r="328" ht="14.25" spans="1:1">
-      <c r="A328" s="21"/>
+      <c r="A328" s="24"/>
     </row>
     <row r="329" ht="14.25" spans="1:1">
-      <c r="A329" s="21"/>
+      <c r="A329" s="24"/>
     </row>
     <row r="330" ht="14.25" spans="1:1">
-      <c r="A330" s="21"/>
+      <c r="A330" s="24"/>
     </row>
     <row r="331" ht="14.25" spans="1:1">
-      <c r="A331" s="21"/>
+      <c r="A331" s="24"/>
     </row>
     <row r="332" ht="14.25" spans="1:1">
-      <c r="A332" s="21"/>
+      <c r="A332" s="24"/>
     </row>
     <row r="333" ht="14.25" spans="1:1">
-      <c r="A333" s="21"/>
+      <c r="A333" s="24"/>
     </row>
     <row r="334" ht="14.25" spans="1:1">
-      <c r="A334" s="21"/>
+      <c r="A334" s="24"/>
     </row>
     <row r="335" ht="14.25" spans="1:1">
-      <c r="A335" s="21"/>
+      <c r="A335" s="24"/>
     </row>
     <row r="336" ht="14.25" spans="1:1">
-      <c r="A336" s="21"/>
+      <c r="A336" s="24"/>
     </row>
     <row r="337" ht="14.25" spans="1:1">
-      <c r="A337" s="21"/>
+      <c r="A337" s="24"/>
     </row>
     <row r="338" ht="14.25" spans="1:1">
-      <c r="A338" s="21"/>
+      <c r="A338" s="24"/>
     </row>
     <row r="339" ht="14.25" spans="1:1">
-      <c r="A339" s="21"/>
+      <c r="A339" s="24"/>
     </row>
     <row r="340" ht="14.25" spans="1:1">
-      <c r="A340" s="21"/>
+      <c r="A340" s="24"/>
     </row>
     <row r="341" ht="14.25" spans="1:1">
-      <c r="A341" s="21"/>
+      <c r="A341" s="24"/>
     </row>
     <row r="342" ht="14.25" spans="1:1">
-      <c r="A342" s="21"/>
+      <c r="A342" s="24"/>
     </row>
     <row r="343" ht="14.25" spans="1:1">
-      <c r="A343" s="21"/>
+      <c r="A343" s="24"/>
     </row>
     <row r="344" ht="14.25" spans="1:1">
-      <c r="A344" s="21"/>
+      <c r="A344" s="24"/>
     </row>
     <row r="345" ht="14.25" spans="1:1">
-      <c r="A345" s="21"/>
+      <c r="A345" s="24"/>
     </row>
     <row r="346" ht="14.25" spans="1:1">
-      <c r="A346" s="21"/>
+      <c r="A346" s="24"/>
     </row>
     <row r="347" ht="14.25" spans="1:1">
-      <c r="A347" s="21"/>
+      <c r="A347" s="24"/>
     </row>
     <row r="348" ht="14.25" spans="1:1">
-      <c r="A348" s="21"/>
+      <c r="A348" s="24"/>
     </row>
     <row r="349" ht="14.25" spans="1:1">
-      <c r="A349" s="21"/>
+      <c r="A349" s="24"/>
     </row>
     <row r="350" ht="14.25" spans="1:1">
-      <c r="A350" s="21"/>
+      <c r="A350" s="24"/>
     </row>
     <row r="351" ht="14.25" spans="1:1">
-      <c r="A351" s="21"/>
+      <c r="A351" s="24"/>
     </row>
     <row r="352" ht="14.25" spans="1:1">
-      <c r="A352" s="21"/>
+      <c r="A352" s="24"/>
     </row>
     <row r="353" ht="14.25" spans="1:1">
-      <c r="A353" s="21"/>
+      <c r="A353" s="24"/>
     </row>
     <row r="354" ht="14.25" spans="1:1">
-      <c r="A354" s="21"/>
+      <c r="A354" s="24"/>
     </row>
     <row r="355" ht="14.25" spans="1:1">
-      <c r="A355" s="21"/>
+      <c r="A355" s="24"/>
     </row>
     <row r="356" ht="14.25" spans="1:1">
-      <c r="A356" s="21"/>
+      <c r="A356" s="24"/>
     </row>
     <row r="357" ht="14.25" spans="1:1">
-      <c r="A357" s="21"/>
+      <c r="A357" s="24"/>
     </row>
     <row r="358" ht="14.25" spans="1:1">
-      <c r="A358" s="21"/>
+      <c r="A358" s="24"/>
     </row>
     <row r="359" ht="14.25" spans="1:1">
-      <c r="A359" s="21"/>
+      <c r="A359" s="24"/>
     </row>
     <row r="360" ht="14.25" spans="1:1">
-      <c r="A360" s="21"/>
+      <c r="A360" s="24"/>
     </row>
     <row r="361" ht="14.25" spans="1:1">
-      <c r="A361" s="21"/>
+      <c r="A361" s="24"/>
     </row>
     <row r="362" ht="14.25" spans="1:1">
-      <c r="A362" s="21"/>
+      <c r="A362" s="24"/>
     </row>
     <row r="363" ht="14.25" spans="1:1">
-      <c r="A363" s="21"/>
+      <c r="A363" s="24"/>
     </row>
     <row r="364" ht="14.25" spans="1:1">
-      <c r="A364" s="21"/>
+      <c r="A364" s="24"/>
     </row>
     <row r="365" ht="14.25" spans="1:1">
-      <c r="A365" s="21"/>
+      <c r="A365" s="24"/>
     </row>
     <row r="366" ht="14.25" spans="1:1">
-      <c r="A366" s="21"/>
+      <c r="A366" s="24"/>
     </row>
     <row r="367" ht="14.25" spans="1:1">
-      <c r="A367" s="21"/>
+      <c r="A367" s="24"/>
     </row>
     <row r="368" ht="14.25" spans="1:1">
-      <c r="A368" s="21"/>
+      <c r="A368" s="24"/>
     </row>
     <row r="369" ht="14.25" spans="1:1">
-      <c r="A369" s="21"/>
+      <c r="A369" s="24"/>
     </row>
     <row r="370" ht="14.25" spans="1:1">
-      <c r="A370" s="21"/>
+      <c r="A370" s="24"/>
     </row>
     <row r="371" ht="14.25" spans="1:1">
-      <c r="A371" s="21"/>
+      <c r="A371" s="24"/>
     </row>
     <row r="372" ht="14.25" spans="1:1">
-      <c r="A372" s="21"/>
+      <c r="A372" s="24"/>
     </row>
     <row r="373" ht="14.25" spans="1:1">
-      <c r="A373" s="21"/>
+      <c r="A373" s="24"/>
     </row>
     <row r="374" ht="14.25" spans="1:1">
-      <c r="A374" s="21"/>
+      <c r="A374" s="24"/>
     </row>
     <row r="375" ht="14.25" spans="1:1">
-      <c r="A375" s="21"/>
+      <c r="A375" s="24"/>
     </row>
     <row r="376" ht="14.25" spans="1:1">
-      <c r="A376" s="21"/>
+      <c r="A376" s="24"/>
     </row>
     <row r="377" ht="14.25" spans="1:1">
-      <c r="A377" s="21"/>
+      <c r="A377" s="24"/>
     </row>
     <row r="378" ht="14.25" spans="1:1">
-      <c r="A378" s="21"/>
+      <c r="A378" s="24"/>
     </row>
     <row r="379" ht="14.25" spans="1:1">
-      <c r="A379" s="21"/>
+      <c r="A379" s="24"/>
     </row>
     <row r="380" ht="14.25" spans="1:1">
-      <c r="A380" s="21"/>
+      <c r="A380" s="24"/>
     </row>
     <row r="381" ht="14.25" spans="1:1">
-      <c r="A381" s="21"/>
+      <c r="A381" s="24"/>
     </row>
     <row r="382" ht="14.25" spans="1:1">
-      <c r="A382" s="21"/>
+      <c r="A382" s="24"/>
     </row>
     <row r="383" ht="14.25" spans="1:1">
-      <c r="A383" s="21"/>
+      <c r="A383" s="24"/>
     </row>
     <row r="384" ht="14.25" spans="1:1">
-      <c r="A384" s="21"/>
+      <c r="A384" s="24"/>
     </row>
     <row r="385" ht="14.25" spans="1:1">
-      <c r="A385" s="21"/>
+      <c r="A385" s="24"/>
     </row>
     <row r="386" ht="14.25" spans="1:1">
-      <c r="A386" s="21"/>
+      <c r="A386" s="24"/>
     </row>
     <row r="387" ht="14.25" spans="1:1">
-      <c r="A387" s="21"/>
+      <c r="A387" s="24"/>
     </row>
     <row r="388" ht="14.25" spans="1:1">
-      <c r="A388" s="21"/>
+      <c r="A388" s="24"/>
     </row>
     <row r="389" ht="14.25" spans="1:1">
-      <c r="A389" s="21"/>
+      <c r="A389" s="24"/>
     </row>
     <row r="390" ht="14.25" spans="1:1">
-      <c r="A390" s="21"/>
+      <c r="A390" s="24"/>
     </row>
     <row r="391" ht="14.25" spans="1:1">
-      <c r="A391" s="21"/>
+      <c r="A391" s="24"/>
     </row>
     <row r="392" ht="14.25" spans="1:1">
-      <c r="A392" s="21"/>
+      <c r="A392" s="24"/>
     </row>
     <row r="393" ht="14.25" spans="1:1">
-      <c r="A393" s="21"/>
+      <c r="A393" s="24"/>
     </row>
     <row r="394" ht="14.25" spans="1:1">
-      <c r="A394" s="21"/>
+      <c r="A394" s="24"/>
     </row>
     <row r="395" ht="14.25" spans="1:1">
-      <c r="A395" s="21"/>
+      <c r="A395" s="24"/>
     </row>
     <row r="396" ht="14.25" spans="1:1">
-      <c r="A396" s="21"/>
+      <c r="A396" s="24"/>
     </row>
     <row r="397" ht="14.25" spans="1:1">
-      <c r="A397" s="21"/>
+      <c r="A397" s="24"/>
     </row>
     <row r="398" ht="14.25" spans="1:1">
-      <c r="A398" s="21"/>
+      <c r="A398" s="24"/>
     </row>
     <row r="399" ht="14.25" spans="1:1">
-      <c r="A399" s="21"/>
+      <c r="A399" s="24"/>
     </row>
     <row r="400" ht="14.25" spans="1:1">
-      <c r="A400" s="21"/>
+      <c r="A400" s="24"/>
     </row>
     <row r="401" ht="14.25" spans="1:1">
-      <c r="A401" s="21"/>
+      <c r="A401" s="24"/>
     </row>
     <row r="402" ht="14.25" spans="1:1">
-      <c r="A402" s="21"/>
+      <c r="A402" s="24"/>
     </row>
     <row r="403" ht="14.25" spans="1:1">
-      <c r="A403" s="21"/>
+      <c r="A403" s="24"/>
     </row>
     <row r="404" ht="14.25" spans="1:1">
-      <c r="A404" s="21"/>
+      <c r="A404" s="24"/>
     </row>
     <row r="405" ht="14.25" spans="1:1">
-      <c r="A405" s="21"/>
+      <c r="A405" s="24"/>
     </row>
     <row r="406" ht="14.25" spans="1:1">
-      <c r="A406" s="21"/>
+      <c r="A406" s="24"/>
     </row>
     <row r="407" ht="14.25" spans="1:1">
-      <c r="A407" s="21"/>
+      <c r="A407" s="24"/>
     </row>
     <row r="408" ht="14.25" spans="1:1">
-      <c r="A408" s="21"/>
+      <c r="A408" s="24"/>
     </row>
     <row r="409" ht="14.25" spans="1:1">
-      <c r="A409" s="21"/>
+      <c r="A409" s="24"/>
     </row>
     <row r="410" ht="14.25" spans="1:1">
-      <c r="A410" s="21"/>
+      <c r="A410" s="24"/>
     </row>
     <row r="411" ht="14.25" spans="1:1">
-      <c r="A411" s="21"/>
+      <c r="A411" s="24"/>
     </row>
     <row r="412" ht="14.25" spans="1:1">
-      <c r="A412" s="21"/>
+      <c r="A412" s="24"/>
     </row>
     <row r="413" ht="14.25" spans="1:1">
-      <c r="A413" s="21"/>
+      <c r="A413" s="24"/>
     </row>
     <row r="414" ht="14.25" spans="1:1">
-      <c r="A414" s="21"/>
+      <c r="A414" s="24"/>
     </row>
     <row r="415" ht="14.25" spans="1:1">
-      <c r="A415" s="21"/>
+      <c r="A415" s="24"/>
     </row>
     <row r="416" ht="14.25" spans="1:1">
-      <c r="A416" s="21"/>
+      <c r="A416" s="24"/>
     </row>
     <row r="417" ht="14.25" spans="1:1">
-      <c r="A417" s="21"/>
+      <c r="A417" s="24"/>
     </row>
     <row r="418" ht="14.25" spans="1:1">
-      <c r="A418" s="21"/>
+      <c r="A418" s="24"/>
     </row>
     <row r="419" ht="14.25" spans="1:1">
-      <c r="A419" s="21"/>
+      <c r="A419" s="24"/>
     </row>
     <row r="420" ht="14.25" spans="1:1">
-      <c r="A420" s="21"/>
+      <c r="A420" s="24"/>
     </row>
     <row r="421" ht="14.25" spans="1:1">
-      <c r="A421" s="21"/>
+      <c r="A421" s="24"/>
     </row>
     <row r="422" ht="14.25" spans="1:1">
-      <c r="A422" s="21"/>
+      <c r="A422" s="24"/>
     </row>
     <row r="423" ht="14.25" spans="1:1">
-      <c r="A423" s="21"/>
+      <c r="A423" s="24"/>
     </row>
     <row r="424" ht="14.25" spans="1:1">
-      <c r="A424" s="21"/>
+      <c r="A424" s="24"/>
     </row>
     <row r="425" ht="14.25" spans="1:1">
-      <c r="A425" s="21"/>
+      <c r="A425" s="24"/>
     </row>
     <row r="426" ht="14.25" spans="1:1">
-      <c r="A426" s="21"/>
+      <c r="A426" s="24"/>
     </row>
     <row r="427" ht="14.25" spans="1:1">
-      <c r="A427" s="21"/>
+      <c r="A427" s="24"/>
     </row>
     <row r="428" ht="14.25" spans="1:1">
-      <c r="A428" s="21"/>
+      <c r="A428" s="24"/>
     </row>
     <row r="429" ht="14.25" spans="1:1">
-      <c r="A429" s="21"/>
+      <c r="A429" s="24"/>
     </row>
     <row r="430" ht="14.25" spans="1:1">
-      <c r="A430" s="21"/>
+      <c r="A430" s="24"/>
     </row>
     <row r="431" ht="14.25" spans="1:1">
-      <c r="A431" s="21"/>
+      <c r="A431" s="24"/>
     </row>
     <row r="432" ht="14.25" spans="1:1">
-      <c r="A432" s="21"/>
+      <c r="A432" s="24"/>
     </row>
     <row r="433" ht="14.25" spans="1:1">
-      <c r="A433" s="21"/>
+      <c r="A433" s="24"/>
     </row>
     <row r="434" ht="14.25" spans="1:1">
-      <c r="A434" s="21"/>
+      <c r="A434" s="24"/>
     </row>
     <row r="435" ht="14.25" spans="1:1">
-      <c r="A435" s="21"/>
+      <c r="A435" s="24"/>
     </row>
     <row r="436" ht="14.25" spans="1:1">
-      <c r="A436" s="21"/>
+      <c r="A436" s="24"/>
     </row>
     <row r="437" ht="14.25" spans="1:1">
-      <c r="A437" s="21"/>
+      <c r="A437" s="24"/>
     </row>
     <row r="438" ht="14.25" spans="1:1">
-      <c r="A438" s="21"/>
+      <c r="A438" s="24"/>
     </row>
     <row r="439" ht="14.25" spans="1:1">
-      <c r="A439" s="21"/>
+      <c r="A439" s="24"/>
     </row>
     <row r="440" ht="14.25" spans="1:1">
-      <c r="A440" s="21"/>
+      <c r="A440" s="24"/>
     </row>
     <row r="441" ht="14.25" spans="1:1">
-      <c r="A441" s="21"/>
+      <c r="A441" s="24"/>
     </row>
     <row r="442" ht="14.25" spans="1:1">
-      <c r="A442" s="21"/>
+      <c r="A442" s="24"/>
     </row>
     <row r="443" ht="14.25" spans="1:1">
-      <c r="A443" s="21"/>
+      <c r="A443" s="24"/>
     </row>
     <row r="444" ht="14.25" spans="1:1">
-      <c r="A444" s="21"/>
+      <c r="A444" s="24"/>
     </row>
     <row r="445" ht="14.25" spans="1:1">
-      <c r="A445" s="21"/>
+      <c r="A445" s="24"/>
     </row>
     <row r="446" ht="14.25" spans="1:1">
-      <c r="A446" s="21"/>
+      <c r="A446" s="24"/>
     </row>
     <row r="447" ht="14.25" spans="1:1">
-      <c r="A447" s="21"/>
+      <c r="A447" s="24"/>
     </row>
     <row r="448" ht="14.25" spans="1:1">
-      <c r="A448" s="21"/>
+      <c r="A448" s="24"/>
     </row>
     <row r="449" ht="14.25" spans="1:1">
-      <c r="A449" s="21"/>
+      <c r="A449" s="24"/>
     </row>
     <row r="450" ht="14.25" spans="1:1">
-      <c r="A450" s="21"/>
+      <c r="A450" s="24"/>
     </row>
     <row r="451" ht="14.25" spans="1:1">
-      <c r="A451" s="21"/>
+      <c r="A451" s="24"/>
     </row>
     <row r="452" ht="14.25" spans="1:1">
-      <c r="A452" s="21"/>
+      <c r="A452" s="24"/>
     </row>
     <row r="453" ht="14.25" spans="1:1">
-      <c r="A453" s="21"/>
+      <c r="A453" s="24"/>
     </row>
     <row r="454" ht="14.25" spans="1:1">
-      <c r="A454" s="21"/>
+      <c r="A454" s="24"/>
     </row>
     <row r="455" ht="14.25" spans="1:1">
-      <c r="A455" s="21"/>
+      <c r="A455" s="24"/>
     </row>
     <row r="456" ht="14.25" spans="1:1">
-      <c r="A456" s="21"/>
+      <c r="A456" s="24"/>
     </row>
     <row r="457" ht="14.25" spans="1:1">
-      <c r="A457" s="21"/>
+      <c r="A457" s="24"/>
     </row>
     <row r="458" ht="14.25" spans="1:1">
-      <c r="A458" s="21"/>
+      <c r="A458" s="24"/>
     </row>
     <row r="459" ht="14.25" spans="1:1">
-      <c r="A459" s="21"/>
+      <c r="A459" s="24"/>
     </row>
     <row r="460" ht="14.25" spans="1:1">
-      <c r="A460" s="21"/>
+      <c r="A460" s="24"/>
     </row>
     <row r="461" ht="14.25" spans="1:1">
-      <c r="A461" s="21"/>
+      <c r="A461" s="24"/>
     </row>
     <row r="462" ht="14.25" spans="1:1">
-      <c r="A462" s="21"/>
+      <c r="A462" s="24"/>
     </row>
     <row r="463" ht="14.25" spans="1:1">
-      <c r="A463" s="21"/>
+      <c r="A463" s="24"/>
     </row>
     <row r="464" ht="14.25" spans="1:1">
-      <c r="A464" s="21"/>
+      <c r="A464" s="24"/>
     </row>
     <row r="465" ht="14.25" spans="1:1">
-      <c r="A465" s="21"/>
+      <c r="A465" s="24"/>
     </row>
     <row r="466" ht="14.25" spans="1:1">
-      <c r="A466" s="21"/>
+      <c r="A466" s="24"/>
     </row>
     <row r="467" ht="14.25" spans="1:1">
-      <c r="A467" s="21"/>
+      <c r="A467" s="24"/>
     </row>
     <row r="468" ht="14.25" spans="1:1">
-      <c r="A468" s="21"/>
+      <c r="A468" s="24"/>
     </row>
     <row r="469" ht="14.25" spans="1:1">
-      <c r="A469" s="21"/>
+      <c r="A469" s="24"/>
     </row>
     <row r="470" ht="14.25" spans="1:1">
-      <c r="A470" s="21"/>
+      <c r="A470" s="24"/>
     </row>
     <row r="471" ht="14.25" spans="1:1">
-      <c r="A471" s="21"/>
+      <c r="A471" s="24"/>
     </row>
     <row r="472" ht="14.25" spans="1:1">
-      <c r="A472" s="21"/>
+      <c r="A472" s="24"/>
     </row>
     <row r="473" ht="14.25" spans="1:1">
-      <c r="A473" s="21"/>
+      <c r="A473" s="24"/>
     </row>
     <row r="474" ht="14.25" spans="1:1">
-      <c r="A474" s="21"/>
+      <c r="A474" s="24"/>
     </row>
     <row r="475" ht="14.25" spans="1:1">
-      <c r="A475" s="21"/>
+      <c r="A475" s="24"/>
     </row>
     <row r="476" ht="14.25" spans="1:1">
-      <c r="A476" s="21"/>
+      <c r="A476" s="24"/>
     </row>
     <row r="477" ht="14.25" spans="1:1">
-      <c r="A477" s="21"/>
+      <c r="A477" s="24"/>
     </row>
     <row r="478" ht="14.25" spans="1:1">
-      <c r="A478" s="21"/>
+      <c r="A478" s="24"/>
     </row>
     <row r="479" ht="14.25" spans="1:1">
-      <c r="A479" s="21"/>
+      <c r="A479" s="24"/>
     </row>
     <row r="480" ht="14.25" spans="1:1">
-      <c r="A480" s="21"/>
+      <c r="A480" s="24"/>
     </row>
     <row r="481" ht="14.25" spans="1:1">
-      <c r="A481" s="21"/>
+      <c r="A481" s="24"/>
     </row>
     <row r="482" ht="14.25" spans="1:1">
-      <c r="A482" s="21"/>
+      <c r="A482" s="24"/>
     </row>
     <row r="483" ht="14.25" spans="1:1">
-      <c r="A483" s="21"/>
+      <c r="A483" s="24"/>
     </row>
     <row r="484" ht="14.25" spans="1:1">
-      <c r="A484" s="21"/>
+      <c r="A484" s="24"/>
     </row>
     <row r="485" ht="14.25" spans="1:1">
-      <c r="A485" s="21"/>
+      <c r="A485" s="24"/>
     </row>
     <row r="486" ht="14.25" spans="1:1">
-      <c r="A486" s="21"/>
+      <c r="A486" s="24"/>
     </row>
     <row r="487" ht="14.25" spans="1:1">
-      <c r="A487" s="21"/>
+      <c r="A487" s="24"/>
     </row>
     <row r="488" ht="14.25" spans="1:1">
-      <c r="A488" s="21"/>
+      <c r="A488" s="24"/>
     </row>
     <row r="489" ht="14.25" spans="1:1">
-      <c r="A489" s="21"/>
+      <c r="A489" s="24"/>
     </row>
     <row r="490" ht="14.25" spans="1:1">
-      <c r="A490" s="21"/>
+      <c r="A490" s="24"/>
     </row>
     <row r="491" ht="14.25" spans="1:1">
-      <c r="A491" s="21"/>
+      <c r="A491" s="24"/>
     </row>
     <row r="492" ht="14.25" spans="1:1">
-      <c r="A492" s="21"/>
+      <c r="A492" s="24"/>
     </row>
     <row r="493" ht="14.25" spans="1:1">
-      <c r="A493" s="21"/>
+      <c r="A493" s="24"/>
     </row>
     <row r="494" ht="14.25" spans="1:1">
-      <c r="A494" s="21"/>
+      <c r="A494" s="24"/>
     </row>
     <row r="495" ht="14.25" spans="1:1">
-      <c r="A495" s="21"/>
+      <c r="A495" s="24"/>
     </row>
     <row r="496" ht="14.25" spans="1:1">
-      <c r="A496" s="21"/>
+      <c r="A496" s="24"/>
     </row>
     <row r="497" ht="14.25" spans="1:1">
-      <c r="A497" s="21"/>
+      <c r="A497" s="24"/>
     </row>
     <row r="498" ht="14.25" spans="1:1">
-      <c r="A498" s="21"/>
+      <c r="A498" s="24"/>
     </row>
     <row r="499" ht="14.25" spans="1:1">
-      <c r="A499" s="21"/>
+      <c r="A499" s="24"/>
     </row>
     <row r="500" ht="14.25" spans="1:1">
-      <c r="A500" s="21"/>
+      <c r="A500" s="24"/>
     </row>
     <row r="501" ht="14.25" spans="1:1">
-      <c r="A501" s="21"/>
+      <c r="A501" s="24"/>
     </row>
     <row r="502" ht="14.25" spans="1:1">
-      <c r="A502" s="21"/>
+      <c r="A502" s="24"/>
     </row>
     <row r="503" ht="14.25" spans="1:1">
-      <c r="A503" s="21"/>
+      <c r="A503" s="24"/>
     </row>
     <row r="504" ht="14.25" spans="1:1">
-      <c r="A504" s="21"/>
+      <c r="A504" s="24"/>
     </row>
     <row r="505" ht="14.25" spans="1:1">
-      <c r="A505" s="21"/>
+      <c r="A505" s="24"/>
     </row>
     <row r="506" ht="14.25" spans="1:1">
-      <c r="A506" s="21"/>
+      <c r="A506" s="24"/>
     </row>
     <row r="507" ht="14.25" spans="1:1">
-      <c r="A507" s="21"/>
+      <c r="A507" s="24"/>
     </row>
     <row r="508" ht="14.25" spans="1:1">
-      <c r="A508" s="21"/>
+      <c r="A508" s="24"/>
     </row>
     <row r="509" ht="14.25" spans="1:1">
-      <c r="A509" s="21"/>
+      <c r="A509" s="24"/>
     </row>
     <row r="510" ht="14.25" spans="1:1">
-      <c r="A510" s="21"/>
+      <c r="A510" s="24"/>
     </row>
     <row r="511" ht="14.25" spans="1:1">
-      <c r="A511" s="21"/>
+      <c r="A511" s="24"/>
     </row>
     <row r="512" ht="14.25" spans="1:1">
-      <c r="A512" s="21"/>
+      <c r="A512" s="24"/>
     </row>
     <row r="513" ht="14.25" spans="1:1">
-      <c r="A513" s="21"/>
+      <c r="A513" s="24"/>
     </row>
     <row r="514" ht="14.25" spans="1:1">
-      <c r="A514" s="21"/>
+      <c r="A514" s="24"/>
     </row>
     <row r="515" ht="14.25" spans="1:1">
-      <c r="A515" s="21"/>
+      <c r="A515" s="24"/>
     </row>
     <row r="516" ht="14.25" spans="1:1">
-      <c r="A516" s="21"/>
+      <c r="A516" s="24"/>
     </row>
     <row r="517" ht="14.25" spans="1:1">
-      <c r="A517" s="21"/>
+      <c r="A517" s="24"/>
     </row>
     <row r="518" ht="14.25" spans="1:1">
-      <c r="A518" s="21"/>
+      <c r="A518" s="24"/>
     </row>
     <row r="519" ht="14.25" spans="1:1">
-      <c r="A519" s="21"/>
+      <c r="A519" s="24"/>
     </row>
     <row r="520" ht="14.25" spans="1:1">
-      <c r="A520" s="21"/>
+      <c r="A520" s="24"/>
     </row>
     <row r="521" ht="14.25" spans="1:1">
-      <c r="A521" s="21"/>
+      <c r="A521" s="24"/>
     </row>
     <row r="522" ht="14.25" spans="1:1">
-      <c r="A522" s="21"/>
+      <c r="A522" s="24"/>
     </row>
     <row r="523" ht="14.25" spans="1:1">
-      <c r="A523" s="21"/>
+      <c r="A523" s="24"/>
     </row>
     <row r="524" ht="14.25" spans="1:1">
-      <c r="A524" s="21"/>
+      <c r="A524" s="24"/>
     </row>
     <row r="525" ht="14.25" spans="1:1">
-      <c r="A525" s="21"/>
+      <c r="A525" s="24"/>
     </row>
     <row r="526" ht="14.25" spans="1:1">
-      <c r="A526" s="21"/>
+      <c r="A526" s="24"/>
     </row>
     <row r="527" ht="14.25" spans="1:1">
-      <c r="A527" s="21"/>
+      <c r="A527" s="24"/>
     </row>
     <row r="528" ht="14.25" spans="1:1">
-      <c r="A528" s="21"/>
+      <c r="A528" s="24"/>
     </row>
     <row r="529" ht="14.25" spans="1:1">
-      <c r="A529" s="21"/>
+      <c r="A529" s="24"/>
     </row>
     <row r="530" ht="14.25" spans="1:1">
-      <c r="A530" s="21"/>
+      <c r="A530" s="24"/>
     </row>
     <row r="531" ht="14.25" spans="1:1">
-      <c r="A531" s="21"/>
+      <c r="A531" s="24"/>
     </row>
     <row r="532" ht="14.25" spans="1:1">
-      <c r="A532" s="21"/>
+      <c r="A532" s="24"/>
     </row>
     <row r="533" ht="14.25" spans="1:1">
-      <c r="A533" s="21"/>
+      <c r="A533" s="24"/>
     </row>
     <row r="534" ht="14.25" spans="1:1">
-      <c r="A534" s="21"/>
+      <c r="A534" s="24"/>
     </row>
     <row r="535" ht="14.25" spans="1:1">
-      <c r="A535" s="21"/>
+      <c r="A535" s="24"/>
     </row>
     <row r="536" ht="14.25" spans="1:1">
-      <c r="A536" s="21"/>
+      <c r="A536" s="24"/>
     </row>
     <row r="537" ht="14.25" spans="1:1">
-      <c r="A537" s="21"/>
+      <c r="A537" s="24"/>
     </row>
     <row r="538" ht="14.25" spans="1:1">
-      <c r="A538" s="21"/>
+      <c r="A538" s="24"/>
     </row>
     <row r="539" ht="14.25" spans="1:1">
-      <c r="A539" s="21"/>
+      <c r="A539" s="24"/>
     </row>
     <row r="540" ht="14.25" spans="1:1">
-      <c r="A540" s="21"/>
+      <c r="A540" s="24"/>
     </row>
     <row r="541" ht="14.25" spans="1:1">
-      <c r="A541" s="21"/>
+      <c r="A541" s="24"/>
     </row>
     <row r="542" ht="14.25" spans="1:1">
-      <c r="A542" s="21"/>
+      <c r="A542" s="24"/>
     </row>
     <row r="543" ht="14.25" spans="1:1">
-      <c r="A543" s="21"/>
+      <c r="A543" s="24"/>
     </row>
     <row r="544" ht="14.25" spans="1:1">
-      <c r="A544" s="21"/>
+      <c r="A544" s="24"/>
     </row>
     <row r="545" ht="14.25" spans="1:1">
-      <c r="A545" s="21"/>
+      <c r="A545" s="24"/>
     </row>
     <row r="546" ht="14.25" spans="1:1">
-      <c r="A546" s="21"/>
+      <c r="A546" s="24"/>
     </row>
     <row r="547" ht="14.25" spans="1:1">
-      <c r="A547" s="21"/>
+      <c r="A547" s="24"/>
     </row>
     <row r="548" ht="14.25" spans="1:1">
-      <c r="A548" s="21"/>
+      <c r="A548" s="24"/>
     </row>
     <row r="549" ht="14.25" spans="1:1">
-      <c r="A549" s="21"/>
+      <c r="A549" s="24"/>
     </row>
     <row r="550" ht="14.25" spans="1:1">
-      <c r="A550" s="21"/>
+      <c r="A550" s="24"/>
     </row>
     <row r="551" ht="14.25" spans="1:1">
-      <c r="A551" s="21"/>
+      <c r="A551" s="24"/>
     </row>
     <row r="552" ht="14.25" spans="1:1">
-      <c r="A552" s="21"/>
+      <c r="A552" s="24"/>
     </row>
     <row r="553" ht="14.25" spans="1:1">
-      <c r="A553" s="21"/>
+      <c r="A553" s="24"/>
     </row>
     <row r="554" ht="14.25" spans="1:1">
-      <c r="A554" s="21"/>
+      <c r="A554" s="24"/>
     </row>
     <row r="555" ht="14.25" spans="1:1">
-      <c r="A555" s="21"/>
+      <c r="A555" s="24"/>
     </row>
     <row r="556" ht="14.25" spans="1:1">
-      <c r="A556" s="21"/>
+      <c r="A556" s="24"/>
     </row>
     <row r="557" ht="14.25" spans="1:1">
-      <c r="A557" s="21"/>
+      <c r="A557" s="24"/>
     </row>
     <row r="558" ht="14.25" spans="1:1">
-      <c r="A558" s="21"/>
+      <c r="A558" s="24"/>
     </row>
     <row r="559" ht="14.25" spans="1:1">
-      <c r="A559" s="21"/>
+      <c r="A559" s="24"/>
     </row>
     <row r="560" ht="14.25" spans="1:1">
-      <c r="A560" s="21"/>
+      <c r="A560" s="24"/>
     </row>
     <row r="561" ht="14.25" spans="1:1">
-      <c r="A561" s="21"/>
+      <c r="A561" s="24"/>
     </row>
     <row r="562" ht="14.25" spans="1:1">
-      <c r="A562" s="21"/>
+      <c r="A562" s="24"/>
     </row>
     <row r="563" ht="14.25" spans="1:1">
-      <c r="A563" s="21"/>
+      <c r="A563" s="24"/>
     </row>
     <row r="564" ht="14.25" spans="1:1">
-      <c r="A564" s="21"/>
+      <c r="A564" s="24"/>
     </row>
     <row r="565" ht="14.25" spans="1:1">
-      <c r="A565" s="21"/>
+      <c r="A565" s="24"/>
     </row>
     <row r="566" ht="14.25" spans="1:1">
-      <c r="A566" s="21"/>
+      <c r="A566" s="24"/>
     </row>
     <row r="567" ht="14.25" spans="1:1">
-      <c r="A567" s="21"/>
+      <c r="A567" s="24"/>
     </row>
     <row r="568" ht="14.25" spans="1:1">
-      <c r="A568" s="21"/>
+      <c r="A568" s="24"/>
     </row>
     <row r="569" ht="14.25" spans="1:1">
-      <c r="A569" s="21"/>
+      <c r="A569" s="24"/>
     </row>
     <row r="570" ht="14.25" spans="1:1">
-      <c r="A570" s="21"/>
+      <c r="A570" s="24"/>
     </row>
     <row r="571" ht="14.25" spans="1:1">
-      <c r="A571" s="21"/>
+      <c r="A571" s="24"/>
     </row>
     <row r="572" ht="14.25" spans="1:1">
-      <c r="A572" s="21"/>
+      <c r="A572" s="24"/>
     </row>
     <row r="573" ht="14.25" spans="1:1">
-      <c r="A573" s="21"/>
+      <c r="A573" s="24"/>
     </row>
     <row r="574" ht="14.25" spans="1:1">
-      <c r="A574" s="21"/>
+      <c r="A574" s="24"/>
     </row>
     <row r="575" ht="14.25" spans="1:1">
-      <c r="A575" s="21"/>
+      <c r="A575" s="24"/>
     </row>
     <row r="576" ht="14.25" spans="1:1">
-      <c r="A576" s="21"/>
+      <c r="A576" s="24"/>
     </row>
     <row r="577" ht="14.25" spans="1:1">
-      <c r="A577" s="21"/>
+      <c r="A577" s="24"/>
     </row>
     <row r="578" ht="14.25" spans="1:1">
-      <c r="A578" s="21"/>
+      <c r="A578" s="24"/>
     </row>
     <row r="579" ht="14.25" spans="1:1">
-      <c r="A579" s="21"/>
+      <c r="A579" s="24"/>
     </row>
     <row r="580" ht="14.25" spans="1:1">
-      <c r="A580" s="21"/>
+      <c r="A580" s="24"/>
     </row>
     <row r="581" ht="14.25" spans="1:1">
-      <c r="A581" s="21"/>
+      <c r="A581" s="24"/>
     </row>
     <row r="582" ht="14.25" spans="1:1">
-      <c r="A582" s="21"/>
+      <c r="A582" s="24"/>
     </row>
     <row r="583" ht="14.25" spans="1:1">
-      <c r="A583" s="21"/>
+      <c r="A583" s="24"/>
     </row>
     <row r="584" ht="14.25" spans="1:1">
-      <c r="A584" s="21"/>
+      <c r="A584" s="24"/>
     </row>
     <row r="585" ht="14.25" spans="1:1">
-      <c r="A585" s="21"/>
+      <c r="A585" s="24"/>
     </row>
     <row r="586" ht="14.25" spans="1:1">
-      <c r="A586" s="21"/>
+      <c r="A586" s="24"/>
     </row>
     <row r="587" ht="14.25" spans="1:1">
-      <c r="A587" s="21"/>
+      <c r="A587" s="24"/>
     </row>
     <row r="588" ht="14.25" spans="1:1">
-      <c r="A588" s="21"/>
+      <c r="A588" s="24"/>
     </row>
     <row r="589" ht="14.25" spans="1:1">
-      <c r="A589" s="21"/>
+      <c r="A589" s="24"/>
     </row>
     <row r="590" ht="14.25" spans="1:1">
-      <c r="A590" s="21"/>
+      <c r="A590" s="24"/>
     </row>
     <row r="591" ht="14.25" spans="1:1">
-      <c r="A591" s="21"/>
+      <c r="A591" s="24"/>
     </row>
     <row r="592" ht="14.25" spans="1:1">
-      <c r="A592" s="21"/>
+      <c r="A592" s="24"/>
     </row>
     <row r="593" ht="14.25" spans="1:1">
-      <c r="A593" s="21"/>
+      <c r="A593" s="24"/>
     </row>
     <row r="594" ht="14.25" spans="1:1">
-      <c r="A594" s="21"/>
+      <c r="A594" s="24"/>
     </row>
     <row r="595" ht="14.25" spans="1:1">
-      <c r="A595" s="21"/>
+      <c r="A595" s="24"/>
     </row>
     <row r="596" ht="14.25" spans="1:1">
-      <c r="A596" s="21"/>
+      <c r="A596" s="24"/>
     </row>
     <row r="597" ht="14.25" spans="1:1">
-      <c r="A597" s="21"/>
+      <c r="A597" s="24"/>
     </row>
     <row r="598" ht="14.25" spans="1:1">
-      <c r="A598" s="21"/>
+      <c r="A598" s="24"/>
     </row>
     <row r="599" ht="14.25" spans="1:1">
-      <c r="A599" s="21"/>
+      <c r="A599" s="24"/>
     </row>
     <row r="600" ht="14.25" spans="1:1">
-      <c r="A600" s="21"/>
+      <c r="A600" s="24"/>
     </row>
     <row r="601" ht="14.25" spans="1:1">
-      <c r="A601" s="21"/>
+      <c r="A601" s="24"/>
     </row>
     <row r="602" ht="14.25" spans="1:1">
-      <c r="A602" s="21"/>
+      <c r="A602" s="24"/>
     </row>
     <row r="603" ht="14.25" spans="1:1">
-      <c r="A603" s="21"/>
+      <c r="A603" s="24"/>
     </row>
     <row r="604" ht="14.25" spans="1:1">
-      <c r="A604" s="21"/>
+      <c r="A604" s="24"/>
     </row>
     <row r="605" ht="14.25" spans="1:1">
-      <c r="A605" s="21"/>
+      <c r="A605" s="24"/>
     </row>
     <row r="606" ht="14.25" spans="1:1">
-      <c r="A606" s="21"/>
+      <c r="A606" s="24"/>
     </row>
     <row r="607" ht="14.25" spans="1:1">
-      <c r="A607" s="21"/>
+      <c r="A607" s="24"/>
     </row>
     <row r="608" ht="14.25" spans="1:1">
-      <c r="A608" s="21"/>
+      <c r="A608" s="24"/>
     </row>
     <row r="609" ht="14.25" spans="1:1">
-      <c r="A609" s="21"/>
+      <c r="A609" s="24"/>
     </row>
     <row r="610" ht="14.25" spans="1:1">
-      <c r="A610" s="21"/>
+      <c r="A610" s="24"/>
     </row>
     <row r="611" ht="14.25" spans="1:1">
-      <c r="A611" s="21"/>
+      <c r="A611" s="24"/>
     </row>
     <row r="612" ht="14.25" spans="1:1">
-      <c r="A612" s="21"/>
+      <c r="A612" s="24"/>
     </row>
     <row r="613" ht="14.25" spans="1:1">
-      <c r="A613" s="21"/>
+      <c r="A613" s="24"/>
     </row>
     <row r="614" ht="14.25" spans="1:1">
-      <c r="A614" s="21"/>
+      <c r="A614" s="24"/>
     </row>
     <row r="615" ht="14.25" spans="1:1">
-      <c r="A615" s="21"/>
+      <c r="A615" s="24"/>
     </row>
     <row r="616" ht="14.25" spans="1:1">
-      <c r="A616" s="21"/>
+      <c r="A616" s="24"/>
     </row>
     <row r="617" ht="14.25" spans="1:1">
-      <c r="A617" s="21"/>
+      <c r="A617" s="24"/>
     </row>
     <row r="618" ht="14.25" spans="1:1">
-      <c r="A618" s="21"/>
+      <c r="A618" s="24"/>
     </row>
     <row r="619" ht="14.25" spans="1:1">
-      <c r="A619" s="21"/>
+      <c r="A619" s="24"/>
     </row>
     <row r="620" ht="14.25" spans="1:1">
-      <c r="A620" s="21"/>
+      <c r="A620" s="24"/>
     </row>
     <row r="621" ht="14.25" spans="1:1">
-      <c r="A621" s="21"/>
+      <c r="A621" s="24"/>
     </row>
     <row r="622" ht="14.25" spans="1:1">
-      <c r="A622" s="21"/>
+      <c r="A622" s="24"/>
     </row>
     <row r="623" ht="14.25" spans="1:1">
-      <c r="A623" s="21"/>
+      <c r="A623" s="24"/>
     </row>
     <row r="624" ht="14.25" spans="1:1">
-      <c r="A624" s="21"/>
+      <c r="A624" s="24"/>
     </row>
     <row r="625" ht="14.25" spans="1:1">
-      <c r="A625" s="21"/>
+      <c r="A625" s="24"/>
     </row>
     <row r="626" ht="14.25" spans="1:1">
-      <c r="A626" s="21"/>
+      <c r="A626" s="24"/>
     </row>
     <row r="627" ht="14.25" spans="1:1">
-      <c r="A627" s="21"/>
+      <c r="A627" s="24"/>
     </row>
     <row r="628" ht="14.25" spans="1:1">
-      <c r="A628" s="21"/>
+      <c r="A628" s="24"/>
     </row>
     <row r="629" ht="14.25" spans="1:1">
-      <c r="A629" s="21"/>
+      <c r="A629" s="24"/>
     </row>
     <row r="630" ht="14.25" spans="1:1">
-      <c r="A630" s="21"/>
+      <c r="A630" s="24"/>
     </row>
     <row r="631" ht="14.25" spans="1:1">
-      <c r="A631" s="21"/>
+      <c r="A631" s="24"/>
     </row>
     <row r="632" ht="14.25" spans="1:1">
-      <c r="A632" s="21"/>
+      <c r="A632" s="24"/>
     </row>
     <row r="633" ht="14.25" spans="1:1">
-      <c r="A633" s="21"/>
+      <c r="A633" s="24"/>
     </row>
     <row r="634" ht="14.25" spans="1:1">
-      <c r="A634" s="21"/>
+      <c r="A634" s="24"/>
     </row>
     <row r="635" ht="14.25" spans="1:1">
-      <c r="A635" s="21"/>
+      <c r="A635" s="24"/>
     </row>
     <row r="636" ht="14.25" spans="1:1">
-      <c r="A636" s="21"/>
+      <c r="A636" s="24"/>
     </row>
     <row r="637" ht="14.25" spans="1:1">
-      <c r="A637" s="21"/>
+      <c r="A637" s="24"/>
     </row>
     <row r="638" ht="14.25" spans="1:1">
-      <c r="A638" s="21"/>
+      <c r="A638" s="24"/>
     </row>
     <row r="639" ht="14.25" spans="1:1">
-      <c r="A639" s="21"/>
+      <c r="A639" s="24"/>
     </row>
     <row r="640" ht="14.25" spans="1:1">
-      <c r="A640" s="21"/>
+      <c r="A640" s="24"/>
     </row>
     <row r="641" ht="14.25" spans="1:1">
-      <c r="A641" s="21"/>
+      <c r="A641" s="24"/>
     </row>
     <row r="642" ht="14.25" spans="1:1">
-      <c r="A642" s="21"/>
+      <c r="A642" s="24"/>
     </row>
     <row r="643" ht="14.25" spans="1:1">
-      <c r="A643" s="21"/>
+      <c r="A643" s="24"/>
     </row>
     <row r="644" ht="14.25" spans="1:1">
-      <c r="A644" s="21"/>
+      <c r="A644" s="24"/>
     </row>
     <row r="645" ht="14.25" spans="1:1">
-      <c r="A645" s="21"/>
+      <c r="A645" s="24"/>
     </row>
     <row r="646" ht="14.25" spans="1:1">
-      <c r="A646" s="21"/>
+      <c r="A646" s="24"/>
     </row>
     <row r="647" ht="14.25" spans="1:1">
-      <c r="A647" s="21"/>
+      <c r="A647" s="24"/>
     </row>
     <row r="648" ht="14.25" spans="1:1">
-      <c r="A648" s="21"/>
+      <c r="A648" s="24"/>
     </row>
     <row r="649" ht="14.25" spans="1:1">
-      <c r="A649" s="21"/>
+      <c r="A649" s="24"/>
     </row>
     <row r="650" ht="14.25" spans="1:1">
-      <c r="A650" s="21"/>
+      <c r="A650" s="24"/>
     </row>
     <row r="651" ht="14.25" spans="1:1">
-      <c r="A651" s="21"/>
+      <c r="A651" s="24"/>
     </row>
     <row r="652" ht="14.25" spans="1:1">
-      <c r="A652" s="21"/>
+      <c r="A652" s="24"/>
     </row>
     <row r="653" ht="14.25" spans="1:1">
-      <c r="A653" s="21"/>
+      <c r="A653" s="24"/>
     </row>
     <row r="654" ht="14.25" spans="1:1">
-      <c r="A654" s="21"/>
+      <c r="A654" s="24"/>
     </row>
     <row r="655" ht="14.25" spans="1:1">
-      <c r="A655" s="21"/>
+      <c r="A655" s="24"/>
     </row>
     <row r="656" ht="14.25" spans="1:1">
-      <c r="A656" s="21"/>
+      <c r="A656" s="24"/>
     </row>
     <row r="657" ht="14.25" spans="1:1">
-      <c r="A657" s="21"/>
+      <c r="A657" s="24"/>
     </row>
     <row r="658" ht="14.25" spans="1:1">
-      <c r="A658" s="21"/>
+      <c r="A658" s="24"/>
     </row>
     <row r="659" ht="14.25" spans="1:1">
-      <c r="A659" s="21"/>
+      <c r="A659" s="24"/>
     </row>
     <row r="660" ht="14.25" spans="1:1">
-      <c r="A660" s="21"/>
+      <c r="A660" s="24"/>
     </row>
     <row r="661" ht="14.25" spans="1:1">
-      <c r="A661" s="21"/>
+      <c r="A661" s="24"/>
     </row>
     <row r="662" ht="14.25" spans="1:1">
-      <c r="A662" s="21"/>
+      <c r="A662" s="24"/>
     </row>
     <row r="663" ht="14.25" spans="1:1">
-      <c r="A663" s="21"/>
+      <c r="A663" s="24"/>
     </row>
     <row r="664" ht="14.25" spans="1:1">
-      <c r="A664" s="21"/>
+      <c r="A664" s="24"/>
     </row>
     <row r="665" ht="14.25" spans="1:1">
-      <c r="A665" s="21"/>
+      <c r="A665" s="24"/>
     </row>
     <row r="666" ht="14.25" spans="1:1">
-      <c r="A666" s="21"/>
+      <c r="A666" s="24"/>
     </row>
     <row r="667" ht="14.25" spans="1:1">
-      <c r="A667" s="21"/>
+      <c r="A667" s="24"/>
     </row>
     <row r="668" ht="14.25" spans="1:1">
-      <c r="A668" s="21"/>
+      <c r="A668" s="24"/>
     </row>
     <row r="669" ht="14.25" spans="1:1">
-      <c r="A669" s="21"/>
+      <c r="A669" s="24"/>
     </row>
     <row r="670" ht="14.25" spans="1:1">
-      <c r="A670" s="21"/>
+      <c r="A670" s="24"/>
     </row>
     <row r="671" ht="14.25" spans="1:1">
-      <c r="A671" s="21"/>
+      <c r="A671" s="24"/>
     </row>
     <row r="672" ht="14.25" spans="1:1">
-      <c r="A672" s="21"/>
+      <c r="A672" s="24"/>
     </row>
     <row r="673" ht="14.25" spans="1:1">
-      <c r="A673" s="21"/>
+      <c r="A673" s="24"/>
     </row>
     <row r="674" ht="14.25" spans="1:1">
-      <c r="A674" s="21"/>
+      <c r="A674" s="24"/>
     </row>
     <row r="675" ht="14.25" spans="1:1">
-      <c r="A675" s="21"/>
+      <c r="A675" s="24"/>
     </row>
     <row r="676" ht="14.25" spans="1:1">
-      <c r="A676" s="21"/>
+      <c r="A676" s="24"/>
     </row>
     <row r="677" ht="14.25" spans="1:1">
-      <c r="A677" s="21"/>
+      <c r="A677" s="24"/>
     </row>
     <row r="678" ht="14.25" spans="1:1">
-      <c r="A678" s="21"/>
+      <c r="A678" s="24"/>
     </row>
     <row r="679" ht="14.25" spans="1:1">
-      <c r="A679" s="21"/>
+      <c r="A679" s="24"/>
     </row>
     <row r="680" ht="14.25" spans="1:1">
-      <c r="A680" s="21"/>
+      <c r="A680" s="24"/>
     </row>
     <row r="681" ht="14.25" spans="1:1">
-      <c r="A681" s="21"/>
+      <c r="A681" s="24"/>
     </row>
     <row r="682" ht="14.25" spans="1:1">
-      <c r="A682" s="21"/>
+      <c r="A682" s="24"/>
     </row>
     <row r="683" ht="14.25" spans="1:1">
-      <c r="A683" s="21"/>
+      <c r="A683" s="24"/>
     </row>
     <row r="684" ht="14.25" spans="1:1">
-      <c r="A684" s="21"/>
+      <c r="A684" s="24"/>
     </row>
     <row r="685" ht="14.25" spans="1:1">
-      <c r="A685" s="21"/>
+      <c r="A685" s="24"/>
     </row>
     <row r="686" ht="14.25" spans="1:1">
-      <c r="A686" s="21"/>
+      <c r="A686" s="24"/>
     </row>
     <row r="687" ht="14.25" spans="1:1">
-      <c r="A687" s="21"/>
+      <c r="A687" s="24"/>
     </row>
     <row r="688" ht="14.25" spans="1:1">
-      <c r="A688" s="21"/>
+      <c r="A688" s="24"/>
     </row>
     <row r="689" ht="14.25" spans="1:1">
-      <c r="A689" s="21"/>
+      <c r="A689" s="24"/>
     </row>
     <row r="690" ht="14.25" spans="1:1">
-      <c r="A690" s="21"/>
+      <c r="A690" s="24"/>
     </row>
     <row r="691" ht="14.25" spans="1:1">
-      <c r="A691" s="21"/>
+      <c r="A691" s="24"/>
     </row>
     <row r="692" ht="14.25" spans="1:1">
-      <c r="A692" s="21"/>
+      <c r="A692" s="24"/>
     </row>
     <row r="693" ht="14.25" spans="1:1">
-      <c r="A693" s="21"/>
+      <c r="A693" s="24"/>
     </row>
     <row r="694" ht="14.25" spans="1:1">
-      <c r="A694" s="21"/>
+      <c r="A694" s="24"/>
     </row>
     <row r="695" ht="14.25" spans="1:1">
-      <c r="A695" s="21"/>
+      <c r="A695" s="24"/>
     </row>
     <row r="696" ht="14.25" spans="1:1">
-      <c r="A696" s="21"/>
+      <c r="A696" s="24"/>
     </row>
     <row r="697" ht="14.25" spans="1:1">
-      <c r="A697" s="21"/>
+      <c r="A697" s="24"/>
     </row>
     <row r="698" ht="14.25" spans="1:1">
-      <c r="A698" s="21"/>
+      <c r="A698" s="24"/>
     </row>
     <row r="699" ht="14.25" spans="1:1">
-      <c r="A699" s="21"/>
+      <c r="A699" s="24"/>
     </row>
     <row r="700" ht="14.25" spans="1:1">
-      <c r="A700" s="21"/>
+      <c r="A700" s="24"/>
     </row>
     <row r="701" ht="14.25" spans="1:1">
-      <c r="A701" s="21"/>
+      <c r="A701" s="24"/>
     </row>
     <row r="702" ht="14.25" spans="1:1">
-      <c r="A702" s="21"/>
+      <c r="A702" s="24"/>
     </row>
     <row r="703" ht="14.25" spans="1:1">
-      <c r="A703" s="21"/>
+      <c r="A703" s="24"/>
     </row>
     <row r="704" ht="14.25" spans="1:1">
-      <c r="A704" s="21"/>
+      <c r="A704" s="24"/>
     </row>
     <row r="705" ht="14.25" spans="1:1">
-      <c r="A705" s="21"/>
+      <c r="A705" s="24"/>
     </row>
     <row r="706" ht="14.25" spans="1:1">
-      <c r="A706" s="21"/>
+      <c r="A706" s="24"/>
     </row>
     <row r="707" ht="14.25" spans="1:1">
-      <c r="A707" s="21"/>
+      <c r="A707" s="24"/>
     </row>
     <row r="708" ht="14.25" spans="1:1">
-      <c r="A708" s="21"/>
+      <c r="A708" s="24"/>
     </row>
     <row r="709" ht="14.25" spans="1:1">
-      <c r="A709" s="21"/>
+      <c r="A709" s="24"/>
     </row>
     <row r="710" ht="14.25" spans="1:1">
-      <c r="A710" s="21"/>
+      <c r="A710" s="24"/>
     </row>
     <row r="711" ht="14.25" spans="1:1">
-      <c r="A711" s="21"/>
+      <c r="A711" s="24"/>
     </row>
     <row r="712" ht="14.25" spans="1:1">
-      <c r="A712" s="21"/>
+      <c r="A712" s="24"/>
     </row>
     <row r="713" ht="14.25" spans="1:1">
-      <c r="A713" s="21"/>
+      <c r="A713" s="24"/>
     </row>
     <row r="714" ht="14.25" spans="1:1">
-      <c r="A714" s="21"/>
+      <c r="A714" s="24"/>
     </row>
     <row r="715" ht="14.25" spans="1:1">
-      <c r="A715" s="21"/>
+      <c r="A715" s="24"/>
     </row>
     <row r="716" ht="14.25" spans="1:1">
-      <c r="A716" s="21"/>
+      <c r="A716" s="24"/>
     </row>
     <row r="717" ht="14.25" spans="1:1">
-      <c r="A717" s="21"/>
+      <c r="A717" s="24"/>
     </row>
     <row r="718" ht="14.25" spans="1:1">
-      <c r="A718" s="21"/>
+      <c r="A718" s="24"/>
     </row>
     <row r="719" ht="14.25" spans="1:1">
-      <c r="A719" s="21"/>
+      <c r="A719" s="24"/>
     </row>
     <row r="720" ht="14.25" spans="1:1">
-      <c r="A720" s="21"/>
+      <c r="A720" s="24"/>
     </row>
     <row r="721" ht="14.25" spans="1:1">
-      <c r="A721" s="21"/>
+      <c r="A721" s="24"/>
     </row>
     <row r="722" ht="14.25" spans="1:1">
-      <c r="A722" s="21"/>
+      <c r="A722" s="24"/>
     </row>
     <row r="723" ht="14.25" spans="1:1">
-      <c r="A723" s="21"/>
+      <c r="A723" s="24"/>
     </row>
     <row r="724" ht="14.25" spans="1:1">
-      <c r="A724" s="21"/>
+      <c r="A724" s="24"/>
     </row>
     <row r="725" ht="14.25" spans="1:1">
-      <c r="A725" s="21"/>
+      <c r="A725" s="24"/>
     </row>
     <row r="726" ht="14.25" spans="1:1">
-      <c r="A726" s="21"/>
+      <c r="A726" s="24"/>
     </row>
     <row r="727" ht="14.25" spans="1:1">
-      <c r="A727" s="21"/>
+      <c r="A727" s="24"/>
     </row>
     <row r="728" ht="14.25" spans="1:1">
-      <c r="A728" s="21"/>
+      <c r="A728" s="24"/>
     </row>
     <row r="729" ht="14.25" spans="1:1">
-      <c r="A729" s="21"/>
+      <c r="A729" s="24"/>
     </row>
     <row r="730" ht="14.25" spans="1:1">
-      <c r="A730" s="21"/>
+      <c r="A730" s="24"/>
     </row>
     <row r="731" ht="14.25" spans="1:1">
-      <c r="A731" s="21"/>
+      <c r="A731" s="24"/>
     </row>
     <row r="732" ht="14.25" spans="1:1">
-      <c r="A732" s="21"/>
+      <c r="A732" s="24"/>
     </row>
     <row r="733" ht="14.25" spans="1:1">
-      <c r="A733" s="21"/>
+      <c r="A733" s="24"/>
     </row>
     <row r="734" ht="14.25" spans="1:1">
-      <c r="A734" s="21"/>
+      <c r="A734" s="24"/>
     </row>
     <row r="735" ht="14.25" spans="1:1">
-      <c r="A735" s="21"/>
+      <c r="A735" s="24"/>
     </row>
     <row r="736" ht="14.25" spans="1:1">
-      <c r="A736" s="21"/>
+      <c r="A736" s="24"/>
     </row>
     <row r="737" ht="14.25" spans="1:1">
-      <c r="A737" s="21"/>
+      <c r="A737" s="24"/>
     </row>
     <row r="738" ht="14.25" spans="1:1">
-      <c r="A738" s="21"/>
+      <c r="A738" s="24"/>
     </row>
     <row r="739" ht="14.25" spans="1:1">
-      <c r="A739" s="21"/>
+      <c r="A739" s="24"/>
     </row>
     <row r="740" ht="14.25" spans="1:1">
-      <c r="A740" s="21"/>
+      <c r="A740" s="24"/>
     </row>
     <row r="741" ht="14.25" spans="1:1">
-      <c r="A741" s="21"/>
+      <c r="A741" s="24"/>
     </row>
     <row r="742" ht="14.25" spans="1:1">
-      <c r="A742" s="21"/>
+      <c r="A742" s="24"/>
     </row>
     <row r="743" ht="14.25" spans="1:1">
-      <c r="A743" s="21"/>
+      <c r="A743" s="24"/>
     </row>
     <row r="744" ht="14.25" spans="1:1">
-      <c r="A744" s="21"/>
+      <c r="A744" s="24"/>
     </row>
     <row r="745" ht="14.25" spans="1:1">
-      <c r="A745" s="21"/>
+      <c r="A745" s="24"/>
     </row>
     <row r="746" ht="14.25" spans="1:1">
-      <c r="A746" s="21"/>
+      <c r="A746" s="24"/>
     </row>
     <row r="747" ht="14.25" spans="1:1">
-      <c r="A747" s="21"/>
+      <c r="A747" s="24"/>
     </row>
     <row r="748" ht="14.25" spans="1:1">
-      <c r="A748" s="21"/>
+      <c r="A748" s="24"/>
     </row>
     <row r="749" ht="14.25" spans="1:1">
-      <c r="A749" s="21"/>
+      <c r="A749" s="24"/>
     </row>
     <row r="750" ht="14.25" spans="1:1">
-      <c r="A750" s="21"/>
+      <c r="A750" s="24"/>
     </row>
     <row r="751" ht="14.25" spans="1:1">
-      <c r="A751" s="21"/>
+      <c r="A751" s="24"/>
     </row>
     <row r="752" ht="14.25" spans="1:1">
-      <c r="A752" s="21"/>
+      <c r="A752" s="24"/>
     </row>
     <row r="753" ht="14.25" spans="1:1">
-      <c r="A753" s="21"/>
+      <c r="A753" s="24"/>
     </row>
     <row r="754" ht="14.25" spans="1:1">
-      <c r="A754" s="21"/>
+      <c r="A754" s="24"/>
     </row>
     <row r="755" ht="14.25" spans="1:1">
-      <c r="A755" s="21"/>
+      <c r="A755" s="24"/>
     </row>
     <row r="756" ht="14.25" spans="1:1">
-      <c r="A756" s="21"/>
+      <c r="A756" s="24"/>
     </row>
     <row r="757" ht="14.25" spans="1:1">
-      <c r="A757" s="21"/>
+      <c r="A757" s="24"/>
     </row>
     <row r="758" ht="14.25" spans="1:1">
-      <c r="A758" s="21"/>
+      <c r="A758" s="24"/>
     </row>
     <row r="759" ht="14.25" spans="1:1">
-      <c r="A759" s="21"/>
+      <c r="A759" s="24"/>
     </row>
     <row r="760" ht="14.25" spans="1:1">
-      <c r="A760" s="21"/>
+      <c r="A760" s="24"/>
     </row>
     <row r="761" ht="14.25" spans="1:1">
-      <c r="A761" s="21"/>
+      <c r="A761" s="24"/>
     </row>
     <row r="762" ht="14.25" spans="1:1">
-      <c r="A762" s="21"/>
+      <c r="A762" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/talkLine.xlsx
+++ b/talkLine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19875" windowHeight="9720"/>
+    <workbookView windowWidth="18491" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="388">
   <si>
     <t>店铺旺旺</t>
   </si>
@@ -1184,16 +1184,28 @@
   <si>
     <t xml:space="preserve">Q:2423838504  </t>
   </si>
+  <si>
+    <t>鲜满多食品旗舰店</t>
+  </si>
+  <si>
+    <t>Q:729317099  V:jinshiwuyua</t>
+  </si>
+  <si>
+    <t>贡副食品专营店</t>
+  </si>
+  <si>
+    <t>V:995259325</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1316,38 +1328,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,48 +1351,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1423,23 +1405,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,6 +1444,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,7 +1487,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,7 +1529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,13 +1547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,13 +1571,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,13 +1631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,55 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,37 +1667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,6 +1678,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1680,30 +1716,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,17 +1738,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1755,17 +1778,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1774,10 +1786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1786,133 +1798,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2319,18 +2331,18 @@
   <sheetPr/>
   <dimension ref="A1:F762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="11.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="24.8796296296296" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2350,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" ht="17.4" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2372,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2424,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2460,7 +2472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -2482,7 +2494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -2529,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -2584,7 +2596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2592,7 +2604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" ht="15" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" s="17" t="s">
         <v>63</v>
       </c>
@@ -2618,7 +2630,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:5">
+    <row r="28" s="3" customFormat="1" spans="1:5">
       <c r="A28" s="19" t="s">
         <v>67</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
         <v>75</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>77</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
         <v>83</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" ht="14.25" spans="1:6">
+    <row r="37" s="4" customFormat="1" spans="1:6">
       <c r="A37" s="22" t="s">
         <v>87</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
         <v>91</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
         <v>93</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +2758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
         <v>97</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
         <v>99</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="24" t="s">
         <v>105</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
         <v>107</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
         <v>109</v>
       </c>
@@ -2802,7 +2814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="24" t="s">
         <v>111</v>
       </c>
@@ -2810,7 +2822,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="9" t="s">
         <v>113</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="52" s="1" customFormat="1" spans="1:5">
       <c r="A52" s="9" t="s">
         <v>121</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="24" t="s">
         <v>124</v>
       </c>
@@ -2860,7 +2872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="24" t="s">
         <v>126</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="24" t="s">
         <v>128</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
         <v>130</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
         <v>132</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
@@ -2900,7 +2912,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="24" t="s">
         <v>136</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
         <v>138</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
         <v>140</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
         <v>142</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
         <v>144</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
         <v>146</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
         <v>148</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
         <v>150</v>
       </c>
@@ -2965,7 +2977,7 @@
       </c>
       <c r="D66"/>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
         <v>152</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="24" t="s">
         <v>154</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
         <v>156</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="24" t="s">
         <v>158</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
         <v>160</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
         <v>162</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
         <v>164</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
         <v>166</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
         <v>168</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
         <v>170</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="24" t="s">
         <v>172</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
         <v>174</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
         <v>176</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="24" t="s">
         <v>178</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
         <v>180</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" ht="14.25" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
         <v>182</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="6" t="s">
         <v>184</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="6" t="s">
         <v>186</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="85" s="1" customFormat="1" spans="1:5">
       <c r="A85" s="9" t="s">
         <v>188</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
         <v>191</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="24" t="s">
         <v>193</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>195</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="6" t="s">
         <v>197</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="24" t="s">
         <v>199</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="6" t="s">
         <v>201</v>
       </c>
@@ -3169,7 +3181,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="6" t="s">
         <v>203</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="6" t="s">
         <v>205</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="6" t="s">
         <v>207</v>
       </c>
@@ -3193,7 +3205,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="6" t="s">
         <v>209</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="6" t="s">
         <v>211</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
         <v>213</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="24" t="s">
         <v>215</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
         <v>217</v>
       </c>
@@ -3233,7 +3245,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
         <v>219</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
         <v>221</v>
       </c>
@@ -3249,7 +3261,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
         <v>223</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
         <v>225</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="6" t="s">
         <v>227</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="24" t="s">
         <v>229</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="6" t="s">
         <v>231</v>
       </c>
@@ -3289,7 +3301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>233</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="24" t="s">
         <v>235</v>
       </c>
@@ -3305,7 +3317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="6" t="s">
         <v>237</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="24" t="s">
         <v>239</v>
       </c>
@@ -3321,7 +3333,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="24" t="s">
         <v>241</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="112" s="4" customFormat="1" spans="1:5">
       <c r="A112" s="22" t="s">
         <v>243</v>
       </c>
@@ -3339,7 +3351,7 @@
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
     </row>
-    <row r="113" ht="14.25" spans="1:2">
+    <row r="113" spans="1:2">
       <c r="A113" s="24" t="s">
         <v>245</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="24" t="s">
         <v>247</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="6" t="s">
         <v>249</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="24" t="s">
         <v>251</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="24" t="s">
         <v>253</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="24" t="s">
         <v>255</v>
       </c>
@@ -3387,7 +3399,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="24" t="s">
         <v>257</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="24" t="s">
         <v>259</v>
       </c>
@@ -3403,7 +3415,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="24" t="s">
         <v>261</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="24" t="s">
         <v>263</v>
       </c>
@@ -3419,7 +3431,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="24" t="s">
         <v>265</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="24" t="s">
         <v>267</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="24" t="s">
         <v>269</v>
       </c>
@@ -3443,7 +3455,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:2">
+    <row r="126" spans="1:2">
       <c r="A126" s="24" t="s">
         <v>271</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:2">
+    <row r="127" spans="1:2">
       <c r="A127" s="24" t="s">
         <v>273</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="128" s="1" customFormat="1" spans="1:5">
       <c r="A128" s="25" t="s">
         <v>275</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:2">
+    <row r="129" spans="1:2">
       <c r="A129" s="6" t="s">
         <v>278</v>
       </c>
@@ -3481,7 +3493,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:2">
+    <row r="130" spans="1:2">
       <c r="A130" s="24" t="s">
         <v>280</v>
       </c>
@@ -3489,7 +3501,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="6" t="s">
         <v>282</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="6" t="s">
         <v>284</v>
       </c>
@@ -3505,7 +3517,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="24" t="s">
         <v>286</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:2">
       <c r="A134" s="6" t="s">
         <v>288</v>
       </c>
@@ -3521,7 +3533,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="24" t="s">
         <v>290</v>
       </c>
@@ -3529,7 +3541,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="24" t="s">
         <v>292</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" ht="14.25" spans="1:2">
+    <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
         <v>294</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="1:2">
+    <row r="138" spans="1:2">
       <c r="A138" s="6" t="s">
         <v>296</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="24" t="s">
         <v>298</v>
       </c>
@@ -3561,7 +3573,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" ht="14.25" spans="1:2">
+    <row r="140" spans="1:2">
       <c r="A140" s="6" t="s">
         <v>300</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
         <v>302</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:4">
+    <row r="142" spans="1:4">
       <c r="A142" s="24" t="s">
         <v>304</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="24" t="s">
         <v>307</v>
       </c>
@@ -3596,7 +3608,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
         <v>309</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="24" t="s">
         <v>311</v>
       </c>
@@ -3612,7 +3624,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:2">
+    <row r="146" spans="1:2">
       <c r="A146" s="24" t="s">
         <v>313</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="6" t="s">
         <v>315</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="148" ht="14.25" spans="1:2">
+    <row r="148" spans="1:2">
       <c r="A148" s="24" t="s">
         <v>317</v>
       </c>
@@ -3636,7 +3648,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:2">
+    <row r="149" spans="1:2">
       <c r="A149" s="24" t="s">
         <v>319</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="1:2">
+    <row r="150" spans="1:2">
       <c r="A150" s="24" t="s">
         <v>321</v>
       </c>
@@ -3652,7 +3664,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" ht="14.25" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="6" t="s">
         <v>323</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="24" t="s">
         <v>325</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:2">
+    <row r="153" spans="1:2">
       <c r="A153" s="6" t="s">
         <v>327</v>
       </c>
@@ -3676,7 +3688,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" ht="14.25" spans="1:2">
+    <row r="154" spans="1:2">
       <c r="A154" s="24" t="s">
         <v>329</v>
       </c>
@@ -3684,7 +3696,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:2">
+    <row r="155" spans="1:2">
       <c r="A155" s="24" t="s">
         <v>331</v>
       </c>
@@ -3692,7 +3704,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:2">
+    <row r="156" spans="1:2">
       <c r="A156" s="24" t="s">
         <v>333</v>
       </c>
@@ -3700,7 +3712,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:2">
+    <row r="157" spans="1:2">
       <c r="A157" s="24" t="s">
         <v>335</v>
       </c>
@@ -3708,7 +3720,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:2">
+    <row r="158" spans="1:2">
       <c r="A158" s="24" t="s">
         <v>337</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:2">
+    <row r="159" spans="1:2">
       <c r="A159" s="24" t="s">
         <v>339</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:2">
+    <row r="160" spans="1:2">
       <c r="A160" s="24" t="s">
         <v>341</v>
       </c>
@@ -3732,7 +3744,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:2">
+    <row r="161" spans="1:2">
       <c r="A161" s="24" t="s">
         <v>343</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:2">
+    <row r="162" spans="1:2">
       <c r="A162" s="24" t="s">
         <v>345</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:2">
+    <row r="163" spans="1:2">
       <c r="A163" s="6" t="s">
         <v>347</v>
       </c>
@@ -3756,7 +3768,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:2">
+    <row r="164" spans="1:2">
       <c r="A164" s="24" t="s">
         <v>349</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:2">
+    <row r="165" spans="1:2">
       <c r="A165" s="24" t="s">
         <v>351</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:2">
+    <row r="166" spans="1:2">
       <c r="A166" s="26">
         <v>54478797</v>
       </c>
@@ -3780,7 +3792,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:2">
+    <row r="167" spans="1:2">
       <c r="A167" s="24" t="s">
         <v>354</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:2">
+    <row r="168" spans="1:2">
       <c r="A168" s="24" t="s">
         <v>356</v>
       </c>
@@ -3796,7 +3808,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:2">
+    <row r="169" spans="1:2">
       <c r="A169" s="24" t="s">
         <v>358</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="170" s="1" customFormat="1" spans="1:5">
       <c r="A170" s="25" t="s">
         <v>360</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="171" s="1" customFormat="1" spans="1:5">
       <c r="A171" s="25" t="s">
         <v>364</v>
       </c>
@@ -3832,7 +3844,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:2">
+    <row r="172" spans="1:2">
       <c r="A172" s="24" t="s">
         <v>368</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:2">
+    <row r="173" spans="1:2">
       <c r="A173" s="24" t="s">
         <v>370</v>
       </c>
@@ -3848,7 +3860,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:2">
+    <row r="174" spans="1:2">
       <c r="A174" s="24" t="s">
         <v>372</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:2">
+    <row r="175" spans="1:2">
       <c r="A175" s="24" t="s">
         <v>374</v>
       </c>
@@ -3864,7 +3876,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="176" ht="14.25" spans="1:2">
+    <row r="176" spans="1:2">
       <c r="A176" s="24" t="s">
         <v>376</v>
       </c>
@@ -3872,7 +3884,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="177" ht="14.25" spans="1:2">
+    <row r="177" spans="1:2">
       <c r="A177" s="24" t="s">
         <v>378</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:2">
+    <row r="178" spans="1:2">
       <c r="A178" s="24" t="s">
         <v>380</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="179" ht="14.25" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="24" t="s">
         <v>382</v>
       </c>
@@ -3896,1753 +3908,1763 @@
         <v>383</v>
       </c>
     </row>
-    <row r="180" ht="14.25" spans="1:1">
-      <c r="A180" s="24"/>
-    </row>
-    <row r="181" ht="14.25" spans="1:1">
-      <c r="A181" s="24"/>
-    </row>
-    <row r="182" ht="14.25" spans="1:1">
+    <row r="180" spans="1:2">
+      <c r="A180" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
       <c r="A182" s="24"/>
     </row>
-    <row r="183" ht="14.25" spans="1:1">
+    <row r="183" spans="1:1">
       <c r="A183" s="24"/>
     </row>
-    <row r="184" ht="14.25" spans="1:1">
+    <row r="184" spans="1:1">
       <c r="A184" s="24"/>
     </row>
-    <row r="185" ht="14.25" spans="1:1">
+    <row r="185" spans="1:1">
       <c r="A185" s="24"/>
     </row>
-    <row r="186" ht="14.25" spans="1:1">
+    <row r="186" spans="1:1">
       <c r="A186" s="24"/>
     </row>
-    <row r="187" ht="14.25" spans="1:1">
+    <row r="187" spans="1:1">
       <c r="A187" s="24"/>
     </row>
-    <row r="188" ht="14.25" spans="1:1">
+    <row r="188" spans="1:1">
       <c r="A188" s="24"/>
     </row>
-    <row r="189" ht="14.25" spans="1:1">
+    <row r="189" spans="1:1">
       <c r="A189" s="24"/>
     </row>
-    <row r="190" ht="14.25" spans="1:1">
+    <row r="190" spans="1:1">
       <c r="A190" s="24"/>
     </row>
-    <row r="191" ht="14.25" spans="1:1">
+    <row r="191" spans="1:1">
       <c r="A191" s="24"/>
     </row>
-    <row r="192" ht="14.25" spans="1:1">
+    <row r="192" spans="1:1">
       <c r="A192" s="24"/>
     </row>
-    <row r="193" ht="14.25" spans="1:1">
+    <row r="193" spans="1:1">
       <c r="A193" s="24"/>
     </row>
-    <row r="194" ht="14.25" spans="1:1">
+    <row r="194" spans="1:1">
       <c r="A194" s="24"/>
     </row>
-    <row r="195" ht="14.25" spans="1:1">
+    <row r="195" spans="1:1">
       <c r="A195" s="24"/>
     </row>
-    <row r="196" ht="14.25" spans="1:1">
+    <row r="196" spans="1:1">
       <c r="A196" s="24"/>
     </row>
-    <row r="197" ht="14.25" spans="1:1">
+    <row r="197" spans="1:1">
       <c r="A197" s="24"/>
     </row>
-    <row r="198" ht="14.25" spans="1:1">
+    <row r="198" spans="1:1">
       <c r="A198" s="24"/>
     </row>
-    <row r="199" ht="14.25" spans="1:1">
+    <row r="199" spans="1:1">
       <c r="A199" s="24"/>
     </row>
-    <row r="200" ht="14.25" spans="1:1">
+    <row r="200" spans="1:1">
       <c r="A200" s="24"/>
     </row>
-    <row r="201" ht="14.25" spans="1:1">
+    <row r="201" spans="1:1">
       <c r="A201" s="24"/>
     </row>
-    <row r="202" ht="14.25" spans="1:1">
+    <row r="202" spans="1:1">
       <c r="A202" s="24"/>
     </row>
-    <row r="203" ht="14.25" spans="1:1">
+    <row r="203" spans="1:1">
       <c r="A203" s="24"/>
     </row>
-    <row r="204" ht="14.25" spans="1:1">
+    <row r="204" spans="1:1">
       <c r="A204" s="24"/>
     </row>
-    <row r="205" ht="14.25" spans="1:1">
+    <row r="205" spans="1:1">
       <c r="A205" s="24"/>
     </row>
-    <row r="206" ht="14.25" spans="1:1">
+    <row r="206" spans="1:1">
       <c r="A206" s="24"/>
     </row>
-    <row r="207" ht="14.25" spans="1:1">
+    <row r="207" spans="1:1">
       <c r="A207" s="24"/>
     </row>
-    <row r="208" ht="14.25" spans="1:1">
+    <row r="208" spans="1:1">
       <c r="A208" s="24"/>
     </row>
-    <row r="209" ht="14.25" spans="1:1">
+    <row r="209" spans="1:1">
       <c r="A209" s="24"/>
     </row>
-    <row r="210" ht="14.25" spans="1:1">
+    <row r="210" spans="1:1">
       <c r="A210" s="24"/>
     </row>
-    <row r="211" ht="14.25" spans="1:1">
+    <row r="211" spans="1:1">
       <c r="A211" s="24"/>
     </row>
-    <row r="212" ht="14.25" spans="1:1">
+    <row r="212" spans="1:1">
       <c r="A212" s="24"/>
     </row>
-    <row r="213" ht="14.25" spans="1:1">
+    <row r="213" spans="1:1">
       <c r="A213" s="24"/>
     </row>
-    <row r="214" ht="14.25" spans="1:1">
+    <row r="214" spans="1:1">
       <c r="A214" s="24"/>
     </row>
-    <row r="215" ht="14.25" spans="1:1">
+    <row r="215" spans="1:1">
       <c r="A215" s="24"/>
     </row>
-    <row r="216" ht="14.25" spans="1:1">
+    <row r="216" spans="1:1">
       <c r="A216" s="24"/>
     </row>
-    <row r="217" ht="14.25" spans="1:1">
+    <row r="217" spans="1:1">
       <c r="A217" s="24"/>
     </row>
-    <row r="218" ht="14.25" spans="1:1">
+    <row r="218" spans="1:1">
       <c r="A218" s="24"/>
     </row>
-    <row r="219" ht="14.25" spans="1:1">
+    <row r="219" spans="1:1">
       <c r="A219" s="24"/>
     </row>
-    <row r="220" ht="14.25" spans="1:1">
+    <row r="220" spans="1:1">
       <c r="A220" s="24"/>
     </row>
-    <row r="221" ht="14.25" spans="1:1">
+    <row r="221" spans="1:1">
       <c r="A221" s="24"/>
     </row>
-    <row r="222" ht="14.25" spans="1:1">
+    <row r="222" spans="1:1">
       <c r="A222" s="24"/>
     </row>
-    <row r="223" ht="14.25" spans="1:1">
+    <row r="223" spans="1:1">
       <c r="A223" s="24"/>
     </row>
-    <row r="224" ht="14.25" spans="1:1">
+    <row r="224" spans="1:1">
       <c r="A224" s="24"/>
     </row>
-    <row r="225" ht="14.25" spans="1:1">
+    <row r="225" spans="1:1">
       <c r="A225" s="24"/>
     </row>
-    <row r="226" ht="14.25" spans="1:1">
+    <row r="226" spans="1:1">
       <c r="A226" s="24"/>
     </row>
-    <row r="227" ht="14.25" spans="1:1">
+    <row r="227" spans="1:1">
       <c r="A227" s="24"/>
     </row>
-    <row r="228" ht="14.25" spans="1:1">
+    <row r="228" spans="1:1">
       <c r="A228" s="24"/>
     </row>
-    <row r="229" ht="14.25" spans="1:1">
+    <row r="229" spans="1:1">
       <c r="A229" s="24"/>
     </row>
-    <row r="230" ht="14.25" spans="1:1">
+    <row r="230" spans="1:1">
       <c r="A230" s="24"/>
     </row>
-    <row r="231" ht="14.25" spans="1:1">
+    <row r="231" spans="1:1">
       <c r="A231" s="24"/>
     </row>
-    <row r="232" ht="14.25" spans="1:1">
+    <row r="232" spans="1:1">
       <c r="A232" s="24"/>
     </row>
-    <row r="233" ht="14.25" spans="1:1">
+    <row r="233" spans="1:1">
       <c r="A233" s="24"/>
     </row>
-    <row r="234" ht="14.25" spans="1:1">
+    <row r="234" spans="1:1">
       <c r="A234" s="24"/>
     </row>
-    <row r="235" ht="14.25" spans="1:1">
+    <row r="235" spans="1:1">
       <c r="A235" s="24"/>
     </row>
-    <row r="236" ht="14.25" spans="1:1">
+    <row r="236" spans="1:1">
       <c r="A236" s="24"/>
     </row>
-    <row r="237" ht="14.25" spans="1:1">
+    <row r="237" spans="1:1">
       <c r="A237" s="24"/>
     </row>
-    <row r="238" ht="14.25" spans="1:1">
+    <row r="238" spans="1:1">
       <c r="A238" s="24"/>
     </row>
-    <row r="239" ht="14.25" spans="1:1">
+    <row r="239" spans="1:1">
       <c r="A239" s="24"/>
     </row>
-    <row r="240" ht="14.25" spans="1:1">
+    <row r="240" spans="1:1">
       <c r="A240" s="24"/>
     </row>
-    <row r="241" ht="14.25" spans="1:1">
+    <row r="241" spans="1:1">
       <c r="A241" s="24"/>
     </row>
-    <row r="242" ht="14.25" spans="1:1">
+    <row r="242" spans="1:1">
       <c r="A242" s="24"/>
     </row>
-    <row r="243" ht="14.25" spans="1:1">
+    <row r="243" spans="1:1">
       <c r="A243" s="24"/>
     </row>
-    <row r="244" ht="14.25" spans="1:1">
+    <row r="244" spans="1:1">
       <c r="A244" s="24"/>
     </row>
-    <row r="245" ht="14.25" spans="1:1">
+    <row r="245" spans="1:1">
       <c r="A245" s="24"/>
     </row>
-    <row r="246" ht="14.25" spans="1:1">
+    <row r="246" spans="1:1">
       <c r="A246" s="24"/>
     </row>
-    <row r="247" ht="14.25" spans="1:1">
+    <row r="247" spans="1:1">
       <c r="A247" s="24"/>
     </row>
-    <row r="248" ht="14.25" spans="1:1">
+    <row r="248" spans="1:1">
       <c r="A248" s="24"/>
     </row>
-    <row r="249" ht="14.25" spans="1:1">
+    <row r="249" spans="1:1">
       <c r="A249" s="24"/>
     </row>
-    <row r="250" ht="14.25" spans="1:1">
+    <row r="250" spans="1:1">
       <c r="A250" s="24"/>
     </row>
-    <row r="251" ht="14.25" spans="1:1">
+    <row r="251" spans="1:1">
       <c r="A251" s="24"/>
     </row>
-    <row r="252" ht="14.25" spans="1:1">
+    <row r="252" spans="1:1">
       <c r="A252" s="24"/>
     </row>
-    <row r="253" ht="14.25" spans="1:1">
+    <row r="253" spans="1:1">
       <c r="A253" s="24"/>
     </row>
-    <row r="254" ht="14.25" spans="1:1">
+    <row r="254" spans="1:1">
       <c r="A254" s="24"/>
     </row>
-    <row r="255" ht="14.25" spans="1:1">
+    <row r="255" spans="1:1">
       <c r="A255" s="24"/>
     </row>
-    <row r="256" ht="14.25" spans="1:1">
+    <row r="256" spans="1:1">
       <c r="A256" s="24"/>
     </row>
-    <row r="257" ht="14.25" spans="1:1">
+    <row r="257" spans="1:1">
       <c r="A257" s="24"/>
     </row>
-    <row r="258" ht="14.25" spans="1:1">
+    <row r="258" spans="1:1">
       <c r="A258" s="24"/>
     </row>
-    <row r="259" ht="14.25" spans="1:1">
+    <row r="259" spans="1:1">
       <c r="A259" s="24"/>
     </row>
-    <row r="260" ht="14.25" spans="1:1">
+    <row r="260" spans="1:1">
       <c r="A260" s="24"/>
     </row>
-    <row r="261" ht="14.25" spans="1:1">
+    <row r="261" spans="1:1">
       <c r="A261" s="24"/>
     </row>
-    <row r="262" ht="14.25" spans="1:1">
+    <row r="262" spans="1:1">
       <c r="A262" s="24"/>
     </row>
-    <row r="263" ht="14.25" spans="1:1">
+    <row r="263" spans="1:1">
       <c r="A263" s="24"/>
     </row>
-    <row r="264" ht="14.25" spans="1:1">
+    <row r="264" spans="1:1">
       <c r="A264" s="24"/>
     </row>
-    <row r="265" ht="14.25" spans="1:1">
+    <row r="265" spans="1:1">
       <c r="A265" s="24"/>
     </row>
-    <row r="266" ht="14.25" spans="1:1">
+    <row r="266" spans="1:1">
       <c r="A266" s="24"/>
     </row>
-    <row r="267" ht="14.25" spans="1:1">
+    <row r="267" spans="1:1">
       <c r="A267" s="24"/>
     </row>
-    <row r="268" ht="14.25" spans="1:1">
+    <row r="268" spans="1:1">
       <c r="A268" s="24"/>
     </row>
-    <row r="269" ht="14.25" spans="1:1">
+    <row r="269" spans="1:1">
       <c r="A269" s="24"/>
     </row>
-    <row r="270" ht="14.25" spans="1:1">
+    <row r="270" spans="1:1">
       <c r="A270" s="24"/>
     </row>
-    <row r="271" ht="14.25" spans="1:1">
+    <row r="271" spans="1:1">
       <c r="A271" s="24"/>
     </row>
-    <row r="272" ht="14.25" spans="1:1">
+    <row r="272" spans="1:1">
       <c r="A272" s="24"/>
     </row>
-    <row r="273" ht="14.25" spans="1:1">
+    <row r="273" spans="1:1">
       <c r="A273" s="24"/>
     </row>
-    <row r="274" ht="14.25" spans="1:1">
+    <row r="274" spans="1:1">
       <c r="A274" s="24"/>
     </row>
-    <row r="275" ht="14.25" spans="1:1">
+    <row r="275" spans="1:1">
       <c r="A275" s="24"/>
     </row>
-    <row r="276" ht="14.25" spans="1:1">
+    <row r="276" spans="1:1">
       <c r="A276" s="24"/>
     </row>
-    <row r="277" ht="14.25" spans="1:1">
+    <row r="277" spans="1:1">
       <c r="A277" s="24"/>
     </row>
-    <row r="278" ht="14.25" spans="1:1">
+    <row r="278" spans="1:1">
       <c r="A278" s="24"/>
     </row>
-    <row r="279" ht="14.25" spans="1:1">
+    <row r="279" spans="1:1">
       <c r="A279" s="24"/>
     </row>
-    <row r="280" ht="14.25" spans="1:1">
+    <row r="280" spans="1:1">
       <c r="A280" s="24"/>
     </row>
-    <row r="281" ht="14.25" spans="1:1">
+    <row r="281" spans="1:1">
       <c r="A281" s="24"/>
     </row>
-    <row r="282" ht="14.25" spans="1:1">
+    <row r="282" spans="1:1">
       <c r="A282" s="24"/>
     </row>
-    <row r="283" ht="14.25" spans="1:1">
+    <row r="283" spans="1:1">
       <c r="A283" s="24"/>
     </row>
-    <row r="284" ht="14.25" spans="1:1">
+    <row r="284" spans="1:1">
       <c r="A284" s="24"/>
     </row>
-    <row r="285" ht="14.25" spans="1:1">
+    <row r="285" spans="1:1">
       <c r="A285" s="24"/>
     </row>
-    <row r="286" ht="14.25" spans="1:1">
+    <row r="286" spans="1:1">
       <c r="A286" s="24"/>
     </row>
-    <row r="287" ht="14.25" spans="1:1">
+    <row r="287" spans="1:1">
       <c r="A287" s="24"/>
     </row>
-    <row r="288" ht="14.25" spans="1:1">
+    <row r="288" spans="1:1">
       <c r="A288" s="24"/>
     </row>
-    <row r="289" ht="14.25" spans="1:1">
+    <row r="289" spans="1:1">
       <c r="A289" s="24"/>
     </row>
-    <row r="290" ht="14.25" spans="1:1">
+    <row r="290" spans="1:1">
       <c r="A290" s="24"/>
     </row>
-    <row r="291" ht="14.25" spans="1:1">
+    <row r="291" spans="1:1">
       <c r="A291" s="24"/>
     </row>
-    <row r="292" ht="14.25" spans="1:1">
+    <row r="292" spans="1:1">
       <c r="A292" s="24"/>
     </row>
-    <row r="293" ht="14.25" spans="1:1">
+    <row r="293" spans="1:1">
       <c r="A293" s="24"/>
     </row>
-    <row r="294" ht="14.25" spans="1:1">
+    <row r="294" spans="1:1">
       <c r="A294" s="24"/>
     </row>
-    <row r="295" ht="14.25" spans="1:1">
+    <row r="295" spans="1:1">
       <c r="A295" s="24"/>
     </row>
-    <row r="296" ht="14.25" spans="1:1">
+    <row r="296" spans="1:1">
       <c r="A296" s="24"/>
     </row>
-    <row r="297" ht="14.25" spans="1:1">
+    <row r="297" spans="1:1">
       <c r="A297" s="24"/>
     </row>
-    <row r="298" ht="14.25" spans="1:1">
+    <row r="298" spans="1:1">
       <c r="A298" s="24"/>
     </row>
-    <row r="299" ht="14.25" spans="1:1">
+    <row r="299" spans="1:1">
       <c r="A299" s="24"/>
     </row>
-    <row r="300" ht="14.25" spans="1:1">
+    <row r="300" spans="1:1">
       <c r="A300" s="24"/>
     </row>
-    <row r="301" ht="14.25" spans="1:1">
+    <row r="301" spans="1:1">
       <c r="A301" s="24"/>
     </row>
-    <row r="302" ht="14.25" spans="1:1">
+    <row r="302" spans="1:1">
       <c r="A302" s="24"/>
     </row>
-    <row r="303" ht="14.25" spans="1:1">
+    <row r="303" spans="1:1">
       <c r="A303" s="24"/>
     </row>
-    <row r="304" ht="14.25" spans="1:1">
+    <row r="304" spans="1:1">
       <c r="A304" s="24"/>
     </row>
-    <row r="305" ht="14.25" spans="1:1">
+    <row r="305" spans="1:1">
       <c r="A305" s="24"/>
     </row>
-    <row r="306" ht="14.25" spans="1:1">
+    <row r="306" spans="1:1">
       <c r="A306" s="24"/>
     </row>
-    <row r="307" ht="14.25" spans="1:1">
+    <row r="307" spans="1:1">
       <c r="A307" s="24"/>
     </row>
-    <row r="308" ht="14.25" spans="1:1">
+    <row r="308" spans="1:1">
       <c r="A308" s="24"/>
     </row>
-    <row r="309" ht="14.25" spans="1:1">
+    <row r="309" spans="1:1">
       <c r="A309" s="24"/>
     </row>
-    <row r="310" ht="14.25" spans="1:1">
+    <row r="310" spans="1:1">
       <c r="A310" s="24"/>
     </row>
-    <row r="311" ht="14.25" spans="1:1">
+    <row r="311" spans="1:1">
       <c r="A311" s="24"/>
     </row>
-    <row r="312" ht="14.25" spans="1:1">
+    <row r="312" spans="1:1">
       <c r="A312" s="24"/>
     </row>
-    <row r="313" ht="14.25" spans="1:1">
+    <row r="313" spans="1:1">
       <c r="A313" s="24"/>
     </row>
-    <row r="314" ht="14.25" spans="1:1">
+    <row r="314" spans="1:1">
       <c r="A314" s="24"/>
     </row>
-    <row r="315" ht="14.25" spans="1:1">
+    <row r="315" spans="1:1">
       <c r="A315" s="24"/>
     </row>
-    <row r="316" ht="14.25" spans="1:1">
+    <row r="316" spans="1:1">
       <c r="A316" s="24"/>
     </row>
-    <row r="317" ht="14.25" spans="1:1">
+    <row r="317" spans="1:1">
       <c r="A317" s="24"/>
     </row>
-    <row r="318" ht="14.25" spans="1:1">
+    <row r="318" spans="1:1">
       <c r="A318" s="24"/>
     </row>
-    <row r="319" ht="14.25" spans="1:1">
+    <row r="319" spans="1:1">
       <c r="A319" s="24"/>
     </row>
-    <row r="320" ht="14.25" spans="1:1">
+    <row r="320" spans="1:1">
       <c r="A320" s="24"/>
     </row>
-    <row r="321" ht="14.25" spans="1:1">
+    <row r="321" spans="1:1">
       <c r="A321" s="24"/>
     </row>
-    <row r="322" ht="14.25" spans="1:1">
+    <row r="322" spans="1:1">
       <c r="A322" s="24"/>
     </row>
-    <row r="323" ht="14.25" spans="1:1">
+    <row r="323" spans="1:1">
       <c r="A323" s="24"/>
     </row>
-    <row r="324" ht="14.25" spans="1:1">
+    <row r="324" spans="1:1">
       <c r="A324" s="24"/>
     </row>
-    <row r="325" ht="14.25" spans="1:1">
+    <row r="325" spans="1:1">
       <c r="A325" s="24"/>
     </row>
-    <row r="326" ht="14.25" spans="1:1">
+    <row r="326" spans="1:1">
       <c r="A326" s="24"/>
     </row>
-    <row r="327" ht="14.25" spans="1:1">
+    <row r="327" spans="1:1">
       <c r="A327" s="24"/>
     </row>
-    <row r="328" ht="14.25" spans="1:1">
+    <row r="328" spans="1:1">
       <c r="A328" s="24"/>
     </row>
-    <row r="329" ht="14.25" spans="1:1">
+    <row r="329" spans="1:1">
       <c r="A329" s="24"/>
     </row>
-    <row r="330" ht="14.25" spans="1:1">
+    <row r="330" spans="1:1">
       <c r="A330" s="24"/>
     </row>
-    <row r="331" ht="14.25" spans="1:1">
+    <row r="331" spans="1:1">
       <c r="A331" s="24"/>
     </row>
-    <row r="332" ht="14.25" spans="1:1">
+    <row r="332" spans="1:1">
       <c r="A332" s="24"/>
     </row>
-    <row r="333" ht="14.25" spans="1:1">
+    <row r="333" spans="1:1">
       <c r="A333" s="24"/>
     </row>
-    <row r="334" ht="14.25" spans="1:1">
+    <row r="334" spans="1:1">
       <c r="A334" s="24"/>
     </row>
-    <row r="335" ht="14.25" spans="1:1">
+    <row r="335" spans="1:1">
       <c r="A335" s="24"/>
     </row>
-    <row r="336" ht="14.25" spans="1:1">
+    <row r="336" spans="1:1">
       <c r="A336" s="24"/>
     </row>
-    <row r="337" ht="14.25" spans="1:1">
+    <row r="337" spans="1:1">
       <c r="A337" s="24"/>
     </row>
-    <row r="338" ht="14.25" spans="1:1">
+    <row r="338" spans="1:1">
       <c r="A338" s="24"/>
     </row>
-    <row r="339" ht="14.25" spans="1:1">
+    <row r="339" spans="1:1">
       <c r="A339" s="24"/>
     </row>
-    <row r="340" ht="14.25" spans="1:1">
+    <row r="340" spans="1:1">
       <c r="A340" s="24"/>
     </row>
-    <row r="341" ht="14.25" spans="1:1">
+    <row r="341" spans="1:1">
       <c r="A341" s="24"/>
     </row>
-    <row r="342" ht="14.25" spans="1:1">
+    <row r="342" spans="1:1">
       <c r="A342" s="24"/>
     </row>
-    <row r="343" ht="14.25" spans="1:1">
+    <row r="343" spans="1:1">
       <c r="A343" s="24"/>
     </row>
-    <row r="344" ht="14.25" spans="1:1">
+    <row r="344" spans="1:1">
       <c r="A344" s="24"/>
     </row>
-    <row r="345" ht="14.25" spans="1:1">
+    <row r="345" spans="1:1">
       <c r="A345" s="24"/>
     </row>
-    <row r="346" ht="14.25" spans="1:1">
+    <row r="346" spans="1:1">
       <c r="A346" s="24"/>
     </row>
-    <row r="347" ht="14.25" spans="1:1">
+    <row r="347" spans="1:1">
       <c r="A347" s="24"/>
     </row>
-    <row r="348" ht="14.25" spans="1:1">
+    <row r="348" spans="1:1">
       <c r="A348" s="24"/>
     </row>
-    <row r="349" ht="14.25" spans="1:1">
+    <row r="349" spans="1:1">
       <c r="A349" s="24"/>
     </row>
-    <row r="350" ht="14.25" spans="1:1">
+    <row r="350" spans="1:1">
       <c r="A350" s="24"/>
     </row>
-    <row r="351" ht="14.25" spans="1:1">
+    <row r="351" spans="1:1">
       <c r="A351" s="24"/>
     </row>
-    <row r="352" ht="14.25" spans="1:1">
+    <row r="352" spans="1:1">
       <c r="A352" s="24"/>
     </row>
-    <row r="353" ht="14.25" spans="1:1">
+    <row r="353" spans="1:1">
       <c r="A353" s="24"/>
     </row>
-    <row r="354" ht="14.25" spans="1:1">
+    <row r="354" spans="1:1">
       <c r="A354" s="24"/>
     </row>
-    <row r="355" ht="14.25" spans="1:1">
+    <row r="355" spans="1:1">
       <c r="A355" s="24"/>
     </row>
-    <row r="356" ht="14.25" spans="1:1">
+    <row r="356" spans="1:1">
       <c r="A356" s="24"/>
     </row>
-    <row r="357" ht="14.25" spans="1:1">
+    <row r="357" spans="1:1">
       <c r="A357" s="24"/>
     </row>
-    <row r="358" ht="14.25" spans="1:1">
+    <row r="358" spans="1:1">
       <c r="A358" s="24"/>
     </row>
-    <row r="359" ht="14.25" spans="1:1">
+    <row r="359" spans="1:1">
       <c r="A359" s="24"/>
     </row>
-    <row r="360" ht="14.25" spans="1:1">
+    <row r="360" spans="1:1">
       <c r="A360" s="24"/>
     </row>
-    <row r="361" ht="14.25" spans="1:1">
+    <row r="361" spans="1:1">
       <c r="A361" s="24"/>
     </row>
-    <row r="362" ht="14.25" spans="1:1">
+    <row r="362" spans="1:1">
       <c r="A362" s="24"/>
     </row>
-    <row r="363" ht="14.25" spans="1:1">
+    <row r="363" spans="1:1">
       <c r="A363" s="24"/>
     </row>
-    <row r="364" ht="14.25" spans="1:1">
+    <row r="364" spans="1:1">
       <c r="A364" s="24"/>
     </row>
-    <row r="365" ht="14.25" spans="1:1">
+    <row r="365" spans="1:1">
       <c r="A365" s="24"/>
     </row>
-    <row r="366" ht="14.25" spans="1:1">
+    <row r="366" spans="1:1">
       <c r="A366" s="24"/>
     </row>
-    <row r="367" ht="14.25" spans="1:1">
+    <row r="367" spans="1:1">
       <c r="A367" s="24"/>
     </row>
-    <row r="368" ht="14.25" spans="1:1">
+    <row r="368" spans="1:1">
       <c r="A368" s="24"/>
     </row>
-    <row r="369" ht="14.25" spans="1:1">
+    <row r="369" spans="1:1">
       <c r="A369" s="24"/>
     </row>
-    <row r="370" ht="14.25" spans="1:1">
+    <row r="370" spans="1:1">
       <c r="A370" s="24"/>
     </row>
-    <row r="371" ht="14.25" spans="1:1">
+    <row r="371" spans="1:1">
       <c r="A371" s="24"/>
     </row>
-    <row r="372" ht="14.25" spans="1:1">
+    <row r="372" spans="1:1">
       <c r="A372" s="24"/>
     </row>
-    <row r="373" ht="14.25" spans="1:1">
+    <row r="373" spans="1:1">
       <c r="A373" s="24"/>
     </row>
-    <row r="374" ht="14.25" spans="1:1">
+    <row r="374" spans="1:1">
       <c r="A374" s="24"/>
     </row>
-    <row r="375" ht="14.25" spans="1:1">
+    <row r="375" spans="1:1">
       <c r="A375" s="24"/>
     </row>
-    <row r="376" ht="14.25" spans="1:1">
+    <row r="376" spans="1:1">
       <c r="A376" s="24"/>
     </row>
-    <row r="377" ht="14.25" spans="1:1">
+    <row r="377" spans="1:1">
       <c r="A377" s="24"/>
     </row>
-    <row r="378" ht="14.25" spans="1:1">
+    <row r="378" spans="1:1">
       <c r="A378" s="24"/>
     </row>
-    <row r="379" ht="14.25" spans="1:1">
+    <row r="379" spans="1:1">
       <c r="A379" s="24"/>
     </row>
-    <row r="380" ht="14.25" spans="1:1">
+    <row r="380" spans="1:1">
       <c r="A380" s="24"/>
     </row>
-    <row r="381" ht="14.25" spans="1:1">
+    <row r="381" spans="1:1">
       <c r="A381" s="24"/>
     </row>
-    <row r="382" ht="14.25" spans="1:1">
+    <row r="382" spans="1:1">
       <c r="A382" s="24"/>
     </row>
-    <row r="383" ht="14.25" spans="1:1">
+    <row r="383" spans="1:1">
       <c r="A383" s="24"/>
     </row>
-    <row r="384" ht="14.25" spans="1:1">
+    <row r="384" spans="1:1">
       <c r="A384" s="24"/>
     </row>
-    <row r="385" ht="14.25" spans="1:1">
+    <row r="385" spans="1:1">
       <c r="A385" s="24"/>
     </row>
-    <row r="386" ht="14.25" spans="1:1">
+    <row r="386" spans="1:1">
       <c r="A386" s="24"/>
     </row>
-    <row r="387" ht="14.25" spans="1:1">
+    <row r="387" spans="1:1">
       <c r="A387" s="24"/>
     </row>
-    <row r="388" ht="14.25" spans="1:1">
+    <row r="388" spans="1:1">
       <c r="A388" s="24"/>
     </row>
-    <row r="389" ht="14.25" spans="1:1">
+    <row r="389" spans="1:1">
       <c r="A389" s="24"/>
     </row>
-    <row r="390" ht="14.25" spans="1:1">
+    <row r="390" spans="1:1">
       <c r="A390" s="24"/>
     </row>
-    <row r="391" ht="14.25" spans="1:1">
+    <row r="391" spans="1:1">
       <c r="A391" s="24"/>
     </row>
-    <row r="392" ht="14.25" spans="1:1">
+    <row r="392" spans="1:1">
       <c r="A392" s="24"/>
     </row>
-    <row r="393" ht="14.25" spans="1:1">
+    <row r="393" spans="1:1">
       <c r="A393" s="24"/>
     </row>
-    <row r="394" ht="14.25" spans="1:1">
+    <row r="394" spans="1:1">
       <c r="A394" s="24"/>
     </row>
-    <row r="395" ht="14.25" spans="1:1">
+    <row r="395" spans="1:1">
       <c r="A395" s="24"/>
     </row>
-    <row r="396" ht="14.25" spans="1:1">
+    <row r="396" spans="1:1">
       <c r="A396" s="24"/>
     </row>
-    <row r="397" ht="14.25" spans="1:1">
+    <row r="397" spans="1:1">
       <c r="A397" s="24"/>
     </row>
-    <row r="398" ht="14.25" spans="1:1">
+    <row r="398" spans="1:1">
       <c r="A398" s="24"/>
     </row>
-    <row r="399" ht="14.25" spans="1:1">
+    <row r="399" spans="1:1">
       <c r="A399" s="24"/>
     </row>
-    <row r="400" ht="14.25" spans="1:1">
+    <row r="400" spans="1:1">
       <c r="A400" s="24"/>
     </row>
-    <row r="401" ht="14.25" spans="1:1">
+    <row r="401" spans="1:1">
       <c r="A401" s="24"/>
     </row>
-    <row r="402" ht="14.25" spans="1:1">
+    <row r="402" spans="1:1">
       <c r="A402" s="24"/>
     </row>
-    <row r="403" ht="14.25" spans="1:1">
+    <row r="403" spans="1:1">
       <c r="A403" s="24"/>
     </row>
-    <row r="404" ht="14.25" spans="1:1">
+    <row r="404" spans="1:1">
       <c r="A404" s="24"/>
     </row>
-    <row r="405" ht="14.25" spans="1:1">
+    <row r="405" spans="1:1">
       <c r="A405" s="24"/>
     </row>
-    <row r="406" ht="14.25" spans="1:1">
+    <row r="406" spans="1:1">
       <c r="A406" s="24"/>
     </row>
-    <row r="407" ht="14.25" spans="1:1">
+    <row r="407" spans="1:1">
       <c r="A407" s="24"/>
     </row>
-    <row r="408" ht="14.25" spans="1:1">
+    <row r="408" spans="1:1">
       <c r="A408" s="24"/>
     </row>
-    <row r="409" ht="14.25" spans="1:1">
+    <row r="409" spans="1:1">
       <c r="A409" s="24"/>
     </row>
-    <row r="410" ht="14.25" spans="1:1">
+    <row r="410" spans="1:1">
       <c r="A410" s="24"/>
     </row>
-    <row r="411" ht="14.25" spans="1:1">
+    <row r="411" spans="1:1">
       <c r="A411" s="24"/>
     </row>
-    <row r="412" ht="14.25" spans="1:1">
+    <row r="412" spans="1:1">
       <c r="A412" s="24"/>
     </row>
-    <row r="413" ht="14.25" spans="1:1">
+    <row r="413" spans="1:1">
       <c r="A413" s="24"/>
     </row>
-    <row r="414" ht="14.25" spans="1:1">
+    <row r="414" spans="1:1">
       <c r="A414" s="24"/>
     </row>
-    <row r="415" ht="14.25" spans="1:1">
+    <row r="415" spans="1:1">
       <c r="A415" s="24"/>
     </row>
-    <row r="416" ht="14.25" spans="1:1">
+    <row r="416" spans="1:1">
       <c r="A416" s="24"/>
     </row>
-    <row r="417" ht="14.25" spans="1:1">
+    <row r="417" spans="1:1">
       <c r="A417" s="24"/>
     </row>
-    <row r="418" ht="14.25" spans="1:1">
+    <row r="418" spans="1:1">
       <c r="A418" s="24"/>
     </row>
-    <row r="419" ht="14.25" spans="1:1">
+    <row r="419" spans="1:1">
       <c r="A419" s="24"/>
     </row>
-    <row r="420" ht="14.25" spans="1:1">
+    <row r="420" spans="1:1">
       <c r="A420" s="24"/>
     </row>
-    <row r="421" ht="14.25" spans="1:1">
+    <row r="421" spans="1:1">
       <c r="A421" s="24"/>
     </row>
-    <row r="422" ht="14.25" spans="1:1">
+    <row r="422" spans="1:1">
       <c r="A422" s="24"/>
     </row>
-    <row r="423" ht="14.25" spans="1:1">
+    <row r="423" spans="1:1">
       <c r="A423" s="24"/>
     </row>
-    <row r="424" ht="14.25" spans="1:1">
+    <row r="424" spans="1:1">
       <c r="A424" s="24"/>
     </row>
-    <row r="425" ht="14.25" spans="1:1">
+    <row r="425" spans="1:1">
       <c r="A425" s="24"/>
     </row>
-    <row r="426" ht="14.25" spans="1:1">
+    <row r="426" spans="1:1">
       <c r="A426" s="24"/>
     </row>
-    <row r="427" ht="14.25" spans="1:1">
+    <row r="427" spans="1:1">
       <c r="A427" s="24"/>
     </row>
-    <row r="428" ht="14.25" spans="1:1">
+    <row r="428" spans="1:1">
       <c r="A428" s="24"/>
     </row>
-    <row r="429" ht="14.25" spans="1:1">
+    <row r="429" spans="1:1">
       <c r="A429" s="24"/>
     </row>
-    <row r="430" ht="14.25" spans="1:1">
+    <row r="430" spans="1:1">
       <c r="A430" s="24"/>
     </row>
-    <row r="431" ht="14.25" spans="1:1">
+    <row r="431" spans="1:1">
       <c r="A431" s="24"/>
     </row>
-    <row r="432" ht="14.25" spans="1:1">
+    <row r="432" spans="1:1">
       <c r="A432" s="24"/>
     </row>
-    <row r="433" ht="14.25" spans="1:1">
+    <row r="433" spans="1:1">
       <c r="A433" s="24"/>
     </row>
-    <row r="434" ht="14.25" spans="1:1">
+    <row r="434" spans="1:1">
       <c r="A434" s="24"/>
     </row>
-    <row r="435" ht="14.25" spans="1:1">
+    <row r="435" spans="1:1">
       <c r="A435" s="24"/>
     </row>
-    <row r="436" ht="14.25" spans="1:1">
+    <row r="436" spans="1:1">
       <c r="A436" s="24"/>
     </row>
-    <row r="437" ht="14.25" spans="1:1">
+    <row r="437" spans="1:1">
       <c r="A437" s="24"/>
     </row>
-    <row r="438" ht="14.25" spans="1:1">
+    <row r="438" spans="1:1">
       <c r="A438" s="24"/>
     </row>
-    <row r="439" ht="14.25" spans="1:1">
+    <row r="439" spans="1:1">
       <c r="A439" s="24"/>
     </row>
-    <row r="440" ht="14.25" spans="1:1">
+    <row r="440" spans="1:1">
       <c r="A440" s="24"/>
     </row>
-    <row r="441" ht="14.25" spans="1:1">
+    <row r="441" spans="1:1">
       <c r="A441" s="24"/>
     </row>
-    <row r="442" ht="14.25" spans="1:1">
+    <row r="442" spans="1:1">
       <c r="A442" s="24"/>
     </row>
-    <row r="443" ht="14.25" spans="1:1">
+    <row r="443" spans="1:1">
       <c r="A443" s="24"/>
     </row>
-    <row r="444" ht="14.25" spans="1:1">
+    <row r="444" spans="1:1">
       <c r="A444" s="24"/>
     </row>
-    <row r="445" ht="14.25" spans="1:1">
+    <row r="445" spans="1:1">
       <c r="A445" s="24"/>
     </row>
-    <row r="446" ht="14.25" spans="1:1">
+    <row r="446" spans="1:1">
       <c r="A446" s="24"/>
     </row>
-    <row r="447" ht="14.25" spans="1:1">
+    <row r="447" spans="1:1">
       <c r="A447" s="24"/>
     </row>
-    <row r="448" ht="14.25" spans="1:1">
+    <row r="448" spans="1:1">
       <c r="A448" s="24"/>
     </row>
-    <row r="449" ht="14.25" spans="1:1">
+    <row r="449" spans="1:1">
       <c r="A449" s="24"/>
     </row>
-    <row r="450" ht="14.25" spans="1:1">
+    <row r="450" spans="1:1">
       <c r="A450" s="24"/>
     </row>
-    <row r="451" ht="14.25" spans="1:1">
+    <row r="451" spans="1:1">
       <c r="A451" s="24"/>
     </row>
-    <row r="452" ht="14.25" spans="1:1">
+    <row r="452" spans="1:1">
       <c r="A452" s="24"/>
     </row>
-    <row r="453" ht="14.25" spans="1:1">
+    <row r="453" spans="1:1">
       <c r="A453" s="24"/>
     </row>
-    <row r="454" ht="14.25" spans="1:1">
+    <row r="454" spans="1:1">
       <c r="A454" s="24"/>
     </row>
-    <row r="455" ht="14.25" spans="1:1">
+    <row r="455" spans="1:1">
       <c r="A455" s="24"/>
     </row>
-    <row r="456" ht="14.25" spans="1:1">
+    <row r="456" spans="1:1">
       <c r="A456" s="24"/>
     </row>
-    <row r="457" ht="14.25" spans="1:1">
+    <row r="457" spans="1:1">
       <c r="A457" s="24"/>
     </row>
-    <row r="458" ht="14.25" spans="1:1">
+    <row r="458" spans="1:1">
       <c r="A458" s="24"/>
     </row>
-    <row r="459" ht="14.25" spans="1:1">
+    <row r="459" spans="1:1">
       <c r="A459" s="24"/>
     </row>
-    <row r="460" ht="14.25" spans="1:1">
+    <row r="460" spans="1:1">
       <c r="A460" s="24"/>
     </row>
-    <row r="461" ht="14.25" spans="1:1">
+    <row r="461" spans="1:1">
       <c r="A461" s="24"/>
     </row>
-    <row r="462" ht="14.25" spans="1:1">
+    <row r="462" spans="1:1">
       <c r="A462" s="24"/>
     </row>
-    <row r="463" ht="14.25" spans="1:1">
+    <row r="463" spans="1:1">
       <c r="A463" s="24"/>
     </row>
-    <row r="464" ht="14.25" spans="1:1">
+    <row r="464" spans="1:1">
       <c r="A464" s="24"/>
     </row>
-    <row r="465" ht="14.25" spans="1:1">
+    <row r="465" spans="1:1">
       <c r="A465" s="24"/>
     </row>
-    <row r="466" ht="14.25" spans="1:1">
+    <row r="466" spans="1:1">
       <c r="A466" s="24"/>
     </row>
-    <row r="467" ht="14.25" spans="1:1">
+    <row r="467" spans="1:1">
       <c r="A467" s="24"/>
     </row>
-    <row r="468" ht="14.25" spans="1:1">
+    <row r="468" spans="1:1">
       <c r="A468" s="24"/>
     </row>
-    <row r="469" ht="14.25" spans="1:1">
+    <row r="469" spans="1:1">
       <c r="A469" s="24"/>
     </row>
-    <row r="470" ht="14.25" spans="1:1">
+    <row r="470" spans="1:1">
       <c r="A470" s="24"/>
     </row>
-    <row r="471" ht="14.25" spans="1:1">
+    <row r="471" spans="1:1">
       <c r="A471" s="24"/>
     </row>
-    <row r="472" ht="14.25" spans="1:1">
+    <row r="472" spans="1:1">
       <c r="A472" s="24"/>
     </row>
-    <row r="473" ht="14.25" spans="1:1">
+    <row r="473" spans="1:1">
       <c r="A473" s="24"/>
     </row>
-    <row r="474" ht="14.25" spans="1:1">
+    <row r="474" spans="1:1">
       <c r="A474" s="24"/>
     </row>
-    <row r="475" ht="14.25" spans="1:1">
+    <row r="475" spans="1:1">
       <c r="A475" s="24"/>
     </row>
-    <row r="476" ht="14.25" spans="1:1">
+    <row r="476" spans="1:1">
       <c r="A476" s="24"/>
     </row>
-    <row r="477" ht="14.25" spans="1:1">
+    <row r="477" spans="1:1">
       <c r="A477" s="24"/>
     </row>
-    <row r="478" ht="14.25" spans="1:1">
+    <row r="478" spans="1:1">
       <c r="A478" s="24"/>
     </row>
-    <row r="479" ht="14.25" spans="1:1">
+    <row r="479" spans="1:1">
       <c r="A479" s="24"/>
     </row>
-    <row r="480" ht="14.25" spans="1:1">
+    <row r="480" spans="1:1">
       <c r="A480" s="24"/>
     </row>
-    <row r="481" ht="14.25" spans="1:1">
+    <row r="481" spans="1:1">
       <c r="A481" s="24"/>
     </row>
-    <row r="482" ht="14.25" spans="1:1">
+    <row r="482" spans="1:1">
       <c r="A482" s="24"/>
     </row>
-    <row r="483" ht="14.25" spans="1:1">
+    <row r="483" spans="1:1">
       <c r="A483" s="24"/>
     </row>
-    <row r="484" ht="14.25" spans="1:1">
+    <row r="484" spans="1:1">
       <c r="A484" s="24"/>
     </row>
-    <row r="485" ht="14.25" spans="1:1">
+    <row r="485" spans="1:1">
       <c r="A485" s="24"/>
     </row>
-    <row r="486" ht="14.25" spans="1:1">
+    <row r="486" spans="1:1">
       <c r="A486" s="24"/>
     </row>
-    <row r="487" ht="14.25" spans="1:1">
+    <row r="487" spans="1:1">
       <c r="A487" s="24"/>
     </row>
-    <row r="488" ht="14.25" spans="1:1">
+    <row r="488" spans="1:1">
       <c r="A488" s="24"/>
     </row>
-    <row r="489" ht="14.25" spans="1:1">
+    <row r="489" spans="1:1">
       <c r="A489" s="24"/>
     </row>
-    <row r="490" ht="14.25" spans="1:1">
+    <row r="490" spans="1:1">
       <c r="A490" s="24"/>
     </row>
-    <row r="491" ht="14.25" spans="1:1">
+    <row r="491" spans="1:1">
       <c r="A491" s="24"/>
     </row>
-    <row r="492" ht="14.25" spans="1:1">
+    <row r="492" spans="1:1">
       <c r="A492" s="24"/>
     </row>
-    <row r="493" ht="14.25" spans="1:1">
+    <row r="493" spans="1:1">
       <c r="A493" s="24"/>
     </row>
-    <row r="494" ht="14.25" spans="1:1">
+    <row r="494" spans="1:1">
       <c r="A494" s="24"/>
     </row>
-    <row r="495" ht="14.25" spans="1:1">
+    <row r="495" spans="1:1">
       <c r="A495" s="24"/>
     </row>
-    <row r="496" ht="14.25" spans="1:1">
+    <row r="496" spans="1:1">
       <c r="A496" s="24"/>
     </row>
-    <row r="497" ht="14.25" spans="1:1">
+    <row r="497" spans="1:1">
       <c r="A497" s="24"/>
     </row>
-    <row r="498" ht="14.25" spans="1:1">
+    <row r="498" spans="1:1">
       <c r="A498" s="24"/>
     </row>
-    <row r="499" ht="14.25" spans="1:1">
+    <row r="499" spans="1:1">
       <c r="A499" s="24"/>
     </row>
-    <row r="500" ht="14.25" spans="1:1">
+    <row r="500" spans="1:1">
       <c r="A500" s="24"/>
     </row>
-    <row r="501" ht="14.25" spans="1:1">
+    <row r="501" spans="1:1">
       <c r="A501" s="24"/>
     </row>
-    <row r="502" ht="14.25" spans="1:1">
+    <row r="502" spans="1:1">
       <c r="A502" s="24"/>
     </row>
-    <row r="503" ht="14.25" spans="1:1">
+    <row r="503" spans="1:1">
       <c r="A503" s="24"/>
     </row>
-    <row r="504" ht="14.25" spans="1:1">
+    <row r="504" spans="1:1">
       <c r="A504" s="24"/>
     </row>
-    <row r="505" ht="14.25" spans="1:1">
+    <row r="505" spans="1:1">
       <c r="A505" s="24"/>
     </row>
-    <row r="506" ht="14.25" spans="1:1">
+    <row r="506" spans="1:1">
       <c r="A506" s="24"/>
     </row>
-    <row r="507" ht="14.25" spans="1:1">
+    <row r="507" spans="1:1">
       <c r="A507" s="24"/>
     </row>
-    <row r="508" ht="14.25" spans="1:1">
+    <row r="508" spans="1:1">
       <c r="A508" s="24"/>
     </row>
-    <row r="509" ht="14.25" spans="1:1">
+    <row r="509" spans="1:1">
       <c r="A509" s="24"/>
     </row>
-    <row r="510" ht="14.25" spans="1:1">
+    <row r="510" spans="1:1">
       <c r="A510" s="24"/>
     </row>
-    <row r="511" ht="14.25" spans="1:1">
+    <row r="511" spans="1:1">
       <c r="A511" s="24"/>
     </row>
-    <row r="512" ht="14.25" spans="1:1">
+    <row r="512" spans="1:1">
       <c r="A512" s="24"/>
     </row>
-    <row r="513" ht="14.25" spans="1:1">
+    <row r="513" spans="1:1">
       <c r="A513" s="24"/>
     </row>
-    <row r="514" ht="14.25" spans="1:1">
+    <row r="514" spans="1:1">
       <c r="A514" s="24"/>
     </row>
-    <row r="515" ht="14.25" spans="1:1">
+    <row r="515" spans="1:1">
       <c r="A515" s="24"/>
     </row>
-    <row r="516" ht="14.25" spans="1:1">
+    <row r="516" spans="1:1">
       <c r="A516" s="24"/>
     </row>
-    <row r="517" ht="14.25" spans="1:1">
+    <row r="517" spans="1:1">
       <c r="A517" s="24"/>
     </row>
-    <row r="518" ht="14.25" spans="1:1">
+    <row r="518" spans="1:1">
       <c r="A518" s="24"/>
     </row>
-    <row r="519" ht="14.25" spans="1:1">
+    <row r="519" spans="1:1">
       <c r="A519" s="24"/>
     </row>
-    <row r="520" ht="14.25" spans="1:1">
+    <row r="520" spans="1:1">
       <c r="A520" s="24"/>
     </row>
-    <row r="521" ht="14.25" spans="1:1">
+    <row r="521" spans="1:1">
       <c r="A521" s="24"/>
     </row>
-    <row r="522" ht="14.25" spans="1:1">
+    <row r="522" spans="1:1">
       <c r="A522" s="24"/>
     </row>
-    <row r="523" ht="14.25" spans="1:1">
+    <row r="523" spans="1:1">
       <c r="A523" s="24"/>
     </row>
-    <row r="524" ht="14.25" spans="1:1">
+    <row r="524" spans="1:1">
       <c r="A524" s="24"/>
     </row>
-    <row r="525" ht="14.25" spans="1:1">
+    <row r="525" spans="1:1">
       <c r="A525" s="24"/>
     </row>
-    <row r="526" ht="14.25" spans="1:1">
+    <row r="526" spans="1:1">
       <c r="A526" s="24"/>
     </row>
-    <row r="527" ht="14.25" spans="1:1">
+    <row r="527" spans="1:1">
       <c r="A527" s="24"/>
     </row>
-    <row r="528" ht="14.25" spans="1:1">
+    <row r="528" spans="1:1">
       <c r="A528" s="24"/>
     </row>
-    <row r="529" ht="14.25" spans="1:1">
+    <row r="529" spans="1:1">
       <c r="A529" s="24"/>
     </row>
-    <row r="530" ht="14.25" spans="1:1">
+    <row r="530" spans="1:1">
       <c r="A530" s="24"/>
     </row>
-    <row r="531" ht="14.25" spans="1:1">
+    <row r="531" spans="1:1">
       <c r="A531" s="24"/>
     </row>
-    <row r="532" ht="14.25" spans="1:1">
+    <row r="532" spans="1:1">
       <c r="A532" s="24"/>
     </row>
-    <row r="533" ht="14.25" spans="1:1">
+    <row r="533" spans="1:1">
       <c r="A533" s="24"/>
     </row>
-    <row r="534" ht="14.25" spans="1:1">
+    <row r="534" spans="1:1">
       <c r="A534" s="24"/>
     </row>
-    <row r="535" ht="14.25" spans="1:1">
+    <row r="535" spans="1:1">
       <c r="A535" s="24"/>
     </row>
-    <row r="536" ht="14.25" spans="1:1">
+    <row r="536" spans="1:1">
       <c r="A536" s="24"/>
     </row>
-    <row r="537" ht="14.25" spans="1:1">
+    <row r="537" spans="1:1">
       <c r="A537" s="24"/>
     </row>
-    <row r="538" ht="14.25" spans="1:1">
+    <row r="538" spans="1:1">
       <c r="A538" s="24"/>
     </row>
-    <row r="539" ht="14.25" spans="1:1">
+    <row r="539" spans="1:1">
       <c r="A539" s="24"/>
     </row>
-    <row r="540" ht="14.25" spans="1:1">
+    <row r="540" spans="1:1">
       <c r="A540" s="24"/>
     </row>
-    <row r="541" ht="14.25" spans="1:1">
+    <row r="541" spans="1:1">
       <c r="A541" s="24"/>
     </row>
-    <row r="542" ht="14.25" spans="1:1">
+    <row r="542" spans="1:1">
       <c r="A542" s="24"/>
     </row>
-    <row r="543" ht="14.25" spans="1:1">
+    <row r="543" spans="1:1">
       <c r="A543" s="24"/>
     </row>
-    <row r="544" ht="14.25" spans="1:1">
+    <row r="544" spans="1:1">
       <c r="A544" s="24"/>
     </row>
-    <row r="545" ht="14.25" spans="1:1">
+    <row r="545" spans="1:1">
       <c r="A545" s="24"/>
     </row>
-    <row r="546" ht="14.25" spans="1:1">
+    <row r="546" spans="1:1">
       <c r="A546" s="24"/>
     </row>
-    <row r="547" ht="14.25" spans="1:1">
+    <row r="547" spans="1:1">
       <c r="A547" s="24"/>
     </row>
-    <row r="548" ht="14.25" spans="1:1">
+    <row r="548" spans="1:1">
       <c r="A548" s="24"/>
     </row>
-    <row r="549" ht="14.25" spans="1:1">
+    <row r="549" spans="1:1">
       <c r="A549" s="24"/>
     </row>
-    <row r="550" ht="14.25" spans="1:1">
+    <row r="550" spans="1:1">
       <c r="A550" s="24"/>
     </row>
-    <row r="551" ht="14.25" spans="1:1">
+    <row r="551" spans="1:1">
       <c r="A551" s="24"/>
     </row>
-    <row r="552" ht="14.25" spans="1:1">
+    <row r="552" spans="1:1">
       <c r="A552" s="24"/>
     </row>
-    <row r="553" ht="14.25" spans="1:1">
+    <row r="553" spans="1:1">
       <c r="A553" s="24"/>
     </row>
-    <row r="554" ht="14.25" spans="1:1">
+    <row r="554" spans="1:1">
       <c r="A554" s="24"/>
     </row>
-    <row r="555" ht="14.25" spans="1:1">
+    <row r="555" spans="1:1">
       <c r="A555" s="24"/>
     </row>
-    <row r="556" ht="14.25" spans="1:1">
+    <row r="556" spans="1:1">
       <c r="A556" s="24"/>
     </row>
-    <row r="557" ht="14.25" spans="1:1">
+    <row r="557" spans="1:1">
       <c r="A557" s="24"/>
     </row>
-    <row r="558" ht="14.25" spans="1:1">
+    <row r="558" spans="1:1">
       <c r="A558" s="24"/>
     </row>
-    <row r="559" ht="14.25" spans="1:1">
+    <row r="559" spans="1:1">
       <c r="A559" s="24"/>
     </row>
-    <row r="560" ht="14.25" spans="1:1">
+    <row r="560" spans="1:1">
       <c r="A560" s="24"/>
     </row>
-    <row r="561" ht="14.25" spans="1:1">
+    <row r="561" spans="1:1">
       <c r="A561" s="24"/>
     </row>
-    <row r="562" ht="14.25" spans="1:1">
+    <row r="562" spans="1:1">
       <c r="A562" s="24"/>
     </row>
-    <row r="563" ht="14.25" spans="1:1">
+    <row r="563" spans="1:1">
       <c r="A563" s="24"/>
     </row>
-    <row r="564" ht="14.25" spans="1:1">
+    <row r="564" spans="1:1">
       <c r="A564" s="24"/>
     </row>
-    <row r="565" ht="14.25" spans="1:1">
+    <row r="565" spans="1:1">
       <c r="A565" s="24"/>
     </row>
-    <row r="566" ht="14.25" spans="1:1">
+    <row r="566" spans="1:1">
       <c r="A566" s="24"/>
     </row>
-    <row r="567" ht="14.25" spans="1:1">
+    <row r="567" spans="1:1">
       <c r="A567" s="24"/>
     </row>
-    <row r="568" ht="14.25" spans="1:1">
+    <row r="568" spans="1:1">
       <c r="A568" s="24"/>
     </row>
-    <row r="569" ht="14.25" spans="1:1">
+    <row r="569" spans="1:1">
       <c r="A569" s="24"/>
     </row>
-    <row r="570" ht="14.25" spans="1:1">
+    <row r="570" spans="1:1">
       <c r="A570" s="24"/>
     </row>
-    <row r="571" ht="14.25" spans="1:1">
+    <row r="571" spans="1:1">
       <c r="A571" s="24"/>
     </row>
-    <row r="572" ht="14.25" spans="1:1">
+    <row r="572" spans="1:1">
       <c r="A572" s="24"/>
     </row>
-    <row r="573" ht="14.25" spans="1:1">
+    <row r="573" spans="1:1">
       <c r="A573" s="24"/>
     </row>
-    <row r="574" ht="14.25" spans="1:1">
+    <row r="574" spans="1:1">
       <c r="A574" s="24"/>
     </row>
-    <row r="575" ht="14.25" spans="1:1">
+    <row r="575" spans="1:1">
       <c r="A575" s="24"/>
     </row>
-    <row r="576" ht="14.25" spans="1:1">
+    <row r="576" spans="1:1">
       <c r="A576" s="24"/>
     </row>
-    <row r="577" ht="14.25" spans="1:1">
+    <row r="577" spans="1:1">
       <c r="A577" s="24"/>
     </row>
-    <row r="578" ht="14.25" spans="1:1">
+    <row r="578" spans="1:1">
       <c r="A578" s="24"/>
     </row>
-    <row r="579" ht="14.25" spans="1:1">
+    <row r="579" spans="1:1">
       <c r="A579" s="24"/>
     </row>
-    <row r="580" ht="14.25" spans="1:1">
+    <row r="580" spans="1:1">
       <c r="A580" s="24"/>
     </row>
-    <row r="581" ht="14.25" spans="1:1">
+    <row r="581" spans="1:1">
       <c r="A581" s="24"/>
     </row>
-    <row r="582" ht="14.25" spans="1:1">
+    <row r="582" spans="1:1">
       <c r="A582" s="24"/>
     </row>
-    <row r="583" ht="14.25" spans="1:1">
+    <row r="583" spans="1:1">
       <c r="A583" s="24"/>
     </row>
-    <row r="584" ht="14.25" spans="1:1">
+    <row r="584" spans="1:1">
       <c r="A584" s="24"/>
     </row>
-    <row r="585" ht="14.25" spans="1:1">
+    <row r="585" spans="1:1">
       <c r="A585" s="24"/>
     </row>
-    <row r="586" ht="14.25" spans="1:1">
+    <row r="586" spans="1:1">
       <c r="A586" s="24"/>
     </row>
-    <row r="587" ht="14.25" spans="1:1">
+    <row r="587" spans="1:1">
       <c r="A587" s="24"/>
     </row>
-    <row r="588" ht="14.25" spans="1:1">
+    <row r="588" spans="1:1">
       <c r="A588" s="24"/>
     </row>
-    <row r="589" ht="14.25" spans="1:1">
+    <row r="589" spans="1:1">
       <c r="A589" s="24"/>
     </row>
-    <row r="590" ht="14.25" spans="1:1">
+    <row r="590" spans="1:1">
       <c r="A590" s="24"/>
     </row>
-    <row r="591" ht="14.25" spans="1:1">
+    <row r="591" spans="1:1">
       <c r="A591" s="24"/>
     </row>
-    <row r="592" ht="14.25" spans="1:1">
+    <row r="592" spans="1:1">
       <c r="A592" s="24"/>
     </row>
-    <row r="593" ht="14.25" spans="1:1">
+    <row r="593" spans="1:1">
       <c r="A593" s="24"/>
     </row>
-    <row r="594" ht="14.25" spans="1:1">
+    <row r="594" spans="1:1">
       <c r="A594" s="24"/>
     </row>
-    <row r="595" ht="14.25" spans="1:1">
+    <row r="595" spans="1:1">
       <c r="A595" s="24"/>
     </row>
-    <row r="596" ht="14.25" spans="1:1">
+    <row r="596" spans="1:1">
       <c r="A596" s="24"/>
     </row>
-    <row r="597" ht="14.25" spans="1:1">
+    <row r="597" spans="1:1">
       <c r="A597" s="24"/>
     </row>
-    <row r="598" ht="14.25" spans="1:1">
+    <row r="598" spans="1:1">
       <c r="A598" s="24"/>
     </row>
-    <row r="599" ht="14.25" spans="1:1">
+    <row r="599" spans="1:1">
       <c r="A599" s="24"/>
     </row>
-    <row r="600" ht="14.25" spans="1:1">
+    <row r="600" spans="1:1">
       <c r="A600" s="24"/>
     </row>
-    <row r="601" ht="14.25" spans="1:1">
+    <row r="601" spans="1:1">
       <c r="A601" s="24"/>
     </row>
-    <row r="602" ht="14.25" spans="1:1">
+    <row r="602" spans="1:1">
       <c r="A602" s="24"/>
     </row>
-    <row r="603" ht="14.25" spans="1:1">
+    <row r="603" spans="1:1">
       <c r="A603" s="24"/>
     </row>
-    <row r="604" ht="14.25" spans="1:1">
+    <row r="604" spans="1:1">
       <c r="A604" s="24"/>
     </row>
-    <row r="605" ht="14.25" spans="1:1">
+    <row r="605" spans="1:1">
       <c r="A605" s="24"/>
     </row>
-    <row r="606" ht="14.25" spans="1:1">
+    <row r="606" spans="1:1">
       <c r="A606" s="24"/>
     </row>
-    <row r="607" ht="14.25" spans="1:1">
+    <row r="607" spans="1:1">
       <c r="A607" s="24"/>
     </row>
-    <row r="608" ht="14.25" spans="1:1">
+    <row r="608" spans="1:1">
       <c r="A608" s="24"/>
     </row>
-    <row r="609" ht="14.25" spans="1:1">
+    <row r="609" spans="1:1">
       <c r="A609" s="24"/>
     </row>
-    <row r="610" ht="14.25" spans="1:1">
+    <row r="610" spans="1:1">
       <c r="A610" s="24"/>
     </row>
-    <row r="611" ht="14.25" spans="1:1">
+    <row r="611" spans="1:1">
       <c r="A611" s="24"/>
     </row>
-    <row r="612" ht="14.25" spans="1:1">
+    <row r="612" spans="1:1">
       <c r="A612" s="24"/>
     </row>
-    <row r="613" ht="14.25" spans="1:1">
+    <row r="613" spans="1:1">
       <c r="A613" s="24"/>
     </row>
-    <row r="614" ht="14.25" spans="1:1">
+    <row r="614" spans="1:1">
       <c r="A614" s="24"/>
     </row>
-    <row r="615" ht="14.25" spans="1:1">
+    <row r="615" spans="1:1">
       <c r="A615" s="24"/>
     </row>
-    <row r="616" ht="14.25" spans="1:1">
+    <row r="616" spans="1:1">
       <c r="A616" s="24"/>
     </row>
-    <row r="617" ht="14.25" spans="1:1">
+    <row r="617" spans="1:1">
       <c r="A617" s="24"/>
     </row>
-    <row r="618" ht="14.25" spans="1:1">
+    <row r="618" spans="1:1">
       <c r="A618" s="24"/>
     </row>
-    <row r="619" ht="14.25" spans="1:1">
+    <row r="619" spans="1:1">
       <c r="A619" s="24"/>
     </row>
-    <row r="620" ht="14.25" spans="1:1">
+    <row r="620" spans="1:1">
       <c r="A620" s="24"/>
     </row>
-    <row r="621" ht="14.25" spans="1:1">
+    <row r="621" spans="1:1">
       <c r="A621" s="24"/>
     </row>
-    <row r="622" ht="14.25" spans="1:1">
+    <row r="622" spans="1:1">
       <c r="A622" s="24"/>
     </row>
-    <row r="623" ht="14.25" spans="1:1">
+    <row r="623" spans="1:1">
       <c r="A623" s="24"/>
     </row>
-    <row r="624" ht="14.25" spans="1:1">
+    <row r="624" spans="1:1">
       <c r="A624" s="24"/>
     </row>
-    <row r="625" ht="14.25" spans="1:1">
+    <row r="625" spans="1:1">
       <c r="A625" s="24"/>
     </row>
-    <row r="626" ht="14.25" spans="1:1">
+    <row r="626" spans="1:1">
       <c r="A626" s="24"/>
     </row>
-    <row r="627" ht="14.25" spans="1:1">
+    <row r="627" spans="1:1">
       <c r="A627" s="24"/>
     </row>
-    <row r="628" ht="14.25" spans="1:1">
+    <row r="628" spans="1:1">
       <c r="A628" s="24"/>
     </row>
-    <row r="629" ht="14.25" spans="1:1">
+    <row r="629" spans="1:1">
       <c r="A629" s="24"/>
     </row>
-    <row r="630" ht="14.25" spans="1:1">
+    <row r="630" spans="1:1">
       <c r="A630" s="24"/>
     </row>
-    <row r="631" ht="14.25" spans="1:1">
+    <row r="631" spans="1:1">
       <c r="A631" s="24"/>
     </row>
-    <row r="632" ht="14.25" spans="1:1">
+    <row r="632" spans="1:1">
       <c r="A632" s="24"/>
     </row>
-    <row r="633" ht="14.25" spans="1:1">
+    <row r="633" spans="1:1">
       <c r="A633" s="24"/>
     </row>
-    <row r="634" ht="14.25" spans="1:1">
+    <row r="634" spans="1:1">
       <c r="A634" s="24"/>
     </row>
-    <row r="635" ht="14.25" spans="1:1">
+    <row r="635" spans="1:1">
       <c r="A635" s="24"/>
     </row>
-    <row r="636" ht="14.25" spans="1:1">
+    <row r="636" spans="1:1">
       <c r="A636" s="24"/>
     </row>
-    <row r="637" ht="14.25" spans="1:1">
+    <row r="637" spans="1:1">
       <c r="A637" s="24"/>
     </row>
-    <row r="638" ht="14.25" spans="1:1">
+    <row r="638" spans="1:1">
       <c r="A638" s="24"/>
     </row>
-    <row r="639" ht="14.25" spans="1:1">
+    <row r="639" spans="1:1">
       <c r="A639" s="24"/>
     </row>
-    <row r="640" ht="14.25" spans="1:1">
+    <row r="640" spans="1:1">
       <c r="A640" s="24"/>
     </row>
-    <row r="641" ht="14.25" spans="1:1">
+    <row r="641" spans="1:1">
       <c r="A641" s="24"/>
     </row>
-    <row r="642" ht="14.25" spans="1:1">
+    <row r="642" spans="1:1">
       <c r="A642" s="24"/>
     </row>
-    <row r="643" ht="14.25" spans="1:1">
+    <row r="643" spans="1:1">
       <c r="A643" s="24"/>
     </row>
-    <row r="644" ht="14.25" spans="1:1">
+    <row r="644" spans="1:1">
       <c r="A644" s="24"/>
     </row>
-    <row r="645" ht="14.25" spans="1:1">
+    <row r="645" spans="1:1">
       <c r="A645" s="24"/>
     </row>
-    <row r="646" ht="14.25" spans="1:1">
+    <row r="646" spans="1:1">
       <c r="A646" s="24"/>
     </row>
-    <row r="647" ht="14.25" spans="1:1">
+    <row r="647" spans="1:1">
       <c r="A647" s="24"/>
     </row>
-    <row r="648" ht="14.25" spans="1:1">
+    <row r="648" spans="1:1">
       <c r="A648" s="24"/>
     </row>
-    <row r="649" ht="14.25" spans="1:1">
+    <row r="649" spans="1:1">
       <c r="A649" s="24"/>
     </row>
-    <row r="650" ht="14.25" spans="1:1">
+    <row r="650" spans="1:1">
       <c r="A650" s="24"/>
     </row>
-    <row r="651" ht="14.25" spans="1:1">
+    <row r="651" spans="1:1">
       <c r="A651" s="24"/>
     </row>
-    <row r="652" ht="14.25" spans="1:1">
+    <row r="652" spans="1:1">
       <c r="A652" s="24"/>
     </row>
-    <row r="653" ht="14.25" spans="1:1">
+    <row r="653" spans="1:1">
       <c r="A653" s="24"/>
     </row>
-    <row r="654" ht="14.25" spans="1:1">
+    <row r="654" spans="1:1">
       <c r="A654" s="24"/>
     </row>
-    <row r="655" ht="14.25" spans="1:1">
+    <row r="655" spans="1:1">
       <c r="A655" s="24"/>
     </row>
-    <row r="656" ht="14.25" spans="1:1">
+    <row r="656" spans="1:1">
       <c r="A656" s="24"/>
     </row>
-    <row r="657" ht="14.25" spans="1:1">
+    <row r="657" spans="1:1">
       <c r="A657" s="24"/>
     </row>
-    <row r="658" ht="14.25" spans="1:1">
+    <row r="658" spans="1:1">
       <c r="A658" s="24"/>
     </row>
-    <row r="659" ht="14.25" spans="1:1">
+    <row r="659" spans="1:1">
       <c r="A659" s="24"/>
     </row>
-    <row r="660" ht="14.25" spans="1:1">
+    <row r="660" spans="1:1">
       <c r="A660" s="24"/>
     </row>
-    <row r="661" ht="14.25" spans="1:1">
+    <row r="661" spans="1:1">
       <c r="A661" s="24"/>
     </row>
-    <row r="662" ht="14.25" spans="1:1">
+    <row r="662" spans="1:1">
       <c r="A662" s="24"/>
     </row>
-    <row r="663" ht="14.25" spans="1:1">
+    <row r="663" spans="1:1">
       <c r="A663" s="24"/>
     </row>
-    <row r="664" ht="14.25" spans="1:1">
+    <row r="664" spans="1:1">
       <c r="A664" s="24"/>
     </row>
-    <row r="665" ht="14.25" spans="1:1">
+    <row r="665" spans="1:1">
       <c r="A665" s="24"/>
     </row>
-    <row r="666" ht="14.25" spans="1:1">
+    <row r="666" spans="1:1">
       <c r="A666" s="24"/>
     </row>
-    <row r="667" ht="14.25" spans="1:1">
+    <row r="667" spans="1:1">
       <c r="A667" s="24"/>
     </row>
-    <row r="668" ht="14.25" spans="1:1">
+    <row r="668" spans="1:1">
       <c r="A668" s="24"/>
     </row>
-    <row r="669" ht="14.25" spans="1:1">
+    <row r="669" spans="1:1">
       <c r="A669" s="24"/>
     </row>
-    <row r="670" ht="14.25" spans="1:1">
+    <row r="670" spans="1:1">
       <c r="A670" s="24"/>
     </row>
-    <row r="671" ht="14.25" spans="1:1">
+    <row r="671" spans="1:1">
       <c r="A671" s="24"/>
     </row>
-    <row r="672" ht="14.25" spans="1:1">
+    <row r="672" spans="1:1">
       <c r="A672" s="24"/>
     </row>
-    <row r="673" ht="14.25" spans="1:1">
+    <row r="673" spans="1:1">
       <c r="A673" s="24"/>
     </row>
-    <row r="674" ht="14.25" spans="1:1">
+    <row r="674" spans="1:1">
       <c r="A674" s="24"/>
     </row>
-    <row r="675" ht="14.25" spans="1:1">
+    <row r="675" spans="1:1">
       <c r="A675" s="24"/>
     </row>
-    <row r="676" ht="14.25" spans="1:1">
+    <row r="676" spans="1:1">
       <c r="A676" s="24"/>
     </row>
-    <row r="677" ht="14.25" spans="1:1">
+    <row r="677" spans="1:1">
       <c r="A677" s="24"/>
     </row>
-    <row r="678" ht="14.25" spans="1:1">
+    <row r="678" spans="1:1">
       <c r="A678" s="24"/>
     </row>
-    <row r="679" ht="14.25" spans="1:1">
+    <row r="679" spans="1:1">
       <c r="A679" s="24"/>
     </row>
-    <row r="680" ht="14.25" spans="1:1">
+    <row r="680" spans="1:1">
       <c r="A680" s="24"/>
     </row>
-    <row r="681" ht="14.25" spans="1:1">
+    <row r="681" spans="1:1">
       <c r="A681" s="24"/>
     </row>
-    <row r="682" ht="14.25" spans="1:1">
+    <row r="682" spans="1:1">
       <c r="A682" s="24"/>
     </row>
-    <row r="683" ht="14.25" spans="1:1">
+    <row r="683" spans="1:1">
       <c r="A683" s="24"/>
     </row>
-    <row r="684" ht="14.25" spans="1:1">
+    <row r="684" spans="1:1">
       <c r="A684" s="24"/>
     </row>
-    <row r="685" ht="14.25" spans="1:1">
+    <row r="685" spans="1:1">
       <c r="A685" s="24"/>
     </row>
-    <row r="686" ht="14.25" spans="1:1">
+    <row r="686" spans="1:1">
       <c r="A686" s="24"/>
     </row>
-    <row r="687" ht="14.25" spans="1:1">
+    <row r="687" spans="1:1">
       <c r="A687" s="24"/>
     </row>
-    <row r="688" ht="14.25" spans="1:1">
+    <row r="688" spans="1:1">
       <c r="A688" s="24"/>
     </row>
-    <row r="689" ht="14.25" spans="1:1">
+    <row r="689" spans="1:1">
       <c r="A689" s="24"/>
     </row>
-    <row r="690" ht="14.25" spans="1:1">
+    <row r="690" spans="1:1">
       <c r="A690" s="24"/>
     </row>
-    <row r="691" ht="14.25" spans="1:1">
+    <row r="691" spans="1:1">
       <c r="A691" s="24"/>
     </row>
-    <row r="692" ht="14.25" spans="1:1">
+    <row r="692" spans="1:1">
       <c r="A692" s="24"/>
     </row>
-    <row r="693" ht="14.25" spans="1:1">
+    <row r="693" spans="1:1">
       <c r="A693" s="24"/>
     </row>
-    <row r="694" ht="14.25" spans="1:1">
+    <row r="694" spans="1:1">
       <c r="A694" s="24"/>
     </row>
-    <row r="695" ht="14.25" spans="1:1">
+    <row r="695" spans="1:1">
       <c r="A695" s="24"/>
     </row>
-    <row r="696" ht="14.25" spans="1:1">
+    <row r="696" spans="1:1">
       <c r="A696" s="24"/>
     </row>
-    <row r="697" ht="14.25" spans="1:1">
+    <row r="697" spans="1:1">
       <c r="A697" s="24"/>
     </row>
-    <row r="698" ht="14.25" spans="1:1">
+    <row r="698" spans="1:1">
       <c r="A698" s="24"/>
     </row>
-    <row r="699" ht="14.25" spans="1:1">
+    <row r="699" spans="1:1">
       <c r="A699" s="24"/>
     </row>
-    <row r="700" ht="14.25" spans="1:1">
+    <row r="700" spans="1:1">
       <c r="A700" s="24"/>
     </row>
-    <row r="701" ht="14.25" spans="1:1">
+    <row r="701" spans="1:1">
       <c r="A701" s="24"/>
     </row>
-    <row r="702" ht="14.25" spans="1:1">
+    <row r="702" spans="1:1">
       <c r="A702" s="24"/>
     </row>
-    <row r="703" ht="14.25" spans="1:1">
+    <row r="703" spans="1:1">
       <c r="A703" s="24"/>
     </row>
-    <row r="704" ht="14.25" spans="1:1">
+    <row r="704" spans="1:1">
       <c r="A704" s="24"/>
     </row>
-    <row r="705" ht="14.25" spans="1:1">
+    <row r="705" spans="1:1">
       <c r="A705" s="24"/>
     </row>
-    <row r="706" ht="14.25" spans="1:1">
+    <row r="706" spans="1:1">
       <c r="A706" s="24"/>
     </row>
-    <row r="707" ht="14.25" spans="1:1">
+    <row r="707" spans="1:1">
       <c r="A707" s="24"/>
     </row>
-    <row r="708" ht="14.25" spans="1:1">
+    <row r="708" spans="1:1">
       <c r="A708" s="24"/>
     </row>
-    <row r="709" ht="14.25" spans="1:1">
+    <row r="709" spans="1:1">
       <c r="A709" s="24"/>
     </row>
-    <row r="710" ht="14.25" spans="1:1">
+    <row r="710" spans="1:1">
       <c r="A710" s="24"/>
     </row>
-    <row r="711" ht="14.25" spans="1:1">
+    <row r="711" spans="1:1">
       <c r="A711" s="24"/>
     </row>
-    <row r="712" ht="14.25" spans="1:1">
+    <row r="712" spans="1:1">
       <c r="A712" s="24"/>
     </row>
-    <row r="713" ht="14.25" spans="1:1">
+    <row r="713" spans="1:1">
       <c r="A713" s="24"/>
     </row>
-    <row r="714" ht="14.25" spans="1:1">
+    <row r="714" spans="1:1">
       <c r="A714" s="24"/>
     </row>
-    <row r="715" ht="14.25" spans="1:1">
+    <row r="715" spans="1:1">
       <c r="A715" s="24"/>
     </row>
-    <row r="716" ht="14.25" spans="1:1">
+    <row r="716" spans="1:1">
       <c r="A716" s="24"/>
     </row>
-    <row r="717" ht="14.25" spans="1:1">
+    <row r="717" spans="1:1">
       <c r="A717" s="24"/>
     </row>
-    <row r="718" ht="14.25" spans="1:1">
+    <row r="718" spans="1:1">
       <c r="A718" s="24"/>
     </row>
-    <row r="719" ht="14.25" spans="1:1">
+    <row r="719" spans="1:1">
       <c r="A719" s="24"/>
     </row>
-    <row r="720" ht="14.25" spans="1:1">
+    <row r="720" spans="1:1">
       <c r="A720" s="24"/>
     </row>
-    <row r="721" ht="14.25" spans="1:1">
+    <row r="721" spans="1:1">
       <c r="A721" s="24"/>
     </row>
-    <row r="722" ht="14.25" spans="1:1">
+    <row r="722" spans="1:1">
       <c r="A722" s="24"/>
     </row>
-    <row r="723" ht="14.25" spans="1:1">
+    <row r="723" spans="1:1">
       <c r="A723" s="24"/>
     </row>
-    <row r="724" ht="14.25" spans="1:1">
+    <row r="724" spans="1:1">
       <c r="A724" s="24"/>
     </row>
-    <row r="725" ht="14.25" spans="1:1">
+    <row r="725" spans="1:1">
       <c r="A725" s="24"/>
     </row>
-    <row r="726" ht="14.25" spans="1:1">
+    <row r="726" spans="1:1">
       <c r="A726" s="24"/>
     </row>
-    <row r="727" ht="14.25" spans="1:1">
+    <row r="727" spans="1:1">
       <c r="A727" s="24"/>
     </row>
-    <row r="728" ht="14.25" spans="1:1">
+    <row r="728" spans="1:1">
       <c r="A728" s="24"/>
     </row>
-    <row r="729" ht="14.25" spans="1:1">
+    <row r="729" spans="1:1">
       <c r="A729" s="24"/>
     </row>
-    <row r="730" ht="14.25" spans="1:1">
+    <row r="730" spans="1:1">
       <c r="A730" s="24"/>
     </row>
-    <row r="731" ht="14.25" spans="1:1">
+    <row r="731" spans="1:1">
       <c r="A731" s="24"/>
     </row>
-    <row r="732" ht="14.25" spans="1:1">
+    <row r="732" spans="1:1">
       <c r="A732" s="24"/>
     </row>
-    <row r="733" ht="14.25" spans="1:1">
+    <row r="733" spans="1:1">
       <c r="A733" s="24"/>
     </row>
-    <row r="734" ht="14.25" spans="1:1">
+    <row r="734" spans="1:1">
       <c r="A734" s="24"/>
     </row>
-    <row r="735" ht="14.25" spans="1:1">
+    <row r="735" spans="1:1">
       <c r="A735" s="24"/>
     </row>
-    <row r="736" ht="14.25" spans="1:1">
+    <row r="736" spans="1:1">
       <c r="A736" s="24"/>
     </row>
-    <row r="737" ht="14.25" spans="1:1">
+    <row r="737" spans="1:1">
       <c r="A737" s="24"/>
     </row>
-    <row r="738" ht="14.25" spans="1:1">
+    <row r="738" spans="1:1">
       <c r="A738" s="24"/>
     </row>
-    <row r="739" ht="14.25" spans="1:1">
+    <row r="739" spans="1:1">
       <c r="A739" s="24"/>
     </row>
-    <row r="740" ht="14.25" spans="1:1">
+    <row r="740" spans="1:1">
       <c r="A740" s="24"/>
     </row>
-    <row r="741" ht="14.25" spans="1:1">
+    <row r="741" spans="1:1">
       <c r="A741" s="24"/>
     </row>
-    <row r="742" ht="14.25" spans="1:1">
+    <row r="742" spans="1:1">
       <c r="A742" s="24"/>
     </row>
-    <row r="743" ht="14.25" spans="1:1">
+    <row r="743" spans="1:1">
       <c r="A743" s="24"/>
     </row>
-    <row r="744" ht="14.25" spans="1:1">
+    <row r="744" spans="1:1">
       <c r="A744" s="24"/>
     </row>
-    <row r="745" ht="14.25" spans="1:1">
+    <row r="745" spans="1:1">
       <c r="A745" s="24"/>
     </row>
-    <row r="746" ht="14.25" spans="1:1">
+    <row r="746" spans="1:1">
       <c r="A746" s="24"/>
     </row>
-    <row r="747" ht="14.25" spans="1:1">
+    <row r="747" spans="1:1">
       <c r="A747" s="24"/>
     </row>
-    <row r="748" ht="14.25" spans="1:1">
+    <row r="748" spans="1:1">
       <c r="A748" s="24"/>
     </row>
-    <row r="749" ht="14.25